--- a/Software Testing/Practicals/Practical 3/Practical 3.xlsx
+++ b/Software Testing/Practicals/Practical 3/Practical 3.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="165">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -120,9 +120,6 @@
   </si>
   <si>
     <t>9.8.4</t>
-  </si>
-  <si>
-    <t>Review comments from Bill incorprate in version 9.8.4</t>
   </si>
   <si>
     <t>Access to Internet</t>
@@ -1379,6 +1376,165 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="48" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="36" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="53" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1386,18 +1542,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1407,37 +1551,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1463,55 +1583,58 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1531,132 +1654,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="53" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="48" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="36" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1942,7 +1939,7 @@
   <dimension ref="A1:K256"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A232" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F246" sqref="F246:H246"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1951,65 +1948,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="119" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="79"/>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
+      <c r="J1" s="120"/>
+      <c r="K1" s="121"/>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="96"/>
+      <c r="B2" s="106"/>
       <c r="C2" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="95" t="s">
+      <c r="D2" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="96"/>
-      <c r="F2" s="97" t="s">
+      <c r="E2" s="106"/>
+      <c r="F2" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="98"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="39"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="95" t="s">
+      <c r="A3" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="96"/>
+      <c r="B3" s="106"/>
       <c r="C3" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="95" t="s">
+      <c r="D3" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="96"/>
-      <c r="F3" s="97" t="s">
+      <c r="E3" s="106"/>
+      <c r="F3" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="98"/>
-      <c r="H3" s="94" t="s">
+      <c r="G3" s="39"/>
+      <c r="H3" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="96"/>
-      <c r="J3" s="99" t="s">
+      <c r="I3" s="106"/>
+      <c r="J3" s="108" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="100"/>
+      <c r="K3" s="109"/>
     </row>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
@@ -2025,12 +2022,12 @@
       <c r="K4" s="4"/>
     </row>
     <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="92" t="s">
+      <c r="A5" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="93"/>
+      <c r="B5" s="104"/>
       <c r="C5" s="26" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="D5" s="27"/>
       <c r="E5" s="27"/>
@@ -2055,29 +2052,29 @@
       <c r="K6" s="4"/>
     </row>
     <row r="7" spans="1:11" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="121" t="s">
+      <c r="A7" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="122"/>
+      <c r="B7" s="68"/>
       <c r="C7" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="121" t="s">
+      <c r="D7" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="122"/>
-      <c r="F7" s="123">
+      <c r="E7" s="68"/>
+      <c r="F7" s="69">
         <v>44500</v>
       </c>
-      <c r="G7" s="124"/>
-      <c r="H7" s="121" t="s">
+      <c r="G7" s="70"/>
+      <c r="H7" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="122"/>
-      <c r="J7" s="119" t="s">
+      <c r="I7" s="68"/>
+      <c r="J7" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="120"/>
+      <c r="K7" s="72"/>
     </row>
     <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7"/>
@@ -2096,63 +2093,63 @@
       <c r="A9" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="86" t="s">
+      <c r="B9" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="87"/>
-      <c r="D9" s="88"/>
+      <c r="C9" s="114"/>
+      <c r="D9" s="115"/>
       <c r="E9" s="9"/>
       <c r="F9" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="89" t="s">
+      <c r="G9" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="90"/>
-      <c r="I9" s="90"/>
-      <c r="J9" s="90"/>
-      <c r="K9" s="91"/>
+      <c r="H9" s="117"/>
+      <c r="I9" s="117"/>
+      <c r="J9" s="117"/>
+      <c r="K9" s="118"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="11">
         <v>1</v>
       </c>
-      <c r="B10" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="46"/>
+      <c r="B10" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="47"/>
       <c r="D10" s="48"/>
       <c r="E10" s="3"/>
       <c r="F10" s="11">
         <v>1</v>
       </c>
-      <c r="G10" s="45" t="s">
-        <v>77</v>
-      </c>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="46"/>
+      <c r="G10" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
       <c r="K10" s="48"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="11">
         <v>2</v>
       </c>
-      <c r="B11" s="45" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="46"/>
+      <c r="B11" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="47"/>
       <c r="D11" s="48"/>
       <c r="E11" s="3"/>
       <c r="F11" s="11">
         <v>2</v>
       </c>
-      <c r="G11" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="46"/>
+      <c r="G11" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
       <c r="K11" s="48"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -2163,12 +2160,12 @@
       <c r="F12" s="11">
         <v>3</v>
       </c>
-      <c r="G12" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="H12" s="46"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="46"/>
+      <c r="G12" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
       <c r="K12" s="48"/>
     </row>
     <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2180,33 +2177,33 @@
       <c r="F13" s="18">
         <v>4</v>
       </c>
-      <c r="G13" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="36"/>
+      <c r="G13" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="45"/>
     </row>
     <row r="14" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="80"/>
-      <c r="B14" s="81"/>
-      <c r="C14" s="81"/>
-      <c r="D14" s="81"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="81"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="81"/>
-      <c r="K14" s="82"/>
+      <c r="A14" s="122"/>
+      <c r="B14" s="123"/>
+      <c r="C14" s="123"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="123"/>
+      <c r="F14" s="123"/>
+      <c r="G14" s="123"/>
+      <c r="H14" s="123"/>
+      <c r="I14" s="123"/>
+      <c r="J14" s="123"/>
+      <c r="K14" s="124"/>
     </row>
     <row r="15" spans="1:11" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="23" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C15" s="21"/>
       <c r="D15" s="21"/>
@@ -2219,230 +2216,230 @@
       <c r="K15" s="4"/>
     </row>
     <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="83"/>
-      <c r="B16" s="84"/>
-      <c r="C16" s="84"/>
-      <c r="D16" s="84"/>
-      <c r="E16" s="84"/>
-      <c r="F16" s="84"/>
-      <c r="G16" s="84"/>
-      <c r="H16" s="84"/>
-      <c r="I16" s="84"/>
-      <c r="J16" s="84"/>
-      <c r="K16" s="85"/>
+      <c r="A16" s="110"/>
+      <c r="B16" s="111"/>
+      <c r="C16" s="111"/>
+      <c r="D16" s="111"/>
+      <c r="E16" s="111"/>
+      <c r="F16" s="111"/>
+      <c r="G16" s="111"/>
+      <c r="H16" s="111"/>
+      <c r="I16" s="111"/>
+      <c r="J16" s="111"/>
+      <c r="K16" s="112"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="49" t="s">
+      <c r="A17" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="51" t="s">
+      <c r="B17" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="52"/>
-      <c r="D17" s="54" t="s">
+      <c r="C17" s="93"/>
+      <c r="D17" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="55"/>
-      <c r="F17" s="51" t="s">
+      <c r="E17" s="96"/>
+      <c r="F17" s="92" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="52"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="51" t="s">
+      <c r="G17" s="93"/>
+      <c r="H17" s="93"/>
+      <c r="I17" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="J17" s="52"/>
-      <c r="K17" s="58"/>
+      <c r="J17" s="93"/>
+      <c r="K17" s="99"/>
     </row>
     <row r="18" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="50"/>
-      <c r="B18" s="53"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="59"/>
+      <c r="A18" s="102"/>
+      <c r="B18" s="94"/>
+      <c r="C18" s="94"/>
+      <c r="D18" s="97"/>
+      <c r="E18" s="97"/>
+      <c r="F18" s="98"/>
+      <c r="G18" s="98"/>
+      <c r="H18" s="98"/>
+      <c r="I18" s="98"/>
+      <c r="J18" s="98"/>
+      <c r="K18" s="100"/>
     </row>
     <row r="19" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="17">
         <v>1</v>
       </c>
-      <c r="B19" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="38"/>
-      <c r="D19" s="37" t="s">
+      <c r="B19" s="86" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="87"/>
+      <c r="D19" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="37"/>
-      <c r="F19" s="39" t="s">
+      <c r="E19" s="86"/>
+      <c r="F19" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="G19" s="40"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="39" t="s">
+      <c r="G19" s="57"/>
+      <c r="H19" s="89"/>
+      <c r="I19" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="J19" s="40"/>
-      <c r="K19" s="42"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="58"/>
     </row>
     <row r="20" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11">
         <v>2</v>
       </c>
-      <c r="B20" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="44"/>
-      <c r="D20" s="43" t="s">
+      <c r="B20" s="90" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="91"/>
+      <c r="D20" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="43"/>
-      <c r="F20" s="45" t="s">
+      <c r="E20" s="90"/>
+      <c r="F20" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="G20" s="46"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="45" t="s">
+      <c r="G20" s="47"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="J20" s="46"/>
+      <c r="J20" s="47"/>
       <c r="K20" s="48"/>
     </row>
     <row r="21" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="18">
         <v>3</v>
       </c>
-      <c r="B21" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="31"/>
-      <c r="D21" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="E21" s="30"/>
-      <c r="F21" s="33" t="s">
+      <c r="B21" s="83" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="84"/>
+      <c r="D21" s="83" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="83"/>
+      <c r="F21" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="G21" s="34"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="33" t="s">
+      <c r="G21" s="44"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="J21" s="34"/>
-      <c r="K21" s="36"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="45"/>
     </row>
     <row r="22" spans="1:11" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="18">
         <v>4</v>
       </c>
-      <c r="B22" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="31"/>
-      <c r="D22" s="30" t="s">
-        <v>165</v>
-      </c>
-      <c r="E22" s="30"/>
-      <c r="F22" s="33" t="s">
+      <c r="B22" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="84"/>
+      <c r="D22" s="83" t="s">
+        <v>164</v>
+      </c>
+      <c r="E22" s="83"/>
+      <c r="F22" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="G22" s="34"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="33" t="s">
+      <c r="G22" s="44"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="J22" s="34"/>
-      <c r="K22" s="36"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="45"/>
     </row>
     <row r="23" spans="1:11" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="18">
         <v>5</v>
       </c>
-      <c r="B23" s="30" t="s">
-        <v>164</v>
-      </c>
-      <c r="C23" s="31"/>
-      <c r="D23" s="30" t="s">
+      <c r="B23" s="83" t="s">
+        <v>163</v>
+      </c>
+      <c r="C23" s="84"/>
+      <c r="D23" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="30"/>
-      <c r="F23" s="33" t="s">
+      <c r="E23" s="83"/>
+      <c r="F23" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="G23" s="34"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="33" t="s">
+      <c r="G23" s="44"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="J23" s="34"/>
-      <c r="K23" s="36"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="45"/>
     </row>
     <row r="25" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="71" t="s">
+      <c r="A26" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="72"/>
-      <c r="C26" s="72"/>
-      <c r="D26" s="72"/>
-      <c r="E26" s="72"/>
-      <c r="F26" s="72"/>
-      <c r="G26" s="72"/>
-      <c r="H26" s="72"/>
-      <c r="I26" s="72"/>
-      <c r="J26" s="72"/>
-      <c r="K26" s="73"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="56"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="74" t="s">
+      <c r="A27" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="75"/>
+      <c r="B27" s="81"/>
       <c r="C27" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="D27" s="76" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="E27" s="75"/>
-      <c r="F27" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="42"/>
+      <c r="E27" s="81"/>
+      <c r="F27" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="G27" s="57"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="57"/>
+      <c r="J27" s="57"/>
+      <c r="K27" s="58"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="67" t="s">
+      <c r="A28" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="B28" s="65"/>
+      <c r="B28" s="60"/>
       <c r="C28" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D28" s="64" t="s">
+      <c r="D28" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="E28" s="65"/>
-      <c r="F28" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="G28" s="47"/>
-      <c r="H28" s="61" t="s">
+      <c r="E28" s="60"/>
+      <c r="F28" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="G28" s="53"/>
+      <c r="H28" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="I28" s="65"/>
-      <c r="J28" s="68" t="s">
+      <c r="I28" s="60"/>
+      <c r="J28" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="K28" s="69"/>
+      <c r="K28" s="64"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
@@ -2458,12 +2455,12 @@
       <c r="K29" s="4"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="70" t="s">
+      <c r="A30" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="60"/>
+      <c r="B30" s="66"/>
       <c r="C30" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
@@ -2488,29 +2485,29 @@
       <c r="K31" s="4"/>
     </row>
     <row r="32" spans="1:11" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="121" t="s">
+      <c r="A32" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="122"/>
+      <c r="B32" s="68"/>
       <c r="C32" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="D32" s="121" t="s">
+      <c r="D32" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="E32" s="122"/>
-      <c r="F32" s="123">
+      <c r="E32" s="68"/>
+      <c r="F32" s="69">
         <v>44500</v>
       </c>
-      <c r="G32" s="124"/>
-      <c r="H32" s="121" t="s">
+      <c r="G32" s="70"/>
+      <c r="H32" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="I32" s="122"/>
-      <c r="J32" s="119" t="s">
+      <c r="I32" s="68"/>
+      <c r="J32" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="K32" s="120"/>
+      <c r="K32" s="72"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="7"/>
@@ -2529,82 +2526,82 @@
       <c r="A34" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="62" t="s">
+      <c r="B34" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="63"/>
-      <c r="D34" s="63"/>
+      <c r="C34" s="78"/>
+      <c r="D34" s="78"/>
       <c r="E34" s="9"/>
       <c r="F34" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G34" s="64" t="s">
+      <c r="G34" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="H34" s="65"/>
-      <c r="I34" s="65"/>
-      <c r="J34" s="65"/>
-      <c r="K34" s="66"/>
+      <c r="H34" s="60"/>
+      <c r="I34" s="60"/>
+      <c r="J34" s="60"/>
+      <c r="K34" s="79"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="11">
         <v>1</v>
       </c>
-      <c r="B35" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="C35" s="46"/>
-      <c r="D35" s="47"/>
+      <c r="B35" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" s="47"/>
+      <c r="D35" s="53"/>
       <c r="E35" s="3"/>
       <c r="F35" s="12">
         <v>1</v>
       </c>
-      <c r="G35" s="45" t="s">
-        <v>72</v>
-      </c>
-      <c r="H35" s="46"/>
-      <c r="I35" s="46"/>
-      <c r="J35" s="46"/>
+      <c r="G35" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="H35" s="47"/>
+      <c r="I35" s="47"/>
+      <c r="J35" s="47"/>
       <c r="K35" s="48"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="11">
         <v>2</v>
       </c>
-      <c r="B36" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="C36" s="46"/>
-      <c r="D36" s="47"/>
+      <c r="B36" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" s="47"/>
+      <c r="D36" s="53"/>
       <c r="E36" s="3"/>
       <c r="F36" s="12">
         <v>2</v>
       </c>
-      <c r="G36" s="45" t="s">
-        <v>73</v>
-      </c>
-      <c r="H36" s="46"/>
-      <c r="I36" s="46"/>
-      <c r="J36" s="46"/>
+      <c r="G36" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="H36" s="47"/>
+      <c r="I36" s="47"/>
+      <c r="J36" s="47"/>
       <c r="K36" s="48"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="11">
         <v>3</v>
       </c>
-      <c r="B37" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="C37" s="46"/>
-      <c r="D37" s="47"/>
+      <c r="B37" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" s="47"/>
+      <c r="D37" s="53"/>
       <c r="E37" s="3"/>
       <c r="F37" s="12">
         <v>3</v>
       </c>
-      <c r="G37" s="45"/>
-      <c r="H37" s="46"/>
-      <c r="I37" s="46"/>
-      <c r="J37" s="46"/>
+      <c r="G37" s="46"/>
+      <c r="H37" s="47"/>
+      <c r="I37" s="47"/>
+      <c r="J37" s="47"/>
       <c r="K37" s="48"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -2638,7 +2635,7 @@
         <v>13</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -2664,171 +2661,171 @@
       <c r="K41" s="16"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" s="49" t="s">
+      <c r="A42" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="B42" s="51" t="s">
+      <c r="B42" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="C42" s="52"/>
-      <c r="D42" s="54" t="s">
+      <c r="C42" s="93"/>
+      <c r="D42" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="E42" s="55"/>
-      <c r="F42" s="51" t="s">
+      <c r="E42" s="96"/>
+      <c r="F42" s="92" t="s">
         <v>17</v>
       </c>
-      <c r="G42" s="52"/>
-      <c r="H42" s="52"/>
-      <c r="I42" s="51" t="s">
+      <c r="G42" s="93"/>
+      <c r="H42" s="93"/>
+      <c r="I42" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="J42" s="52"/>
-      <c r="K42" s="58"/>
+      <c r="J42" s="93"/>
+      <c r="K42" s="99"/>
     </row>
     <row r="43" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="50"/>
-      <c r="B43" s="53"/>
-      <c r="C43" s="53"/>
-      <c r="D43" s="56"/>
-      <c r="E43" s="56"/>
-      <c r="F43" s="57"/>
-      <c r="G43" s="57"/>
-      <c r="H43" s="57"/>
-      <c r="I43" s="57"/>
-      <c r="J43" s="57"/>
-      <c r="K43" s="59"/>
+      <c r="A43" s="102"/>
+      <c r="B43" s="94"/>
+      <c r="C43" s="94"/>
+      <c r="D43" s="97"/>
+      <c r="E43" s="97"/>
+      <c r="F43" s="98"/>
+      <c r="G43" s="98"/>
+      <c r="H43" s="98"/>
+      <c r="I43" s="98"/>
+      <c r="J43" s="98"/>
+      <c r="K43" s="100"/>
     </row>
     <row r="44" spans="1:11" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="17">
         <v>1</v>
       </c>
-      <c r="B44" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="C44" s="38"/>
-      <c r="D44" s="37" t="s">
+      <c r="B44" s="86" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" s="87"/>
+      <c r="D44" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="E44" s="37"/>
-      <c r="F44" s="39" t="s">
+      <c r="E44" s="86"/>
+      <c r="F44" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="G44" s="40"/>
-      <c r="H44" s="41"/>
-      <c r="I44" s="39" t="s">
+      <c r="G44" s="57"/>
+      <c r="H44" s="89"/>
+      <c r="I44" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="J44" s="40"/>
-      <c r="K44" s="42"/>
+      <c r="J44" s="57"/>
+      <c r="K44" s="58"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="11">
         <v>2</v>
       </c>
-      <c r="B45" s="43" t="s">
+      <c r="B45" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="C45" s="44"/>
-      <c r="D45" s="43" t="s">
+      <c r="C45" s="91"/>
+      <c r="D45" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="E45" s="43"/>
-      <c r="F45" s="45" t="s">
+      <c r="E45" s="90"/>
+      <c r="F45" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="G45" s="46"/>
-      <c r="H45" s="47"/>
-      <c r="I45" s="45" t="s">
+      <c r="G45" s="47"/>
+      <c r="H45" s="53"/>
+      <c r="I45" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="J45" s="46"/>
+      <c r="J45" s="47"/>
       <c r="K45" s="48"/>
     </row>
     <row r="46" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="18">
         <v>3</v>
       </c>
-      <c r="B46" s="30" t="s">
+      <c r="B46" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="C46" s="31"/>
-      <c r="D46" s="30" t="s">
+      <c r="C46" s="84"/>
+      <c r="D46" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="E46" s="30"/>
-      <c r="F46" s="33" t="s">
+      <c r="E46" s="83"/>
+      <c r="F46" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="G46" s="34"/>
-      <c r="H46" s="35"/>
-      <c r="I46" s="33" t="s">
+      <c r="G46" s="44"/>
+      <c r="H46" s="41"/>
+      <c r="I46" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="J46" s="34"/>
-      <c r="K46" s="36"/>
+      <c r="J46" s="44"/>
+      <c r="K46" s="45"/>
     </row>
     <row r="48" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="49" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="71" t="s">
+      <c r="A49" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49" s="55"/>
+      <c r="C49" s="55"/>
+      <c r="D49" s="55"/>
+      <c r="E49" s="55"/>
+      <c r="F49" s="55"/>
+      <c r="G49" s="55"/>
+      <c r="H49" s="55"/>
+      <c r="I49" s="55"/>
+      <c r="J49" s="55"/>
+      <c r="K49" s="56"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" s="81"/>
+      <c r="C50" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="B49" s="72"/>
-      <c r="C49" s="72"/>
-      <c r="D49" s="72"/>
-      <c r="E49" s="72"/>
-      <c r="F49" s="72"/>
-      <c r="G49" s="72"/>
-      <c r="H49" s="72"/>
-      <c r="I49" s="72"/>
-      <c r="J49" s="72"/>
-      <c r="K49" s="73"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="B50" s="75"/>
-      <c r="C50" s="19" t="s">
+      <c r="D50" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="E50" s="81"/>
+      <c r="F50" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="D50" s="76" t="s">
-        <v>1</v>
-      </c>
-      <c r="E50" s="75"/>
-      <c r="F50" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="G50" s="40"/>
-      <c r="H50" s="40"/>
-      <c r="I50" s="40"/>
-      <c r="J50" s="40"/>
-      <c r="K50" s="42"/>
+      <c r="G50" s="57"/>
+      <c r="H50" s="57"/>
+      <c r="I50" s="57"/>
+      <c r="J50" s="57"/>
+      <c r="K50" s="58"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A51" s="67" t="s">
+      <c r="A51" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="B51" s="65"/>
+      <c r="B51" s="60"/>
       <c r="C51" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D51" s="64" t="s">
+      <c r="D51" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="E51" s="65"/>
-      <c r="F51" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="G51" s="47"/>
-      <c r="H51" s="61" t="s">
+      <c r="E51" s="60"/>
+      <c r="F51" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="G51" s="53"/>
+      <c r="H51" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="I51" s="65"/>
-      <c r="J51" s="68" t="s">
+      <c r="I51" s="60"/>
+      <c r="J51" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="K51" s="69"/>
+      <c r="K51" s="64"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="2"/>
@@ -2844,12 +2841,12 @@
       <c r="K52" s="4"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53" s="70" t="s">
+      <c r="A53" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="B53" s="60"/>
+      <c r="B53" s="66"/>
       <c r="C53" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
@@ -2874,29 +2871,29 @@
       <c r="K54" s="4"/>
     </row>
     <row r="55" spans="1:11" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="121" t="s">
+      <c r="A55" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="B55" s="122"/>
+      <c r="B55" s="68"/>
       <c r="C55" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="D55" s="121" t="s">
+      <c r="D55" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="E55" s="122"/>
-      <c r="F55" s="123">
+      <c r="E55" s="68"/>
+      <c r="F55" s="69">
         <v>44500</v>
       </c>
-      <c r="G55" s="124"/>
-      <c r="H55" s="121" t="s">
+      <c r="G55" s="70"/>
+      <c r="H55" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="I55" s="122"/>
-      <c r="J55" s="119" t="s">
+      <c r="I55" s="68"/>
+      <c r="J55" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="K55" s="120"/>
+      <c r="K55" s="72"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="7"/>
@@ -2915,95 +2912,95 @@
       <c r="A57" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B57" s="62" t="s">
+      <c r="B57" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="C57" s="63"/>
-      <c r="D57" s="63"/>
+      <c r="C57" s="78"/>
+      <c r="D57" s="78"/>
       <c r="E57" s="9"/>
       <c r="F57" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G57" s="64" t="s">
+      <c r="G57" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="H57" s="65"/>
-      <c r="I57" s="65"/>
-      <c r="J57" s="65"/>
-      <c r="K57" s="66"/>
+      <c r="H57" s="60"/>
+      <c r="I57" s="60"/>
+      <c r="J57" s="60"/>
+      <c r="K57" s="79"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="11">
         <v>1</v>
       </c>
-      <c r="B58" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="C58" s="46"/>
-      <c r="D58" s="47"/>
+      <c r="B58" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="C58" s="47"/>
+      <c r="D58" s="53"/>
       <c r="E58" s="3"/>
       <c r="F58" s="12">
         <v>1</v>
       </c>
-      <c r="G58" s="45" t="s">
-        <v>77</v>
-      </c>
-      <c r="H58" s="46"/>
-      <c r="I58" s="46"/>
-      <c r="J58" s="46"/>
+      <c r="G58" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="H58" s="47"/>
+      <c r="I58" s="47"/>
+      <c r="J58" s="47"/>
       <c r="K58" s="48"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="11">
         <v>2</v>
       </c>
-      <c r="B59" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="C59" s="46"/>
-      <c r="D59" s="47"/>
+      <c r="B59" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="C59" s="47"/>
+      <c r="D59" s="53"/>
       <c r="E59" s="3"/>
       <c r="F59" s="12">
         <v>2</v>
       </c>
-      <c r="G59" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="H59" s="46"/>
-      <c r="I59" s="46"/>
-      <c r="J59" s="46"/>
+      <c r="G59" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="H59" s="47"/>
+      <c r="I59" s="47"/>
+      <c r="J59" s="47"/>
       <c r="K59" s="48"/>
     </row>
     <row r="60" spans="1:11" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="11">
         <v>3</v>
       </c>
-      <c r="B60" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="C60" s="46"/>
-      <c r="D60" s="47"/>
+      <c r="B60" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="C60" s="47"/>
+      <c r="D60" s="53"/>
       <c r="E60" s="3"/>
       <c r="F60" s="12">
         <v>3</v>
       </c>
-      <c r="G60" s="45" t="s">
-        <v>53</v>
-      </c>
-      <c r="H60" s="46"/>
-      <c r="I60" s="46"/>
-      <c r="J60" s="46"/>
+      <c r="G60" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="H60" s="47"/>
+      <c r="I60" s="47"/>
+      <c r="J60" s="47"/>
       <c r="K60" s="48"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="11">
         <v>4</v>
       </c>
-      <c r="B61" s="45" t="s">
-        <v>52</v>
-      </c>
-      <c r="C61" s="46"/>
-      <c r="D61" s="47"/>
+      <c r="B61" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="C61" s="47"/>
+      <c r="D61" s="53"/>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
@@ -3030,7 +3027,7 @@
         <v>13</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
@@ -3056,194 +3053,194 @@
       <c r="K64" s="16"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A65" s="49" t="s">
+      <c r="A65" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="B65" s="51" t="s">
+      <c r="B65" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="C65" s="52"/>
-      <c r="D65" s="54" t="s">
+      <c r="C65" s="93"/>
+      <c r="D65" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="E65" s="55"/>
-      <c r="F65" s="51" t="s">
+      <c r="E65" s="96"/>
+      <c r="F65" s="92" t="s">
         <v>17</v>
       </c>
-      <c r="G65" s="52"/>
-      <c r="H65" s="52"/>
-      <c r="I65" s="51" t="s">
+      <c r="G65" s="93"/>
+      <c r="H65" s="93"/>
+      <c r="I65" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="J65" s="52"/>
-      <c r="K65" s="58"/>
+      <c r="J65" s="93"/>
+      <c r="K65" s="99"/>
     </row>
     <row r="66" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="50"/>
-      <c r="B66" s="53"/>
-      <c r="C66" s="53"/>
-      <c r="D66" s="56"/>
-      <c r="E66" s="56"/>
-      <c r="F66" s="57"/>
-      <c r="G66" s="57"/>
-      <c r="H66" s="57"/>
-      <c r="I66" s="57"/>
-      <c r="J66" s="57"/>
-      <c r="K66" s="59"/>
+      <c r="A66" s="102"/>
+      <c r="B66" s="94"/>
+      <c r="C66" s="94"/>
+      <c r="D66" s="97"/>
+      <c r="E66" s="97"/>
+      <c r="F66" s="98"/>
+      <c r="G66" s="98"/>
+      <c r="H66" s="98"/>
+      <c r="I66" s="98"/>
+      <c r="J66" s="98"/>
+      <c r="K66" s="100"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="17">
         <v>1</v>
       </c>
-      <c r="B67" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="C67" s="38"/>
-      <c r="D67" s="37" t="s">
+      <c r="B67" s="86" t="s">
+        <v>46</v>
+      </c>
+      <c r="C67" s="87"/>
+      <c r="D67" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="E67" s="37"/>
-      <c r="F67" s="39" t="s">
+      <c r="E67" s="86"/>
+      <c r="F67" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="G67" s="40"/>
-      <c r="H67" s="41"/>
-      <c r="I67" s="39" t="s">
+      <c r="G67" s="57"/>
+      <c r="H67" s="89"/>
+      <c r="I67" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="J67" s="40"/>
-      <c r="K67" s="42"/>
+      <c r="J67" s="57"/>
+      <c r="K67" s="58"/>
     </row>
     <row r="68" spans="1:11" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="11">
         <v>2</v>
       </c>
-      <c r="B68" s="43" t="s">
+      <c r="B68" s="90" t="s">
+        <v>54</v>
+      </c>
+      <c r="C68" s="91"/>
+      <c r="D68" s="90" t="s">
         <v>55</v>
       </c>
-      <c r="C68" s="44"/>
-      <c r="D68" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="E68" s="43"/>
-      <c r="F68" s="45" t="s">
+      <c r="E68" s="90"/>
+      <c r="F68" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="G68" s="46"/>
-      <c r="H68" s="47"/>
-      <c r="I68" s="45" t="s">
+      <c r="G68" s="47"/>
+      <c r="H68" s="53"/>
+      <c r="I68" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="J68" s="46"/>
+      <c r="J68" s="47"/>
       <c r="K68" s="48"/>
     </row>
     <row r="69" spans="1:11" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="18">
         <v>3</v>
       </c>
-      <c r="B69" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="C69" s="31"/>
-      <c r="D69" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="E69" s="30"/>
-      <c r="F69" s="33" t="s">
+      <c r="B69" s="83" t="s">
+        <v>56</v>
+      </c>
+      <c r="C69" s="84"/>
+      <c r="D69" s="83" t="s">
+        <v>58</v>
+      </c>
+      <c r="E69" s="83"/>
+      <c r="F69" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="G69" s="34"/>
-      <c r="H69" s="35"/>
-      <c r="I69" s="33" t="s">
+      <c r="G69" s="44"/>
+      <c r="H69" s="41"/>
+      <c r="I69" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="J69" s="34"/>
-      <c r="K69" s="36"/>
+      <c r="J69" s="44"/>
+      <c r="K69" s="45"/>
     </row>
     <row r="70" spans="1:11" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="18">
         <v>3</v>
       </c>
-      <c r="B70" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="C70" s="31"/>
-      <c r="D70" s="30" t="s">
+      <c r="B70" s="83" t="s">
+        <v>57</v>
+      </c>
+      <c r="C70" s="84"/>
+      <c r="D70" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="E70" s="30"/>
-      <c r="F70" s="33" t="s">
+      <c r="E70" s="83"/>
+      <c r="F70" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="G70" s="34"/>
-      <c r="H70" s="35"/>
-      <c r="I70" s="33" t="s">
+      <c r="G70" s="44"/>
+      <c r="H70" s="41"/>
+      <c r="I70" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="J70" s="34"/>
-      <c r="K70" s="36"/>
+      <c r="J70" s="44"/>
+      <c r="K70" s="45"/>
     </row>
     <row r="72" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="73" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="71" t="s">
-        <v>54</v>
-      </c>
-      <c r="B73" s="72"/>
-      <c r="C73" s="72"/>
-      <c r="D73" s="72"/>
-      <c r="E73" s="72"/>
-      <c r="F73" s="72"/>
-      <c r="G73" s="72"/>
-      <c r="H73" s="72"/>
-      <c r="I73" s="72"/>
-      <c r="J73" s="72"/>
-      <c r="K73" s="73"/>
+      <c r="A73" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="B73" s="55"/>
+      <c r="C73" s="55"/>
+      <c r="D73" s="55"/>
+      <c r="E73" s="55"/>
+      <c r="F73" s="55"/>
+      <c r="G73" s="55"/>
+      <c r="H73" s="55"/>
+      <c r="I73" s="55"/>
+      <c r="J73" s="55"/>
+      <c r="K73" s="56"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A74" s="74" t="s">
+      <c r="A74" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B74" s="75"/>
+      <c r="B74" s="81"/>
       <c r="C74" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D74" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="E74" s="81"/>
+      <c r="F74" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="D74" s="76" t="s">
-        <v>1</v>
-      </c>
-      <c r="E74" s="75"/>
-      <c r="F74" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="G74" s="40"/>
-      <c r="H74" s="40"/>
-      <c r="I74" s="40"/>
-      <c r="J74" s="40"/>
-      <c r="K74" s="42"/>
+      <c r="G74" s="57"/>
+      <c r="H74" s="57"/>
+      <c r="I74" s="57"/>
+      <c r="J74" s="57"/>
+      <c r="K74" s="58"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A75" s="67" t="s">
+      <c r="A75" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="B75" s="65"/>
+      <c r="B75" s="60"/>
       <c r="C75" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D75" s="64" t="s">
+      <c r="D75" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="E75" s="65"/>
-      <c r="F75" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="G75" s="47"/>
-      <c r="H75" s="61" t="s">
+      <c r="E75" s="60"/>
+      <c r="F75" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="G75" s="53"/>
+      <c r="H75" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="I75" s="65"/>
-      <c r="J75" s="68" t="s">
+      <c r="I75" s="60"/>
+      <c r="J75" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="K75" s="69"/>
+      <c r="K75" s="64"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="2"/>
@@ -3259,12 +3256,12 @@
       <c r="K76" s="4"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A77" s="70" t="s">
+      <c r="A77" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="B77" s="60"/>
+      <c r="B77" s="66"/>
       <c r="C77" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D77" s="6"/>
       <c r="E77" s="6"/>
@@ -3289,29 +3286,29 @@
       <c r="K78" s="4"/>
     </row>
     <row r="79" spans="1:11" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="121" t="s">
+      <c r="A79" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="B79" s="122"/>
+      <c r="B79" s="68"/>
       <c r="C79" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="D79" s="121" t="s">
+      <c r="D79" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="E79" s="122"/>
-      <c r="F79" s="123">
+      <c r="E79" s="68"/>
+      <c r="F79" s="69">
         <v>44500</v>
       </c>
-      <c r="G79" s="124"/>
-      <c r="H79" s="121" t="s">
+      <c r="G79" s="70"/>
+      <c r="H79" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="I79" s="122"/>
-      <c r="J79" s="119" t="s">
+      <c r="I79" s="68"/>
+      <c r="J79" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="K79" s="120"/>
+      <c r="K79" s="72"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="7"/>
@@ -3330,84 +3327,84 @@
       <c r="A81" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B81" s="62" t="s">
+      <c r="B81" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="C81" s="63"/>
-      <c r="D81" s="63"/>
+      <c r="C81" s="78"/>
+      <c r="D81" s="78"/>
       <c r="E81" s="9"/>
       <c r="F81" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G81" s="64" t="s">
+      <c r="G81" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="H81" s="65"/>
-      <c r="I81" s="65"/>
-      <c r="J81" s="65"/>
-      <c r="K81" s="66"/>
+      <c r="H81" s="60"/>
+      <c r="I81" s="60"/>
+      <c r="J81" s="60"/>
+      <c r="K81" s="79"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="11">
         <v>1</v>
       </c>
-      <c r="B82" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="C82" s="46"/>
-      <c r="D82" s="47"/>
+      <c r="B82" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="C82" s="47"/>
+      <c r="D82" s="53"/>
       <c r="E82" s="3"/>
       <c r="F82" s="12">
         <v>1</v>
       </c>
-      <c r="G82" s="45" t="s">
-        <v>77</v>
-      </c>
-      <c r="H82" s="46"/>
-      <c r="I82" s="46"/>
-      <c r="J82" s="46"/>
+      <c r="G82" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="H82" s="47"/>
+      <c r="I82" s="47"/>
+      <c r="J82" s="47"/>
       <c r="K82" s="48"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="11">
         <v>2</v>
       </c>
-      <c r="B83" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="C83" s="46"/>
-      <c r="D83" s="47"/>
+      <c r="B83" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="C83" s="47"/>
+      <c r="D83" s="53"/>
       <c r="E83" s="3"/>
       <c r="F83" s="12">
         <v>2</v>
       </c>
-      <c r="G83" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="H83" s="46"/>
-      <c r="I83" s="46"/>
-      <c r="J83" s="46"/>
+      <c r="G83" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="H83" s="47"/>
+      <c r="I83" s="47"/>
+      <c r="J83" s="47"/>
       <c r="K83" s="48"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="11">
         <v>3</v>
       </c>
-      <c r="B84" s="45" t="s">
-        <v>63</v>
-      </c>
-      <c r="C84" s="46"/>
-      <c r="D84" s="47"/>
+      <c r="B84" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="C84" s="47"/>
+      <c r="D84" s="53"/>
       <c r="E84" s="3"/>
       <c r="F84" s="12">
         <v>3</v>
       </c>
-      <c r="G84" s="45" t="s">
-        <v>71</v>
-      </c>
-      <c r="H84" s="46"/>
-      <c r="I84" s="46"/>
-      <c r="J84" s="46"/>
+      <c r="G84" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="H84" s="47"/>
+      <c r="I84" s="47"/>
+      <c r="J84" s="47"/>
       <c r="K84" s="48"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
@@ -3441,7 +3438,7 @@
         <v>13</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
@@ -3467,217 +3464,217 @@
       <c r="K88" s="16"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A89" s="49" t="s">
+      <c r="A89" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="B89" s="51" t="s">
+      <c r="B89" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="C89" s="52"/>
-      <c r="D89" s="54" t="s">
+      <c r="C89" s="93"/>
+      <c r="D89" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="E89" s="55"/>
-      <c r="F89" s="51" t="s">
+      <c r="E89" s="96"/>
+      <c r="F89" s="92" t="s">
         <v>17</v>
       </c>
-      <c r="G89" s="52"/>
-      <c r="H89" s="52"/>
-      <c r="I89" s="51" t="s">
+      <c r="G89" s="93"/>
+      <c r="H89" s="93"/>
+      <c r="I89" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="J89" s="52"/>
-      <c r="K89" s="58"/>
+      <c r="J89" s="93"/>
+      <c r="K89" s="99"/>
     </row>
     <row r="90" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="50"/>
-      <c r="B90" s="53"/>
-      <c r="C90" s="53"/>
-      <c r="D90" s="56"/>
-      <c r="E90" s="56"/>
-      <c r="F90" s="57"/>
-      <c r="G90" s="57"/>
-      <c r="H90" s="57"/>
-      <c r="I90" s="57"/>
-      <c r="J90" s="57"/>
-      <c r="K90" s="59"/>
+      <c r="A90" s="102"/>
+      <c r="B90" s="94"/>
+      <c r="C90" s="94"/>
+      <c r="D90" s="97"/>
+      <c r="E90" s="97"/>
+      <c r="F90" s="98"/>
+      <c r="G90" s="98"/>
+      <c r="H90" s="98"/>
+      <c r="I90" s="98"/>
+      <c r="J90" s="98"/>
+      <c r="K90" s="100"/>
     </row>
     <row r="91" spans="1:11" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="17">
         <v>1</v>
       </c>
-      <c r="B91" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="C91" s="38"/>
-      <c r="D91" s="37" t="s">
+      <c r="B91" s="86" t="s">
+        <v>64</v>
+      </c>
+      <c r="C91" s="87"/>
+      <c r="D91" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="E91" s="37"/>
-      <c r="F91" s="39" t="s">
+      <c r="E91" s="86"/>
+      <c r="F91" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="G91" s="40"/>
-      <c r="H91" s="41"/>
-      <c r="I91" s="39" t="s">
+      <c r="G91" s="57"/>
+      <c r="H91" s="89"/>
+      <c r="I91" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="J91" s="40"/>
-      <c r="K91" s="42"/>
+      <c r="J91" s="57"/>
+      <c r="K91" s="58"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="11">
         <v>2</v>
       </c>
-      <c r="B92" s="43" t="s">
+      <c r="B92" s="90" t="s">
+        <v>65</v>
+      </c>
+      <c r="C92" s="91"/>
+      <c r="D92" s="90" t="s">
         <v>66</v>
       </c>
-      <c r="C92" s="44"/>
-      <c r="D92" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="E92" s="43"/>
-      <c r="F92" s="45" t="s">
+      <c r="E92" s="90"/>
+      <c r="F92" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="G92" s="46"/>
-      <c r="H92" s="47"/>
-      <c r="I92" s="45" t="s">
+      <c r="G92" s="47"/>
+      <c r="H92" s="53"/>
+      <c r="I92" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="J92" s="46"/>
+      <c r="J92" s="47"/>
       <c r="K92" s="48"/>
     </row>
     <row r="93" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="18">
         <v>3</v>
       </c>
-      <c r="B93" s="30" t="s">
+      <c r="B93" s="83" t="s">
+        <v>67</v>
+      </c>
+      <c r="C93" s="84"/>
+      <c r="D93" s="83" t="s">
         <v>68</v>
       </c>
-      <c r="C93" s="31"/>
-      <c r="D93" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="E93" s="30"/>
-      <c r="F93" s="33" t="s">
+      <c r="E93" s="83"/>
+      <c r="F93" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="G93" s="34"/>
-      <c r="H93" s="35"/>
-      <c r="I93" s="33" t="s">
+      <c r="G93" s="44"/>
+      <c r="H93" s="41"/>
+      <c r="I93" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="J93" s="34"/>
-      <c r="K93" s="36"/>
+      <c r="J93" s="44"/>
+      <c r="K93" s="45"/>
     </row>
     <row r="94" spans="1:11" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="18">
         <v>4</v>
       </c>
-      <c r="B94" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="C94" s="31"/>
-      <c r="D94" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="E94" s="30"/>
-      <c r="F94" s="33" t="s">
+      <c r="B94" s="83" t="s">
+        <v>77</v>
+      </c>
+      <c r="C94" s="84"/>
+      <c r="D94" s="83" t="s">
+        <v>69</v>
+      </c>
+      <c r="E94" s="83"/>
+      <c r="F94" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="G94" s="34"/>
-      <c r="H94" s="35"/>
-      <c r="I94" s="33" t="s">
+      <c r="G94" s="44"/>
+      <c r="H94" s="41"/>
+      <c r="I94" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="J94" s="34"/>
-      <c r="K94" s="36"/>
+      <c r="J94" s="44"/>
+      <c r="K94" s="45"/>
     </row>
     <row r="95" spans="1:11" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="18">
         <v>5</v>
       </c>
-      <c r="B95" s="30" t="s">
+      <c r="B95" s="83" t="s">
+        <v>78</v>
+      </c>
+      <c r="C95" s="84"/>
+      <c r="D95" s="83" t="s">
         <v>79</v>
       </c>
-      <c r="C95" s="31"/>
-      <c r="D95" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="E95" s="30"/>
-      <c r="F95" s="33" t="s">
+      <c r="E95" s="83"/>
+      <c r="F95" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="G95" s="34"/>
-      <c r="H95" s="35"/>
-      <c r="I95" s="33" t="s">
+      <c r="G95" s="44"/>
+      <c r="H95" s="41"/>
+      <c r="I95" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="J95" s="34"/>
-      <c r="K95" s="36"/>
+      <c r="J95" s="44"/>
+      <c r="K95" s="45"/>
     </row>
     <row r="98" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="99" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="71" t="s">
+      <c r="A99" s="54" t="s">
+        <v>81</v>
+      </c>
+      <c r="B99" s="55"/>
+      <c r="C99" s="55"/>
+      <c r="D99" s="55"/>
+      <c r="E99" s="55"/>
+      <c r="F99" s="55"/>
+      <c r="G99" s="55"/>
+      <c r="H99" s="55"/>
+      <c r="I99" s="55"/>
+      <c r="J99" s="55"/>
+      <c r="K99" s="56"/>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A100" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B100" s="81"/>
+      <c r="C100" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D100" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="E100" s="81"/>
+      <c r="F100" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="B99" s="72"/>
-      <c r="C99" s="72"/>
-      <c r="D99" s="72"/>
-      <c r="E99" s="72"/>
-      <c r="F99" s="72"/>
-      <c r="G99" s="72"/>
-      <c r="H99" s="72"/>
-      <c r="I99" s="72"/>
-      <c r="J99" s="72"/>
-      <c r="K99" s="73"/>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A100" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="B100" s="75"/>
-      <c r="C100" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="D100" s="76" t="s">
-        <v>1</v>
-      </c>
-      <c r="E100" s="75"/>
-      <c r="F100" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="G100" s="40"/>
-      <c r="H100" s="40"/>
-      <c r="I100" s="40"/>
-      <c r="J100" s="40"/>
-      <c r="K100" s="42"/>
+      <c r="G100" s="57"/>
+      <c r="H100" s="57"/>
+      <c r="I100" s="57"/>
+      <c r="J100" s="57"/>
+      <c r="K100" s="58"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A101" s="67" t="s">
+      <c r="A101" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="B101" s="65"/>
+      <c r="B101" s="60"/>
       <c r="C101" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D101" s="64" t="s">
+      <c r="D101" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="E101" s="65"/>
-      <c r="F101" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="G101" s="47"/>
-      <c r="H101" s="61" t="s">
+      <c r="E101" s="60"/>
+      <c r="F101" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="G101" s="53"/>
+      <c r="H101" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="I101" s="65"/>
-      <c r="J101" s="68" t="s">
+      <c r="I101" s="60"/>
+      <c r="J101" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="K101" s="69"/>
+      <c r="K101" s="64"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="2"/>
@@ -3693,12 +3690,12 @@
       <c r="K102" s="4"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A103" s="70" t="s">
+      <c r="A103" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="B103" s="60"/>
+      <c r="B103" s="66"/>
       <c r="C103" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D103" s="6"/>
       <c r="E103" s="6"/>
@@ -3723,29 +3720,29 @@
       <c r="K104" s="4"/>
     </row>
     <row r="105" spans="1:11" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="121" t="s">
+      <c r="A105" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="B105" s="122"/>
+      <c r="B105" s="68"/>
       <c r="C105" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="D105" s="121" t="s">
+      <c r="D105" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="E105" s="122"/>
-      <c r="F105" s="123">
+      <c r="E105" s="68"/>
+      <c r="F105" s="69">
         <v>44500</v>
       </c>
-      <c r="G105" s="124"/>
-      <c r="H105" s="121" t="s">
+      <c r="G105" s="70"/>
+      <c r="H105" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="I105" s="122"/>
-      <c r="J105" s="119" t="s">
+      <c r="I105" s="68"/>
+      <c r="J105" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="K105" s="120"/>
+      <c r="K105" s="72"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="7"/>
@@ -3764,84 +3761,84 @@
       <c r="A107" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B107" s="62" t="s">
+      <c r="B107" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="C107" s="63"/>
-      <c r="D107" s="63"/>
+      <c r="C107" s="78"/>
+      <c r="D107" s="78"/>
       <c r="E107" s="9"/>
       <c r="F107" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G107" s="64" t="s">
+      <c r="G107" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="H107" s="65"/>
-      <c r="I107" s="65"/>
-      <c r="J107" s="65"/>
-      <c r="K107" s="66"/>
+      <c r="H107" s="60"/>
+      <c r="I107" s="60"/>
+      <c r="J107" s="60"/>
+      <c r="K107" s="79"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="11">
         <v>1</v>
       </c>
-      <c r="B108" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="C108" s="46"/>
-      <c r="D108" s="47"/>
+      <c r="B108" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="C108" s="47"/>
+      <c r="D108" s="53"/>
       <c r="E108" s="3"/>
       <c r="F108" s="12">
         <v>1</v>
       </c>
-      <c r="G108" s="45" t="s">
-        <v>77</v>
-      </c>
-      <c r="H108" s="46"/>
-      <c r="I108" s="46"/>
-      <c r="J108" s="46"/>
+      <c r="G108" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="H108" s="47"/>
+      <c r="I108" s="47"/>
+      <c r="J108" s="47"/>
       <c r="K108" s="48"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="11">
         <v>2</v>
       </c>
-      <c r="B109" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="C109" s="46"/>
-      <c r="D109" s="47"/>
+      <c r="B109" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="C109" s="47"/>
+      <c r="D109" s="53"/>
       <c r="E109" s="3"/>
       <c r="F109" s="12">
         <v>2</v>
       </c>
-      <c r="G109" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="H109" s="46"/>
-      <c r="I109" s="46"/>
-      <c r="J109" s="46"/>
+      <c r="G109" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="H109" s="47"/>
+      <c r="I109" s="47"/>
+      <c r="J109" s="47"/>
       <c r="K109" s="48"/>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="11">
         <v>3</v>
       </c>
-      <c r="B110" s="45" t="s">
-        <v>63</v>
-      </c>
-      <c r="C110" s="46"/>
-      <c r="D110" s="47"/>
+      <c r="B110" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="C110" s="47"/>
+      <c r="D110" s="53"/>
       <c r="E110" s="3"/>
       <c r="F110" s="12">
         <v>3</v>
       </c>
-      <c r="G110" s="45" t="s">
-        <v>163</v>
-      </c>
-      <c r="H110" s="46"/>
-      <c r="I110" s="46"/>
-      <c r="J110" s="46"/>
+      <c r="G110" s="46" t="s">
+        <v>162</v>
+      </c>
+      <c r="H110" s="47"/>
+      <c r="I110" s="47"/>
+      <c r="J110" s="47"/>
       <c r="K110" s="48"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
@@ -3875,7 +3872,7 @@
         <v>13</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
@@ -3901,240 +3898,240 @@
       <c r="K114" s="16"/>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A115" s="49" t="s">
+      <c r="A115" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="B115" s="51" t="s">
+      <c r="B115" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="C115" s="52"/>
-      <c r="D115" s="54" t="s">
+      <c r="C115" s="93"/>
+      <c r="D115" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="E115" s="55"/>
-      <c r="F115" s="51" t="s">
+      <c r="E115" s="96"/>
+      <c r="F115" s="92" t="s">
         <v>17</v>
       </c>
-      <c r="G115" s="52"/>
-      <c r="H115" s="52"/>
-      <c r="I115" s="51" t="s">
+      <c r="G115" s="93"/>
+      <c r="H115" s="93"/>
+      <c r="I115" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="J115" s="52"/>
-      <c r="K115" s="58"/>
+      <c r="J115" s="93"/>
+      <c r="K115" s="99"/>
     </row>
     <row r="116" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="50"/>
-      <c r="B116" s="53"/>
-      <c r="C116" s="53"/>
-      <c r="D116" s="56"/>
-      <c r="E116" s="56"/>
-      <c r="F116" s="57"/>
-      <c r="G116" s="57"/>
-      <c r="H116" s="57"/>
-      <c r="I116" s="57"/>
-      <c r="J116" s="57"/>
-      <c r="K116" s="59"/>
+      <c r="A116" s="102"/>
+      <c r="B116" s="94"/>
+      <c r="C116" s="94"/>
+      <c r="D116" s="97"/>
+      <c r="E116" s="97"/>
+      <c r="F116" s="98"/>
+      <c r="G116" s="98"/>
+      <c r="H116" s="98"/>
+      <c r="I116" s="98"/>
+      <c r="J116" s="98"/>
+      <c r="K116" s="100"/>
     </row>
     <row r="117" spans="1:11" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="17">
         <v>1</v>
       </c>
-      <c r="B117" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="C117" s="38"/>
-      <c r="D117" s="37" t="s">
+      <c r="B117" s="86" t="s">
+        <v>64</v>
+      </c>
+      <c r="C117" s="87"/>
+      <c r="D117" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="E117" s="37"/>
-      <c r="F117" s="39" t="s">
+      <c r="E117" s="86"/>
+      <c r="F117" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="G117" s="40"/>
-      <c r="H117" s="41"/>
-      <c r="I117" s="39" t="s">
+      <c r="G117" s="57"/>
+      <c r="H117" s="89"/>
+      <c r="I117" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="J117" s="40"/>
-      <c r="K117" s="42"/>
+      <c r="J117" s="57"/>
+      <c r="K117" s="58"/>
     </row>
     <row r="118" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="11">
         <v>2</v>
       </c>
-      <c r="B118" s="43" t="s">
+      <c r="B118" s="90" t="s">
+        <v>65</v>
+      </c>
+      <c r="C118" s="91"/>
+      <c r="D118" s="90" t="s">
         <v>66</v>
       </c>
-      <c r="C118" s="44"/>
-      <c r="D118" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="E118" s="43"/>
-      <c r="F118" s="45" t="s">
+      <c r="E118" s="90"/>
+      <c r="F118" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="G118" s="46"/>
-      <c r="H118" s="47"/>
-      <c r="I118" s="45" t="s">
+      <c r="G118" s="47"/>
+      <c r="H118" s="53"/>
+      <c r="I118" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="J118" s="46"/>
+      <c r="J118" s="47"/>
       <c r="K118" s="48"/>
     </row>
     <row r="119" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="18">
         <v>3</v>
       </c>
-      <c r="B119" s="30" t="s">
+      <c r="B119" s="83" t="s">
+        <v>84</v>
+      </c>
+      <c r="C119" s="84"/>
+      <c r="D119" s="85" t="s">
         <v>85</v>
       </c>
-      <c r="C119" s="31"/>
-      <c r="D119" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="E119" s="30"/>
-      <c r="F119" s="33" t="s">
+      <c r="E119" s="83"/>
+      <c r="F119" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="G119" s="34"/>
-      <c r="H119" s="35"/>
-      <c r="I119" s="33" t="s">
+      <c r="G119" s="44"/>
+      <c r="H119" s="41"/>
+      <c r="I119" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="J119" s="34"/>
-      <c r="K119" s="36"/>
+      <c r="J119" s="44"/>
+      <c r="K119" s="45"/>
     </row>
     <row r="120" spans="1:11" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="18">
         <v>4</v>
       </c>
-      <c r="B120" s="30" t="s">
+      <c r="B120" s="83" t="s">
+        <v>86</v>
+      </c>
+      <c r="C120" s="84"/>
+      <c r="D120" s="83" t="s">
         <v>87</v>
       </c>
-      <c r="C120" s="31"/>
-      <c r="D120" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="E120" s="30"/>
-      <c r="F120" s="33" t="s">
+      <c r="E120" s="83"/>
+      <c r="F120" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="G120" s="34"/>
-      <c r="H120" s="35"/>
-      <c r="I120" s="33" t="s">
+      <c r="G120" s="44"/>
+      <c r="H120" s="41"/>
+      <c r="I120" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="J120" s="34"/>
-      <c r="K120" s="36"/>
+      <c r="J120" s="44"/>
+      <c r="K120" s="45"/>
     </row>
     <row r="121" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="18">
         <v>5</v>
       </c>
-      <c r="B121" s="30" t="s">
+      <c r="B121" s="83" t="s">
+        <v>88</v>
+      </c>
+      <c r="C121" s="84"/>
+      <c r="D121" s="83" t="s">
         <v>89</v>
       </c>
-      <c r="C121" s="31"/>
-      <c r="D121" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="E121" s="30"/>
-      <c r="F121" s="33" t="s">
+      <c r="E121" s="83"/>
+      <c r="F121" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="G121" s="34"/>
-      <c r="H121" s="35"/>
-      <c r="I121" s="33" t="s">
+      <c r="G121" s="44"/>
+      <c r="H121" s="41"/>
+      <c r="I121" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="J121" s="34"/>
-      <c r="K121" s="36"/>
+      <c r="J121" s="44"/>
+      <c r="K121" s="45"/>
     </row>
     <row r="122" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="18">
         <v>6</v>
       </c>
-      <c r="B122" s="30" t="s">
+      <c r="B122" s="83" t="s">
+        <v>90</v>
+      </c>
+      <c r="C122" s="84"/>
+      <c r="D122" s="83" t="s">
         <v>91</v>
       </c>
-      <c r="C122" s="31"/>
-      <c r="D122" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="E122" s="30"/>
-      <c r="F122" s="33" t="s">
+      <c r="E122" s="83"/>
+      <c r="F122" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="G122" s="34"/>
-      <c r="H122" s="35"/>
-      <c r="I122" s="33" t="s">
+      <c r="G122" s="44"/>
+      <c r="H122" s="41"/>
+      <c r="I122" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="J122" s="34"/>
-      <c r="K122" s="36"/>
+      <c r="J122" s="44"/>
+      <c r="K122" s="45"/>
     </row>
     <row r="124" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="125" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A125" s="71" t="s">
+      <c r="A125" s="54" t="s">
+        <v>92</v>
+      </c>
+      <c r="B125" s="55"/>
+      <c r="C125" s="55"/>
+      <c r="D125" s="55"/>
+      <c r="E125" s="55"/>
+      <c r="F125" s="55"/>
+      <c r="G125" s="55"/>
+      <c r="H125" s="55"/>
+      <c r="I125" s="55"/>
+      <c r="J125" s="55"/>
+      <c r="K125" s="56"/>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A126" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B126" s="81"/>
+      <c r="C126" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="B125" s="72"/>
-      <c r="C125" s="72"/>
-      <c r="D125" s="72"/>
-      <c r="E125" s="72"/>
-      <c r="F125" s="72"/>
-      <c r="G125" s="72"/>
-      <c r="H125" s="72"/>
-      <c r="I125" s="72"/>
-      <c r="J125" s="72"/>
-      <c r="K125" s="73"/>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A126" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="B126" s="75"/>
-      <c r="C126" s="19" t="s">
+      <c r="D126" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="E126" s="81"/>
+      <c r="F126" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="D126" s="76" t="s">
-        <v>1</v>
-      </c>
-      <c r="E126" s="75"/>
-      <c r="F126" s="40" t="s">
-        <v>95</v>
-      </c>
-      <c r="G126" s="40"/>
-      <c r="H126" s="40"/>
-      <c r="I126" s="40"/>
-      <c r="J126" s="40"/>
-      <c r="K126" s="42"/>
+      <c r="G126" s="57"/>
+      <c r="H126" s="57"/>
+      <c r="I126" s="57"/>
+      <c r="J126" s="57"/>
+      <c r="K126" s="58"/>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A127" s="67" t="s">
+      <c r="A127" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="B127" s="65"/>
+      <c r="B127" s="60"/>
       <c r="C127" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D127" s="64" t="s">
+      <c r="D127" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="E127" s="65"/>
-      <c r="F127" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="G127" s="47"/>
-      <c r="H127" s="61" t="s">
+      <c r="E127" s="60"/>
+      <c r="F127" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="G127" s="53"/>
+      <c r="H127" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="I127" s="65"/>
-      <c r="J127" s="68" t="s">
+      <c r="I127" s="60"/>
+      <c r="J127" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="K127" s="69"/>
+      <c r="K127" s="64"/>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="2"/>
@@ -4150,12 +4147,12 @@
       <c r="K128" s="4"/>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A129" s="70" t="s">
+      <c r="A129" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="B129" s="60"/>
+      <c r="B129" s="66"/>
       <c r="C129" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D129" s="6"/>
       <c r="E129" s="6"/>
@@ -4180,29 +4177,29 @@
       <c r="K130" s="4"/>
     </row>
     <row r="131" spans="1:11" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A131" s="121" t="s">
+      <c r="A131" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="B131" s="122"/>
+      <c r="B131" s="68"/>
       <c r="C131" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="D131" s="121" t="s">
+      <c r="D131" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="E131" s="122"/>
-      <c r="F131" s="123">
+      <c r="E131" s="68"/>
+      <c r="F131" s="69">
         <v>44500</v>
       </c>
-      <c r="G131" s="124"/>
-      <c r="H131" s="121" t="s">
+      <c r="G131" s="70"/>
+      <c r="H131" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="I131" s="122"/>
-      <c r="J131" s="119" t="s">
+      <c r="I131" s="68"/>
+      <c r="J131" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="K131" s="120"/>
+      <c r="K131" s="72"/>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="7"/>
@@ -4221,74 +4218,74 @@
       <c r="A133" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B133" s="62" t="s">
+      <c r="B133" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="C133" s="63"/>
-      <c r="D133" s="63"/>
+      <c r="C133" s="78"/>
+      <c r="D133" s="78"/>
       <c r="E133" s="9"/>
       <c r="F133" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G133" s="64" t="s">
+      <c r="G133" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="H133" s="65"/>
-      <c r="I133" s="65"/>
-      <c r="J133" s="65"/>
-      <c r="K133" s="66"/>
+      <c r="H133" s="60"/>
+      <c r="I133" s="60"/>
+      <c r="J133" s="60"/>
+      <c r="K133" s="79"/>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="11">
         <v>1</v>
       </c>
-      <c r="B134" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="C134" s="46"/>
-      <c r="D134" s="47"/>
+      <c r="B134" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="C134" s="47"/>
+      <c r="D134" s="53"/>
       <c r="E134" s="3"/>
       <c r="F134" s="12">
         <v>1</v>
       </c>
-      <c r="G134" s="45" t="s">
-        <v>77</v>
-      </c>
-      <c r="H134" s="46"/>
-      <c r="I134" s="46"/>
-      <c r="J134" s="46"/>
+      <c r="G134" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="H134" s="47"/>
+      <c r="I134" s="47"/>
+      <c r="J134" s="47"/>
       <c r="K134" s="48"/>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="11">
         <v>2</v>
       </c>
-      <c r="B135" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="C135" s="46"/>
-      <c r="D135" s="47"/>
+      <c r="B135" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="C135" s="47"/>
+      <c r="D135" s="53"/>
       <c r="E135" s="3"/>
       <c r="F135" s="12">
         <v>2</v>
       </c>
-      <c r="G135" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="H135" s="46"/>
-      <c r="I135" s="46"/>
-      <c r="J135" s="46"/>
+      <c r="G135" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="H135" s="47"/>
+      <c r="I135" s="47"/>
+      <c r="J135" s="47"/>
       <c r="K135" s="48"/>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="11">
         <v>3</v>
       </c>
-      <c r="B136" s="45" t="s">
-        <v>63</v>
-      </c>
-      <c r="C136" s="46"/>
-      <c r="D136" s="47"/>
+      <c r="B136" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="C136" s="47"/>
+      <c r="D136" s="53"/>
       <c r="E136" s="3"/>
       <c r="F136" s="3"/>
       <c r="G136" s="3"/>
@@ -4328,7 +4325,7 @@
         <v>13</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
@@ -4354,217 +4351,217 @@
       <c r="K140" s="16"/>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A141" s="49" t="s">
+      <c r="A141" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="B141" s="51" t="s">
+      <c r="B141" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="C141" s="52"/>
-      <c r="D141" s="54" t="s">
+      <c r="C141" s="93"/>
+      <c r="D141" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="E141" s="55"/>
-      <c r="F141" s="51" t="s">
+      <c r="E141" s="96"/>
+      <c r="F141" s="92" t="s">
         <v>17</v>
       </c>
-      <c r="G141" s="52"/>
-      <c r="H141" s="52"/>
-      <c r="I141" s="51" t="s">
+      <c r="G141" s="93"/>
+      <c r="H141" s="93"/>
+      <c r="I141" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="J141" s="52"/>
-      <c r="K141" s="58"/>
+      <c r="J141" s="93"/>
+      <c r="K141" s="99"/>
     </row>
     <row r="142" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A142" s="50"/>
-      <c r="B142" s="53"/>
-      <c r="C142" s="53"/>
-      <c r="D142" s="56"/>
-      <c r="E142" s="56"/>
-      <c r="F142" s="57"/>
-      <c r="G142" s="57"/>
-      <c r="H142" s="57"/>
-      <c r="I142" s="57"/>
-      <c r="J142" s="57"/>
-      <c r="K142" s="59"/>
+      <c r="A142" s="102"/>
+      <c r="B142" s="94"/>
+      <c r="C142" s="94"/>
+      <c r="D142" s="97"/>
+      <c r="E142" s="97"/>
+      <c r="F142" s="98"/>
+      <c r="G142" s="98"/>
+      <c r="H142" s="98"/>
+      <c r="I142" s="98"/>
+      <c r="J142" s="98"/>
+      <c r="K142" s="100"/>
     </row>
     <row r="143" spans="1:11" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="17">
         <v>1</v>
       </c>
-      <c r="B143" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="C143" s="38"/>
-      <c r="D143" s="37" t="s">
+      <c r="B143" s="86" t="s">
+        <v>64</v>
+      </c>
+      <c r="C143" s="87"/>
+      <c r="D143" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="E143" s="37"/>
-      <c r="F143" s="39" t="s">
+      <c r="E143" s="86"/>
+      <c r="F143" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="G143" s="40"/>
-      <c r="H143" s="41"/>
-      <c r="I143" s="39" t="s">
+      <c r="G143" s="57"/>
+      <c r="H143" s="89"/>
+      <c r="I143" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="J143" s="40"/>
-      <c r="K143" s="42"/>
+      <c r="J143" s="57"/>
+      <c r="K143" s="58"/>
     </row>
     <row r="144" spans="1:11" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="11">
         <v>2</v>
       </c>
-      <c r="B144" s="43" t="s">
+      <c r="B144" s="90" t="s">
+        <v>96</v>
+      </c>
+      <c r="C144" s="91"/>
+      <c r="D144" s="90" t="s">
         <v>97</v>
       </c>
-      <c r="C144" s="44"/>
-      <c r="D144" s="43" t="s">
-        <v>98</v>
-      </c>
-      <c r="E144" s="43"/>
-      <c r="F144" s="45" t="s">
+      <c r="E144" s="90"/>
+      <c r="F144" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="G144" s="46"/>
-      <c r="H144" s="47"/>
-      <c r="I144" s="45" t="s">
+      <c r="G144" s="47"/>
+      <c r="H144" s="53"/>
+      <c r="I144" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="J144" s="46"/>
+      <c r="J144" s="47"/>
       <c r="K144" s="48"/>
     </row>
     <row r="145" spans="1:11" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A145" s="18">
         <v>3</v>
       </c>
-      <c r="B145" s="30" t="s">
+      <c r="B145" s="83" t="s">
+        <v>98</v>
+      </c>
+      <c r="C145" s="84"/>
+      <c r="D145" s="85" t="s">
         <v>99</v>
       </c>
-      <c r="C145" s="31"/>
-      <c r="D145" s="32" t="s">
-        <v>100</v>
-      </c>
-      <c r="E145" s="30"/>
-      <c r="F145" s="33" t="s">
+      <c r="E145" s="83"/>
+      <c r="F145" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="G145" s="34"/>
-      <c r="H145" s="35"/>
-      <c r="I145" s="33" t="s">
+      <c r="G145" s="44"/>
+      <c r="H145" s="41"/>
+      <c r="I145" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="J145" s="34"/>
-      <c r="K145" s="36"/>
+      <c r="J145" s="44"/>
+      <c r="K145" s="45"/>
     </row>
     <row r="146" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A146" s="18">
         <v>4</v>
       </c>
-      <c r="B146" s="30" t="s">
+      <c r="B146" s="83" t="s">
+        <v>100</v>
+      </c>
+      <c r="C146" s="84"/>
+      <c r="D146" s="83" t="s">
         <v>101</v>
       </c>
-      <c r="C146" s="31"/>
-      <c r="D146" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="E146" s="30"/>
-      <c r="F146" s="33" t="s">
+      <c r="E146" s="83"/>
+      <c r="F146" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="G146" s="34"/>
-      <c r="H146" s="35"/>
-      <c r="I146" s="33" t="s">
+      <c r="G146" s="44"/>
+      <c r="H146" s="41"/>
+      <c r="I146" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="J146" s="34"/>
-      <c r="K146" s="36"/>
+      <c r="J146" s="44"/>
+      <c r="K146" s="45"/>
     </row>
     <row r="147" spans="1:11" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A147" s="18">
         <v>5</v>
       </c>
-      <c r="B147" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="C147" s="31"/>
-      <c r="D147" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="E147" s="30"/>
-      <c r="F147" s="33" t="s">
+      <c r="B147" s="83" t="s">
+        <v>100</v>
+      </c>
+      <c r="C147" s="84"/>
+      <c r="D147" s="83" t="s">
+        <v>102</v>
+      </c>
+      <c r="E147" s="83"/>
+      <c r="F147" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="G147" s="34"/>
-      <c r="H147" s="35"/>
-      <c r="I147" s="33" t="s">
+      <c r="G147" s="44"/>
+      <c r="H147" s="41"/>
+      <c r="I147" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="J147" s="34"/>
-      <c r="K147" s="36"/>
+      <c r="J147" s="44"/>
+      <c r="K147" s="45"/>
     </row>
     <row r="149" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="150" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A150" s="71" t="s">
+      <c r="A150" s="54" t="s">
+        <v>103</v>
+      </c>
+      <c r="B150" s="55"/>
+      <c r="C150" s="55"/>
+      <c r="D150" s="55"/>
+      <c r="E150" s="55"/>
+      <c r="F150" s="55"/>
+      <c r="G150" s="55"/>
+      <c r="H150" s="55"/>
+      <c r="I150" s="55"/>
+      <c r="J150" s="55"/>
+      <c r="K150" s="56"/>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A151" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B151" s="81"/>
+      <c r="C151" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="B150" s="72"/>
-      <c r="C150" s="72"/>
-      <c r="D150" s="72"/>
-      <c r="E150" s="72"/>
-      <c r="F150" s="72"/>
-      <c r="G150" s="72"/>
-      <c r="H150" s="72"/>
-      <c r="I150" s="72"/>
-      <c r="J150" s="72"/>
-      <c r="K150" s="73"/>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A151" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="B151" s="75"/>
-      <c r="C151" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="D151" s="76" t="s">
+      <c r="D151" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="E151" s="75"/>
-      <c r="F151" s="40" t="s">
-        <v>95</v>
-      </c>
-      <c r="G151" s="40"/>
-      <c r="H151" s="40"/>
-      <c r="I151" s="40"/>
-      <c r="J151" s="40"/>
-      <c r="K151" s="42"/>
+      <c r="E151" s="81"/>
+      <c r="F151" s="57" t="s">
+        <v>94</v>
+      </c>
+      <c r="G151" s="57"/>
+      <c r="H151" s="57"/>
+      <c r="I151" s="57"/>
+      <c r="J151" s="57"/>
+      <c r="K151" s="58"/>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A152" s="67" t="s">
+      <c r="A152" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="B152" s="65"/>
+      <c r="B152" s="60"/>
       <c r="C152" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D152" s="64" t="s">
+      <c r="D152" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="E152" s="65"/>
-      <c r="F152" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="G152" s="47"/>
-      <c r="H152" s="61" t="s">
+      <c r="E152" s="60"/>
+      <c r="F152" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="G152" s="53"/>
+      <c r="H152" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="I152" s="65"/>
-      <c r="J152" s="68" t="s">
+      <c r="I152" s="60"/>
+      <c r="J152" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="K152" s="69"/>
+      <c r="K152" s="64"/>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="2"/>
@@ -4580,12 +4577,12 @@
       <c r="K153" s="4"/>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A154" s="70" t="s">
+      <c r="A154" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="B154" s="60"/>
+      <c r="B154" s="66"/>
       <c r="C154" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D154" s="6"/>
       <c r="E154" s="6"/>
@@ -4610,29 +4607,29 @@
       <c r="K155" s="4"/>
     </row>
     <row r="156" spans="1:11" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A156" s="121" t="s">
+      <c r="A156" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="B156" s="122"/>
+      <c r="B156" s="68"/>
       <c r="C156" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="D156" s="121" t="s">
+      <c r="D156" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="E156" s="122"/>
-      <c r="F156" s="123">
+      <c r="E156" s="68"/>
+      <c r="F156" s="69">
         <v>44500</v>
       </c>
-      <c r="G156" s="124"/>
-      <c r="H156" s="121" t="s">
+      <c r="G156" s="70"/>
+      <c r="H156" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="I156" s="122"/>
-      <c r="J156" s="119" t="s">
+      <c r="I156" s="68"/>
+      <c r="J156" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="K156" s="120"/>
+      <c r="K156" s="72"/>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="7"/>
@@ -4651,74 +4648,74 @@
       <c r="A158" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B158" s="62" t="s">
+      <c r="B158" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="C158" s="63"/>
-      <c r="D158" s="63"/>
+      <c r="C158" s="78"/>
+      <c r="D158" s="78"/>
       <c r="E158" s="9"/>
       <c r="F158" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G158" s="64" t="s">
+      <c r="G158" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="H158" s="65"/>
-      <c r="I158" s="65"/>
-      <c r="J158" s="65"/>
-      <c r="K158" s="66"/>
+      <c r="H158" s="60"/>
+      <c r="I158" s="60"/>
+      <c r="J158" s="60"/>
+      <c r="K158" s="79"/>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="11">
         <v>1</v>
       </c>
-      <c r="B159" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="C159" s="46"/>
-      <c r="D159" s="47"/>
+      <c r="B159" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="C159" s="47"/>
+      <c r="D159" s="53"/>
       <c r="E159" s="3"/>
       <c r="F159" s="12">
         <v>1</v>
       </c>
-      <c r="G159" s="45" t="s">
-        <v>77</v>
-      </c>
-      <c r="H159" s="46"/>
-      <c r="I159" s="46"/>
-      <c r="J159" s="46"/>
+      <c r="G159" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="H159" s="47"/>
+      <c r="I159" s="47"/>
+      <c r="J159" s="47"/>
       <c r="K159" s="48"/>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="11">
         <v>2</v>
       </c>
-      <c r="B160" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="C160" s="46"/>
-      <c r="D160" s="47"/>
+      <c r="B160" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="C160" s="47"/>
+      <c r="D160" s="53"/>
       <c r="E160" s="3"/>
       <c r="F160" s="12">
         <v>2</v>
       </c>
-      <c r="G160" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="H160" s="46"/>
-      <c r="I160" s="46"/>
-      <c r="J160" s="46"/>
+      <c r="G160" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="H160" s="47"/>
+      <c r="I160" s="47"/>
+      <c r="J160" s="47"/>
       <c r="K160" s="48"/>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="11">
         <v>3</v>
       </c>
-      <c r="B161" s="45" t="s">
-        <v>63</v>
-      </c>
-      <c r="C161" s="46"/>
-      <c r="D161" s="47"/>
+      <c r="B161" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="C161" s="47"/>
+      <c r="D161" s="53"/>
       <c r="E161" s="3"/>
       <c r="F161" s="3"/>
       <c r="G161" s="3"/>
@@ -4758,7 +4755,7 @@
         <v>13</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
@@ -4784,217 +4781,217 @@
       <c r="K165" s="16"/>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A166" s="49" t="s">
+      <c r="A166" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="B166" s="51" t="s">
+      <c r="B166" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="C166" s="52"/>
-      <c r="D166" s="54" t="s">
+      <c r="C166" s="93"/>
+      <c r="D166" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="E166" s="55"/>
-      <c r="F166" s="51" t="s">
+      <c r="E166" s="96"/>
+      <c r="F166" s="92" t="s">
         <v>17</v>
       </c>
-      <c r="G166" s="52"/>
-      <c r="H166" s="52"/>
-      <c r="I166" s="51" t="s">
+      <c r="G166" s="93"/>
+      <c r="H166" s="93"/>
+      <c r="I166" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="J166" s="52"/>
-      <c r="K166" s="58"/>
+      <c r="J166" s="93"/>
+      <c r="K166" s="99"/>
     </row>
     <row r="167" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A167" s="50"/>
-      <c r="B167" s="53"/>
-      <c r="C167" s="53"/>
-      <c r="D167" s="56"/>
-      <c r="E167" s="56"/>
-      <c r="F167" s="57"/>
-      <c r="G167" s="57"/>
-      <c r="H167" s="57"/>
-      <c r="I167" s="57"/>
-      <c r="J167" s="57"/>
-      <c r="K167" s="59"/>
+      <c r="A167" s="102"/>
+      <c r="B167" s="94"/>
+      <c r="C167" s="94"/>
+      <c r="D167" s="97"/>
+      <c r="E167" s="97"/>
+      <c r="F167" s="98"/>
+      <c r="G167" s="98"/>
+      <c r="H167" s="98"/>
+      <c r="I167" s="98"/>
+      <c r="J167" s="98"/>
+      <c r="K167" s="100"/>
     </row>
     <row r="168" spans="1:11" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="17">
         <v>1</v>
       </c>
-      <c r="B168" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="C168" s="38"/>
-      <c r="D168" s="37" t="s">
+      <c r="B168" s="86" t="s">
+        <v>64</v>
+      </c>
+      <c r="C168" s="87"/>
+      <c r="D168" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="E168" s="37"/>
-      <c r="F168" s="39" t="s">
+      <c r="E168" s="86"/>
+      <c r="F168" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="G168" s="40"/>
-      <c r="H168" s="41"/>
-      <c r="I168" s="39" t="s">
+      <c r="G168" s="57"/>
+      <c r="H168" s="89"/>
+      <c r="I168" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="J168" s="40"/>
-      <c r="K168" s="42"/>
+      <c r="J168" s="57"/>
+      <c r="K168" s="58"/>
     </row>
     <row r="169" spans="1:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="11">
         <v>2</v>
       </c>
-      <c r="B169" s="43" t="s">
+      <c r="B169" s="90" t="s">
+        <v>96</v>
+      </c>
+      <c r="C169" s="91"/>
+      <c r="D169" s="90" t="s">
         <v>97</v>
       </c>
-      <c r="C169" s="44"/>
-      <c r="D169" s="43" t="s">
-        <v>98</v>
-      </c>
-      <c r="E169" s="43"/>
-      <c r="F169" s="45" t="s">
+      <c r="E169" s="90"/>
+      <c r="F169" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="G169" s="46"/>
-      <c r="H169" s="47"/>
-      <c r="I169" s="45" t="s">
+      <c r="G169" s="47"/>
+      <c r="H169" s="53"/>
+      <c r="I169" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="J169" s="46"/>
+      <c r="J169" s="47"/>
       <c r="K169" s="48"/>
     </row>
     <row r="170" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A170" s="18">
         <v>3</v>
       </c>
-      <c r="B170" s="30" t="s">
+      <c r="B170" s="83" t="s">
+        <v>98</v>
+      </c>
+      <c r="C170" s="84"/>
+      <c r="D170" s="85" t="s">
         <v>99</v>
       </c>
-      <c r="C170" s="31"/>
-      <c r="D170" s="32" t="s">
-        <v>100</v>
-      </c>
-      <c r="E170" s="30"/>
-      <c r="F170" s="33" t="s">
+      <c r="E170" s="83"/>
+      <c r="F170" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="G170" s="34"/>
-      <c r="H170" s="35"/>
-      <c r="I170" s="33" t="s">
+      <c r="G170" s="44"/>
+      <c r="H170" s="41"/>
+      <c r="I170" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="J170" s="34"/>
-      <c r="K170" s="36"/>
+      <c r="J170" s="44"/>
+      <c r="K170" s="45"/>
     </row>
     <row r="171" spans="1:11" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A171" s="18">
         <v>4</v>
       </c>
-      <c r="B171" s="30" t="s">
+      <c r="B171" s="83" t="s">
+        <v>100</v>
+      </c>
+      <c r="C171" s="84"/>
+      <c r="D171" s="83" t="s">
         <v>101</v>
       </c>
-      <c r="C171" s="31"/>
-      <c r="D171" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="E171" s="30"/>
-      <c r="F171" s="33" t="s">
+      <c r="E171" s="83"/>
+      <c r="F171" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="G171" s="34"/>
-      <c r="H171" s="35"/>
-      <c r="I171" s="33" t="s">
+      <c r="G171" s="44"/>
+      <c r="H171" s="41"/>
+      <c r="I171" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="J171" s="34"/>
-      <c r="K171" s="36"/>
+      <c r="J171" s="44"/>
+      <c r="K171" s="45"/>
     </row>
     <row r="172" spans="1:11" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A172" s="18">
         <v>5</v>
       </c>
-      <c r="B172" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="C172" s="31"/>
-      <c r="D172" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="E172" s="30"/>
-      <c r="F172" s="33" t="s">
+      <c r="B172" s="83" t="s">
+        <v>120</v>
+      </c>
+      <c r="C172" s="84"/>
+      <c r="D172" s="83" t="s">
+        <v>102</v>
+      </c>
+      <c r="E172" s="83"/>
+      <c r="F172" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="G172" s="34"/>
-      <c r="H172" s="35"/>
-      <c r="I172" s="33" t="s">
+      <c r="G172" s="44"/>
+      <c r="H172" s="41"/>
+      <c r="I172" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="J172" s="34"/>
-      <c r="K172" s="36"/>
+      <c r="J172" s="44"/>
+      <c r="K172" s="45"/>
     </row>
     <row r="174" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="175" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A175" s="71" t="s">
+      <c r="A175" s="54" t="s">
+        <v>105</v>
+      </c>
+      <c r="B175" s="55"/>
+      <c r="C175" s="55"/>
+      <c r="D175" s="55"/>
+      <c r="E175" s="55"/>
+      <c r="F175" s="55"/>
+      <c r="G175" s="55"/>
+      <c r="H175" s="55"/>
+      <c r="I175" s="55"/>
+      <c r="J175" s="55"/>
+      <c r="K175" s="56"/>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A176" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B176" s="81"/>
+      <c r="C176" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="D176" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="E176" s="81"/>
+      <c r="F176" s="57" t="s">
         <v>106</v>
       </c>
-      <c r="B175" s="72"/>
-      <c r="C175" s="72"/>
-      <c r="D175" s="72"/>
-      <c r="E175" s="72"/>
-      <c r="F175" s="72"/>
-      <c r="G175" s="72"/>
-      <c r="H175" s="72"/>
-      <c r="I175" s="72"/>
-      <c r="J175" s="72"/>
-      <c r="K175" s="73"/>
-    </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A176" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="B176" s="75"/>
-      <c r="C176" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="D176" s="76" t="s">
-        <v>1</v>
-      </c>
-      <c r="E176" s="75"/>
-      <c r="F176" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="G176" s="40"/>
-      <c r="H176" s="40"/>
-      <c r="I176" s="40"/>
-      <c r="J176" s="40"/>
-      <c r="K176" s="42"/>
+      <c r="G176" s="57"/>
+      <c r="H176" s="57"/>
+      <c r="I176" s="57"/>
+      <c r="J176" s="57"/>
+      <c r="K176" s="58"/>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A177" s="67" t="s">
+      <c r="A177" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="B177" s="65"/>
+      <c r="B177" s="60"/>
       <c r="C177" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D177" s="64" t="s">
+      <c r="D177" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="E177" s="65"/>
-      <c r="F177" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="G177" s="47"/>
-      <c r="H177" s="61" t="s">
+      <c r="E177" s="60"/>
+      <c r="F177" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="G177" s="53"/>
+      <c r="H177" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="I177" s="65"/>
-      <c r="J177" s="68" t="s">
+      <c r="I177" s="60"/>
+      <c r="J177" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="K177" s="69"/>
+      <c r="K177" s="64"/>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="2"/>
@@ -5010,12 +5007,12 @@
       <c r="K178" s="4"/>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A179" s="70" t="s">
+      <c r="A179" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="B179" s="60"/>
+      <c r="B179" s="66"/>
       <c r="C179" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D179" s="6"/>
       <c r="E179" s="6"/>
@@ -5040,29 +5037,29 @@
       <c r="K180" s="4"/>
     </row>
     <row r="181" spans="1:11" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A181" s="121" t="s">
+      <c r="A181" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="B181" s="122"/>
+      <c r="B181" s="68"/>
       <c r="C181" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="D181" s="121" t="s">
+      <c r="D181" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="E181" s="122"/>
-      <c r="F181" s="123">
+      <c r="E181" s="68"/>
+      <c r="F181" s="69">
         <v>44500</v>
       </c>
-      <c r="G181" s="124"/>
-      <c r="H181" s="121" t="s">
+      <c r="G181" s="70"/>
+      <c r="H181" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="I181" s="122"/>
-      <c r="J181" s="119" t="s">
+      <c r="I181" s="68"/>
+      <c r="J181" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="K181" s="120"/>
+      <c r="K181" s="72"/>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="7"/>
@@ -5081,95 +5078,95 @@
       <c r="A183" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B183" s="62" t="s">
+      <c r="B183" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="C183" s="63"/>
-      <c r="D183" s="63"/>
+      <c r="C183" s="78"/>
+      <c r="D183" s="78"/>
       <c r="E183" s="9"/>
       <c r="F183" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G183" s="64" t="s">
+      <c r="G183" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="H183" s="65"/>
-      <c r="I183" s="65"/>
-      <c r="J183" s="65"/>
-      <c r="K183" s="66"/>
+      <c r="H183" s="60"/>
+      <c r="I183" s="60"/>
+      <c r="J183" s="60"/>
+      <c r="K183" s="79"/>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="11">
         <v>1</v>
       </c>
-      <c r="B184" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="C184" s="46"/>
-      <c r="D184" s="47"/>
+      <c r="B184" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="C184" s="47"/>
+      <c r="D184" s="53"/>
       <c r="E184" s="3"/>
       <c r="F184" s="12">
         <v>1</v>
       </c>
-      <c r="G184" s="45" t="s">
-        <v>77</v>
-      </c>
-      <c r="H184" s="46"/>
-      <c r="I184" s="46"/>
-      <c r="J184" s="46"/>
+      <c r="G184" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="H184" s="47"/>
+      <c r="I184" s="47"/>
+      <c r="J184" s="47"/>
       <c r="K184" s="48"/>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="11">
         <v>2</v>
       </c>
-      <c r="B185" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="C185" s="46"/>
-      <c r="D185" s="47"/>
+      <c r="B185" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="C185" s="47"/>
+      <c r="D185" s="53"/>
       <c r="E185" s="3"/>
       <c r="F185" s="12">
         <v>2</v>
       </c>
-      <c r="G185" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="H185" s="46"/>
-      <c r="I185" s="46"/>
-      <c r="J185" s="46"/>
+      <c r="G185" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="H185" s="47"/>
+      <c r="I185" s="47"/>
+      <c r="J185" s="47"/>
       <c r="K185" s="48"/>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="11">
         <v>3</v>
       </c>
-      <c r="B186" s="45" t="s">
-        <v>63</v>
-      </c>
-      <c r="C186" s="46"/>
-      <c r="D186" s="47"/>
+      <c r="B186" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="C186" s="47"/>
+      <c r="D186" s="53"/>
       <c r="E186" s="3"/>
       <c r="F186" s="12">
         <v>3</v>
       </c>
-      <c r="G186" s="45" t="s">
-        <v>109</v>
-      </c>
-      <c r="H186" s="46"/>
-      <c r="I186" s="46"/>
-      <c r="J186" s="46"/>
+      <c r="G186" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="H186" s="47"/>
+      <c r="I186" s="47"/>
+      <c r="J186" s="47"/>
       <c r="K186" s="48"/>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="11">
         <v>4</v>
       </c>
-      <c r="B187" s="45" t="s">
-        <v>108</v>
-      </c>
-      <c r="C187" s="46"/>
-      <c r="D187" s="47"/>
+      <c r="B187" s="46" t="s">
+        <v>107</v>
+      </c>
+      <c r="C187" s="47"/>
+      <c r="D187" s="53"/>
       <c r="E187" s="3"/>
       <c r="F187" s="3"/>
       <c r="G187" s="3"/>
@@ -5196,7 +5193,7 @@
         <v>13</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C189" s="3"/>
       <c r="D189" s="3"/>
@@ -5222,172 +5219,172 @@
       <c r="K190" s="16"/>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A191" s="49" t="s">
+      <c r="A191" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="B191" s="51" t="s">
+      <c r="B191" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="C191" s="52"/>
-      <c r="D191" s="54" t="s">
+      <c r="C191" s="93"/>
+      <c r="D191" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="E191" s="55"/>
-      <c r="F191" s="51" t="s">
+      <c r="E191" s="96"/>
+      <c r="F191" s="92" t="s">
         <v>17</v>
       </c>
-      <c r="G191" s="52"/>
-      <c r="H191" s="52"/>
-      <c r="I191" s="51" t="s">
+      <c r="G191" s="93"/>
+      <c r="H191" s="93"/>
+      <c r="I191" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="J191" s="52"/>
-      <c r="K191" s="58"/>
+      <c r="J191" s="93"/>
+      <c r="K191" s="99"/>
     </row>
     <row r="192" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A192" s="50"/>
-      <c r="B192" s="53"/>
-      <c r="C192" s="53"/>
-      <c r="D192" s="56"/>
-      <c r="E192" s="56"/>
-      <c r="F192" s="57"/>
-      <c r="G192" s="57"/>
-      <c r="H192" s="57"/>
-      <c r="I192" s="57"/>
-      <c r="J192" s="57"/>
-      <c r="K192" s="59"/>
+      <c r="A192" s="102"/>
+      <c r="B192" s="94"/>
+      <c r="C192" s="94"/>
+      <c r="D192" s="97"/>
+      <c r="E192" s="97"/>
+      <c r="F192" s="98"/>
+      <c r="G192" s="98"/>
+      <c r="H192" s="98"/>
+      <c r="I192" s="98"/>
+      <c r="J192" s="98"/>
+      <c r="K192" s="100"/>
     </row>
     <row r="193" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="17">
         <v>1</v>
       </c>
-      <c r="B193" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="C193" s="38"/>
-      <c r="D193" s="37" t="s">
+      <c r="B193" s="86" t="s">
+        <v>64</v>
+      </c>
+      <c r="C193" s="87"/>
+      <c r="D193" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="E193" s="37"/>
-      <c r="F193" s="39" t="s">
+      <c r="E193" s="86"/>
+      <c r="F193" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="G193" s="40"/>
-      <c r="H193" s="41"/>
-      <c r="I193" s="39" t="s">
+      <c r="G193" s="57"/>
+      <c r="H193" s="89"/>
+      <c r="I193" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="J193" s="40"/>
-      <c r="K193" s="42"/>
+      <c r="J193" s="57"/>
+      <c r="K193" s="58"/>
     </row>
     <row r="194" spans="1:11" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="11">
         <v>2</v>
       </c>
-      <c r="B194" s="43" t="s">
+      <c r="B194" s="90" t="s">
+        <v>110</v>
+      </c>
+      <c r="C194" s="91"/>
+      <c r="D194" s="90" t="s">
         <v>111</v>
       </c>
-      <c r="C194" s="44"/>
-      <c r="D194" s="43" t="s">
-        <v>112</v>
-      </c>
-      <c r="E194" s="43"/>
-      <c r="F194" s="45" t="s">
+      <c r="E194" s="90"/>
+      <c r="F194" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="G194" s="46"/>
-      <c r="H194" s="47"/>
-      <c r="I194" s="45" t="s">
+      <c r="G194" s="47"/>
+      <c r="H194" s="53"/>
+      <c r="I194" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="J194" s="46"/>
+      <c r="J194" s="47"/>
       <c r="K194" s="48"/>
     </row>
     <row r="195" spans="1:11" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A195" s="18">
         <v>3</v>
       </c>
-      <c r="B195" s="30" t="s">
+      <c r="B195" s="83" t="s">
+        <v>112</v>
+      </c>
+      <c r="C195" s="84"/>
+      <c r="D195" s="85" t="s">
         <v>113</v>
       </c>
-      <c r="C195" s="31"/>
-      <c r="D195" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="E195" s="30"/>
-      <c r="F195" s="33" t="s">
+      <c r="E195" s="83"/>
+      <c r="F195" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="G195" s="34"/>
-      <c r="H195" s="35"/>
-      <c r="I195" s="33" t="s">
+      <c r="G195" s="44"/>
+      <c r="H195" s="41"/>
+      <c r="I195" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="J195" s="34"/>
-      <c r="K195" s="36"/>
+      <c r="J195" s="44"/>
+      <c r="K195" s="45"/>
     </row>
     <row r="196" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="197" spans="1:11" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="198" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A198" s="71" t="s">
+      <c r="A198" s="54" t="s">
+        <v>114</v>
+      </c>
+      <c r="B198" s="55"/>
+      <c r="C198" s="55"/>
+      <c r="D198" s="55"/>
+      <c r="E198" s="55"/>
+      <c r="F198" s="55"/>
+      <c r="G198" s="55"/>
+      <c r="H198" s="55"/>
+      <c r="I198" s="55"/>
+      <c r="J198" s="55"/>
+      <c r="K198" s="56"/>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A199" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B199" s="81"/>
+      <c r="C199" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="D199" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="E199" s="81"/>
+      <c r="F199" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="B198" s="72"/>
-      <c r="C198" s="72"/>
-      <c r="D198" s="72"/>
-      <c r="E198" s="72"/>
-      <c r="F198" s="72"/>
-      <c r="G198" s="72"/>
-      <c r="H198" s="72"/>
-      <c r="I198" s="72"/>
-      <c r="J198" s="72"/>
-      <c r="K198" s="73"/>
-    </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A199" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="B199" s="75"/>
-      <c r="C199" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="D199" s="76" t="s">
-        <v>1</v>
-      </c>
-      <c r="E199" s="75"/>
-      <c r="F199" s="40" t="s">
-        <v>116</v>
-      </c>
-      <c r="G199" s="40"/>
-      <c r="H199" s="40"/>
-      <c r="I199" s="40"/>
-      <c r="J199" s="40"/>
-      <c r="K199" s="42"/>
+      <c r="G199" s="57"/>
+      <c r="H199" s="57"/>
+      <c r="I199" s="57"/>
+      <c r="J199" s="57"/>
+      <c r="K199" s="58"/>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A200" s="67" t="s">
+      <c r="A200" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="B200" s="65"/>
+      <c r="B200" s="60"/>
       <c r="C200" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D200" s="64" t="s">
+      <c r="D200" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="E200" s="65"/>
-      <c r="F200" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="G200" s="47"/>
-      <c r="H200" s="61" t="s">
+      <c r="E200" s="60"/>
+      <c r="F200" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="G200" s="53"/>
+      <c r="H200" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="I200" s="65"/>
-      <c r="J200" s="68" t="s">
+      <c r="I200" s="60"/>
+      <c r="J200" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="K200" s="69"/>
+      <c r="K200" s="64"/>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="2"/>
@@ -5403,12 +5400,12 @@
       <c r="K201" s="4"/>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A202" s="70" t="s">
+      <c r="A202" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="B202" s="60"/>
+      <c r="B202" s="66"/>
       <c r="C202" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D202" s="6"/>
       <c r="E202" s="6"/>
@@ -5433,29 +5430,29 @@
       <c r="K203" s="4"/>
     </row>
     <row r="204" spans="1:11" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A204" s="121" t="s">
+      <c r="A204" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="B204" s="122"/>
+      <c r="B204" s="68"/>
       <c r="C204" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="D204" s="121" t="s">
+      <c r="D204" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="E204" s="122"/>
-      <c r="F204" s="123">
+      <c r="E204" s="68"/>
+      <c r="F204" s="69">
         <v>44500</v>
       </c>
-      <c r="G204" s="124"/>
-      <c r="H204" s="121" t="s">
+      <c r="G204" s="70"/>
+      <c r="H204" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="I204" s="122"/>
-      <c r="J204" s="119" t="s">
+      <c r="I204" s="68"/>
+      <c r="J204" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="K204" s="120"/>
+      <c r="K204" s="72"/>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="7"/>
@@ -5474,95 +5471,95 @@
       <c r="A206" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B206" s="62" t="s">
+      <c r="B206" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="C206" s="63"/>
-      <c r="D206" s="63"/>
+      <c r="C206" s="78"/>
+      <c r="D206" s="78"/>
       <c r="E206" s="9"/>
       <c r="F206" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G206" s="64" t="s">
+      <c r="G206" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="H206" s="65"/>
-      <c r="I206" s="65"/>
-      <c r="J206" s="65"/>
-      <c r="K206" s="66"/>
+      <c r="H206" s="60"/>
+      <c r="I206" s="60"/>
+      <c r="J206" s="60"/>
+      <c r="K206" s="79"/>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="11">
         <v>1</v>
       </c>
-      <c r="B207" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="C207" s="46"/>
-      <c r="D207" s="47"/>
+      <c r="B207" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="C207" s="47"/>
+      <c r="D207" s="53"/>
       <c r="E207" s="3"/>
       <c r="F207" s="12">
         <v>1</v>
       </c>
-      <c r="G207" s="45" t="s">
-        <v>77</v>
-      </c>
-      <c r="H207" s="46"/>
-      <c r="I207" s="46"/>
-      <c r="J207" s="46"/>
+      <c r="G207" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="H207" s="47"/>
+      <c r="I207" s="47"/>
+      <c r="J207" s="47"/>
       <c r="K207" s="48"/>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="11">
         <v>2</v>
       </c>
-      <c r="B208" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="C208" s="46"/>
-      <c r="D208" s="47"/>
+      <c r="B208" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="C208" s="47"/>
+      <c r="D208" s="53"/>
       <c r="E208" s="3"/>
       <c r="F208" s="12">
         <v>2</v>
       </c>
-      <c r="G208" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="H208" s="46"/>
-      <c r="I208" s="46"/>
-      <c r="J208" s="46"/>
+      <c r="G208" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="H208" s="47"/>
+      <c r="I208" s="47"/>
+      <c r="J208" s="47"/>
       <c r="K208" s="48"/>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="11">
         <v>3</v>
       </c>
-      <c r="B209" s="45" t="s">
-        <v>63</v>
-      </c>
-      <c r="C209" s="46"/>
-      <c r="D209" s="47"/>
+      <c r="B209" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="C209" s="47"/>
+      <c r="D209" s="53"/>
       <c r="E209" s="3"/>
       <c r="F209" s="12">
         <v>3</v>
       </c>
-      <c r="G209" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="H209" s="46"/>
-      <c r="I209" s="46"/>
-      <c r="J209" s="46"/>
+      <c r="G209" s="46" t="s">
+        <v>125</v>
+      </c>
+      <c r="H209" s="47"/>
+      <c r="I209" s="47"/>
+      <c r="J209" s="47"/>
       <c r="K209" s="48"/>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="11">
         <v>4</v>
       </c>
-      <c r="B210" s="45" t="s">
-        <v>119</v>
-      </c>
-      <c r="C210" s="46"/>
-      <c r="D210" s="47"/>
+      <c r="B210" s="46" t="s">
+        <v>118</v>
+      </c>
+      <c r="C210" s="47"/>
+      <c r="D210" s="53"/>
       <c r="E210" s="3"/>
       <c r="F210" s="3"/>
       <c r="G210" s="3"/>
@@ -5589,7 +5586,7 @@
         <v>13</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C212" s="3"/>
       <c r="D212" s="3"/>
@@ -5615,217 +5612,217 @@
       <c r="K213" s="16"/>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A214" s="49" t="s">
+      <c r="A214" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="B214" s="51" t="s">
+      <c r="B214" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="C214" s="52"/>
-      <c r="D214" s="54" t="s">
+      <c r="C214" s="93"/>
+      <c r="D214" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="E214" s="55"/>
-      <c r="F214" s="51" t="s">
+      <c r="E214" s="96"/>
+      <c r="F214" s="92" t="s">
         <v>17</v>
       </c>
-      <c r="G214" s="52"/>
-      <c r="H214" s="52"/>
-      <c r="I214" s="51" t="s">
+      <c r="G214" s="93"/>
+      <c r="H214" s="93"/>
+      <c r="I214" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="J214" s="52"/>
-      <c r="K214" s="58"/>
+      <c r="J214" s="93"/>
+      <c r="K214" s="99"/>
     </row>
     <row r="215" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A215" s="50"/>
-      <c r="B215" s="53"/>
-      <c r="C215" s="53"/>
-      <c r="D215" s="56"/>
-      <c r="E215" s="56"/>
-      <c r="F215" s="57"/>
-      <c r="G215" s="57"/>
-      <c r="H215" s="57"/>
-      <c r="I215" s="57"/>
-      <c r="J215" s="57"/>
-      <c r="K215" s="59"/>
+      <c r="A215" s="102"/>
+      <c r="B215" s="94"/>
+      <c r="C215" s="94"/>
+      <c r="D215" s="97"/>
+      <c r="E215" s="97"/>
+      <c r="F215" s="98"/>
+      <c r="G215" s="98"/>
+      <c r="H215" s="98"/>
+      <c r="I215" s="98"/>
+      <c r="J215" s="98"/>
+      <c r="K215" s="100"/>
     </row>
     <row r="216" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="17">
         <v>1</v>
       </c>
-      <c r="B216" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="C216" s="38"/>
-      <c r="D216" s="37" t="s">
+      <c r="B216" s="86" t="s">
+        <v>64</v>
+      </c>
+      <c r="C216" s="87"/>
+      <c r="D216" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="E216" s="37"/>
-      <c r="F216" s="39" t="s">
+      <c r="E216" s="86"/>
+      <c r="F216" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="G216" s="40"/>
-      <c r="H216" s="41"/>
-      <c r="I216" s="39" t="s">
+      <c r="G216" s="57"/>
+      <c r="H216" s="89"/>
+      <c r="I216" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="J216" s="40"/>
-      <c r="K216" s="42"/>
+      <c r="J216" s="57"/>
+      <c r="K216" s="58"/>
     </row>
     <row r="217" spans="1:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="11">
         <v>2</v>
       </c>
-      <c r="B217" s="43" t="s">
-        <v>120</v>
-      </c>
-      <c r="C217" s="44"/>
-      <c r="D217" s="43" t="s">
-        <v>122</v>
-      </c>
-      <c r="E217" s="43"/>
-      <c r="F217" s="45" t="s">
+      <c r="B217" s="90" t="s">
+        <v>119</v>
+      </c>
+      <c r="C217" s="91"/>
+      <c r="D217" s="90" t="s">
+        <v>121</v>
+      </c>
+      <c r="E217" s="90"/>
+      <c r="F217" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="G217" s="46"/>
-      <c r="H217" s="47"/>
-      <c r="I217" s="45" t="s">
+      <c r="G217" s="47"/>
+      <c r="H217" s="53"/>
+      <c r="I217" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="J217" s="46"/>
+      <c r="J217" s="47"/>
       <c r="K217" s="48"/>
     </row>
     <row r="218" spans="1:11" ht="31.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A218" s="18">
         <v>3</v>
       </c>
-      <c r="B218" s="30" t="s">
+      <c r="B218" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="C218" s="84"/>
+      <c r="D218" s="85" t="s">
         <v>123</v>
       </c>
-      <c r="C218" s="31"/>
-      <c r="D218" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="E218" s="30"/>
-      <c r="F218" s="33" t="s">
+      <c r="E218" s="83"/>
+      <c r="F218" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="G218" s="34"/>
-      <c r="H218" s="35"/>
-      <c r="I218" s="33" t="s">
+      <c r="G218" s="44"/>
+      <c r="H218" s="41"/>
+      <c r="I218" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="J218" s="34"/>
-      <c r="K218" s="36"/>
+      <c r="J218" s="44"/>
+      <c r="K218" s="45"/>
     </row>
     <row r="219" spans="1:11" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A219" s="18">
         <v>4</v>
       </c>
-      <c r="B219" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="C219" s="31"/>
-      <c r="D219" s="32" t="s">
-        <v>127</v>
-      </c>
-      <c r="E219" s="30"/>
-      <c r="F219" s="33" t="s">
+      <c r="B219" s="83" t="s">
+        <v>124</v>
+      </c>
+      <c r="C219" s="84"/>
+      <c r="D219" s="85" t="s">
+        <v>126</v>
+      </c>
+      <c r="E219" s="83"/>
+      <c r="F219" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="G219" s="34"/>
-      <c r="H219" s="35"/>
-      <c r="I219" s="33" t="s">
+      <c r="G219" s="44"/>
+      <c r="H219" s="41"/>
+      <c r="I219" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="J219" s="34"/>
-      <c r="K219" s="36"/>
+      <c r="J219" s="44"/>
+      <c r="K219" s="45"/>
     </row>
     <row r="220" spans="1:11" ht="31.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A220" s="18">
         <v>3</v>
       </c>
-      <c r="B220" s="30" t="s">
+      <c r="B220" s="83" t="s">
+        <v>127</v>
+      </c>
+      <c r="C220" s="84"/>
+      <c r="D220" s="85" t="s">
         <v>128</v>
       </c>
-      <c r="C220" s="31"/>
-      <c r="D220" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="E220" s="30"/>
-      <c r="F220" s="33" t="s">
+      <c r="E220" s="83"/>
+      <c r="F220" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="G220" s="34"/>
-      <c r="H220" s="35"/>
-      <c r="I220" s="33" t="s">
+      <c r="G220" s="44"/>
+      <c r="H220" s="41"/>
+      <c r="I220" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="J220" s="34"/>
-      <c r="K220" s="36"/>
+      <c r="J220" s="44"/>
+      <c r="K220" s="45"/>
     </row>
     <row r="222" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="223" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A223" s="71" t="s">
+      <c r="A223" s="54" t="s">
+        <v>129</v>
+      </c>
+      <c r="B223" s="55"/>
+      <c r="C223" s="55"/>
+      <c r="D223" s="55"/>
+      <c r="E223" s="55"/>
+      <c r="F223" s="55"/>
+      <c r="G223" s="55"/>
+      <c r="H223" s="55"/>
+      <c r="I223" s="55"/>
+      <c r="J223" s="55"/>
+      <c r="K223" s="56"/>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A224" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B224" s="81"/>
+      <c r="C224" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="B223" s="72"/>
-      <c r="C223" s="72"/>
-      <c r="D223" s="72"/>
-      <c r="E223" s="72"/>
-      <c r="F223" s="72"/>
-      <c r="G223" s="72"/>
-      <c r="H223" s="72"/>
-      <c r="I223" s="72"/>
-      <c r="J223" s="72"/>
-      <c r="K223" s="73"/>
-    </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A224" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="B224" s="75"/>
-      <c r="C224" s="19" t="s">
+      <c r="D224" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="E224" s="81"/>
+      <c r="F224" s="57" t="s">
         <v>131</v>
       </c>
-      <c r="D224" s="76" t="s">
-        <v>1</v>
-      </c>
-      <c r="E224" s="75"/>
-      <c r="F224" s="40" t="s">
-        <v>132</v>
-      </c>
-      <c r="G224" s="40"/>
-      <c r="H224" s="40"/>
-      <c r="I224" s="40"/>
-      <c r="J224" s="40"/>
-      <c r="K224" s="42"/>
+      <c r="G224" s="57"/>
+      <c r="H224" s="57"/>
+      <c r="I224" s="57"/>
+      <c r="J224" s="57"/>
+      <c r="K224" s="58"/>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A225" s="67" t="s">
+      <c r="A225" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="B225" s="65"/>
+      <c r="B225" s="60"/>
       <c r="C225" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D225" s="64" t="s">
+      <c r="D225" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="E225" s="65"/>
-      <c r="F225" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="G225" s="47"/>
-      <c r="H225" s="61" t="s">
+      <c r="E225" s="60"/>
+      <c r="F225" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="G225" s="53"/>
+      <c r="H225" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="I225" s="65"/>
-      <c r="J225" s="68" t="s">
+      <c r="I225" s="60"/>
+      <c r="J225" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="K225" s="69"/>
+      <c r="K225" s="64"/>
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="2"/>
@@ -5841,12 +5838,12 @@
       <c r="K226" s="4"/>
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A227" s="70" t="s">
+      <c r="A227" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="B227" s="60"/>
+      <c r="B227" s="66"/>
       <c r="C227" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D227" s="6"/>
       <c r="E227" s="6"/>
@@ -5871,29 +5868,29 @@
       <c r="K228" s="4"/>
     </row>
     <row r="229" spans="1:11" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A229" s="121" t="s">
+      <c r="A229" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="B229" s="122"/>
+      <c r="B229" s="68"/>
       <c r="C229" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="D229" s="121" t="s">
+      <c r="D229" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="E229" s="122"/>
-      <c r="F229" s="123">
+      <c r="E229" s="68"/>
+      <c r="F229" s="69">
         <v>44500</v>
       </c>
-      <c r="G229" s="124"/>
-      <c r="H229" s="121" t="s">
+      <c r="G229" s="70"/>
+      <c r="H229" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="I229" s="122"/>
-      <c r="J229" s="119" t="s">
+      <c r="I229" s="68"/>
+      <c r="J229" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="K229" s="120"/>
+      <c r="K229" s="72"/>
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="7"/>
@@ -5912,105 +5909,105 @@
       <c r="A231" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B231" s="62" t="s">
+      <c r="B231" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="C231" s="63"/>
-      <c r="D231" s="63"/>
+      <c r="C231" s="78"/>
+      <c r="D231" s="78"/>
       <c r="E231" s="9"/>
       <c r="F231" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G231" s="64" t="s">
+      <c r="G231" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="H231" s="65"/>
-      <c r="I231" s="65"/>
-      <c r="J231" s="65"/>
-      <c r="K231" s="66"/>
+      <c r="H231" s="60"/>
+      <c r="I231" s="60"/>
+      <c r="J231" s="60"/>
+      <c r="K231" s="79"/>
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="11">
         <v>1</v>
       </c>
-      <c r="B232" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="C232" s="46"/>
-      <c r="D232" s="47"/>
+      <c r="B232" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="C232" s="47"/>
+      <c r="D232" s="53"/>
       <c r="E232" s="3"/>
       <c r="F232" s="12">
         <v>1</v>
       </c>
-      <c r="G232" s="45" t="s">
-        <v>77</v>
-      </c>
-      <c r="H232" s="46"/>
-      <c r="I232" s="46"/>
-      <c r="J232" s="46"/>
+      <c r="G232" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="H232" s="47"/>
+      <c r="I232" s="47"/>
+      <c r="J232" s="47"/>
       <c r="K232" s="48"/>
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="11">
         <v>2</v>
       </c>
-      <c r="B233" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="C233" s="46"/>
-      <c r="D233" s="47"/>
+      <c r="B233" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="C233" s="47"/>
+      <c r="D233" s="53"/>
       <c r="E233" s="3"/>
       <c r="F233" s="12">
         <v>2</v>
       </c>
-      <c r="G233" s="45" t="s">
-        <v>161</v>
-      </c>
-      <c r="H233" s="46"/>
-      <c r="I233" s="46"/>
-      <c r="J233" s="46"/>
+      <c r="G233" s="46" t="s">
+        <v>160</v>
+      </c>
+      <c r="H233" s="47"/>
+      <c r="I233" s="47"/>
+      <c r="J233" s="47"/>
       <c r="K233" s="48"/>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="11">
         <v>3</v>
       </c>
-      <c r="B234" s="45" t="s">
-        <v>63</v>
-      </c>
-      <c r="C234" s="46"/>
-      <c r="D234" s="47"/>
+      <c r="B234" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="C234" s="47"/>
+      <c r="D234" s="53"/>
       <c r="E234" s="3"/>
       <c r="F234" s="12">
         <v>3</v>
       </c>
-      <c r="G234" s="45" t="s">
-        <v>141</v>
-      </c>
-      <c r="H234" s="46"/>
-      <c r="I234" s="46"/>
-      <c r="J234" s="46"/>
+      <c r="G234" s="46" t="s">
+        <v>140</v>
+      </c>
+      <c r="H234" s="47"/>
+      <c r="I234" s="47"/>
+      <c r="J234" s="47"/>
       <c r="K234" s="48"/>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="11">
         <v>4</v>
       </c>
-      <c r="B235" s="45" t="s">
-        <v>119</v>
-      </c>
-      <c r="C235" s="46"/>
-      <c r="D235" s="47"/>
+      <c r="B235" s="46" t="s">
+        <v>118</v>
+      </c>
+      <c r="C235" s="47"/>
+      <c r="D235" s="53"/>
       <c r="E235" s="3"/>
       <c r="F235" s="12">
         <v>4</v>
       </c>
-      <c r="G235" s="45" t="s">
-        <v>142</v>
-      </c>
-      <c r="H235" s="46"/>
-      <c r="I235" s="46"/>
-      <c r="J235" s="46"/>
+      <c r="G235" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="H235" s="47"/>
+      <c r="I235" s="47"/>
+      <c r="J235" s="47"/>
       <c r="K235" s="48"/>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.3">
@@ -6022,12 +6019,12 @@
       <c r="F236" s="12">
         <v>5</v>
       </c>
-      <c r="G236" s="45" t="s">
-        <v>143</v>
-      </c>
-      <c r="H236" s="46"/>
-      <c r="I236" s="46"/>
-      <c r="J236" s="46"/>
+      <c r="G236" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="H236" s="47"/>
+      <c r="I236" s="47"/>
+      <c r="J236" s="47"/>
       <c r="K236" s="48"/>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.3">
@@ -6039,12 +6036,12 @@
       <c r="F237" s="12">
         <v>6</v>
       </c>
-      <c r="G237" s="45" t="s">
-        <v>144</v>
-      </c>
-      <c r="H237" s="46"/>
-      <c r="I237" s="46"/>
-      <c r="J237" s="46"/>
+      <c r="G237" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="H237" s="47"/>
+      <c r="I237" s="47"/>
+      <c r="J237" s="47"/>
       <c r="K237" s="48"/>
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.3">
@@ -6065,7 +6062,7 @@
         <v>13</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C239" s="3"/>
       <c r="D239" s="3"/>
@@ -6094,470 +6091,743 @@
       <c r="A241" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B241" s="115" t="s">
+      <c r="B241" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C241" s="116"/>
-      <c r="D241" s="117" t="s">
+      <c r="C241" s="31"/>
+      <c r="D241" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="E241" s="118"/>
-      <c r="F241" s="109" t="s">
+      <c r="E241" s="33"/>
+      <c r="F241" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="G241" s="110"/>
-      <c r="H241" s="111"/>
-      <c r="I241" s="109" t="s">
+      <c r="G241" s="74"/>
+      <c r="H241" s="75"/>
+      <c r="I241" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="J241" s="110"/>
-      <c r="K241" s="112"/>
+      <c r="J241" s="74"/>
+      <c r="K241" s="76"/>
     </row>
     <row r="242" spans="1:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="17">
         <v>1</v>
       </c>
-      <c r="B242" s="101" t="s">
-        <v>65</v>
-      </c>
-      <c r="C242" s="102"/>
-      <c r="D242" s="101" t="s">
+      <c r="B242" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="C242" s="50"/>
+      <c r="D242" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="E242" s="102"/>
-      <c r="F242" s="101" t="s">
+      <c r="E242" s="50"/>
+      <c r="F242" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="G242" s="113"/>
-      <c r="H242" s="102"/>
-      <c r="I242" s="101" t="s">
+      <c r="G242" s="51"/>
+      <c r="H242" s="50"/>
+      <c r="I242" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="J242" s="113"/>
-      <c r="K242" s="114"/>
+      <c r="J242" s="51"/>
+      <c r="K242" s="52"/>
     </row>
     <row r="243" spans="1:11" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="11">
         <v>2</v>
       </c>
-      <c r="B243" s="45" t="s">
-        <v>120</v>
-      </c>
-      <c r="C243" s="47"/>
-      <c r="D243" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="E243" s="47"/>
-      <c r="F243" s="45" t="s">
+      <c r="B243" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="C243" s="53"/>
+      <c r="D243" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="E243" s="53"/>
+      <c r="F243" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="G243" s="46"/>
-      <c r="H243" s="47"/>
-      <c r="I243" s="45" t="s">
+      <c r="G243" s="47"/>
+      <c r="H243" s="53"/>
+      <c r="I243" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="J243" s="46"/>
+      <c r="J243" s="47"/>
       <c r="K243" s="48"/>
     </row>
     <row r="244" spans="1:11" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A244" s="18">
         <v>3</v>
       </c>
-      <c r="B244" s="33" t="s">
+      <c r="B244" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="C244" s="41"/>
+      <c r="D244" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="C244" s="35"/>
-      <c r="D244" s="103" t="s">
-        <v>100</v>
-      </c>
-      <c r="E244" s="104"/>
-      <c r="F244" s="33" t="s">
+      <c r="E244" s="43"/>
+      <c r="F244" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="G244" s="34"/>
-      <c r="H244" s="35"/>
-      <c r="I244" s="33" t="s">
+      <c r="G244" s="44"/>
+      <c r="H244" s="41"/>
+      <c r="I244" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="J244" s="34"/>
-      <c r="K244" s="36"/>
+      <c r="J244" s="44"/>
+      <c r="K244" s="45"/>
     </row>
     <row r="245" spans="1:11" ht="31.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A245" s="18">
         <v>4</v>
       </c>
-      <c r="B245" s="107" t="s">
+      <c r="B245" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="C245" s="35"/>
+      <c r="D245" s="36" t="s">
         <v>135</v>
       </c>
-      <c r="C245" s="108"/>
-      <c r="D245" s="105" t="s">
-        <v>136</v>
-      </c>
-      <c r="E245" s="106"/>
-      <c r="F245" s="107" t="s">
+      <c r="E245" s="37"/>
+      <c r="F245" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="G245" s="97"/>
-      <c r="H245" s="108"/>
-      <c r="I245" s="107" t="s">
+      <c r="G245" s="38"/>
+      <c r="H245" s="35"/>
+      <c r="I245" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="J245" s="97"/>
-      <c r="K245" s="98"/>
+      <c r="J245" s="38"/>
+      <c r="K245" s="39"/>
     </row>
     <row r="246" spans="1:11" ht="31.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A246" s="18">
         <v>5</v>
       </c>
-      <c r="B246" s="107" t="s">
-        <v>137</v>
-      </c>
-      <c r="C246" s="108"/>
-      <c r="D246" s="105" t="s">
-        <v>140</v>
-      </c>
-      <c r="E246" s="106"/>
-      <c r="F246" s="107" t="s">
+      <c r="B246" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="C246" s="35"/>
+      <c r="D246" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="E246" s="37"/>
+      <c r="F246" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="G246" s="97"/>
-      <c r="H246" s="108"/>
-      <c r="I246" s="107" t="s">
+      <c r="G246" s="38"/>
+      <c r="H246" s="35"/>
+      <c r="I246" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="J246" s="97"/>
-      <c r="K246" s="98"/>
+      <c r="J246" s="38"/>
+      <c r="K246" s="39"/>
     </row>
     <row r="247" spans="1:11" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A247" s="18">
         <v>6</v>
       </c>
-      <c r="B247" s="107" t="s">
-        <v>139</v>
-      </c>
-      <c r="C247" s="108"/>
-      <c r="D247" s="105" t="s">
+      <c r="B247" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="E247" s="106"/>
-      <c r="F247" s="107" t="s">
+      <c r="C247" s="35"/>
+      <c r="D247" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="E247" s="37"/>
+      <c r="F247" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="G247" s="97"/>
-      <c r="H247" s="108"/>
-      <c r="I247" s="107" t="s">
+      <c r="G247" s="38"/>
+      <c r="H247" s="35"/>
+      <c r="I247" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="J247" s="97"/>
-      <c r="K247" s="98"/>
+      <c r="J247" s="38"/>
+      <c r="K247" s="39"/>
     </row>
     <row r="248" spans="1:11" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A248" s="18">
         <v>7</v>
       </c>
-      <c r="B248" s="107" t="s">
+      <c r="B248" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="C248" s="35"/>
+      <c r="D248" s="36" t="s">
         <v>145</v>
       </c>
-      <c r="C248" s="108"/>
-      <c r="D248" s="105" t="s">
-        <v>146</v>
-      </c>
-      <c r="E248" s="106"/>
-      <c r="F248" s="107" t="s">
+      <c r="E248" s="37"/>
+      <c r="F248" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="G248" s="97"/>
-      <c r="H248" s="108"/>
-      <c r="I248" s="107" t="s">
+      <c r="G248" s="38"/>
+      <c r="H248" s="35"/>
+      <c r="I248" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="J248" s="97"/>
-      <c r="K248" s="98"/>
+      <c r="J248" s="38"/>
+      <c r="K248" s="39"/>
     </row>
     <row r="249" spans="1:11" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A249" s="18">
         <v>8</v>
       </c>
-      <c r="B249" s="107" t="s">
+      <c r="B249" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="C249" s="35"/>
+      <c r="D249" s="36" t="s">
         <v>147</v>
       </c>
-      <c r="C249" s="108"/>
-      <c r="D249" s="105" t="s">
-        <v>148</v>
-      </c>
-      <c r="E249" s="106"/>
-      <c r="F249" s="107" t="s">
+      <c r="E249" s="37"/>
+      <c r="F249" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="G249" s="97"/>
-      <c r="H249" s="108"/>
-      <c r="I249" s="107" t="s">
+      <c r="G249" s="38"/>
+      <c r="H249" s="35"/>
+      <c r="I249" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="J249" s="97"/>
-      <c r="K249" s="98"/>
+      <c r="J249" s="38"/>
+      <c r="K249" s="39"/>
     </row>
     <row r="250" spans="1:11" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A250" s="18">
         <v>9</v>
       </c>
-      <c r="B250" s="107" t="s">
+      <c r="B250" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="C250" s="35"/>
+      <c r="D250" s="36" t="s">
         <v>149</v>
       </c>
-      <c r="C250" s="108"/>
-      <c r="D250" s="105" t="s">
-        <v>150</v>
-      </c>
-      <c r="E250" s="106"/>
-      <c r="F250" s="107" t="s">
+      <c r="E250" s="37"/>
+      <c r="F250" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="G250" s="97"/>
-      <c r="H250" s="108"/>
-      <c r="I250" s="107" t="s">
+      <c r="G250" s="38"/>
+      <c r="H250" s="35"/>
+      <c r="I250" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="J250" s="97"/>
-      <c r="K250" s="98"/>
+      <c r="J250" s="38"/>
+      <c r="K250" s="39"/>
     </row>
     <row r="251" spans="1:11" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A251" s="18">
         <v>10</v>
       </c>
-      <c r="B251" s="107" t="s">
+      <c r="B251" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="C251" s="35"/>
+      <c r="D251" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="C251" s="108"/>
-      <c r="D251" s="105" t="s">
-        <v>152</v>
-      </c>
-      <c r="E251" s="106"/>
-      <c r="F251" s="107" t="s">
+      <c r="E251" s="37"/>
+      <c r="F251" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="G251" s="97"/>
-      <c r="H251" s="108"/>
-      <c r="I251" s="107" t="s">
+      <c r="G251" s="38"/>
+      <c r="H251" s="35"/>
+      <c r="I251" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="J251" s="97"/>
-      <c r="K251" s="98"/>
+      <c r="J251" s="38"/>
+      <c r="K251" s="39"/>
     </row>
     <row r="252" spans="1:11" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A252" s="18">
         <v>11</v>
       </c>
-      <c r="B252" s="107" t="s">
+      <c r="B252" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="C252" s="35"/>
+      <c r="D252" s="36" t="s">
         <v>153</v>
       </c>
-      <c r="C252" s="108"/>
-      <c r="D252" s="105" t="s">
-        <v>154</v>
-      </c>
-      <c r="E252" s="106"/>
-      <c r="F252" s="107" t="s">
+      <c r="E252" s="37"/>
+      <c r="F252" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="G252" s="97"/>
-      <c r="H252" s="108"/>
-      <c r="I252" s="107" t="s">
+      <c r="G252" s="38"/>
+      <c r="H252" s="35"/>
+      <c r="I252" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="J252" s="97"/>
-      <c r="K252" s="98"/>
+      <c r="J252" s="38"/>
+      <c r="K252" s="39"/>
     </row>
     <row r="253" spans="1:11" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A253" s="18">
         <v>12</v>
       </c>
-      <c r="B253" s="107" t="s">
+      <c r="B253" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="C253" s="35"/>
+      <c r="D253" s="36" t="s">
         <v>155</v>
       </c>
-      <c r="C253" s="108"/>
-      <c r="D253" s="105" t="s">
-        <v>156</v>
-      </c>
-      <c r="E253" s="106"/>
-      <c r="F253" s="107" t="s">
+      <c r="E253" s="37"/>
+      <c r="F253" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="G253" s="97"/>
-      <c r="H253" s="108"/>
-      <c r="I253" s="107" t="s">
+      <c r="G253" s="38"/>
+      <c r="H253" s="35"/>
+      <c r="I253" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="J253" s="97"/>
-      <c r="K253" s="98"/>
+      <c r="J253" s="38"/>
+      <c r="K253" s="39"/>
     </row>
     <row r="254" spans="1:11" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A254" s="18">
         <v>13</v>
       </c>
-      <c r="B254" s="107" t="s">
+      <c r="B254" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="C254" s="35"/>
+      <c r="D254" s="36" t="s">
         <v>155</v>
       </c>
-      <c r="C254" s="108"/>
-      <c r="D254" s="105" t="s">
-        <v>156</v>
-      </c>
-      <c r="E254" s="106"/>
-      <c r="F254" s="107" t="s">
+      <c r="E254" s="37"/>
+      <c r="F254" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="G254" s="97"/>
-      <c r="H254" s="108"/>
-      <c r="I254" s="107" t="s">
+      <c r="G254" s="38"/>
+      <c r="H254" s="35"/>
+      <c r="I254" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="J254" s="97"/>
-      <c r="K254" s="98"/>
+      <c r="J254" s="38"/>
+      <c r="K254" s="39"/>
     </row>
     <row r="255" spans="1:11" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A255" s="18">
         <v>14</v>
       </c>
-      <c r="B255" s="107" t="s">
+      <c r="B255" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="C255" s="35"/>
+      <c r="D255" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="C255" s="108"/>
-      <c r="D255" s="105" t="s">
-        <v>158</v>
-      </c>
-      <c r="E255" s="106"/>
-      <c r="F255" s="107" t="s">
+      <c r="E255" s="37"/>
+      <c r="F255" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="G255" s="97"/>
-      <c r="H255" s="108"/>
-      <c r="I255" s="107" t="s">
+      <c r="G255" s="38"/>
+      <c r="H255" s="35"/>
+      <c r="I255" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="J255" s="97"/>
-      <c r="K255" s="98"/>
+      <c r="J255" s="38"/>
+      <c r="K255" s="39"/>
     </row>
     <row r="256" spans="1:11" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A256" s="18">
         <v>15</v>
       </c>
-      <c r="B256" s="107" t="s">
+      <c r="B256" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="C256" s="35"/>
+      <c r="D256" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="C256" s="108"/>
-      <c r="D256" s="105" t="s">
-        <v>160</v>
-      </c>
-      <c r="E256" s="106"/>
-      <c r="F256" s="107" t="s">
+      <c r="E256" s="37"/>
+      <c r="F256" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="G256" s="97"/>
-      <c r="H256" s="108"/>
-      <c r="I256" s="107" t="s">
+      <c r="G256" s="38"/>
+      <c r="H256" s="35"/>
+      <c r="I256" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="J256" s="97"/>
-      <c r="K256" s="98"/>
+      <c r="J256" s="38"/>
+      <c r="K256" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="508">
-    <mergeCell ref="B254:C254"/>
-    <mergeCell ref="D254:E254"/>
-    <mergeCell ref="F254:H254"/>
-    <mergeCell ref="I254:K254"/>
-    <mergeCell ref="B255:C255"/>
-    <mergeCell ref="D255:E255"/>
-    <mergeCell ref="F255:H255"/>
-    <mergeCell ref="I255:K255"/>
-    <mergeCell ref="B256:C256"/>
-    <mergeCell ref="D256:E256"/>
-    <mergeCell ref="F256:H256"/>
-    <mergeCell ref="I256:K256"/>
-    <mergeCell ref="B251:C251"/>
-    <mergeCell ref="D251:E251"/>
-    <mergeCell ref="F251:H251"/>
-    <mergeCell ref="I251:K251"/>
-    <mergeCell ref="B252:C252"/>
-    <mergeCell ref="D252:E252"/>
-    <mergeCell ref="F252:H252"/>
-    <mergeCell ref="I252:K252"/>
-    <mergeCell ref="B253:C253"/>
-    <mergeCell ref="D253:E253"/>
-    <mergeCell ref="F253:H253"/>
-    <mergeCell ref="I253:K253"/>
-    <mergeCell ref="D246:E246"/>
-    <mergeCell ref="D247:E247"/>
-    <mergeCell ref="B246:C246"/>
-    <mergeCell ref="B247:C247"/>
-    <mergeCell ref="I246:K246"/>
-    <mergeCell ref="I247:K247"/>
-    <mergeCell ref="F246:H246"/>
-    <mergeCell ref="F247:H247"/>
-    <mergeCell ref="B248:C248"/>
-    <mergeCell ref="D248:E248"/>
-    <mergeCell ref="F248:H248"/>
-    <mergeCell ref="I248:K248"/>
-    <mergeCell ref="B244:C244"/>
-    <mergeCell ref="D244:E244"/>
-    <mergeCell ref="F244:H244"/>
-    <mergeCell ref="I244:K244"/>
-    <mergeCell ref="B245:C245"/>
-    <mergeCell ref="D245:E245"/>
-    <mergeCell ref="F245:H245"/>
-    <mergeCell ref="I245:K245"/>
-    <mergeCell ref="G236:K236"/>
-    <mergeCell ref="G237:K237"/>
-    <mergeCell ref="B242:C242"/>
-    <mergeCell ref="D242:E242"/>
-    <mergeCell ref="F242:H242"/>
-    <mergeCell ref="I242:K242"/>
-    <mergeCell ref="B243:C243"/>
-    <mergeCell ref="D243:E243"/>
-    <mergeCell ref="F243:H243"/>
-    <mergeCell ref="I243:K243"/>
-    <mergeCell ref="A223:K223"/>
-    <mergeCell ref="F224:K224"/>
-    <mergeCell ref="A225:B225"/>
-    <mergeCell ref="D225:E225"/>
-    <mergeCell ref="F225:G225"/>
-    <mergeCell ref="H225:I225"/>
-    <mergeCell ref="J225:K225"/>
-    <mergeCell ref="A227:B227"/>
-    <mergeCell ref="A229:B229"/>
-    <mergeCell ref="D229:E229"/>
-    <mergeCell ref="F229:G229"/>
-    <mergeCell ref="H229:I229"/>
-    <mergeCell ref="J229:K229"/>
-    <mergeCell ref="B235:D235"/>
-    <mergeCell ref="G235:K235"/>
-    <mergeCell ref="F241:H241"/>
-    <mergeCell ref="I241:K241"/>
-    <mergeCell ref="B249:C249"/>
-    <mergeCell ref="D249:E249"/>
-    <mergeCell ref="F249:H249"/>
-    <mergeCell ref="I249:K249"/>
-    <mergeCell ref="B250:C250"/>
-    <mergeCell ref="D250:E250"/>
-    <mergeCell ref="F250:H250"/>
-    <mergeCell ref="I250:K250"/>
-    <mergeCell ref="B232:D232"/>
-    <mergeCell ref="G232:K232"/>
-    <mergeCell ref="B233:D233"/>
-    <mergeCell ref="G233:K233"/>
-    <mergeCell ref="B234:D234"/>
-    <mergeCell ref="G234:K234"/>
-    <mergeCell ref="B231:D231"/>
-    <mergeCell ref="G231:K231"/>
-    <mergeCell ref="A224:B224"/>
-    <mergeCell ref="D224:E224"/>
-    <mergeCell ref="B220:C220"/>
-    <mergeCell ref="D220:E220"/>
-    <mergeCell ref="F220:H220"/>
-    <mergeCell ref="I220:K220"/>
-    <mergeCell ref="B218:C218"/>
-    <mergeCell ref="D218:E218"/>
-    <mergeCell ref="F218:H218"/>
-    <mergeCell ref="I218:K218"/>
-    <mergeCell ref="G184:K184"/>
+    <mergeCell ref="I195:K195"/>
+    <mergeCell ref="B193:C193"/>
+    <mergeCell ref="D193:E193"/>
+    <mergeCell ref="F193:H193"/>
+    <mergeCell ref="I193:K193"/>
+    <mergeCell ref="B194:C194"/>
+    <mergeCell ref="D194:E194"/>
+    <mergeCell ref="F194:H194"/>
+    <mergeCell ref="I194:K194"/>
+    <mergeCell ref="A191:A192"/>
+    <mergeCell ref="B191:C192"/>
+    <mergeCell ref="D191:E192"/>
+    <mergeCell ref="F191:H192"/>
+    <mergeCell ref="I191:K192"/>
+    <mergeCell ref="B184:D184"/>
+    <mergeCell ref="G186:K186"/>
+    <mergeCell ref="B185:D185"/>
+    <mergeCell ref="G185:K185"/>
+    <mergeCell ref="B186:D186"/>
+    <mergeCell ref="A181:B181"/>
+    <mergeCell ref="D181:E181"/>
+    <mergeCell ref="F181:G181"/>
+    <mergeCell ref="H181:I181"/>
+    <mergeCell ref="J181:K181"/>
+    <mergeCell ref="B183:D183"/>
+    <mergeCell ref="G183:K183"/>
+    <mergeCell ref="A177:B177"/>
+    <mergeCell ref="D177:E177"/>
+    <mergeCell ref="F177:G177"/>
+    <mergeCell ref="H177:I177"/>
+    <mergeCell ref="J177:K177"/>
+    <mergeCell ref="A179:B179"/>
+    <mergeCell ref="B172:C172"/>
+    <mergeCell ref="D172:E172"/>
+    <mergeCell ref="F172:H172"/>
+    <mergeCell ref="I172:K172"/>
+    <mergeCell ref="A175:K175"/>
+    <mergeCell ref="A176:B176"/>
+    <mergeCell ref="D176:E176"/>
+    <mergeCell ref="F176:K176"/>
+    <mergeCell ref="B170:C170"/>
+    <mergeCell ref="D170:E170"/>
+    <mergeCell ref="F170:H170"/>
+    <mergeCell ref="I170:K170"/>
+    <mergeCell ref="B171:C171"/>
+    <mergeCell ref="D171:E171"/>
+    <mergeCell ref="F171:H171"/>
+    <mergeCell ref="I171:K171"/>
+    <mergeCell ref="B168:C168"/>
+    <mergeCell ref="D168:E168"/>
+    <mergeCell ref="F168:H168"/>
+    <mergeCell ref="I168:K168"/>
+    <mergeCell ref="B169:C169"/>
+    <mergeCell ref="D169:E169"/>
+    <mergeCell ref="F169:H169"/>
+    <mergeCell ref="I169:K169"/>
+    <mergeCell ref="B161:D161"/>
+    <mergeCell ref="A166:A167"/>
+    <mergeCell ref="B166:C167"/>
+    <mergeCell ref="D166:E167"/>
+    <mergeCell ref="F166:H167"/>
+    <mergeCell ref="I166:K167"/>
+    <mergeCell ref="B158:D158"/>
+    <mergeCell ref="G158:K158"/>
+    <mergeCell ref="B159:D159"/>
+    <mergeCell ref="G159:K159"/>
+    <mergeCell ref="B160:D160"/>
+    <mergeCell ref="G160:K160"/>
+    <mergeCell ref="A154:B154"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="F156:G156"/>
+    <mergeCell ref="H156:I156"/>
+    <mergeCell ref="J156:K156"/>
+    <mergeCell ref="A150:K150"/>
+    <mergeCell ref="A151:B151"/>
+    <mergeCell ref="D151:E151"/>
+    <mergeCell ref="F151:K151"/>
+    <mergeCell ref="A152:B152"/>
+    <mergeCell ref="D152:E152"/>
+    <mergeCell ref="F152:G152"/>
+    <mergeCell ref="H152:I152"/>
+    <mergeCell ref="J152:K152"/>
+    <mergeCell ref="B147:C147"/>
+    <mergeCell ref="D147:E147"/>
+    <mergeCell ref="F147:H147"/>
+    <mergeCell ref="I147:K147"/>
+    <mergeCell ref="B145:C145"/>
+    <mergeCell ref="D145:E145"/>
+    <mergeCell ref="F145:H145"/>
+    <mergeCell ref="I145:K145"/>
+    <mergeCell ref="B146:C146"/>
+    <mergeCell ref="D146:E146"/>
+    <mergeCell ref="F146:H146"/>
+    <mergeCell ref="I146:K146"/>
+    <mergeCell ref="B143:C143"/>
+    <mergeCell ref="D143:E143"/>
+    <mergeCell ref="F143:H143"/>
+    <mergeCell ref="I143:K143"/>
+    <mergeCell ref="B144:C144"/>
+    <mergeCell ref="D144:E144"/>
+    <mergeCell ref="F144:H144"/>
+    <mergeCell ref="I144:K144"/>
+    <mergeCell ref="B136:D136"/>
+    <mergeCell ref="A141:A142"/>
+    <mergeCell ref="B141:C142"/>
+    <mergeCell ref="D141:E142"/>
+    <mergeCell ref="F141:H142"/>
+    <mergeCell ref="I141:K142"/>
+    <mergeCell ref="B133:D133"/>
+    <mergeCell ref="G133:K133"/>
+    <mergeCell ref="B134:D134"/>
+    <mergeCell ref="G134:K134"/>
+    <mergeCell ref="B135:D135"/>
+    <mergeCell ref="G135:K135"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="D131:E131"/>
+    <mergeCell ref="F131:G131"/>
+    <mergeCell ref="H131:I131"/>
+    <mergeCell ref="J131:K131"/>
+    <mergeCell ref="A125:K125"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="D126:E126"/>
+    <mergeCell ref="F126:K126"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="D127:E127"/>
+    <mergeCell ref="F127:G127"/>
+    <mergeCell ref="H127:I127"/>
+    <mergeCell ref="J127:K127"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="F122:H122"/>
+    <mergeCell ref="I122:K122"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="D119:E119"/>
+    <mergeCell ref="F119:H119"/>
+    <mergeCell ref="I119:K119"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="D120:E120"/>
+    <mergeCell ref="F120:H120"/>
+    <mergeCell ref="I120:K120"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="D117:E117"/>
+    <mergeCell ref="F117:H117"/>
+    <mergeCell ref="I117:K117"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="D118:E118"/>
+    <mergeCell ref="F118:H118"/>
+    <mergeCell ref="I118:K118"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="D121:E121"/>
+    <mergeCell ref="F121:H121"/>
+    <mergeCell ref="I121:K121"/>
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="B115:C116"/>
+    <mergeCell ref="D115:E116"/>
+    <mergeCell ref="F115:H116"/>
+    <mergeCell ref="I115:K116"/>
+    <mergeCell ref="B108:D108"/>
+    <mergeCell ref="G110:K110"/>
+    <mergeCell ref="B109:D109"/>
+    <mergeCell ref="G108:K108"/>
+    <mergeCell ref="B110:D110"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="F105:G105"/>
+    <mergeCell ref="H105:I105"/>
+    <mergeCell ref="J105:K105"/>
+    <mergeCell ref="B107:D107"/>
+    <mergeCell ref="G107:K107"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="F101:G101"/>
+    <mergeCell ref="H101:I101"/>
+    <mergeCell ref="J101:K101"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="F95:H95"/>
+    <mergeCell ref="I95:K95"/>
+    <mergeCell ref="A99:K99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="F100:K100"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="F94:H94"/>
+    <mergeCell ref="I94:K94"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="F93:H93"/>
+    <mergeCell ref="I93:K93"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="F70:H70"/>
+    <mergeCell ref="I70:K70"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="F91:H91"/>
+    <mergeCell ref="I91:K91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="F92:H92"/>
+    <mergeCell ref="I92:K92"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="J79:K79"/>
+    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:C90"/>
+    <mergeCell ref="D89:E90"/>
+    <mergeCell ref="F89:H90"/>
+    <mergeCell ref="I89:K90"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="G82:K82"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="G83:K83"/>
+    <mergeCell ref="B84:D84"/>
+    <mergeCell ref="G84:K84"/>
+    <mergeCell ref="G81:K81"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="J75:K75"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="F69:H69"/>
+    <mergeCell ref="I69:K69"/>
+    <mergeCell ref="A73:K73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="F74:K74"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="F67:H67"/>
+    <mergeCell ref="I67:K67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="F68:H68"/>
+    <mergeCell ref="I68:K68"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="G60:K60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:C66"/>
+    <mergeCell ref="D65:E66"/>
+    <mergeCell ref="F65:H66"/>
+    <mergeCell ref="I65:K66"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="G57:K57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="G58:K58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="G59:K59"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="A49:K49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:K50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:H46"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="I44:K44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="I45:K45"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="G37:K37"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:C43"/>
+    <mergeCell ref="D42:E43"/>
+    <mergeCell ref="F42:H43"/>
+    <mergeCell ref="I42:K43"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="G34:K34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="G35:K35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="G36:K36"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A26:K26"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="A14:K14"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:C18"/>
+    <mergeCell ref="D17:E18"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="F17:H18"/>
+    <mergeCell ref="I17:K18"/>
+    <mergeCell ref="A16:K16"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="A214:A215"/>
+    <mergeCell ref="B206:D206"/>
+    <mergeCell ref="G206:K206"/>
+    <mergeCell ref="A199:B199"/>
+    <mergeCell ref="D199:E199"/>
+    <mergeCell ref="A198:K198"/>
+    <mergeCell ref="F199:K199"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:K27"/>
     <mergeCell ref="G109:K109"/>
     <mergeCell ref="B219:C219"/>
     <mergeCell ref="D219:E219"/>
@@ -6582,6 +6852,15 @@
     <mergeCell ref="D217:E217"/>
     <mergeCell ref="F217:H217"/>
     <mergeCell ref="I217:K217"/>
+    <mergeCell ref="B220:C220"/>
+    <mergeCell ref="D220:E220"/>
+    <mergeCell ref="F220:H220"/>
+    <mergeCell ref="I220:K220"/>
+    <mergeCell ref="B218:C218"/>
+    <mergeCell ref="D218:E218"/>
+    <mergeCell ref="F218:H218"/>
+    <mergeCell ref="I218:K218"/>
+    <mergeCell ref="G184:K184"/>
     <mergeCell ref="B214:C215"/>
     <mergeCell ref="D214:E215"/>
     <mergeCell ref="F214:H215"/>
@@ -6593,381 +6872,99 @@
     <mergeCell ref="B209:D209"/>
     <mergeCell ref="G209:K209"/>
     <mergeCell ref="B210:D210"/>
-    <mergeCell ref="A214:A215"/>
-    <mergeCell ref="B206:D206"/>
-    <mergeCell ref="G206:K206"/>
-    <mergeCell ref="A199:B199"/>
-    <mergeCell ref="D199:E199"/>
-    <mergeCell ref="A198:K198"/>
-    <mergeCell ref="F199:K199"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="F17:H18"/>
-    <mergeCell ref="I17:K18"/>
-    <mergeCell ref="A16:K16"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A26:K26"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="A14:K14"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:C18"/>
-    <mergeCell ref="D17:E18"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:K27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:C43"/>
-    <mergeCell ref="D42:E43"/>
-    <mergeCell ref="F42:H43"/>
-    <mergeCell ref="I42:K43"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="G34:K34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="G35:K35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="G36:K36"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F46:H46"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:H44"/>
-    <mergeCell ref="I44:K44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="I45:K45"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="G37:K37"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="A49:K49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:K50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:C66"/>
-    <mergeCell ref="D65:E66"/>
-    <mergeCell ref="F65:H66"/>
-    <mergeCell ref="I65:K66"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="G57:K57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="G58:K58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="G59:K59"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="F67:H67"/>
-    <mergeCell ref="I67:K67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="F68:H68"/>
-    <mergeCell ref="I68:K68"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="G60:K60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="G81:K81"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="F75:G75"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="J75:K75"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="F69:H69"/>
-    <mergeCell ref="I69:K69"/>
-    <mergeCell ref="A73:K73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="F74:K74"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:C90"/>
-    <mergeCell ref="D89:E90"/>
-    <mergeCell ref="F89:H90"/>
-    <mergeCell ref="I89:K90"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="G82:K82"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="G83:K83"/>
-    <mergeCell ref="B84:D84"/>
-    <mergeCell ref="G84:K84"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="F93:H93"/>
-    <mergeCell ref="I93:K93"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="F70:H70"/>
-    <mergeCell ref="I70:K70"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="F91:H91"/>
-    <mergeCell ref="I91:K91"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="F92:H92"/>
-    <mergeCell ref="I92:K92"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="F79:G79"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="J79:K79"/>
-    <mergeCell ref="B81:D81"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="F95:H95"/>
-    <mergeCell ref="I95:K95"/>
-    <mergeCell ref="A99:K99"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="F100:K100"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="F94:H94"/>
-    <mergeCell ref="I94:K94"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="D105:E105"/>
-    <mergeCell ref="F105:G105"/>
-    <mergeCell ref="H105:I105"/>
-    <mergeCell ref="J105:K105"/>
-    <mergeCell ref="B107:D107"/>
-    <mergeCell ref="G107:K107"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="F101:G101"/>
-    <mergeCell ref="H101:I101"/>
-    <mergeCell ref="J101:K101"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="A115:A116"/>
-    <mergeCell ref="B115:C116"/>
-    <mergeCell ref="D115:E116"/>
-    <mergeCell ref="F115:H116"/>
-    <mergeCell ref="I115:K116"/>
-    <mergeCell ref="B108:D108"/>
-    <mergeCell ref="G110:K110"/>
-    <mergeCell ref="B109:D109"/>
-    <mergeCell ref="G108:K108"/>
-    <mergeCell ref="B110:D110"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="D117:E117"/>
-    <mergeCell ref="F117:H117"/>
-    <mergeCell ref="I117:K117"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="D118:E118"/>
-    <mergeCell ref="F118:H118"/>
-    <mergeCell ref="I118:K118"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="D121:E121"/>
-    <mergeCell ref="F121:H121"/>
-    <mergeCell ref="I121:K121"/>
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="F122:H122"/>
-    <mergeCell ref="I122:K122"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="D119:E119"/>
-    <mergeCell ref="F119:H119"/>
-    <mergeCell ref="I119:K119"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="D120:E120"/>
-    <mergeCell ref="F120:H120"/>
-    <mergeCell ref="I120:K120"/>
-    <mergeCell ref="A129:B129"/>
-    <mergeCell ref="A131:B131"/>
-    <mergeCell ref="D131:E131"/>
-    <mergeCell ref="F131:G131"/>
-    <mergeCell ref="H131:I131"/>
-    <mergeCell ref="J131:K131"/>
-    <mergeCell ref="A125:K125"/>
-    <mergeCell ref="A126:B126"/>
-    <mergeCell ref="D126:E126"/>
-    <mergeCell ref="F126:K126"/>
-    <mergeCell ref="A127:B127"/>
-    <mergeCell ref="D127:E127"/>
-    <mergeCell ref="F127:G127"/>
-    <mergeCell ref="H127:I127"/>
-    <mergeCell ref="J127:K127"/>
-    <mergeCell ref="A141:A142"/>
-    <mergeCell ref="B141:C142"/>
-    <mergeCell ref="D141:E142"/>
-    <mergeCell ref="F141:H142"/>
-    <mergeCell ref="I141:K142"/>
-    <mergeCell ref="B133:D133"/>
-    <mergeCell ref="G133:K133"/>
-    <mergeCell ref="B134:D134"/>
-    <mergeCell ref="G134:K134"/>
-    <mergeCell ref="B135:D135"/>
-    <mergeCell ref="G135:K135"/>
-    <mergeCell ref="B143:C143"/>
-    <mergeCell ref="D143:E143"/>
-    <mergeCell ref="F143:H143"/>
-    <mergeCell ref="I143:K143"/>
-    <mergeCell ref="B144:C144"/>
-    <mergeCell ref="D144:E144"/>
-    <mergeCell ref="F144:H144"/>
-    <mergeCell ref="I144:K144"/>
-    <mergeCell ref="B136:D136"/>
-    <mergeCell ref="B147:C147"/>
-    <mergeCell ref="D147:E147"/>
-    <mergeCell ref="F147:H147"/>
-    <mergeCell ref="I147:K147"/>
-    <mergeCell ref="B145:C145"/>
-    <mergeCell ref="D145:E145"/>
-    <mergeCell ref="F145:H145"/>
-    <mergeCell ref="I145:K145"/>
-    <mergeCell ref="B146:C146"/>
-    <mergeCell ref="D146:E146"/>
-    <mergeCell ref="F146:H146"/>
-    <mergeCell ref="I146:K146"/>
-    <mergeCell ref="A154:B154"/>
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="D156:E156"/>
-    <mergeCell ref="F156:G156"/>
-    <mergeCell ref="H156:I156"/>
-    <mergeCell ref="J156:K156"/>
-    <mergeCell ref="A150:K150"/>
-    <mergeCell ref="A151:B151"/>
-    <mergeCell ref="D151:E151"/>
-    <mergeCell ref="F151:K151"/>
-    <mergeCell ref="A152:B152"/>
-    <mergeCell ref="D152:E152"/>
-    <mergeCell ref="F152:G152"/>
-    <mergeCell ref="H152:I152"/>
-    <mergeCell ref="J152:K152"/>
-    <mergeCell ref="A166:A167"/>
-    <mergeCell ref="B166:C167"/>
-    <mergeCell ref="D166:E167"/>
-    <mergeCell ref="F166:H167"/>
-    <mergeCell ref="I166:K167"/>
-    <mergeCell ref="B158:D158"/>
-    <mergeCell ref="G158:K158"/>
-    <mergeCell ref="B159:D159"/>
-    <mergeCell ref="G159:K159"/>
-    <mergeCell ref="B160:D160"/>
-    <mergeCell ref="G160:K160"/>
-    <mergeCell ref="B168:C168"/>
-    <mergeCell ref="D168:E168"/>
-    <mergeCell ref="F168:H168"/>
-    <mergeCell ref="I168:K168"/>
-    <mergeCell ref="B169:C169"/>
-    <mergeCell ref="D169:E169"/>
-    <mergeCell ref="F169:H169"/>
-    <mergeCell ref="I169:K169"/>
-    <mergeCell ref="B161:D161"/>
-    <mergeCell ref="B172:C172"/>
-    <mergeCell ref="D172:E172"/>
-    <mergeCell ref="F172:H172"/>
-    <mergeCell ref="I172:K172"/>
-    <mergeCell ref="A175:K175"/>
-    <mergeCell ref="A176:B176"/>
-    <mergeCell ref="D176:E176"/>
-    <mergeCell ref="F176:K176"/>
-    <mergeCell ref="B170:C170"/>
-    <mergeCell ref="D170:E170"/>
-    <mergeCell ref="F170:H170"/>
-    <mergeCell ref="I170:K170"/>
-    <mergeCell ref="B171:C171"/>
-    <mergeCell ref="D171:E171"/>
-    <mergeCell ref="F171:H171"/>
-    <mergeCell ref="I171:K171"/>
-    <mergeCell ref="A181:B181"/>
-    <mergeCell ref="D181:E181"/>
-    <mergeCell ref="F181:G181"/>
-    <mergeCell ref="H181:I181"/>
-    <mergeCell ref="J181:K181"/>
-    <mergeCell ref="B183:D183"/>
-    <mergeCell ref="G183:K183"/>
-    <mergeCell ref="A177:B177"/>
-    <mergeCell ref="D177:E177"/>
-    <mergeCell ref="F177:G177"/>
-    <mergeCell ref="H177:I177"/>
-    <mergeCell ref="J177:K177"/>
-    <mergeCell ref="A179:B179"/>
     <mergeCell ref="B187:D187"/>
-    <mergeCell ref="A191:A192"/>
-    <mergeCell ref="B191:C192"/>
-    <mergeCell ref="D191:E192"/>
-    <mergeCell ref="F191:H192"/>
-    <mergeCell ref="I191:K192"/>
-    <mergeCell ref="B184:D184"/>
-    <mergeCell ref="G186:K186"/>
-    <mergeCell ref="B185:D185"/>
-    <mergeCell ref="G185:K185"/>
-    <mergeCell ref="B186:D186"/>
     <mergeCell ref="B195:C195"/>
     <mergeCell ref="D195:E195"/>
     <mergeCell ref="F195:H195"/>
-    <mergeCell ref="I195:K195"/>
-    <mergeCell ref="B193:C193"/>
-    <mergeCell ref="D193:E193"/>
-    <mergeCell ref="F193:H193"/>
-    <mergeCell ref="I193:K193"/>
-    <mergeCell ref="B194:C194"/>
-    <mergeCell ref="D194:E194"/>
-    <mergeCell ref="F194:H194"/>
-    <mergeCell ref="I194:K194"/>
+    <mergeCell ref="B232:D232"/>
+    <mergeCell ref="G232:K232"/>
+    <mergeCell ref="B233:D233"/>
+    <mergeCell ref="G233:K233"/>
+    <mergeCell ref="B234:D234"/>
+    <mergeCell ref="G234:K234"/>
+    <mergeCell ref="B231:D231"/>
+    <mergeCell ref="G231:K231"/>
+    <mergeCell ref="A224:B224"/>
+    <mergeCell ref="D224:E224"/>
+    <mergeCell ref="B235:D235"/>
+    <mergeCell ref="G235:K235"/>
+    <mergeCell ref="F241:H241"/>
+    <mergeCell ref="I241:K241"/>
+    <mergeCell ref="B249:C249"/>
+    <mergeCell ref="D249:E249"/>
+    <mergeCell ref="F249:H249"/>
+    <mergeCell ref="I249:K249"/>
+    <mergeCell ref="B250:C250"/>
+    <mergeCell ref="D250:E250"/>
+    <mergeCell ref="F250:H250"/>
+    <mergeCell ref="I250:K250"/>
+    <mergeCell ref="A223:K223"/>
+    <mergeCell ref="F224:K224"/>
+    <mergeCell ref="A225:B225"/>
+    <mergeCell ref="D225:E225"/>
+    <mergeCell ref="F225:G225"/>
+    <mergeCell ref="H225:I225"/>
+    <mergeCell ref="J225:K225"/>
+    <mergeCell ref="A227:B227"/>
+    <mergeCell ref="A229:B229"/>
+    <mergeCell ref="D229:E229"/>
+    <mergeCell ref="F229:G229"/>
+    <mergeCell ref="H229:I229"/>
+    <mergeCell ref="J229:K229"/>
+    <mergeCell ref="B244:C244"/>
+    <mergeCell ref="D244:E244"/>
+    <mergeCell ref="F244:H244"/>
+    <mergeCell ref="I244:K244"/>
+    <mergeCell ref="B245:C245"/>
+    <mergeCell ref="D245:E245"/>
+    <mergeCell ref="F245:H245"/>
+    <mergeCell ref="I245:K245"/>
+    <mergeCell ref="G236:K236"/>
+    <mergeCell ref="G237:K237"/>
+    <mergeCell ref="B242:C242"/>
+    <mergeCell ref="D242:E242"/>
+    <mergeCell ref="F242:H242"/>
+    <mergeCell ref="I242:K242"/>
+    <mergeCell ref="B243:C243"/>
+    <mergeCell ref="D243:E243"/>
+    <mergeCell ref="F243:H243"/>
+    <mergeCell ref="I243:K243"/>
+    <mergeCell ref="D246:E246"/>
+    <mergeCell ref="D247:E247"/>
+    <mergeCell ref="B246:C246"/>
+    <mergeCell ref="B247:C247"/>
+    <mergeCell ref="I246:K246"/>
+    <mergeCell ref="I247:K247"/>
+    <mergeCell ref="F246:H246"/>
+    <mergeCell ref="F247:H247"/>
+    <mergeCell ref="B248:C248"/>
+    <mergeCell ref="D248:E248"/>
+    <mergeCell ref="F248:H248"/>
+    <mergeCell ref="I248:K248"/>
+    <mergeCell ref="B251:C251"/>
+    <mergeCell ref="D251:E251"/>
+    <mergeCell ref="F251:H251"/>
+    <mergeCell ref="I251:K251"/>
+    <mergeCell ref="B252:C252"/>
+    <mergeCell ref="D252:E252"/>
+    <mergeCell ref="F252:H252"/>
+    <mergeCell ref="I252:K252"/>
+    <mergeCell ref="B253:C253"/>
+    <mergeCell ref="D253:E253"/>
+    <mergeCell ref="F253:H253"/>
+    <mergeCell ref="I253:K253"/>
+    <mergeCell ref="B254:C254"/>
+    <mergeCell ref="D254:E254"/>
+    <mergeCell ref="F254:H254"/>
+    <mergeCell ref="I254:K254"/>
+    <mergeCell ref="B255:C255"/>
+    <mergeCell ref="D255:E255"/>
+    <mergeCell ref="F255:H255"/>
+    <mergeCell ref="I255:K255"/>
+    <mergeCell ref="B256:C256"/>
+    <mergeCell ref="D256:E256"/>
+    <mergeCell ref="F256:H256"/>
+    <mergeCell ref="I256:K256"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/Software Testing/Practicals/Practical 3/Practical 3.xlsx
+++ b/Software Testing/Practicals/Practical 3/Practical 3.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="165">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -107,9 +107,6 @@
     <t>Pratyay Dhond</t>
   </si>
   <si>
-    <t>Test the Login Register Functionality in Discord website.</t>
-  </si>
-  <si>
     <t>Test Case 1</t>
   </si>
   <si>
@@ -335,12 +332,6 @@
     <t>The server will be removed from the user's server list</t>
   </si>
   <si>
-    <t>Test Case 7</t>
-  </si>
-  <si>
-    <t>DISC_07</t>
-  </si>
-  <si>
     <t>Test Case 8</t>
   </si>
   <si>
@@ -386,9 +377,6 @@
     <t>Open the discord server where you wish to create text channel.</t>
   </si>
   <si>
-    <t>Click on Leave Server again</t>
-  </si>
-  <si>
     <t>Server is loaded within the website.</t>
   </si>
   <si>
@@ -519,6 +507,18 @@
   </si>
   <si>
     <t>Cutomer is redirected to Email verification</t>
+  </si>
+  <si>
+    <t>Click on the video call icon</t>
+  </si>
+  <si>
+    <t>The confirm video camera access pop up appears.</t>
+  </si>
+  <si>
+    <t>Click confirm camera access</t>
+  </si>
+  <si>
+    <t>Test the  Register Functionality in Discord website.</t>
   </si>
 </sst>
 </file>
@@ -575,7 +575,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="56">
+  <borders count="63">
     <border>
       <left/>
       <right/>
@@ -1288,12 +1288,95 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1388,176 +1471,61 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="48" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="36" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="53" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1583,11 +1551,150 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="48" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="36" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1595,65 +1702,79 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="53" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1938,8 +2059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A232" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="N91" sqref="N1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1948,65 +2069,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="119" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
-      <c r="I1" s="120"/>
-      <c r="J1" s="120"/>
-      <c r="K1" s="121"/>
+      <c r="A1" s="89" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="91"/>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="105" t="s">
+      <c r="A2" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="106"/>
+      <c r="B2" s="96"/>
       <c r="C2" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="105" t="s">
+      <c r="D2" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="106"/>
-      <c r="F2" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="39"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="97" t="s">
+        <v>164</v>
+      </c>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="98"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="105" t="s">
+      <c r="A3" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="106"/>
+      <c r="B3" s="96"/>
       <c r="C3" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="105" t="s">
+      <c r="D3" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="106"/>
-      <c r="F3" s="38" t="s">
+      <c r="E3" s="96"/>
+      <c r="F3" s="97" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="98"/>
+      <c r="H3" s="99" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="96"/>
+      <c r="J3" s="100" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="39"/>
-      <c r="H3" s="107" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="106"/>
-      <c r="J3" s="108" t="s">
-        <v>31</v>
-      </c>
-      <c r="K3" s="109"/>
+      <c r="K3" s="101"/>
     </row>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
@@ -2022,12 +2143,12 @@
       <c r="K4" s="4"/>
     </row>
     <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="103" t="s">
+      <c r="A5" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="104"/>
+      <c r="B5" s="112"/>
       <c r="C5" s="26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D5" s="27"/>
       <c r="E5" s="27"/>
@@ -2052,29 +2173,29 @@
       <c r="K6" s="4"/>
     </row>
     <row r="7" spans="1:11" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="67" t="s">
+      <c r="A7" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="68"/>
+      <c r="B7" s="63"/>
       <c r="C7" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="67" t="s">
+      <c r="D7" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="68"/>
-      <c r="F7" s="69">
+      <c r="E7" s="63"/>
+      <c r="F7" s="64">
         <v>44500</v>
       </c>
-      <c r="G7" s="70"/>
-      <c r="H7" s="67" t="s">
+      <c r="G7" s="65"/>
+      <c r="H7" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="68"/>
-      <c r="J7" s="71" t="s">
+      <c r="I7" s="63"/>
+      <c r="J7" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="72"/>
+      <c r="K7" s="67"/>
     </row>
     <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7"/>
@@ -2093,64 +2214,64 @@
       <c r="A9" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="113" t="s">
+      <c r="B9" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="114"/>
-      <c r="D9" s="115"/>
+      <c r="C9" s="106"/>
+      <c r="D9" s="107"/>
       <c r="E9" s="9"/>
       <c r="F9" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="116" t="s">
+      <c r="G9" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="117"/>
-      <c r="I9" s="117"/>
-      <c r="J9" s="117"/>
-      <c r="K9" s="118"/>
+      <c r="H9" s="109"/>
+      <c r="I9" s="109"/>
+      <c r="J9" s="109"/>
+      <c r="K9" s="110"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="11">
         <v>1</v>
       </c>
-      <c r="B10" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="47"/>
-      <c r="D10" s="48"/>
+      <c r="B10" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="48"/>
+      <c r="D10" s="50"/>
       <c r="E10" s="3"/>
       <c r="F10" s="11">
         <v>1</v>
       </c>
-      <c r="G10" s="46" t="s">
-        <v>76</v>
-      </c>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="48"/>
+      <c r="G10" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="50"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="11">
         <v>2</v>
       </c>
-      <c r="B11" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="47"/>
-      <c r="D11" s="48"/>
+      <c r="B11" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="48"/>
+      <c r="D11" s="50"/>
       <c r="E11" s="3"/>
       <c r="F11" s="11">
         <v>2</v>
       </c>
-      <c r="G11" s="46" t="s">
-        <v>73</v>
-      </c>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="47"/>
-      <c r="K11" s="48"/>
+      <c r="G11" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="50"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
@@ -2160,13 +2281,13 @@
       <c r="F12" s="11">
         <v>3</v>
       </c>
-      <c r="G12" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="H12" s="47"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="48"/>
+      <c r="G12" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="H12" s="48"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="50"/>
     </row>
     <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
@@ -2177,33 +2298,33 @@
       <c r="F13" s="18">
         <v>4</v>
       </c>
-      <c r="G13" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="45"/>
+      <c r="G13" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="38"/>
     </row>
     <row r="14" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="122"/>
-      <c r="B14" s="123"/>
-      <c r="C14" s="123"/>
-      <c r="D14" s="123"/>
-      <c r="E14" s="123"/>
-      <c r="F14" s="123"/>
-      <c r="G14" s="123"/>
-      <c r="H14" s="123"/>
-      <c r="I14" s="123"/>
-      <c r="J14" s="123"/>
-      <c r="K14" s="124"/>
+      <c r="A14" s="92"/>
+      <c r="B14" s="93"/>
+      <c r="C14" s="93"/>
+      <c r="D14" s="93"/>
+      <c r="E14" s="93"/>
+      <c r="F14" s="93"/>
+      <c r="G14" s="93"/>
+      <c r="H14" s="93"/>
+      <c r="I14" s="93"/>
+      <c r="J14" s="93"/>
+      <c r="K14" s="94"/>
     </row>
     <row r="15" spans="1:11" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="23" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C15" s="21"/>
       <c r="D15" s="21"/>
@@ -2216,230 +2337,230 @@
       <c r="K15" s="4"/>
     </row>
     <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="110"/>
-      <c r="B16" s="111"/>
-      <c r="C16" s="111"/>
-      <c r="D16" s="111"/>
-      <c r="E16" s="111"/>
-      <c r="F16" s="111"/>
-      <c r="G16" s="111"/>
-      <c r="H16" s="111"/>
-      <c r="I16" s="111"/>
-      <c r="J16" s="111"/>
-      <c r="K16" s="112"/>
+      <c r="A16" s="102"/>
+      <c r="B16" s="103"/>
+      <c r="C16" s="103"/>
+      <c r="D16" s="103"/>
+      <c r="E16" s="103"/>
+      <c r="F16" s="103"/>
+      <c r="G16" s="103"/>
+      <c r="H16" s="103"/>
+      <c r="I16" s="103"/>
+      <c r="J16" s="103"/>
+      <c r="K16" s="104"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="101" t="s">
+      <c r="A17" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="92" t="s">
+      <c r="B17" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="93"/>
-      <c r="D17" s="95" t="s">
+      <c r="C17" s="54"/>
+      <c r="D17" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="96"/>
-      <c r="F17" s="92" t="s">
+      <c r="E17" s="57"/>
+      <c r="F17" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="93"/>
-      <c r="H17" s="93"/>
-      <c r="I17" s="92" t="s">
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="J17" s="93"/>
-      <c r="K17" s="99"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="60"/>
     </row>
     <row r="18" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="102"/>
-      <c r="B18" s="94"/>
-      <c r="C18" s="94"/>
-      <c r="D18" s="97"/>
-      <c r="E18" s="97"/>
-      <c r="F18" s="98"/>
-      <c r="G18" s="98"/>
-      <c r="H18" s="98"/>
-      <c r="I18" s="98"/>
-      <c r="J18" s="98"/>
-      <c r="K18" s="100"/>
+      <c r="A18" s="52"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="59"/>
+      <c r="K18" s="61"/>
     </row>
     <row r="19" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="17">
         <v>1</v>
       </c>
-      <c r="B19" s="86" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="87"/>
-      <c r="D19" s="86" t="s">
+      <c r="B19" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="40"/>
+      <c r="D19" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="86"/>
-      <c r="F19" s="88" t="s">
+      <c r="E19" s="39"/>
+      <c r="F19" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="G19" s="57"/>
-      <c r="H19" s="89"/>
-      <c r="I19" s="88" t="s">
+      <c r="G19" s="42"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="J19" s="57"/>
-      <c r="K19" s="58"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="44"/>
     </row>
     <row r="20" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11">
         <v>2</v>
       </c>
-      <c r="B20" s="90" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="91"/>
-      <c r="D20" s="90" t="s">
+      <c r="B20" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="46"/>
+      <c r="D20" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="90"/>
-      <c r="F20" s="46" t="s">
+      <c r="E20" s="45"/>
+      <c r="F20" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="G20" s="47"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="46" t="s">
+      <c r="G20" s="48"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="J20" s="47"/>
-      <c r="K20" s="48"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="50"/>
     </row>
     <row r="21" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="18">
         <v>3</v>
       </c>
-      <c r="B21" s="83" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="84"/>
-      <c r="D21" s="83" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21" s="83"/>
-      <c r="F21" s="40" t="s">
+      <c r="B21" s="79" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="80"/>
+      <c r="D21" s="79" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="79"/>
+      <c r="F21" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="G21" s="44"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="40" t="s">
+      <c r="G21" s="37"/>
+      <c r="H21" s="81"/>
+      <c r="I21" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="J21" s="44"/>
-      <c r="K21" s="45"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="38"/>
     </row>
     <row r="22" spans="1:11" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="18">
         <v>4</v>
       </c>
-      <c r="B22" s="83" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="84"/>
-      <c r="D22" s="83" t="s">
-        <v>164</v>
-      </c>
-      <c r="E22" s="83"/>
-      <c r="F22" s="40" t="s">
+      <c r="B22" s="79" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="80"/>
+      <c r="D22" s="79" t="s">
+        <v>160</v>
+      </c>
+      <c r="E22" s="79"/>
+      <c r="F22" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="G22" s="44"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="40" t="s">
+      <c r="G22" s="37"/>
+      <c r="H22" s="81"/>
+      <c r="I22" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="J22" s="44"/>
-      <c r="K22" s="45"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="38"/>
     </row>
     <row r="23" spans="1:11" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="18">
         <v>5</v>
       </c>
-      <c r="B23" s="83" t="s">
-        <v>163</v>
-      </c>
-      <c r="C23" s="84"/>
-      <c r="D23" s="83" t="s">
+      <c r="B23" s="79" t="s">
+        <v>159</v>
+      </c>
+      <c r="C23" s="80"/>
+      <c r="D23" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="83"/>
-      <c r="F23" s="40" t="s">
+      <c r="E23" s="79"/>
+      <c r="F23" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="G23" s="44"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="40" t="s">
+      <c r="G23" s="37"/>
+      <c r="H23" s="81"/>
+      <c r="I23" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="J23" s="44"/>
-      <c r="K23" s="45"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="38"/>
     </row>
     <row r="25" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="54" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="55"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="55"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="55"/>
-      <c r="J26" s="55"/>
-      <c r="K26" s="56"/>
+      <c r="A26" s="82" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="83"/>
+      <c r="C26" s="83"/>
+      <c r="D26" s="83"/>
+      <c r="E26" s="83"/>
+      <c r="F26" s="83"/>
+      <c r="G26" s="83"/>
+      <c r="H26" s="83"/>
+      <c r="I26" s="83"/>
+      <c r="J26" s="83"/>
+      <c r="K26" s="84"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="80" t="s">
+      <c r="A27" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="81"/>
+      <c r="B27" s="86"/>
       <c r="C27" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="D27" s="82" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="E27" s="81"/>
-      <c r="F27" s="57" t="s">
-        <v>43</v>
-      </c>
-      <c r="G27" s="57"/>
-      <c r="H27" s="57"/>
-      <c r="I27" s="57"/>
-      <c r="J27" s="57"/>
-      <c r="K27" s="58"/>
+      <c r="E27" s="86"/>
+      <c r="F27" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="44"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="59" t="s">
+      <c r="A28" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="B28" s="60"/>
+      <c r="B28" s="71"/>
       <c r="C28" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D28" s="61" t="s">
+      <c r="D28" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="E28" s="60"/>
-      <c r="F28" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="G28" s="53"/>
-      <c r="H28" s="62" t="s">
+      <c r="E28" s="71"/>
+      <c r="F28" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="G28" s="49"/>
+      <c r="H28" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="I28" s="60"/>
-      <c r="J28" s="63" t="s">
-        <v>31</v>
-      </c>
-      <c r="K28" s="64"/>
+      <c r="I28" s="71"/>
+      <c r="J28" s="75" t="s">
+        <v>30</v>
+      </c>
+      <c r="K28" s="76"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
@@ -2455,12 +2576,12 @@
       <c r="K29" s="4"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="65" t="s">
+      <c r="A30" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="66"/>
+      <c r="B30" s="78"/>
       <c r="C30" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
@@ -2485,29 +2606,29 @@
       <c r="K31" s="4"/>
     </row>
     <row r="32" spans="1:11" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="67" t="s">
+      <c r="A32" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="68"/>
+      <c r="B32" s="63"/>
       <c r="C32" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="D32" s="67" t="s">
+      <c r="D32" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="E32" s="68"/>
-      <c r="F32" s="69">
+      <c r="E32" s="63"/>
+      <c r="F32" s="64">
         <v>44500</v>
       </c>
-      <c r="G32" s="70"/>
-      <c r="H32" s="67" t="s">
+      <c r="G32" s="65"/>
+      <c r="H32" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="I32" s="68"/>
-      <c r="J32" s="71" t="s">
+      <c r="I32" s="63"/>
+      <c r="J32" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="K32" s="72"/>
+      <c r="K32" s="67"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="7"/>
@@ -2526,83 +2647,83 @@
       <c r="A34" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="77" t="s">
+      <c r="B34" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="78"/>
-      <c r="D34" s="78"/>
+      <c r="C34" s="69"/>
+      <c r="D34" s="69"/>
       <c r="E34" s="9"/>
       <c r="F34" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G34" s="61" t="s">
+      <c r="G34" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="H34" s="60"/>
-      <c r="I34" s="60"/>
-      <c r="J34" s="60"/>
-      <c r="K34" s="79"/>
+      <c r="H34" s="71"/>
+      <c r="I34" s="71"/>
+      <c r="J34" s="71"/>
+      <c r="K34" s="72"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="11">
         <v>1</v>
       </c>
-      <c r="B35" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="C35" s="47"/>
-      <c r="D35" s="53"/>
+      <c r="B35" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" s="48"/>
+      <c r="D35" s="49"/>
       <c r="E35" s="3"/>
       <c r="F35" s="12">
         <v>1</v>
       </c>
-      <c r="G35" s="46" t="s">
-        <v>71</v>
-      </c>
-      <c r="H35" s="47"/>
-      <c r="I35" s="47"/>
-      <c r="J35" s="47"/>
-      <c r="K35" s="48"/>
+      <c r="G35" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="H35" s="48"/>
+      <c r="I35" s="48"/>
+      <c r="J35" s="48"/>
+      <c r="K35" s="50"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="11">
         <v>2</v>
       </c>
-      <c r="B36" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="C36" s="47"/>
-      <c r="D36" s="53"/>
+      <c r="B36" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" s="48"/>
+      <c r="D36" s="49"/>
       <c r="E36" s="3"/>
       <c r="F36" s="12">
         <v>2</v>
       </c>
-      <c r="G36" s="46" t="s">
-        <v>72</v>
-      </c>
-      <c r="H36" s="47"/>
-      <c r="I36" s="47"/>
-      <c r="J36" s="47"/>
-      <c r="K36" s="48"/>
+      <c r="G36" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="H36" s="48"/>
+      <c r="I36" s="48"/>
+      <c r="J36" s="48"/>
+      <c r="K36" s="50"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="11">
         <v>3</v>
       </c>
-      <c r="B37" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="C37" s="47"/>
-      <c r="D37" s="53"/>
+      <c r="B37" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" s="48"/>
+      <c r="D37" s="49"/>
       <c r="E37" s="3"/>
       <c r="F37" s="12">
         <v>3</v>
       </c>
-      <c r="G37" s="46"/>
-      <c r="H37" s="47"/>
-      <c r="I37" s="47"/>
-      <c r="J37" s="47"/>
-      <c r="K37" s="48"/>
+      <c r="G37" s="47"/>
+      <c r="H37" s="48"/>
+      <c r="I37" s="48"/>
+      <c r="J37" s="48"/>
+      <c r="K37" s="50"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
@@ -2635,7 +2756,7 @@
         <v>13</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -2661,171 +2782,171 @@
       <c r="K41" s="16"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" s="101" t="s">
+      <c r="A42" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="B42" s="92" t="s">
+      <c r="B42" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="C42" s="93"/>
-      <c r="D42" s="95" t="s">
+      <c r="C42" s="54"/>
+      <c r="D42" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="E42" s="96"/>
-      <c r="F42" s="92" t="s">
+      <c r="E42" s="57"/>
+      <c r="F42" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="G42" s="93"/>
-      <c r="H42" s="93"/>
-      <c r="I42" s="92" t="s">
+      <c r="G42" s="54"/>
+      <c r="H42" s="54"/>
+      <c r="I42" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="J42" s="93"/>
-      <c r="K42" s="99"/>
+      <c r="J42" s="54"/>
+      <c r="K42" s="60"/>
     </row>
     <row r="43" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="102"/>
-      <c r="B43" s="94"/>
-      <c r="C43" s="94"/>
-      <c r="D43" s="97"/>
-      <c r="E43" s="97"/>
-      <c r="F43" s="98"/>
-      <c r="G43" s="98"/>
-      <c r="H43" s="98"/>
-      <c r="I43" s="98"/>
-      <c r="J43" s="98"/>
-      <c r="K43" s="100"/>
+      <c r="A43" s="52"/>
+      <c r="B43" s="55"/>
+      <c r="C43" s="55"/>
+      <c r="D43" s="58"/>
+      <c r="E43" s="58"/>
+      <c r="F43" s="59"/>
+      <c r="G43" s="59"/>
+      <c r="H43" s="59"/>
+      <c r="I43" s="59"/>
+      <c r="J43" s="59"/>
+      <c r="K43" s="61"/>
     </row>
     <row r="44" spans="1:11" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="17">
         <v>1</v>
       </c>
-      <c r="B44" s="86" t="s">
-        <v>46</v>
-      </c>
-      <c r="C44" s="87"/>
-      <c r="D44" s="86" t="s">
+      <c r="B44" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" s="40"/>
+      <c r="D44" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="E44" s="86"/>
-      <c r="F44" s="88" t="s">
+      <c r="E44" s="39"/>
+      <c r="F44" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="G44" s="57"/>
-      <c r="H44" s="89"/>
-      <c r="I44" s="88" t="s">
+      <c r="G44" s="42"/>
+      <c r="H44" s="43"/>
+      <c r="I44" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="J44" s="57"/>
-      <c r="K44" s="58"/>
+      <c r="J44" s="42"/>
+      <c r="K44" s="44"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="11">
         <v>2</v>
       </c>
-      <c r="B45" s="90" t="s">
+      <c r="B45" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="C45" s="91"/>
-      <c r="D45" s="90" t="s">
+      <c r="C45" s="46"/>
+      <c r="D45" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="E45" s="90"/>
-      <c r="F45" s="46" t="s">
+      <c r="E45" s="45"/>
+      <c r="F45" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="G45" s="47"/>
-      <c r="H45" s="53"/>
-      <c r="I45" s="46" t="s">
+      <c r="G45" s="48"/>
+      <c r="H45" s="49"/>
+      <c r="I45" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="J45" s="47"/>
-      <c r="K45" s="48"/>
+      <c r="J45" s="48"/>
+      <c r="K45" s="50"/>
     </row>
     <row r="46" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="18">
         <v>3</v>
       </c>
-      <c r="B46" s="83" t="s">
+      <c r="B46" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="C46" s="84"/>
-      <c r="D46" s="83" t="s">
+      <c r="C46" s="80"/>
+      <c r="D46" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="E46" s="83"/>
-      <c r="F46" s="40" t="s">
+      <c r="E46" s="79"/>
+      <c r="F46" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="G46" s="44"/>
-      <c r="H46" s="41"/>
-      <c r="I46" s="40" t="s">
+      <c r="G46" s="37"/>
+      <c r="H46" s="81"/>
+      <c r="I46" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="J46" s="44"/>
-      <c r="K46" s="45"/>
+      <c r="J46" s="37"/>
+      <c r="K46" s="38"/>
     </row>
     <row r="48" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="49" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="54" t="s">
+      <c r="A49" s="82" t="s">
+        <v>46</v>
+      </c>
+      <c r="B49" s="83"/>
+      <c r="C49" s="83"/>
+      <c r="D49" s="83"/>
+      <c r="E49" s="83"/>
+      <c r="F49" s="83"/>
+      <c r="G49" s="83"/>
+      <c r="H49" s="83"/>
+      <c r="I49" s="83"/>
+      <c r="J49" s="83"/>
+      <c r="K49" s="84"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" s="86"/>
+      <c r="C50" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B49" s="55"/>
-      <c r="C49" s="55"/>
-      <c r="D49" s="55"/>
-      <c r="E49" s="55"/>
-      <c r="F49" s="55"/>
-      <c r="G49" s="55"/>
-      <c r="H49" s="55"/>
-      <c r="I49" s="55"/>
-      <c r="J49" s="55"/>
-      <c r="K49" s="56"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B50" s="81"/>
-      <c r="C50" s="19" t="s">
+      <c r="D50" s="87" t="s">
+        <v>1</v>
+      </c>
+      <c r="E50" s="86"/>
+      <c r="F50" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="D50" s="82" t="s">
-        <v>1</v>
-      </c>
-      <c r="E50" s="81"/>
-      <c r="F50" s="57" t="s">
-        <v>49</v>
-      </c>
-      <c r="G50" s="57"/>
-      <c r="H50" s="57"/>
-      <c r="I50" s="57"/>
-      <c r="J50" s="57"/>
-      <c r="K50" s="58"/>
+      <c r="G50" s="42"/>
+      <c r="H50" s="42"/>
+      <c r="I50" s="42"/>
+      <c r="J50" s="42"/>
+      <c r="K50" s="44"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A51" s="59" t="s">
+      <c r="A51" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="B51" s="60"/>
+      <c r="B51" s="71"/>
       <c r="C51" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D51" s="61" t="s">
+      <c r="D51" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="E51" s="60"/>
-      <c r="F51" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="G51" s="53"/>
-      <c r="H51" s="62" t="s">
+      <c r="E51" s="71"/>
+      <c r="F51" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="G51" s="49"/>
+      <c r="H51" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="I51" s="60"/>
-      <c r="J51" s="63" t="s">
-        <v>31</v>
-      </c>
-      <c r="K51" s="64"/>
+      <c r="I51" s="71"/>
+      <c r="J51" s="75" t="s">
+        <v>30</v>
+      </c>
+      <c r="K51" s="76"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="2"/>
@@ -2841,12 +2962,12 @@
       <c r="K52" s="4"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53" s="65" t="s">
+      <c r="A53" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="B53" s="66"/>
+      <c r="B53" s="78"/>
       <c r="C53" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
@@ -2871,29 +2992,29 @@
       <c r="K54" s="4"/>
     </row>
     <row r="55" spans="1:11" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="67" t="s">
+      <c r="A55" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B55" s="68"/>
+      <c r="B55" s="63"/>
       <c r="C55" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="D55" s="67" t="s">
+      <c r="D55" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="E55" s="68"/>
-      <c r="F55" s="69">
+      <c r="E55" s="63"/>
+      <c r="F55" s="64">
         <v>44500</v>
       </c>
-      <c r="G55" s="70"/>
-      <c r="H55" s="67" t="s">
+      <c r="G55" s="65"/>
+      <c r="H55" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="I55" s="68"/>
-      <c r="J55" s="71" t="s">
+      <c r="I55" s="63"/>
+      <c r="J55" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="K55" s="72"/>
+      <c r="K55" s="67"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="7"/>
@@ -2912,95 +3033,95 @@
       <c r="A57" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B57" s="77" t="s">
+      <c r="B57" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="C57" s="78"/>
-      <c r="D57" s="78"/>
+      <c r="C57" s="69"/>
+      <c r="D57" s="69"/>
       <c r="E57" s="9"/>
       <c r="F57" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G57" s="61" t="s">
+      <c r="G57" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="H57" s="60"/>
-      <c r="I57" s="60"/>
-      <c r="J57" s="60"/>
-      <c r="K57" s="79"/>
+      <c r="H57" s="71"/>
+      <c r="I57" s="71"/>
+      <c r="J57" s="71"/>
+      <c r="K57" s="72"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="11">
         <v>1</v>
       </c>
-      <c r="B58" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="C58" s="47"/>
-      <c r="D58" s="53"/>
+      <c r="B58" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="C58" s="48"/>
+      <c r="D58" s="49"/>
       <c r="E58" s="3"/>
       <c r="F58" s="12">
         <v>1</v>
       </c>
-      <c r="G58" s="46" t="s">
-        <v>76</v>
-      </c>
-      <c r="H58" s="47"/>
-      <c r="I58" s="47"/>
-      <c r="J58" s="47"/>
-      <c r="K58" s="48"/>
+      <c r="G58" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="H58" s="48"/>
+      <c r="I58" s="48"/>
+      <c r="J58" s="48"/>
+      <c r="K58" s="50"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="11">
         <v>2</v>
       </c>
-      <c r="B59" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="C59" s="47"/>
-      <c r="D59" s="53"/>
+      <c r="B59" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="C59" s="48"/>
+      <c r="D59" s="49"/>
       <c r="E59" s="3"/>
       <c r="F59" s="12">
         <v>2</v>
       </c>
-      <c r="G59" s="46" t="s">
-        <v>73</v>
-      </c>
-      <c r="H59" s="47"/>
-      <c r="I59" s="47"/>
-      <c r="J59" s="47"/>
-      <c r="K59" s="48"/>
+      <c r="G59" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="H59" s="48"/>
+      <c r="I59" s="48"/>
+      <c r="J59" s="48"/>
+      <c r="K59" s="50"/>
     </row>
     <row r="60" spans="1:11" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="11">
         <v>3</v>
       </c>
-      <c r="B60" s="46" t="s">
-        <v>50</v>
-      </c>
-      <c r="C60" s="47"/>
-      <c r="D60" s="53"/>
+      <c r="B60" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="C60" s="48"/>
+      <c r="D60" s="49"/>
       <c r="E60" s="3"/>
       <c r="F60" s="12">
         <v>3</v>
       </c>
-      <c r="G60" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="H60" s="47"/>
-      <c r="I60" s="47"/>
-      <c r="J60" s="47"/>
-      <c r="K60" s="48"/>
+      <c r="G60" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="H60" s="48"/>
+      <c r="I60" s="48"/>
+      <c r="J60" s="48"/>
+      <c r="K60" s="50"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="11">
         <v>4</v>
       </c>
-      <c r="B61" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="C61" s="47"/>
-      <c r="D61" s="53"/>
+      <c r="B61" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="C61" s="48"/>
+      <c r="D61" s="49"/>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
@@ -3027,7 +3148,7 @@
         <v>13</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
@@ -3053,194 +3174,194 @@
       <c r="K64" s="16"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A65" s="101" t="s">
+      <c r="A65" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="B65" s="92" t="s">
+      <c r="B65" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="C65" s="93"/>
-      <c r="D65" s="95" t="s">
+      <c r="C65" s="54"/>
+      <c r="D65" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="E65" s="96"/>
-      <c r="F65" s="92" t="s">
+      <c r="E65" s="57"/>
+      <c r="F65" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="G65" s="93"/>
-      <c r="H65" s="93"/>
-      <c r="I65" s="92" t="s">
+      <c r="G65" s="54"/>
+      <c r="H65" s="54"/>
+      <c r="I65" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="J65" s="93"/>
-      <c r="K65" s="99"/>
+      <c r="J65" s="54"/>
+      <c r="K65" s="60"/>
     </row>
     <row r="66" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="102"/>
-      <c r="B66" s="94"/>
-      <c r="C66" s="94"/>
-      <c r="D66" s="97"/>
-      <c r="E66" s="97"/>
-      <c r="F66" s="98"/>
-      <c r="G66" s="98"/>
-      <c r="H66" s="98"/>
-      <c r="I66" s="98"/>
-      <c r="J66" s="98"/>
-      <c r="K66" s="100"/>
+      <c r="A66" s="52"/>
+      <c r="B66" s="55"/>
+      <c r="C66" s="55"/>
+      <c r="D66" s="58"/>
+      <c r="E66" s="58"/>
+      <c r="F66" s="59"/>
+      <c r="G66" s="59"/>
+      <c r="H66" s="59"/>
+      <c r="I66" s="59"/>
+      <c r="J66" s="59"/>
+      <c r="K66" s="61"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="17">
         <v>1</v>
       </c>
-      <c r="B67" s="86" t="s">
-        <v>46</v>
-      </c>
-      <c r="C67" s="87"/>
-      <c r="D67" s="86" t="s">
+      <c r="B67" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="C67" s="40"/>
+      <c r="D67" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="E67" s="86"/>
-      <c r="F67" s="88" t="s">
+      <c r="E67" s="39"/>
+      <c r="F67" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="G67" s="57"/>
-      <c r="H67" s="89"/>
-      <c r="I67" s="88" t="s">
+      <c r="G67" s="42"/>
+      <c r="H67" s="43"/>
+      <c r="I67" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="J67" s="57"/>
-      <c r="K67" s="58"/>
+      <c r="J67" s="42"/>
+      <c r="K67" s="44"/>
     </row>
     <row r="68" spans="1:11" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="11">
         <v>2</v>
       </c>
-      <c r="B68" s="90" t="s">
+      <c r="B68" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="C68" s="46"/>
+      <c r="D68" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="C68" s="91"/>
-      <c r="D68" s="90" t="s">
-        <v>55</v>
-      </c>
-      <c r="E68" s="90"/>
-      <c r="F68" s="46" t="s">
+      <c r="E68" s="45"/>
+      <c r="F68" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="G68" s="47"/>
-      <c r="H68" s="53"/>
-      <c r="I68" s="46" t="s">
+      <c r="G68" s="48"/>
+      <c r="H68" s="49"/>
+      <c r="I68" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="J68" s="47"/>
-      <c r="K68" s="48"/>
+      <c r="J68" s="48"/>
+      <c r="K68" s="50"/>
     </row>
     <row r="69" spans="1:11" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="18">
         <v>3</v>
       </c>
-      <c r="B69" s="83" t="s">
-        <v>56</v>
-      </c>
-      <c r="C69" s="84"/>
-      <c r="D69" s="83" t="s">
-        <v>58</v>
-      </c>
-      <c r="E69" s="83"/>
-      <c r="F69" s="40" t="s">
+      <c r="B69" s="79" t="s">
+        <v>55</v>
+      </c>
+      <c r="C69" s="80"/>
+      <c r="D69" s="79" t="s">
+        <v>57</v>
+      </c>
+      <c r="E69" s="79"/>
+      <c r="F69" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="G69" s="44"/>
-      <c r="H69" s="41"/>
-      <c r="I69" s="40" t="s">
+      <c r="G69" s="37"/>
+      <c r="H69" s="81"/>
+      <c r="I69" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="J69" s="44"/>
-      <c r="K69" s="45"/>
+      <c r="J69" s="37"/>
+      <c r="K69" s="38"/>
     </row>
     <row r="70" spans="1:11" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="18">
         <v>3</v>
       </c>
-      <c r="B70" s="83" t="s">
-        <v>57</v>
-      </c>
-      <c r="C70" s="84"/>
-      <c r="D70" s="83" t="s">
+      <c r="B70" s="79" t="s">
+        <v>56</v>
+      </c>
+      <c r="C70" s="80"/>
+      <c r="D70" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="E70" s="83"/>
-      <c r="F70" s="40" t="s">
+      <c r="E70" s="79"/>
+      <c r="F70" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="G70" s="44"/>
-      <c r="H70" s="41"/>
-      <c r="I70" s="40" t="s">
+      <c r="G70" s="37"/>
+      <c r="H70" s="81"/>
+      <c r="I70" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="J70" s="44"/>
-      <c r="K70" s="45"/>
+      <c r="J70" s="37"/>
+      <c r="K70" s="38"/>
     </row>
     <row r="72" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="73" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="54" t="s">
-        <v>53</v>
-      </c>
-      <c r="B73" s="55"/>
-      <c r="C73" s="55"/>
-      <c r="D73" s="55"/>
-      <c r="E73" s="55"/>
-      <c r="F73" s="55"/>
-      <c r="G73" s="55"/>
-      <c r="H73" s="55"/>
-      <c r="I73" s="55"/>
-      <c r="J73" s="55"/>
-      <c r="K73" s="56"/>
+      <c r="A73" s="82" t="s">
+        <v>52</v>
+      </c>
+      <c r="B73" s="83"/>
+      <c r="C73" s="83"/>
+      <c r="D73" s="83"/>
+      <c r="E73" s="83"/>
+      <c r="F73" s="83"/>
+      <c r="G73" s="83"/>
+      <c r="H73" s="83"/>
+      <c r="I73" s="83"/>
+      <c r="J73" s="83"/>
+      <c r="K73" s="84"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A74" s="80" t="s">
+      <c r="A74" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="B74" s="81"/>
+      <c r="B74" s="86"/>
       <c r="C74" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D74" s="87" t="s">
+        <v>1</v>
+      </c>
+      <c r="E74" s="86"/>
+      <c r="F74" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="D74" s="82" t="s">
-        <v>1</v>
-      </c>
-      <c r="E74" s="81"/>
-      <c r="F74" s="57" t="s">
-        <v>60</v>
-      </c>
-      <c r="G74" s="57"/>
-      <c r="H74" s="57"/>
-      <c r="I74" s="57"/>
-      <c r="J74" s="57"/>
-      <c r="K74" s="58"/>
+      <c r="G74" s="42"/>
+      <c r="H74" s="42"/>
+      <c r="I74" s="42"/>
+      <c r="J74" s="42"/>
+      <c r="K74" s="44"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A75" s="59" t="s">
+      <c r="A75" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="B75" s="60"/>
+      <c r="B75" s="71"/>
       <c r="C75" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D75" s="61" t="s">
+      <c r="D75" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="E75" s="60"/>
-      <c r="F75" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="G75" s="53"/>
-      <c r="H75" s="62" t="s">
+      <c r="E75" s="71"/>
+      <c r="F75" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="G75" s="49"/>
+      <c r="H75" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="I75" s="60"/>
-      <c r="J75" s="63" t="s">
-        <v>31</v>
-      </c>
-      <c r="K75" s="64"/>
+      <c r="I75" s="71"/>
+      <c r="J75" s="75" t="s">
+        <v>30</v>
+      </c>
+      <c r="K75" s="76"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="2"/>
@@ -3256,12 +3377,12 @@
       <c r="K76" s="4"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A77" s="65" t="s">
+      <c r="A77" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="B77" s="66"/>
+      <c r="B77" s="78"/>
       <c r="C77" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D77" s="6"/>
       <c r="E77" s="6"/>
@@ -3286,29 +3407,29 @@
       <c r="K78" s="4"/>
     </row>
     <row r="79" spans="1:11" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="67" t="s">
+      <c r="A79" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B79" s="68"/>
+      <c r="B79" s="63"/>
       <c r="C79" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="D79" s="67" t="s">
+      <c r="D79" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="E79" s="68"/>
-      <c r="F79" s="69">
+      <c r="E79" s="63"/>
+      <c r="F79" s="64">
         <v>44500</v>
       </c>
-      <c r="G79" s="70"/>
-      <c r="H79" s="67" t="s">
+      <c r="G79" s="65"/>
+      <c r="H79" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="I79" s="68"/>
-      <c r="J79" s="71" t="s">
+      <c r="I79" s="63"/>
+      <c r="J79" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="K79" s="72"/>
+      <c r="K79" s="67"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="7"/>
@@ -3327,85 +3448,85 @@
       <c r="A81" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B81" s="77" t="s">
+      <c r="B81" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="C81" s="78"/>
-      <c r="D81" s="78"/>
+      <c r="C81" s="69"/>
+      <c r="D81" s="69"/>
       <c r="E81" s="9"/>
       <c r="F81" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G81" s="61" t="s">
+      <c r="G81" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="H81" s="60"/>
-      <c r="I81" s="60"/>
-      <c r="J81" s="60"/>
-      <c r="K81" s="79"/>
+      <c r="H81" s="71"/>
+      <c r="I81" s="71"/>
+      <c r="J81" s="71"/>
+      <c r="K81" s="72"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="11">
         <v>1</v>
       </c>
-      <c r="B82" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="C82" s="47"/>
-      <c r="D82" s="53"/>
+      <c r="B82" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="C82" s="48"/>
+      <c r="D82" s="49"/>
       <c r="E82" s="3"/>
       <c r="F82" s="12">
         <v>1</v>
       </c>
-      <c r="G82" s="46" t="s">
-        <v>76</v>
-      </c>
-      <c r="H82" s="47"/>
-      <c r="I82" s="47"/>
-      <c r="J82" s="47"/>
-      <c r="K82" s="48"/>
+      <c r="G82" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="H82" s="48"/>
+      <c r="I82" s="48"/>
+      <c r="J82" s="48"/>
+      <c r="K82" s="50"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="11">
         <v>2</v>
       </c>
-      <c r="B83" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="C83" s="47"/>
-      <c r="D83" s="53"/>
+      <c r="B83" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="C83" s="48"/>
+      <c r="D83" s="49"/>
       <c r="E83" s="3"/>
       <c r="F83" s="12">
         <v>2</v>
       </c>
-      <c r="G83" s="46" t="s">
-        <v>73</v>
-      </c>
-      <c r="H83" s="47"/>
-      <c r="I83" s="47"/>
-      <c r="J83" s="47"/>
-      <c r="K83" s="48"/>
+      <c r="G83" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="H83" s="48"/>
+      <c r="I83" s="48"/>
+      <c r="J83" s="48"/>
+      <c r="K83" s="50"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="11">
         <v>3</v>
       </c>
-      <c r="B84" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="C84" s="47"/>
-      <c r="D84" s="53"/>
+      <c r="B84" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="C84" s="48"/>
+      <c r="D84" s="49"/>
       <c r="E84" s="3"/>
       <c r="F84" s="12">
         <v>3</v>
       </c>
-      <c r="G84" s="46" t="s">
-        <v>70</v>
-      </c>
-      <c r="H84" s="47"/>
-      <c r="I84" s="47"/>
-      <c r="J84" s="47"/>
-      <c r="K84" s="48"/>
+      <c r="G84" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="H84" s="48"/>
+      <c r="I84" s="48"/>
+      <c r="J84" s="48"/>
+      <c r="K84" s="50"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="3"/>
@@ -3438,7 +3559,7 @@
         <v>13</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
@@ -3464,217 +3585,217 @@
       <c r="K88" s="16"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A89" s="101" t="s">
+      <c r="A89" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="B89" s="92" t="s">
+      <c r="B89" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="C89" s="93"/>
-      <c r="D89" s="95" t="s">
+      <c r="C89" s="54"/>
+      <c r="D89" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="E89" s="96"/>
-      <c r="F89" s="92" t="s">
+      <c r="E89" s="57"/>
+      <c r="F89" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="G89" s="93"/>
-      <c r="H89" s="93"/>
-      <c r="I89" s="92" t="s">
+      <c r="G89" s="54"/>
+      <c r="H89" s="54"/>
+      <c r="I89" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="J89" s="93"/>
-      <c r="K89" s="99"/>
+      <c r="J89" s="54"/>
+      <c r="K89" s="60"/>
     </row>
     <row r="90" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="102"/>
-      <c r="B90" s="94"/>
-      <c r="C90" s="94"/>
-      <c r="D90" s="97"/>
-      <c r="E90" s="97"/>
-      <c r="F90" s="98"/>
-      <c r="G90" s="98"/>
-      <c r="H90" s="98"/>
-      <c r="I90" s="98"/>
-      <c r="J90" s="98"/>
-      <c r="K90" s="100"/>
+      <c r="A90" s="52"/>
+      <c r="B90" s="55"/>
+      <c r="C90" s="55"/>
+      <c r="D90" s="58"/>
+      <c r="E90" s="58"/>
+      <c r="F90" s="59"/>
+      <c r="G90" s="59"/>
+      <c r="H90" s="59"/>
+      <c r="I90" s="59"/>
+      <c r="J90" s="59"/>
+      <c r="K90" s="61"/>
     </row>
     <row r="91" spans="1:11" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="17">
         <v>1</v>
       </c>
-      <c r="B91" s="86" t="s">
-        <v>64</v>
-      </c>
-      <c r="C91" s="87"/>
-      <c r="D91" s="86" t="s">
+      <c r="B91" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="C91" s="40"/>
+      <c r="D91" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="E91" s="86"/>
-      <c r="F91" s="88" t="s">
+      <c r="E91" s="39"/>
+      <c r="F91" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="G91" s="57"/>
-      <c r="H91" s="89"/>
-      <c r="I91" s="88" t="s">
+      <c r="G91" s="42"/>
+      <c r="H91" s="43"/>
+      <c r="I91" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="J91" s="57"/>
-      <c r="K91" s="58"/>
+      <c r="J91" s="42"/>
+      <c r="K91" s="44"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="11">
         <v>2</v>
       </c>
-      <c r="B92" s="90" t="s">
+      <c r="B92" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="C92" s="46"/>
+      <c r="D92" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="C92" s="91"/>
-      <c r="D92" s="90" t="s">
-        <v>66</v>
-      </c>
-      <c r="E92" s="90"/>
-      <c r="F92" s="46" t="s">
+      <c r="E92" s="45"/>
+      <c r="F92" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="G92" s="47"/>
-      <c r="H92" s="53"/>
-      <c r="I92" s="46" t="s">
+      <c r="G92" s="48"/>
+      <c r="H92" s="49"/>
+      <c r="I92" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="J92" s="47"/>
-      <c r="K92" s="48"/>
+      <c r="J92" s="48"/>
+      <c r="K92" s="50"/>
     </row>
     <row r="93" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="18">
         <v>3</v>
       </c>
-      <c r="B93" s="83" t="s">
+      <c r="B93" s="79" t="s">
+        <v>66</v>
+      </c>
+      <c r="C93" s="80"/>
+      <c r="D93" s="79" t="s">
         <v>67</v>
       </c>
-      <c r="C93" s="84"/>
-      <c r="D93" s="83" t="s">
-        <v>68</v>
-      </c>
-      <c r="E93" s="83"/>
-      <c r="F93" s="40" t="s">
+      <c r="E93" s="79"/>
+      <c r="F93" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="G93" s="44"/>
-      <c r="H93" s="41"/>
-      <c r="I93" s="40" t="s">
+      <c r="G93" s="37"/>
+      <c r="H93" s="81"/>
+      <c r="I93" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="J93" s="44"/>
-      <c r="K93" s="45"/>
+      <c r="J93" s="37"/>
+      <c r="K93" s="38"/>
     </row>
     <row r="94" spans="1:11" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="18">
         <v>4</v>
       </c>
-      <c r="B94" s="83" t="s">
-        <v>77</v>
-      </c>
-      <c r="C94" s="84"/>
-      <c r="D94" s="83" t="s">
-        <v>69</v>
-      </c>
-      <c r="E94" s="83"/>
-      <c r="F94" s="40" t="s">
+      <c r="B94" s="79" t="s">
+        <v>76</v>
+      </c>
+      <c r="C94" s="80"/>
+      <c r="D94" s="79" t="s">
+        <v>68</v>
+      </c>
+      <c r="E94" s="79"/>
+      <c r="F94" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="G94" s="44"/>
-      <c r="H94" s="41"/>
-      <c r="I94" s="40" t="s">
+      <c r="G94" s="37"/>
+      <c r="H94" s="81"/>
+      <c r="I94" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="J94" s="44"/>
-      <c r="K94" s="45"/>
+      <c r="J94" s="37"/>
+      <c r="K94" s="38"/>
     </row>
     <row r="95" spans="1:11" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="18">
         <v>5</v>
       </c>
-      <c r="B95" s="83" t="s">
+      <c r="B95" s="79" t="s">
+        <v>77</v>
+      </c>
+      <c r="C95" s="80"/>
+      <c r="D95" s="79" t="s">
         <v>78</v>
       </c>
-      <c r="C95" s="84"/>
-      <c r="D95" s="83" t="s">
-        <v>79</v>
-      </c>
-      <c r="E95" s="83"/>
-      <c r="F95" s="40" t="s">
+      <c r="E95" s="79"/>
+      <c r="F95" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="G95" s="44"/>
-      <c r="H95" s="41"/>
-      <c r="I95" s="40" t="s">
+      <c r="G95" s="37"/>
+      <c r="H95" s="81"/>
+      <c r="I95" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="J95" s="44"/>
-      <c r="K95" s="45"/>
+      <c r="J95" s="37"/>
+      <c r="K95" s="38"/>
     </row>
     <row r="98" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="99" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="54" t="s">
+      <c r="A99" s="82" t="s">
+        <v>80</v>
+      </c>
+      <c r="B99" s="83"/>
+      <c r="C99" s="83"/>
+      <c r="D99" s="83"/>
+      <c r="E99" s="83"/>
+      <c r="F99" s="83"/>
+      <c r="G99" s="83"/>
+      <c r="H99" s="83"/>
+      <c r="I99" s="83"/>
+      <c r="J99" s="83"/>
+      <c r="K99" s="84"/>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A100" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B100" s="86"/>
+      <c r="C100" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D100" s="87" t="s">
+        <v>1</v>
+      </c>
+      <c r="E100" s="86"/>
+      <c r="F100" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="B99" s="55"/>
-      <c r="C99" s="55"/>
-      <c r="D99" s="55"/>
-      <c r="E99" s="55"/>
-      <c r="F99" s="55"/>
-      <c r="G99" s="55"/>
-      <c r="H99" s="55"/>
-      <c r="I99" s="55"/>
-      <c r="J99" s="55"/>
-      <c r="K99" s="56"/>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A100" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B100" s="81"/>
-      <c r="C100" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="D100" s="82" t="s">
-        <v>1</v>
-      </c>
-      <c r="E100" s="81"/>
-      <c r="F100" s="57" t="s">
-        <v>82</v>
-      </c>
-      <c r="G100" s="57"/>
-      <c r="H100" s="57"/>
-      <c r="I100" s="57"/>
-      <c r="J100" s="57"/>
-      <c r="K100" s="58"/>
+      <c r="G100" s="42"/>
+      <c r="H100" s="42"/>
+      <c r="I100" s="42"/>
+      <c r="J100" s="42"/>
+      <c r="K100" s="44"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A101" s="59" t="s">
+      <c r="A101" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="B101" s="60"/>
+      <c r="B101" s="71"/>
       <c r="C101" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D101" s="61" t="s">
+      <c r="D101" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="E101" s="60"/>
-      <c r="F101" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="G101" s="53"/>
-      <c r="H101" s="62" t="s">
+      <c r="E101" s="71"/>
+      <c r="F101" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="G101" s="49"/>
+      <c r="H101" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="I101" s="60"/>
-      <c r="J101" s="63" t="s">
-        <v>31</v>
-      </c>
-      <c r="K101" s="64"/>
+      <c r="I101" s="71"/>
+      <c r="J101" s="75" t="s">
+        <v>30</v>
+      </c>
+      <c r="K101" s="76"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="2"/>
@@ -3690,12 +3811,12 @@
       <c r="K102" s="4"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A103" s="65" t="s">
+      <c r="A103" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="B103" s="66"/>
+      <c r="B103" s="78"/>
       <c r="C103" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D103" s="6"/>
       <c r="E103" s="6"/>
@@ -3720,29 +3841,29 @@
       <c r="K104" s="4"/>
     </row>
     <row r="105" spans="1:11" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="67" t="s">
+      <c r="A105" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B105" s="68"/>
+      <c r="B105" s="63"/>
       <c r="C105" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="D105" s="67" t="s">
+      <c r="D105" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="E105" s="68"/>
-      <c r="F105" s="69">
+      <c r="E105" s="63"/>
+      <c r="F105" s="64">
         <v>44500</v>
       </c>
-      <c r="G105" s="70"/>
-      <c r="H105" s="67" t="s">
+      <c r="G105" s="65"/>
+      <c r="H105" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="I105" s="68"/>
-      <c r="J105" s="71" t="s">
+      <c r="I105" s="63"/>
+      <c r="J105" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="K105" s="72"/>
+      <c r="K105" s="67"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="7"/>
@@ -3761,85 +3882,85 @@
       <c r="A107" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B107" s="77" t="s">
+      <c r="B107" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="C107" s="78"/>
-      <c r="D107" s="78"/>
+      <c r="C107" s="69"/>
+      <c r="D107" s="69"/>
       <c r="E107" s="9"/>
       <c r="F107" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G107" s="61" t="s">
+      <c r="G107" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="H107" s="60"/>
-      <c r="I107" s="60"/>
-      <c r="J107" s="60"/>
-      <c r="K107" s="79"/>
+      <c r="H107" s="71"/>
+      <c r="I107" s="71"/>
+      <c r="J107" s="71"/>
+      <c r="K107" s="72"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="11">
         <v>1</v>
       </c>
-      <c r="B108" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="C108" s="47"/>
-      <c r="D108" s="53"/>
+      <c r="B108" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="C108" s="48"/>
+      <c r="D108" s="49"/>
       <c r="E108" s="3"/>
       <c r="F108" s="12">
         <v>1</v>
       </c>
-      <c r="G108" s="46" t="s">
-        <v>76</v>
-      </c>
-      <c r="H108" s="47"/>
-      <c r="I108" s="47"/>
-      <c r="J108" s="47"/>
-      <c r="K108" s="48"/>
+      <c r="G108" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="H108" s="48"/>
+      <c r="I108" s="48"/>
+      <c r="J108" s="48"/>
+      <c r="K108" s="50"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="11">
         <v>2</v>
       </c>
-      <c r="B109" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="C109" s="47"/>
-      <c r="D109" s="53"/>
+      <c r="B109" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="C109" s="48"/>
+      <c r="D109" s="49"/>
       <c r="E109" s="3"/>
       <c r="F109" s="12">
         <v>2</v>
       </c>
-      <c r="G109" s="46" t="s">
-        <v>73</v>
-      </c>
-      <c r="H109" s="47"/>
-      <c r="I109" s="47"/>
-      <c r="J109" s="47"/>
-      <c r="K109" s="48"/>
+      <c r="G109" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="H109" s="48"/>
+      <c r="I109" s="48"/>
+      <c r="J109" s="48"/>
+      <c r="K109" s="50"/>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="11">
         <v>3</v>
       </c>
-      <c r="B110" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="C110" s="47"/>
-      <c r="D110" s="53"/>
+      <c r="B110" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="C110" s="48"/>
+      <c r="D110" s="49"/>
       <c r="E110" s="3"/>
       <c r="F110" s="12">
         <v>3</v>
       </c>
-      <c r="G110" s="46" t="s">
-        <v>162</v>
-      </c>
-      <c r="H110" s="47"/>
-      <c r="I110" s="47"/>
-      <c r="J110" s="47"/>
-      <c r="K110" s="48"/>
+      <c r="G110" s="47" t="s">
+        <v>158</v>
+      </c>
+      <c r="H110" s="48"/>
+      <c r="I110" s="48"/>
+      <c r="J110" s="48"/>
+      <c r="K110" s="50"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="3"/>
@@ -3872,7 +3993,7 @@
         <v>13</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
@@ -3898,240 +4019,240 @@
       <c r="K114" s="16"/>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A115" s="101" t="s">
+      <c r="A115" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="B115" s="92" t="s">
+      <c r="B115" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="C115" s="93"/>
-      <c r="D115" s="95" t="s">
+      <c r="C115" s="54"/>
+      <c r="D115" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="E115" s="96"/>
-      <c r="F115" s="92" t="s">
+      <c r="E115" s="57"/>
+      <c r="F115" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="G115" s="93"/>
-      <c r="H115" s="93"/>
-      <c r="I115" s="92" t="s">
+      <c r="G115" s="54"/>
+      <c r="H115" s="54"/>
+      <c r="I115" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="J115" s="93"/>
-      <c r="K115" s="99"/>
+      <c r="J115" s="54"/>
+      <c r="K115" s="60"/>
     </row>
     <row r="116" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="102"/>
-      <c r="B116" s="94"/>
-      <c r="C116" s="94"/>
-      <c r="D116" s="97"/>
-      <c r="E116" s="97"/>
-      <c r="F116" s="98"/>
-      <c r="G116" s="98"/>
-      <c r="H116" s="98"/>
-      <c r="I116" s="98"/>
-      <c r="J116" s="98"/>
-      <c r="K116" s="100"/>
+      <c r="A116" s="52"/>
+      <c r="B116" s="55"/>
+      <c r="C116" s="55"/>
+      <c r="D116" s="58"/>
+      <c r="E116" s="58"/>
+      <c r="F116" s="59"/>
+      <c r="G116" s="59"/>
+      <c r="H116" s="59"/>
+      <c r="I116" s="59"/>
+      <c r="J116" s="59"/>
+      <c r="K116" s="61"/>
     </row>
     <row r="117" spans="1:11" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="17">
         <v>1</v>
       </c>
-      <c r="B117" s="86" t="s">
-        <v>64</v>
-      </c>
-      <c r="C117" s="87"/>
-      <c r="D117" s="86" t="s">
+      <c r="B117" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="C117" s="40"/>
+      <c r="D117" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="E117" s="86"/>
-      <c r="F117" s="88" t="s">
+      <c r="E117" s="39"/>
+      <c r="F117" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="G117" s="57"/>
-      <c r="H117" s="89"/>
-      <c r="I117" s="88" t="s">
+      <c r="G117" s="42"/>
+      <c r="H117" s="43"/>
+      <c r="I117" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="J117" s="57"/>
-      <c r="K117" s="58"/>
+      <c r="J117" s="42"/>
+      <c r="K117" s="44"/>
     </row>
     <row r="118" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="11">
         <v>2</v>
       </c>
-      <c r="B118" s="90" t="s">
+      <c r="B118" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="C118" s="46"/>
+      <c r="D118" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="C118" s="91"/>
-      <c r="D118" s="90" t="s">
-        <v>66</v>
-      </c>
-      <c r="E118" s="90"/>
-      <c r="F118" s="46" t="s">
+      <c r="E118" s="45"/>
+      <c r="F118" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="G118" s="47"/>
-      <c r="H118" s="53"/>
-      <c r="I118" s="46" t="s">
+      <c r="G118" s="48"/>
+      <c r="H118" s="49"/>
+      <c r="I118" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="J118" s="47"/>
-      <c r="K118" s="48"/>
+      <c r="J118" s="48"/>
+      <c r="K118" s="50"/>
     </row>
     <row r="119" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="18">
         <v>3</v>
       </c>
-      <c r="B119" s="83" t="s">
+      <c r="B119" s="79" t="s">
+        <v>83</v>
+      </c>
+      <c r="C119" s="80"/>
+      <c r="D119" s="88" t="s">
         <v>84</v>
       </c>
-      <c r="C119" s="84"/>
-      <c r="D119" s="85" t="s">
-        <v>85</v>
-      </c>
-      <c r="E119" s="83"/>
-      <c r="F119" s="40" t="s">
+      <c r="E119" s="79"/>
+      <c r="F119" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="G119" s="44"/>
-      <c r="H119" s="41"/>
-      <c r="I119" s="40" t="s">
+      <c r="G119" s="37"/>
+      <c r="H119" s="81"/>
+      <c r="I119" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="J119" s="44"/>
-      <c r="K119" s="45"/>
+      <c r="J119" s="37"/>
+      <c r="K119" s="38"/>
     </row>
     <row r="120" spans="1:11" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="18">
         <v>4</v>
       </c>
-      <c r="B120" s="83" t="s">
+      <c r="B120" s="79" t="s">
+        <v>85</v>
+      </c>
+      <c r="C120" s="80"/>
+      <c r="D120" s="79" t="s">
         <v>86</v>
       </c>
-      <c r="C120" s="84"/>
-      <c r="D120" s="83" t="s">
-        <v>87</v>
-      </c>
-      <c r="E120" s="83"/>
-      <c r="F120" s="40" t="s">
+      <c r="E120" s="79"/>
+      <c r="F120" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="G120" s="44"/>
-      <c r="H120" s="41"/>
-      <c r="I120" s="40" t="s">
+      <c r="G120" s="37"/>
+      <c r="H120" s="81"/>
+      <c r="I120" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="J120" s="44"/>
-      <c r="K120" s="45"/>
+      <c r="J120" s="37"/>
+      <c r="K120" s="38"/>
     </row>
     <row r="121" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="18">
         <v>5</v>
       </c>
-      <c r="B121" s="83" t="s">
+      <c r="B121" s="79" t="s">
+        <v>87</v>
+      </c>
+      <c r="C121" s="80"/>
+      <c r="D121" s="79" t="s">
         <v>88</v>
       </c>
-      <c r="C121" s="84"/>
-      <c r="D121" s="83" t="s">
-        <v>89</v>
-      </c>
-      <c r="E121" s="83"/>
-      <c r="F121" s="40" t="s">
+      <c r="E121" s="79"/>
+      <c r="F121" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="G121" s="44"/>
-      <c r="H121" s="41"/>
-      <c r="I121" s="40" t="s">
+      <c r="G121" s="37"/>
+      <c r="H121" s="81"/>
+      <c r="I121" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="J121" s="44"/>
-      <c r="K121" s="45"/>
+      <c r="J121" s="37"/>
+      <c r="K121" s="38"/>
     </row>
     <row r="122" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="18">
         <v>6</v>
       </c>
-      <c r="B122" s="83" t="s">
+      <c r="B122" s="79" t="s">
+        <v>89</v>
+      </c>
+      <c r="C122" s="80"/>
+      <c r="D122" s="79" t="s">
         <v>90</v>
       </c>
-      <c r="C122" s="84"/>
-      <c r="D122" s="83" t="s">
-        <v>91</v>
-      </c>
-      <c r="E122" s="83"/>
-      <c r="F122" s="40" t="s">
+      <c r="E122" s="79"/>
+      <c r="F122" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="G122" s="44"/>
-      <c r="H122" s="41"/>
-      <c r="I122" s="40" t="s">
+      <c r="G122" s="37"/>
+      <c r="H122" s="81"/>
+      <c r="I122" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="J122" s="44"/>
-      <c r="K122" s="45"/>
+      <c r="J122" s="37"/>
+      <c r="K122" s="38"/>
     </row>
     <row r="124" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="125" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A125" s="54" t="s">
+      <c r="A125" s="82" t="s">
+        <v>91</v>
+      </c>
+      <c r="B125" s="83"/>
+      <c r="C125" s="83"/>
+      <c r="D125" s="83"/>
+      <c r="E125" s="83"/>
+      <c r="F125" s="83"/>
+      <c r="G125" s="83"/>
+      <c r="H125" s="83"/>
+      <c r="I125" s="83"/>
+      <c r="J125" s="83"/>
+      <c r="K125" s="84"/>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A126" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B126" s="86"/>
+      <c r="C126" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="B125" s="55"/>
-      <c r="C125" s="55"/>
-      <c r="D125" s="55"/>
-      <c r="E125" s="55"/>
-      <c r="F125" s="55"/>
-      <c r="G125" s="55"/>
-      <c r="H125" s="55"/>
-      <c r="I125" s="55"/>
-      <c r="J125" s="55"/>
-      <c r="K125" s="56"/>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A126" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B126" s="81"/>
-      <c r="C126" s="19" t="s">
+      <c r="D126" s="87" t="s">
+        <v>1</v>
+      </c>
+      <c r="E126" s="86"/>
+      <c r="F126" s="42" t="s">
         <v>93</v>
       </c>
-      <c r="D126" s="82" t="s">
-        <v>1</v>
-      </c>
-      <c r="E126" s="81"/>
-      <c r="F126" s="57" t="s">
-        <v>94</v>
-      </c>
-      <c r="G126" s="57"/>
-      <c r="H126" s="57"/>
-      <c r="I126" s="57"/>
-      <c r="J126" s="57"/>
-      <c r="K126" s="58"/>
+      <c r="G126" s="42"/>
+      <c r="H126" s="42"/>
+      <c r="I126" s="42"/>
+      <c r="J126" s="42"/>
+      <c r="K126" s="44"/>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A127" s="59" t="s">
+      <c r="A127" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="B127" s="60"/>
+      <c r="B127" s="71"/>
       <c r="C127" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D127" s="61" t="s">
+      <c r="D127" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="E127" s="60"/>
-      <c r="F127" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="G127" s="53"/>
-      <c r="H127" s="62" t="s">
+      <c r="E127" s="71"/>
+      <c r="F127" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="G127" s="49"/>
+      <c r="H127" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="I127" s="60"/>
-      <c r="J127" s="63" t="s">
-        <v>31</v>
-      </c>
-      <c r="K127" s="64"/>
+      <c r="I127" s="71"/>
+      <c r="J127" s="75" t="s">
+        <v>30</v>
+      </c>
+      <c r="K127" s="76"/>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="2"/>
@@ -4147,12 +4268,12 @@
       <c r="K128" s="4"/>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A129" s="65" t="s">
+      <c r="A129" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="B129" s="66"/>
+      <c r="B129" s="78"/>
       <c r="C129" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D129" s="6"/>
       <c r="E129" s="6"/>
@@ -4177,29 +4298,29 @@
       <c r="K130" s="4"/>
     </row>
     <row r="131" spans="1:11" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A131" s="67" t="s">
+      <c r="A131" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B131" s="68"/>
+      <c r="B131" s="63"/>
       <c r="C131" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="D131" s="67" t="s">
+      <c r="D131" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="E131" s="68"/>
-      <c r="F131" s="69">
+      <c r="E131" s="63"/>
+      <c r="F131" s="64">
         <v>44500</v>
       </c>
-      <c r="G131" s="70"/>
-      <c r="H131" s="67" t="s">
+      <c r="G131" s="65"/>
+      <c r="H131" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="I131" s="68"/>
-      <c r="J131" s="71" t="s">
+      <c r="I131" s="63"/>
+      <c r="J131" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="K131" s="72"/>
+      <c r="K131" s="67"/>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="7"/>
@@ -4218,74 +4339,74 @@
       <c r="A133" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B133" s="77" t="s">
+      <c r="B133" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="C133" s="78"/>
-      <c r="D133" s="78"/>
+      <c r="C133" s="69"/>
+      <c r="D133" s="69"/>
       <c r="E133" s="9"/>
       <c r="F133" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G133" s="61" t="s">
+      <c r="G133" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="H133" s="60"/>
-      <c r="I133" s="60"/>
-      <c r="J133" s="60"/>
-      <c r="K133" s="79"/>
+      <c r="H133" s="71"/>
+      <c r="I133" s="71"/>
+      <c r="J133" s="71"/>
+      <c r="K133" s="72"/>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="11">
         <v>1</v>
       </c>
-      <c r="B134" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="C134" s="47"/>
-      <c r="D134" s="53"/>
+      <c r="B134" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="C134" s="48"/>
+      <c r="D134" s="49"/>
       <c r="E134" s="3"/>
       <c r="F134" s="12">
         <v>1</v>
       </c>
-      <c r="G134" s="46" t="s">
-        <v>76</v>
-      </c>
-      <c r="H134" s="47"/>
-      <c r="I134" s="47"/>
-      <c r="J134" s="47"/>
-      <c r="K134" s="48"/>
+      <c r="G134" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="H134" s="48"/>
+      <c r="I134" s="48"/>
+      <c r="J134" s="48"/>
+      <c r="K134" s="50"/>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="11">
         <v>2</v>
       </c>
-      <c r="B135" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="C135" s="47"/>
-      <c r="D135" s="53"/>
+      <c r="B135" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="C135" s="48"/>
+      <c r="D135" s="49"/>
       <c r="E135" s="3"/>
       <c r="F135" s="12">
         <v>2</v>
       </c>
-      <c r="G135" s="46" t="s">
-        <v>73</v>
-      </c>
-      <c r="H135" s="47"/>
-      <c r="I135" s="47"/>
-      <c r="J135" s="47"/>
-      <c r="K135" s="48"/>
+      <c r="G135" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="H135" s="48"/>
+      <c r="I135" s="48"/>
+      <c r="J135" s="48"/>
+      <c r="K135" s="50"/>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="11">
         <v>3</v>
       </c>
-      <c r="B136" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="C136" s="47"/>
-      <c r="D136" s="53"/>
+      <c r="B136" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="C136" s="48"/>
+      <c r="D136" s="49"/>
       <c r="E136" s="3"/>
       <c r="F136" s="3"/>
       <c r="G136" s="3"/>
@@ -4325,7 +4446,7 @@
         <v>13</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
@@ -4351,217 +4472,217 @@
       <c r="K140" s="16"/>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A141" s="101" t="s">
+      <c r="A141" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="B141" s="92" t="s">
+      <c r="B141" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="C141" s="93"/>
-      <c r="D141" s="95" t="s">
+      <c r="C141" s="54"/>
+      <c r="D141" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="E141" s="96"/>
-      <c r="F141" s="92" t="s">
+      <c r="E141" s="57"/>
+      <c r="F141" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="G141" s="93"/>
-      <c r="H141" s="93"/>
-      <c r="I141" s="92" t="s">
+      <c r="G141" s="54"/>
+      <c r="H141" s="54"/>
+      <c r="I141" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="J141" s="93"/>
-      <c r="K141" s="99"/>
+      <c r="J141" s="54"/>
+      <c r="K141" s="60"/>
     </row>
     <row r="142" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A142" s="102"/>
-      <c r="B142" s="94"/>
-      <c r="C142" s="94"/>
-      <c r="D142" s="97"/>
-      <c r="E142" s="97"/>
-      <c r="F142" s="98"/>
-      <c r="G142" s="98"/>
-      <c r="H142" s="98"/>
-      <c r="I142" s="98"/>
-      <c r="J142" s="98"/>
-      <c r="K142" s="100"/>
+      <c r="A142" s="52"/>
+      <c r="B142" s="55"/>
+      <c r="C142" s="55"/>
+      <c r="D142" s="58"/>
+      <c r="E142" s="58"/>
+      <c r="F142" s="59"/>
+      <c r="G142" s="59"/>
+      <c r="H142" s="59"/>
+      <c r="I142" s="59"/>
+      <c r="J142" s="59"/>
+      <c r="K142" s="61"/>
     </row>
     <row r="143" spans="1:11" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="17">
         <v>1</v>
       </c>
-      <c r="B143" s="86" t="s">
-        <v>64</v>
-      </c>
-      <c r="C143" s="87"/>
-      <c r="D143" s="86" t="s">
+      <c r="B143" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="C143" s="40"/>
+      <c r="D143" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="E143" s="86"/>
-      <c r="F143" s="88" t="s">
+      <c r="E143" s="39"/>
+      <c r="F143" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="G143" s="57"/>
-      <c r="H143" s="89"/>
-      <c r="I143" s="88" t="s">
+      <c r="G143" s="42"/>
+      <c r="H143" s="43"/>
+      <c r="I143" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="J143" s="57"/>
-      <c r="K143" s="58"/>
+      <c r="J143" s="42"/>
+      <c r="K143" s="44"/>
     </row>
     <row r="144" spans="1:11" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="11">
         <v>2</v>
       </c>
-      <c r="B144" s="90" t="s">
+      <c r="B144" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="C144" s="46"/>
+      <c r="D144" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="C144" s="91"/>
-      <c r="D144" s="90" t="s">
-        <v>97</v>
-      </c>
-      <c r="E144" s="90"/>
-      <c r="F144" s="46" t="s">
+      <c r="E144" s="45"/>
+      <c r="F144" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="G144" s="47"/>
-      <c r="H144" s="53"/>
-      <c r="I144" s="46" t="s">
+      <c r="G144" s="48"/>
+      <c r="H144" s="49"/>
+      <c r="I144" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="J144" s="47"/>
-      <c r="K144" s="48"/>
+      <c r="J144" s="48"/>
+      <c r="K144" s="50"/>
     </row>
     <row r="145" spans="1:11" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A145" s="18">
         <v>3</v>
       </c>
-      <c r="B145" s="83" t="s">
+      <c r="B145" s="79" t="s">
+        <v>97</v>
+      </c>
+      <c r="C145" s="80"/>
+      <c r="D145" s="88" t="s">
         <v>98</v>
       </c>
-      <c r="C145" s="84"/>
-      <c r="D145" s="85" t="s">
-        <v>99</v>
-      </c>
-      <c r="E145" s="83"/>
-      <c r="F145" s="40" t="s">
+      <c r="E145" s="79"/>
+      <c r="F145" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="G145" s="44"/>
-      <c r="H145" s="41"/>
-      <c r="I145" s="40" t="s">
+      <c r="G145" s="37"/>
+      <c r="H145" s="81"/>
+      <c r="I145" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="J145" s="44"/>
-      <c r="K145" s="45"/>
+      <c r="J145" s="37"/>
+      <c r="K145" s="38"/>
     </row>
     <row r="146" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A146" s="18">
         <v>4</v>
       </c>
-      <c r="B146" s="83" t="s">
+      <c r="B146" s="79" t="s">
+        <v>99</v>
+      </c>
+      <c r="C146" s="80"/>
+      <c r="D146" s="79" t="s">
         <v>100</v>
       </c>
-      <c r="C146" s="84"/>
-      <c r="D146" s="83" t="s">
-        <v>101</v>
-      </c>
-      <c r="E146" s="83"/>
-      <c r="F146" s="40" t="s">
+      <c r="E146" s="79"/>
+      <c r="F146" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="G146" s="44"/>
-      <c r="H146" s="41"/>
-      <c r="I146" s="40" t="s">
+      <c r="G146" s="37"/>
+      <c r="H146" s="81"/>
+      <c r="I146" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="J146" s="44"/>
-      <c r="K146" s="45"/>
+      <c r="J146" s="37"/>
+      <c r="K146" s="38"/>
     </row>
     <row r="147" spans="1:11" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A147" s="18">
         <v>5</v>
       </c>
-      <c r="B147" s="83" t="s">
-        <v>100</v>
-      </c>
-      <c r="C147" s="84"/>
-      <c r="D147" s="83" t="s">
-        <v>102</v>
-      </c>
-      <c r="E147" s="83"/>
-      <c r="F147" s="40" t="s">
+      <c r="B147" s="79" t="s">
+        <v>99</v>
+      </c>
+      <c r="C147" s="80"/>
+      <c r="D147" s="79" t="s">
+        <v>101</v>
+      </c>
+      <c r="E147" s="79"/>
+      <c r="F147" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="G147" s="44"/>
-      <c r="H147" s="41"/>
-      <c r="I147" s="40" t="s">
+      <c r="G147" s="37"/>
+      <c r="H147" s="81"/>
+      <c r="I147" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="J147" s="44"/>
-      <c r="K147" s="45"/>
+      <c r="J147" s="37"/>
+      <c r="K147" s="38"/>
     </row>
     <row r="149" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="150" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A150" s="54" t="s">
+      <c r="A150" s="82" t="s">
+        <v>102</v>
+      </c>
+      <c r="B150" s="83"/>
+      <c r="C150" s="83"/>
+      <c r="D150" s="83"/>
+      <c r="E150" s="83"/>
+      <c r="F150" s="83"/>
+      <c r="G150" s="83"/>
+      <c r="H150" s="83"/>
+      <c r="I150" s="83"/>
+      <c r="J150" s="83"/>
+      <c r="K150" s="84"/>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A151" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B151" s="86"/>
+      <c r="C151" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="D151" s="87" t="s">
+        <v>1</v>
+      </c>
+      <c r="E151" s="86"/>
+      <c r="F151" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="B150" s="55"/>
-      <c r="C150" s="55"/>
-      <c r="D150" s="55"/>
-      <c r="E150" s="55"/>
-      <c r="F150" s="55"/>
-      <c r="G150" s="55"/>
-      <c r="H150" s="55"/>
-      <c r="I150" s="55"/>
-      <c r="J150" s="55"/>
-      <c r="K150" s="56"/>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A151" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B151" s="81"/>
-      <c r="C151" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="D151" s="82" t="s">
-        <v>1</v>
-      </c>
-      <c r="E151" s="81"/>
-      <c r="F151" s="57" t="s">
-        <v>94</v>
-      </c>
-      <c r="G151" s="57"/>
-      <c r="H151" s="57"/>
-      <c r="I151" s="57"/>
-      <c r="J151" s="57"/>
-      <c r="K151" s="58"/>
+      <c r="G151" s="42"/>
+      <c r="H151" s="42"/>
+      <c r="I151" s="42"/>
+      <c r="J151" s="42"/>
+      <c r="K151" s="44"/>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A152" s="59" t="s">
+      <c r="A152" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="B152" s="60"/>
+      <c r="B152" s="71"/>
       <c r="C152" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D152" s="61" t="s">
+      <c r="D152" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="E152" s="60"/>
-      <c r="F152" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="G152" s="53"/>
-      <c r="H152" s="62" t="s">
+      <c r="E152" s="71"/>
+      <c r="F152" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="G152" s="49"/>
+      <c r="H152" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="I152" s="60"/>
-      <c r="J152" s="63" t="s">
-        <v>31</v>
-      </c>
-      <c r="K152" s="64"/>
+      <c r="I152" s="71"/>
+      <c r="J152" s="75" t="s">
+        <v>30</v>
+      </c>
+      <c r="K152" s="76"/>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="2"/>
@@ -4577,12 +4698,12 @@
       <c r="K153" s="4"/>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A154" s="65" t="s">
+      <c r="A154" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="B154" s="66"/>
+      <c r="B154" s="78"/>
       <c r="C154" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D154" s="6"/>
       <c r="E154" s="6"/>
@@ -4607,29 +4728,29 @@
       <c r="K155" s="4"/>
     </row>
     <row r="156" spans="1:11" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A156" s="67" t="s">
+      <c r="A156" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B156" s="68"/>
+      <c r="B156" s="63"/>
       <c r="C156" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="D156" s="67" t="s">
+      <c r="D156" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="E156" s="68"/>
-      <c r="F156" s="69">
+      <c r="E156" s="63"/>
+      <c r="F156" s="64">
         <v>44500</v>
       </c>
-      <c r="G156" s="70"/>
-      <c r="H156" s="67" t="s">
+      <c r="G156" s="65"/>
+      <c r="H156" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="I156" s="68"/>
-      <c r="J156" s="71" t="s">
+      <c r="I156" s="63"/>
+      <c r="J156" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="K156" s="72"/>
+      <c r="K156" s="67"/>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="7"/>
@@ -4648,87 +4769,95 @@
       <c r="A158" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B158" s="77" t="s">
+      <c r="B158" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="C158" s="78"/>
-      <c r="D158" s="78"/>
+      <c r="C158" s="69"/>
+      <c r="D158" s="69"/>
       <c r="E158" s="9"/>
       <c r="F158" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G158" s="61" t="s">
+      <c r="G158" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="H158" s="60"/>
-      <c r="I158" s="60"/>
-      <c r="J158" s="60"/>
-      <c r="K158" s="79"/>
+      <c r="H158" s="71"/>
+      <c r="I158" s="71"/>
+      <c r="J158" s="71"/>
+      <c r="K158" s="72"/>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="11">
         <v>1</v>
       </c>
-      <c r="B159" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="C159" s="47"/>
-      <c r="D159" s="53"/>
+      <c r="B159" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="C159" s="48"/>
+      <c r="D159" s="49"/>
       <c r="E159" s="3"/>
       <c r="F159" s="12">
         <v>1</v>
       </c>
-      <c r="G159" s="46" t="s">
-        <v>76</v>
-      </c>
-      <c r="H159" s="47"/>
-      <c r="I159" s="47"/>
-      <c r="J159" s="47"/>
-      <c r="K159" s="48"/>
+      <c r="G159" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="H159" s="48"/>
+      <c r="I159" s="48"/>
+      <c r="J159" s="48"/>
+      <c r="K159" s="50"/>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="11">
         <v>2</v>
       </c>
-      <c r="B160" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="C160" s="47"/>
-      <c r="D160" s="53"/>
+      <c r="B160" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="C160" s="48"/>
+      <c r="D160" s="49"/>
       <c r="E160" s="3"/>
       <c r="F160" s="12">
         <v>2</v>
       </c>
-      <c r="G160" s="46" t="s">
-        <v>73</v>
-      </c>
-      <c r="H160" s="47"/>
-      <c r="I160" s="47"/>
-      <c r="J160" s="47"/>
-      <c r="K160" s="48"/>
+      <c r="G160" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="H160" s="48"/>
+      <c r="I160" s="48"/>
+      <c r="J160" s="48"/>
+      <c r="K160" s="50"/>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="11">
         <v>3</v>
       </c>
-      <c r="B161" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="C161" s="47"/>
-      <c r="D161" s="53"/>
+      <c r="B161" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="C161" s="48"/>
+      <c r="D161" s="49"/>
       <c r="E161" s="3"/>
-      <c r="F161" s="3"/>
-      <c r="G161" s="3"/>
-      <c r="H161" s="3"/>
-      <c r="I161" s="3"/>
-      <c r="J161" s="3"/>
-      <c r="K161" s="4"/>
+      <c r="F161" s="12">
+        <v>3</v>
+      </c>
+      <c r="G161" s="47" t="s">
+        <v>105</v>
+      </c>
+      <c r="H161" s="48"/>
+      <c r="I161" s="48"/>
+      <c r="J161" s="48"/>
+      <c r="K161" s="50"/>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A162" s="3"/>
-      <c r="B162" s="3"/>
-      <c r="C162" s="3"/>
-      <c r="D162" s="3"/>
+      <c r="A162" s="11">
+        <v>4</v>
+      </c>
+      <c r="B162" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="C162" s="48"/>
+      <c r="D162" s="49"/>
       <c r="E162" s="3"/>
       <c r="F162" s="3"/>
       <c r="G162" s="3"/>
@@ -4751,11 +4880,11 @@
       <c r="K163" s="4"/>
     </row>
     <row r="164" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A164" s="13" t="s">
+      <c r="A164" s="34" t="s">
         <v>13</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
@@ -4781,217 +4910,207 @@
       <c r="K165" s="16"/>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A166" s="101" t="s">
+      <c r="A166" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="B166" s="92" t="s">
+      <c r="B166" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="C166" s="93"/>
-      <c r="D166" s="95" t="s">
+      <c r="C166" s="54"/>
+      <c r="D166" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="E166" s="96"/>
-      <c r="F166" s="92" t="s">
+      <c r="E166" s="57"/>
+      <c r="F166" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="G166" s="93"/>
-      <c r="H166" s="93"/>
-      <c r="I166" s="92" t="s">
+      <c r="G166" s="54"/>
+      <c r="H166" s="54"/>
+      <c r="I166" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="J166" s="93"/>
-      <c r="K166" s="99"/>
+      <c r="J166" s="54"/>
+      <c r="K166" s="60"/>
     </row>
     <row r="167" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A167" s="102"/>
-      <c r="B167" s="94"/>
-      <c r="C167" s="94"/>
-      <c r="D167" s="97"/>
-      <c r="E167" s="97"/>
-      <c r="F167" s="98"/>
-      <c r="G167" s="98"/>
-      <c r="H167" s="98"/>
-      <c r="I167" s="98"/>
-      <c r="J167" s="98"/>
-      <c r="K167" s="100"/>
-    </row>
-    <row r="168" spans="1:11" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="52"/>
+      <c r="B167" s="55"/>
+      <c r="C167" s="55"/>
+      <c r="D167" s="58"/>
+      <c r="E167" s="58"/>
+      <c r="F167" s="59"/>
+      <c r="G167" s="59"/>
+      <c r="H167" s="59"/>
+      <c r="I167" s="59"/>
+      <c r="J167" s="59"/>
+      <c r="K167" s="61"/>
+    </row>
+    <row r="168" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="17">
         <v>1</v>
       </c>
-      <c r="B168" s="86" t="s">
-        <v>64</v>
-      </c>
-      <c r="C168" s="87"/>
-      <c r="D168" s="86" t="s">
+      <c r="B168" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="C168" s="40"/>
+      <c r="D168" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="E168" s="86"/>
-      <c r="F168" s="88" t="s">
+      <c r="E168" s="39"/>
+      <c r="F168" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="G168" s="57"/>
-      <c r="H168" s="89"/>
-      <c r="I168" s="88" t="s">
+      <c r="G168" s="42"/>
+      <c r="H168" s="43"/>
+      <c r="I168" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="J168" s="57"/>
-      <c r="K168" s="58"/>
-    </row>
-    <row r="169" spans="1:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J168" s="42"/>
+      <c r="K168" s="44"/>
+    </row>
+    <row r="169" spans="1:11" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="11">
         <v>2</v>
       </c>
-      <c r="B169" s="90" t="s">
-        <v>96</v>
-      </c>
-      <c r="C169" s="91"/>
-      <c r="D169" s="90" t="s">
-        <v>97</v>
-      </c>
-      <c r="E169" s="90"/>
-      <c r="F169" s="46" t="s">
+      <c r="B169" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="C169" s="46"/>
+      <c r="D169" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="E169" s="45"/>
+      <c r="F169" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="G169" s="47"/>
-      <c r="H169" s="53"/>
-      <c r="I169" s="46" t="s">
+      <c r="G169" s="48"/>
+      <c r="H169" s="49"/>
+      <c r="I169" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="J169" s="47"/>
-      <c r="K169" s="48"/>
-    </row>
-    <row r="170" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A170" s="18">
+      <c r="J169" s="48"/>
+      <c r="K169" s="50"/>
+    </row>
+    <row r="170" spans="1:11" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="127">
         <v>3</v>
       </c>
-      <c r="B170" s="83" t="s">
-        <v>98</v>
-      </c>
-      <c r="C170" s="84"/>
-      <c r="D170" s="85" t="s">
-        <v>99</v>
-      </c>
-      <c r="E170" s="83"/>
-      <c r="F170" s="40" t="s">
+      <c r="B170" s="128" t="s">
+        <v>161</v>
+      </c>
+      <c r="C170" s="129"/>
+      <c r="D170" s="130" t="s">
+        <v>162</v>
+      </c>
+      <c r="E170" s="128"/>
+      <c r="F170" s="131" t="s">
         <v>20</v>
       </c>
-      <c r="G170" s="44"/>
-      <c r="H170" s="41"/>
-      <c r="I170" s="40" t="s">
+      <c r="G170" s="132"/>
+      <c r="H170" s="133"/>
+      <c r="I170" s="131" t="s">
         <v>9</v>
       </c>
-      <c r="J170" s="44"/>
-      <c r="K170" s="45"/>
-    </row>
-    <row r="171" spans="1:11" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A171" s="18">
+      <c r="J170" s="132"/>
+      <c r="K170" s="134"/>
+    </row>
+    <row r="171" spans="1:11" ht="45.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A171" s="137">
         <v>4</v>
       </c>
-      <c r="B171" s="83" t="s">
-        <v>100</v>
-      </c>
-      <c r="C171" s="84"/>
-      <c r="D171" s="83" t="s">
-        <v>101</v>
-      </c>
-      <c r="E171" s="83"/>
-      <c r="F171" s="40" t="s">
+      <c r="B171" s="79" t="s">
+        <v>163</v>
+      </c>
+      <c r="C171" s="80"/>
+      <c r="D171" s="88" t="s">
+        <v>110</v>
+      </c>
+      <c r="E171" s="79"/>
+      <c r="F171" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="G171" s="44"/>
-      <c r="H171" s="41"/>
-      <c r="I171" s="40" t="s">
+      <c r="G171" s="79"/>
+      <c r="H171" s="36"/>
+      <c r="I171" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="J171" s="44"/>
-      <c r="K171" s="45"/>
-    </row>
-    <row r="172" spans="1:11" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A172" s="18">
-        <v>5</v>
-      </c>
-      <c r="B172" s="83" t="s">
-        <v>120</v>
-      </c>
-      <c r="C172" s="84"/>
-      <c r="D172" s="83" t="s">
-        <v>102</v>
-      </c>
-      <c r="E172" s="83"/>
-      <c r="F172" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="G172" s="44"/>
-      <c r="H172" s="41"/>
-      <c r="I172" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="J172" s="44"/>
-      <c r="K172" s="45"/>
+      <c r="J171" s="79"/>
+      <c r="K171" s="138"/>
+    </row>
+    <row r="172" spans="1:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="35"/>
+      <c r="B172" s="135"/>
+      <c r="C172" s="136"/>
+      <c r="D172" s="135"/>
+      <c r="E172" s="135"/>
+      <c r="F172" s="135"/>
+      <c r="G172" s="135"/>
+      <c r="H172" s="135"/>
+      <c r="I172" s="135"/>
+      <c r="J172" s="135"/>
+      <c r="K172" s="135"/>
     </row>
     <row r="174" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="175" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A175" s="54" t="s">
-        <v>105</v>
-      </c>
-      <c r="B175" s="55"/>
-      <c r="C175" s="55"/>
-      <c r="D175" s="55"/>
-      <c r="E175" s="55"/>
-      <c r="F175" s="55"/>
-      <c r="G175" s="55"/>
-      <c r="H175" s="55"/>
-      <c r="I175" s="55"/>
-      <c r="J175" s="55"/>
-      <c r="K175" s="56"/>
+      <c r="A175" s="82" t="s">
+        <v>102</v>
+      </c>
+      <c r="B175" s="83"/>
+      <c r="C175" s="83"/>
+      <c r="D175" s="83"/>
+      <c r="E175" s="83"/>
+      <c r="F175" s="83"/>
+      <c r="G175" s="83"/>
+      <c r="H175" s="83"/>
+      <c r="I175" s="83"/>
+      <c r="J175" s="83"/>
+      <c r="K175" s="84"/>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A176" s="80" t="s">
+      <c r="A176" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="B176" s="81"/>
+      <c r="B176" s="86"/>
       <c r="C176" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="D176" s="82" t="s">
+        <v>114</v>
+      </c>
+      <c r="D176" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="E176" s="81"/>
-      <c r="F176" s="57" t="s">
-        <v>106</v>
-      </c>
-      <c r="G176" s="57"/>
-      <c r="H176" s="57"/>
-      <c r="I176" s="57"/>
-      <c r="J176" s="57"/>
-      <c r="K176" s="58"/>
+      <c r="E176" s="86"/>
+      <c r="F176" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="G176" s="42"/>
+      <c r="H176" s="42"/>
+      <c r="I176" s="42"/>
+      <c r="J176" s="42"/>
+      <c r="K176" s="44"/>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A177" s="59" t="s">
+      <c r="A177" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="B177" s="60"/>
+      <c r="B177" s="71"/>
       <c r="C177" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D177" s="61" t="s">
+      <c r="D177" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="E177" s="60"/>
-      <c r="F177" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="G177" s="53"/>
-      <c r="H177" s="62" t="s">
+      <c r="E177" s="71"/>
+      <c r="F177" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="G177" s="49"/>
+      <c r="H177" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="I177" s="60"/>
-      <c r="J177" s="63" t="s">
-        <v>31</v>
-      </c>
-      <c r="K177" s="64"/>
+      <c r="I177" s="71"/>
+      <c r="J177" s="75" t="s">
+        <v>30</v>
+      </c>
+      <c r="K177" s="76"/>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="2"/>
@@ -5007,12 +5126,12 @@
       <c r="K178" s="4"/>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A179" s="65" t="s">
+      <c r="A179" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="B179" s="66"/>
+      <c r="B179" s="78"/>
       <c r="C179" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D179" s="6"/>
       <c r="E179" s="6"/>
@@ -5037,29 +5156,29 @@
       <c r="K180" s="4"/>
     </row>
     <row r="181" spans="1:11" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A181" s="67" t="s">
+      <c r="A181" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B181" s="68"/>
+      <c r="B181" s="63"/>
       <c r="C181" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="D181" s="67" t="s">
+      <c r="D181" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="E181" s="68"/>
-      <c r="F181" s="69">
+      <c r="E181" s="63"/>
+      <c r="F181" s="64">
         <v>44500</v>
       </c>
-      <c r="G181" s="70"/>
-      <c r="H181" s="67" t="s">
+      <c r="G181" s="65"/>
+      <c r="H181" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="I181" s="68"/>
-      <c r="J181" s="71" t="s">
+      <c r="I181" s="63"/>
+      <c r="J181" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="K181" s="72"/>
+      <c r="K181" s="67"/>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="7"/>
@@ -5078,95 +5197,95 @@
       <c r="A183" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B183" s="77" t="s">
+      <c r="B183" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="C183" s="78"/>
-      <c r="D183" s="78"/>
+      <c r="C183" s="69"/>
+      <c r="D183" s="69"/>
       <c r="E183" s="9"/>
       <c r="F183" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G183" s="61" t="s">
+      <c r="G183" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="H183" s="60"/>
-      <c r="I183" s="60"/>
-      <c r="J183" s="60"/>
-      <c r="K183" s="79"/>
+      <c r="H183" s="71"/>
+      <c r="I183" s="71"/>
+      <c r="J183" s="71"/>
+      <c r="K183" s="72"/>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="11">
         <v>1</v>
       </c>
-      <c r="B184" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="C184" s="47"/>
-      <c r="D184" s="53"/>
+      <c r="B184" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="C184" s="48"/>
+      <c r="D184" s="49"/>
       <c r="E184" s="3"/>
       <c r="F184" s="12">
         <v>1</v>
       </c>
-      <c r="G184" s="46" t="s">
-        <v>76</v>
-      </c>
-      <c r="H184" s="47"/>
-      <c r="I184" s="47"/>
-      <c r="J184" s="47"/>
-      <c r="K184" s="48"/>
+      <c r="G184" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="H184" s="48"/>
+      <c r="I184" s="48"/>
+      <c r="J184" s="48"/>
+      <c r="K184" s="50"/>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="11">
         <v>2</v>
       </c>
-      <c r="B185" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="C185" s="47"/>
-      <c r="D185" s="53"/>
+      <c r="B185" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="C185" s="48"/>
+      <c r="D185" s="49"/>
       <c r="E185" s="3"/>
       <c r="F185" s="12">
         <v>2</v>
       </c>
-      <c r="G185" s="46" t="s">
-        <v>73</v>
-      </c>
-      <c r="H185" s="47"/>
-      <c r="I185" s="47"/>
-      <c r="J185" s="47"/>
-      <c r="K185" s="48"/>
+      <c r="G185" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="H185" s="48"/>
+      <c r="I185" s="48"/>
+      <c r="J185" s="48"/>
+      <c r="K185" s="50"/>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="11">
         <v>3</v>
       </c>
-      <c r="B186" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="C186" s="47"/>
-      <c r="D186" s="53"/>
+      <c r="B186" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="C186" s="48"/>
+      <c r="D186" s="49"/>
       <c r="E186" s="3"/>
       <c r="F186" s="12">
         <v>3</v>
       </c>
-      <c r="G186" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="H186" s="47"/>
-      <c r="I186" s="47"/>
-      <c r="J186" s="47"/>
-      <c r="K186" s="48"/>
+      <c r="G186" s="47" t="s">
+        <v>105</v>
+      </c>
+      <c r="H186" s="48"/>
+      <c r="I186" s="48"/>
+      <c r="J186" s="48"/>
+      <c r="K186" s="50"/>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="11">
         <v>4</v>
       </c>
-      <c r="B187" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="C187" s="47"/>
-      <c r="D187" s="53"/>
+      <c r="B187" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="C187" s="48"/>
+      <c r="D187" s="49"/>
       <c r="E187" s="3"/>
       <c r="F187" s="3"/>
       <c r="G187" s="3"/>
@@ -5193,7 +5312,7 @@
         <v>13</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C189" s="3"/>
       <c r="D189" s="3"/>
@@ -5219,172 +5338,172 @@
       <c r="K190" s="16"/>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A191" s="101" t="s">
+      <c r="A191" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="B191" s="92" t="s">
+      <c r="B191" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="C191" s="93"/>
-      <c r="D191" s="95" t="s">
+      <c r="C191" s="54"/>
+      <c r="D191" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="E191" s="96"/>
-      <c r="F191" s="92" t="s">
+      <c r="E191" s="57"/>
+      <c r="F191" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="G191" s="93"/>
-      <c r="H191" s="93"/>
-      <c r="I191" s="92" t="s">
+      <c r="G191" s="54"/>
+      <c r="H191" s="54"/>
+      <c r="I191" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="J191" s="93"/>
-      <c r="K191" s="99"/>
+      <c r="J191" s="54"/>
+      <c r="K191" s="60"/>
     </row>
     <row r="192" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A192" s="102"/>
-      <c r="B192" s="94"/>
-      <c r="C192" s="94"/>
-      <c r="D192" s="97"/>
-      <c r="E192" s="97"/>
-      <c r="F192" s="98"/>
-      <c r="G192" s="98"/>
-      <c r="H192" s="98"/>
-      <c r="I192" s="98"/>
-      <c r="J192" s="98"/>
-      <c r="K192" s="100"/>
+      <c r="A192" s="52"/>
+      <c r="B192" s="55"/>
+      <c r="C192" s="55"/>
+      <c r="D192" s="58"/>
+      <c r="E192" s="58"/>
+      <c r="F192" s="59"/>
+      <c r="G192" s="59"/>
+      <c r="H192" s="59"/>
+      <c r="I192" s="59"/>
+      <c r="J192" s="59"/>
+      <c r="K192" s="61"/>
     </row>
     <row r="193" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="17">
         <v>1</v>
       </c>
-      <c r="B193" s="86" t="s">
-        <v>64</v>
-      </c>
-      <c r="C193" s="87"/>
-      <c r="D193" s="86" t="s">
+      <c r="B193" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="C193" s="40"/>
+      <c r="D193" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="E193" s="86"/>
-      <c r="F193" s="88" t="s">
+      <c r="E193" s="39"/>
+      <c r="F193" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="G193" s="57"/>
-      <c r="H193" s="89"/>
-      <c r="I193" s="88" t="s">
+      <c r="G193" s="42"/>
+      <c r="H193" s="43"/>
+      <c r="I193" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="J193" s="57"/>
-      <c r="K193" s="58"/>
+      <c r="J193" s="42"/>
+      <c r="K193" s="44"/>
     </row>
     <row r="194" spans="1:11" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="11">
         <v>2</v>
       </c>
-      <c r="B194" s="90" t="s">
-        <v>110</v>
-      </c>
-      <c r="C194" s="91"/>
-      <c r="D194" s="90" t="s">
-        <v>111</v>
-      </c>
-      <c r="E194" s="90"/>
-      <c r="F194" s="46" t="s">
+      <c r="B194" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="C194" s="46"/>
+      <c r="D194" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="E194" s="45"/>
+      <c r="F194" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="G194" s="47"/>
-      <c r="H194" s="53"/>
-      <c r="I194" s="46" t="s">
+      <c r="G194" s="48"/>
+      <c r="H194" s="49"/>
+      <c r="I194" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="J194" s="47"/>
-      <c r="K194" s="48"/>
+      <c r="J194" s="48"/>
+      <c r="K194" s="50"/>
     </row>
     <row r="195" spans="1:11" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A195" s="18">
         <v>3</v>
       </c>
-      <c r="B195" s="83" t="s">
-        <v>112</v>
-      </c>
-      <c r="C195" s="84"/>
-      <c r="D195" s="85" t="s">
-        <v>113</v>
-      </c>
-      <c r="E195" s="83"/>
-      <c r="F195" s="40" t="s">
+      <c r="B195" s="79" t="s">
+        <v>109</v>
+      </c>
+      <c r="C195" s="80"/>
+      <c r="D195" s="88" t="s">
+        <v>110</v>
+      </c>
+      <c r="E195" s="79"/>
+      <c r="F195" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="G195" s="44"/>
-      <c r="H195" s="41"/>
-      <c r="I195" s="40" t="s">
+      <c r="G195" s="37"/>
+      <c r="H195" s="81"/>
+      <c r="I195" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="J195" s="44"/>
-      <c r="K195" s="45"/>
+      <c r="J195" s="37"/>
+      <c r="K195" s="38"/>
     </row>
     <row r="196" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="197" spans="1:11" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="198" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A198" s="54" t="s">
-        <v>114</v>
-      </c>
-      <c r="B198" s="55"/>
-      <c r="C198" s="55"/>
-      <c r="D198" s="55"/>
-      <c r="E198" s="55"/>
-      <c r="F198" s="55"/>
-      <c r="G198" s="55"/>
-      <c r="H198" s="55"/>
-      <c r="I198" s="55"/>
-      <c r="J198" s="55"/>
-      <c r="K198" s="56"/>
+      <c r="A198" s="82" t="s">
+        <v>111</v>
+      </c>
+      <c r="B198" s="83"/>
+      <c r="C198" s="83"/>
+      <c r="D198" s="83"/>
+      <c r="E198" s="83"/>
+      <c r="F198" s="83"/>
+      <c r="G198" s="83"/>
+      <c r="H198" s="83"/>
+      <c r="I198" s="83"/>
+      <c r="J198" s="83"/>
+      <c r="K198" s="84"/>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A199" s="80" t="s">
+      <c r="A199" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="B199" s="81"/>
+      <c r="B199" s="86"/>
       <c r="C199" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="D199" s="82" t="s">
+        <v>113</v>
+      </c>
+      <c r="D199" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="E199" s="81"/>
-      <c r="F199" s="57" t="s">
-        <v>115</v>
-      </c>
-      <c r="G199" s="57"/>
-      <c r="H199" s="57"/>
-      <c r="I199" s="57"/>
-      <c r="J199" s="57"/>
-      <c r="K199" s="58"/>
+      <c r="E199" s="86"/>
+      <c r="F199" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="G199" s="42"/>
+      <c r="H199" s="42"/>
+      <c r="I199" s="42"/>
+      <c r="J199" s="42"/>
+      <c r="K199" s="44"/>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A200" s="59" t="s">
+      <c r="A200" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="B200" s="60"/>
+      <c r="B200" s="71"/>
       <c r="C200" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D200" s="61" t="s">
+      <c r="D200" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="E200" s="60"/>
-      <c r="F200" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="G200" s="53"/>
-      <c r="H200" s="62" t="s">
+      <c r="E200" s="71"/>
+      <c r="F200" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="G200" s="49"/>
+      <c r="H200" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="I200" s="60"/>
-      <c r="J200" s="63" t="s">
-        <v>31</v>
-      </c>
-      <c r="K200" s="64"/>
+      <c r="I200" s="71"/>
+      <c r="J200" s="75" t="s">
+        <v>30</v>
+      </c>
+      <c r="K200" s="76"/>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="2"/>
@@ -5400,12 +5519,12 @@
       <c r="K201" s="4"/>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A202" s="65" t="s">
+      <c r="A202" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="B202" s="66"/>
+      <c r="B202" s="78"/>
       <c r="C202" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D202" s="6"/>
       <c r="E202" s="6"/>
@@ -5430,29 +5549,29 @@
       <c r="K203" s="4"/>
     </row>
     <row r="204" spans="1:11" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A204" s="67" t="s">
+      <c r="A204" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B204" s="68"/>
+      <c r="B204" s="63"/>
       <c r="C204" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="D204" s="67" t="s">
+      <c r="D204" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="E204" s="68"/>
-      <c r="F204" s="69">
+      <c r="E204" s="63"/>
+      <c r="F204" s="64">
         <v>44500</v>
       </c>
-      <c r="G204" s="70"/>
-      <c r="H204" s="67" t="s">
+      <c r="G204" s="65"/>
+      <c r="H204" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="I204" s="68"/>
-      <c r="J204" s="71" t="s">
+      <c r="I204" s="63"/>
+      <c r="J204" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="K204" s="72"/>
+      <c r="K204" s="67"/>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="7"/>
@@ -5471,95 +5590,95 @@
       <c r="A206" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B206" s="77" t="s">
+      <c r="B206" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="C206" s="78"/>
-      <c r="D206" s="78"/>
+      <c r="C206" s="69"/>
+      <c r="D206" s="69"/>
       <c r="E206" s="9"/>
       <c r="F206" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G206" s="61" t="s">
+      <c r="G206" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="H206" s="60"/>
-      <c r="I206" s="60"/>
-      <c r="J206" s="60"/>
-      <c r="K206" s="79"/>
+      <c r="H206" s="71"/>
+      <c r="I206" s="71"/>
+      <c r="J206" s="71"/>
+      <c r="K206" s="72"/>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="11">
         <v>1</v>
       </c>
-      <c r="B207" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="C207" s="47"/>
-      <c r="D207" s="53"/>
+      <c r="B207" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="C207" s="48"/>
+      <c r="D207" s="49"/>
       <c r="E207" s="3"/>
       <c r="F207" s="12">
         <v>1</v>
       </c>
-      <c r="G207" s="46" t="s">
-        <v>76</v>
-      </c>
-      <c r="H207" s="47"/>
-      <c r="I207" s="47"/>
-      <c r="J207" s="47"/>
-      <c r="K207" s="48"/>
+      <c r="G207" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="H207" s="48"/>
+      <c r="I207" s="48"/>
+      <c r="J207" s="48"/>
+      <c r="K207" s="50"/>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="11">
         <v>2</v>
       </c>
-      <c r="B208" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="C208" s="47"/>
-      <c r="D208" s="53"/>
+      <c r="B208" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="C208" s="48"/>
+      <c r="D208" s="49"/>
       <c r="E208" s="3"/>
       <c r="F208" s="12">
         <v>2</v>
       </c>
-      <c r="G208" s="46" t="s">
-        <v>73</v>
-      </c>
-      <c r="H208" s="47"/>
-      <c r="I208" s="47"/>
-      <c r="J208" s="47"/>
-      <c r="K208" s="48"/>
+      <c r="G208" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="H208" s="48"/>
+      <c r="I208" s="48"/>
+      <c r="J208" s="48"/>
+      <c r="K208" s="50"/>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="11">
         <v>3</v>
       </c>
-      <c r="B209" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="C209" s="47"/>
-      <c r="D209" s="53"/>
+      <c r="B209" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="C209" s="48"/>
+      <c r="D209" s="49"/>
       <c r="E209" s="3"/>
       <c r="F209" s="12">
         <v>3</v>
       </c>
-      <c r="G209" s="46" t="s">
-        <v>125</v>
-      </c>
-      <c r="H209" s="47"/>
-      <c r="I209" s="47"/>
-      <c r="J209" s="47"/>
-      <c r="K209" s="48"/>
+      <c r="G209" s="47" t="s">
+        <v>121</v>
+      </c>
+      <c r="H209" s="48"/>
+      <c r="I209" s="48"/>
+      <c r="J209" s="48"/>
+      <c r="K209" s="50"/>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="11">
         <v>4</v>
       </c>
-      <c r="B210" s="46" t="s">
-        <v>118</v>
-      </c>
-      <c r="C210" s="47"/>
-      <c r="D210" s="53"/>
+      <c r="B210" s="47" t="s">
+        <v>115</v>
+      </c>
+      <c r="C210" s="48"/>
+      <c r="D210" s="49"/>
       <c r="E210" s="3"/>
       <c r="F210" s="3"/>
       <c r="G210" s="3"/>
@@ -5586,7 +5705,7 @@
         <v>13</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C212" s="3"/>
       <c r="D212" s="3"/>
@@ -5612,217 +5731,217 @@
       <c r="K213" s="16"/>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A214" s="101" t="s">
+      <c r="A214" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="B214" s="92" t="s">
+      <c r="B214" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="C214" s="93"/>
-      <c r="D214" s="95" t="s">
+      <c r="C214" s="54"/>
+      <c r="D214" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="E214" s="96"/>
-      <c r="F214" s="92" t="s">
+      <c r="E214" s="57"/>
+      <c r="F214" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="G214" s="93"/>
-      <c r="H214" s="93"/>
-      <c r="I214" s="92" t="s">
+      <c r="G214" s="54"/>
+      <c r="H214" s="54"/>
+      <c r="I214" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="J214" s="93"/>
-      <c r="K214" s="99"/>
+      <c r="J214" s="54"/>
+      <c r="K214" s="60"/>
     </row>
     <row r="215" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A215" s="102"/>
-      <c r="B215" s="94"/>
-      <c r="C215" s="94"/>
-      <c r="D215" s="97"/>
-      <c r="E215" s="97"/>
-      <c r="F215" s="98"/>
-      <c r="G215" s="98"/>
-      <c r="H215" s="98"/>
-      <c r="I215" s="98"/>
-      <c r="J215" s="98"/>
-      <c r="K215" s="100"/>
+      <c r="A215" s="52"/>
+      <c r="B215" s="55"/>
+      <c r="C215" s="55"/>
+      <c r="D215" s="58"/>
+      <c r="E215" s="58"/>
+      <c r="F215" s="59"/>
+      <c r="G215" s="59"/>
+      <c r="H215" s="59"/>
+      <c r="I215" s="59"/>
+      <c r="J215" s="59"/>
+      <c r="K215" s="61"/>
     </row>
     <row r="216" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="17">
         <v>1</v>
       </c>
-      <c r="B216" s="86" t="s">
-        <v>64</v>
-      </c>
-      <c r="C216" s="87"/>
-      <c r="D216" s="86" t="s">
+      <c r="B216" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="C216" s="40"/>
+      <c r="D216" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="E216" s="86"/>
-      <c r="F216" s="88" t="s">
+      <c r="E216" s="39"/>
+      <c r="F216" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="G216" s="57"/>
-      <c r="H216" s="89"/>
-      <c r="I216" s="88" t="s">
+      <c r="G216" s="42"/>
+      <c r="H216" s="43"/>
+      <c r="I216" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="J216" s="57"/>
-      <c r="K216" s="58"/>
+      <c r="J216" s="42"/>
+      <c r="K216" s="44"/>
     </row>
     <row r="217" spans="1:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="11">
         <v>2</v>
       </c>
-      <c r="B217" s="90" t="s">
-        <v>119</v>
-      </c>
-      <c r="C217" s="91"/>
-      <c r="D217" s="90" t="s">
-        <v>121</v>
-      </c>
-      <c r="E217" s="90"/>
-      <c r="F217" s="46" t="s">
+      <c r="B217" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="C217" s="46"/>
+      <c r="D217" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="E217" s="45"/>
+      <c r="F217" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="G217" s="47"/>
-      <c r="H217" s="53"/>
-      <c r="I217" s="46" t="s">
+      <c r="G217" s="48"/>
+      <c r="H217" s="49"/>
+      <c r="I217" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="J217" s="47"/>
-      <c r="K217" s="48"/>
+      <c r="J217" s="48"/>
+      <c r="K217" s="50"/>
     </row>
     <row r="218" spans="1:11" ht="31.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A218" s="18">
         <v>3</v>
       </c>
-      <c r="B218" s="83" t="s">
-        <v>122</v>
-      </c>
-      <c r="C218" s="84"/>
-      <c r="D218" s="85" t="s">
-        <v>123</v>
-      </c>
-      <c r="E218" s="83"/>
-      <c r="F218" s="40" t="s">
+      <c r="B218" s="79" t="s">
+        <v>118</v>
+      </c>
+      <c r="C218" s="80"/>
+      <c r="D218" s="88" t="s">
+        <v>119</v>
+      </c>
+      <c r="E218" s="79"/>
+      <c r="F218" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="G218" s="44"/>
-      <c r="H218" s="41"/>
-      <c r="I218" s="40" t="s">
+      <c r="G218" s="37"/>
+      <c r="H218" s="81"/>
+      <c r="I218" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="J218" s="44"/>
-      <c r="K218" s="45"/>
+      <c r="J218" s="37"/>
+      <c r="K218" s="38"/>
     </row>
     <row r="219" spans="1:11" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A219" s="18">
         <v>4</v>
       </c>
-      <c r="B219" s="83" t="s">
-        <v>124</v>
-      </c>
-      <c r="C219" s="84"/>
-      <c r="D219" s="85" t="s">
-        <v>126</v>
-      </c>
-      <c r="E219" s="83"/>
-      <c r="F219" s="40" t="s">
+      <c r="B219" s="79" t="s">
+        <v>120</v>
+      </c>
+      <c r="C219" s="80"/>
+      <c r="D219" s="88" t="s">
+        <v>122</v>
+      </c>
+      <c r="E219" s="79"/>
+      <c r="F219" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="G219" s="44"/>
-      <c r="H219" s="41"/>
-      <c r="I219" s="40" t="s">
+      <c r="G219" s="37"/>
+      <c r="H219" s="81"/>
+      <c r="I219" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="J219" s="44"/>
-      <c r="K219" s="45"/>
+      <c r="J219" s="37"/>
+      <c r="K219" s="38"/>
     </row>
     <row r="220" spans="1:11" ht="31.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A220" s="18">
         <v>3</v>
       </c>
-      <c r="B220" s="83" t="s">
-        <v>127</v>
-      </c>
-      <c r="C220" s="84"/>
-      <c r="D220" s="85" t="s">
-        <v>128</v>
-      </c>
-      <c r="E220" s="83"/>
-      <c r="F220" s="40" t="s">
+      <c r="B220" s="79" t="s">
+        <v>123</v>
+      </c>
+      <c r="C220" s="80"/>
+      <c r="D220" s="88" t="s">
+        <v>124</v>
+      </c>
+      <c r="E220" s="79"/>
+      <c r="F220" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="G220" s="44"/>
-      <c r="H220" s="41"/>
-      <c r="I220" s="40" t="s">
+      <c r="G220" s="37"/>
+      <c r="H220" s="81"/>
+      <c r="I220" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="J220" s="44"/>
-      <c r="K220" s="45"/>
+      <c r="J220" s="37"/>
+      <c r="K220" s="38"/>
     </row>
     <row r="222" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="223" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A223" s="54" t="s">
-        <v>129</v>
-      </c>
-      <c r="B223" s="55"/>
-      <c r="C223" s="55"/>
-      <c r="D223" s="55"/>
-      <c r="E223" s="55"/>
-      <c r="F223" s="55"/>
-      <c r="G223" s="55"/>
-      <c r="H223" s="55"/>
-      <c r="I223" s="55"/>
-      <c r="J223" s="55"/>
-      <c r="K223" s="56"/>
+      <c r="A223" s="82" t="s">
+        <v>125</v>
+      </c>
+      <c r="B223" s="83"/>
+      <c r="C223" s="83"/>
+      <c r="D223" s="83"/>
+      <c r="E223" s="83"/>
+      <c r="F223" s="83"/>
+      <c r="G223" s="83"/>
+      <c r="H223" s="83"/>
+      <c r="I223" s="83"/>
+      <c r="J223" s="83"/>
+      <c r="K223" s="84"/>
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A224" s="80" t="s">
+      <c r="A224" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="B224" s="81"/>
+      <c r="B224" s="86"/>
       <c r="C224" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="D224" s="82" t="s">
+        <v>126</v>
+      </c>
+      <c r="D224" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="E224" s="81"/>
-      <c r="F224" s="57" t="s">
-        <v>131</v>
-      </c>
-      <c r="G224" s="57"/>
-      <c r="H224" s="57"/>
-      <c r="I224" s="57"/>
-      <c r="J224" s="57"/>
-      <c r="K224" s="58"/>
+      <c r="E224" s="86"/>
+      <c r="F224" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="G224" s="42"/>
+      <c r="H224" s="42"/>
+      <c r="I224" s="42"/>
+      <c r="J224" s="42"/>
+      <c r="K224" s="44"/>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A225" s="59" t="s">
+      <c r="A225" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="B225" s="60"/>
+      <c r="B225" s="71"/>
       <c r="C225" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D225" s="61" t="s">
+      <c r="D225" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="E225" s="60"/>
-      <c r="F225" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="G225" s="53"/>
-      <c r="H225" s="62" t="s">
+      <c r="E225" s="71"/>
+      <c r="F225" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="G225" s="49"/>
+      <c r="H225" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="I225" s="60"/>
-      <c r="J225" s="63" t="s">
-        <v>31</v>
-      </c>
-      <c r="K225" s="64"/>
+      <c r="I225" s="71"/>
+      <c r="J225" s="75" t="s">
+        <v>30</v>
+      </c>
+      <c r="K225" s="76"/>
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="2"/>
@@ -5838,12 +5957,12 @@
       <c r="K226" s="4"/>
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A227" s="65" t="s">
+      <c r="A227" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="B227" s="66"/>
+      <c r="B227" s="78"/>
       <c r="C227" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D227" s="6"/>
       <c r="E227" s="6"/>
@@ -5868,29 +5987,29 @@
       <c r="K228" s="4"/>
     </row>
     <row r="229" spans="1:11" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A229" s="67" t="s">
+      <c r="A229" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B229" s="68"/>
+      <c r="B229" s="63"/>
       <c r="C229" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="D229" s="67" t="s">
+      <c r="D229" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="E229" s="68"/>
-      <c r="F229" s="69">
+      <c r="E229" s="63"/>
+      <c r="F229" s="64">
         <v>44500</v>
       </c>
-      <c r="G229" s="70"/>
-      <c r="H229" s="67" t="s">
+      <c r="G229" s="65"/>
+      <c r="H229" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="I229" s="68"/>
-      <c r="J229" s="71" t="s">
+      <c r="I229" s="63"/>
+      <c r="J229" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="K229" s="72"/>
+      <c r="K229" s="67"/>
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="7"/>
@@ -5909,106 +6028,106 @@
       <c r="A231" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B231" s="77" t="s">
+      <c r="B231" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="C231" s="78"/>
-      <c r="D231" s="78"/>
+      <c r="C231" s="69"/>
+      <c r="D231" s="69"/>
       <c r="E231" s="9"/>
       <c r="F231" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G231" s="61" t="s">
+      <c r="G231" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="H231" s="60"/>
-      <c r="I231" s="60"/>
-      <c r="J231" s="60"/>
-      <c r="K231" s="79"/>
+      <c r="H231" s="71"/>
+      <c r="I231" s="71"/>
+      <c r="J231" s="71"/>
+      <c r="K231" s="72"/>
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="11">
         <v>1</v>
       </c>
-      <c r="B232" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="C232" s="47"/>
-      <c r="D232" s="53"/>
+      <c r="B232" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="C232" s="48"/>
+      <c r="D232" s="49"/>
       <c r="E232" s="3"/>
       <c r="F232" s="12">
         <v>1</v>
       </c>
-      <c r="G232" s="46" t="s">
-        <v>76</v>
-      </c>
-      <c r="H232" s="47"/>
-      <c r="I232" s="47"/>
-      <c r="J232" s="47"/>
-      <c r="K232" s="48"/>
+      <c r="G232" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="H232" s="48"/>
+      <c r="I232" s="48"/>
+      <c r="J232" s="48"/>
+      <c r="K232" s="50"/>
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="11">
         <v>2</v>
       </c>
-      <c r="B233" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="C233" s="47"/>
-      <c r="D233" s="53"/>
+      <c r="B233" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="C233" s="48"/>
+      <c r="D233" s="49"/>
       <c r="E233" s="3"/>
       <c r="F233" s="12">
         <v>2</v>
       </c>
-      <c r="G233" s="46" t="s">
-        <v>160</v>
-      </c>
-      <c r="H233" s="47"/>
-      <c r="I233" s="47"/>
-      <c r="J233" s="47"/>
-      <c r="K233" s="48"/>
+      <c r="G233" s="47" t="s">
+        <v>156</v>
+      </c>
+      <c r="H233" s="48"/>
+      <c r="I233" s="48"/>
+      <c r="J233" s="48"/>
+      <c r="K233" s="50"/>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="11">
         <v>3</v>
       </c>
-      <c r="B234" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="C234" s="47"/>
-      <c r="D234" s="53"/>
+      <c r="B234" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="C234" s="48"/>
+      <c r="D234" s="49"/>
       <c r="E234" s="3"/>
       <c r="F234" s="12">
         <v>3</v>
       </c>
-      <c r="G234" s="46" t="s">
-        <v>140</v>
-      </c>
-      <c r="H234" s="47"/>
-      <c r="I234" s="47"/>
-      <c r="J234" s="47"/>
-      <c r="K234" s="48"/>
+      <c r="G234" s="47" t="s">
+        <v>136</v>
+      </c>
+      <c r="H234" s="48"/>
+      <c r="I234" s="48"/>
+      <c r="J234" s="48"/>
+      <c r="K234" s="50"/>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="11">
         <v>4</v>
       </c>
-      <c r="B235" s="46" t="s">
-        <v>118</v>
-      </c>
-      <c r="C235" s="47"/>
-      <c r="D235" s="53"/>
+      <c r="B235" s="47" t="s">
+        <v>115</v>
+      </c>
+      <c r="C235" s="48"/>
+      <c r="D235" s="49"/>
       <c r="E235" s="3"/>
       <c r="F235" s="12">
         <v>4</v>
       </c>
-      <c r="G235" s="46" t="s">
-        <v>141</v>
-      </c>
-      <c r="H235" s="47"/>
-      <c r="I235" s="47"/>
-      <c r="J235" s="47"/>
-      <c r="K235" s="48"/>
+      <c r="G235" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="H235" s="48"/>
+      <c r="I235" s="48"/>
+      <c r="J235" s="48"/>
+      <c r="K235" s="50"/>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="2"/>
@@ -6019,13 +6138,13 @@
       <c r="F236" s="12">
         <v>5</v>
       </c>
-      <c r="G236" s="46" t="s">
-        <v>142</v>
-      </c>
-      <c r="H236" s="47"/>
-      <c r="I236" s="47"/>
-      <c r="J236" s="47"/>
-      <c r="K236" s="48"/>
+      <c r="G236" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="H236" s="48"/>
+      <c r="I236" s="48"/>
+      <c r="J236" s="48"/>
+      <c r="K236" s="50"/>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="2"/>
@@ -6036,13 +6155,13 @@
       <c r="F237" s="12">
         <v>6</v>
       </c>
-      <c r="G237" s="46" t="s">
-        <v>143</v>
-      </c>
-      <c r="H237" s="47"/>
-      <c r="I237" s="47"/>
-      <c r="J237" s="47"/>
-      <c r="K237" s="48"/>
+      <c r="G237" s="47" t="s">
+        <v>139</v>
+      </c>
+      <c r="H237" s="48"/>
+      <c r="I237" s="48"/>
+      <c r="J237" s="48"/>
+      <c r="K237" s="50"/>
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="2"/>
@@ -6062,7 +6181,7 @@
         <v>13</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C239" s="3"/>
       <c r="D239" s="3"/>
@@ -6099,553 +6218,660 @@
         <v>16</v>
       </c>
       <c r="E241" s="33"/>
-      <c r="F241" s="73" t="s">
+      <c r="F241" s="113" t="s">
         <v>17</v>
       </c>
-      <c r="G241" s="74"/>
-      <c r="H241" s="75"/>
-      <c r="I241" s="73" t="s">
+      <c r="G241" s="114"/>
+      <c r="H241" s="115"/>
+      <c r="I241" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="J241" s="74"/>
-      <c r="K241" s="76"/>
+      <c r="J241" s="114"/>
+      <c r="K241" s="116"/>
     </row>
     <row r="242" spans="1:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="17">
         <v>1</v>
       </c>
-      <c r="B242" s="49" t="s">
-        <v>64</v>
-      </c>
-      <c r="C242" s="50"/>
-      <c r="D242" s="49" t="s">
+      <c r="B242" s="123" t="s">
+        <v>63</v>
+      </c>
+      <c r="C242" s="124"/>
+      <c r="D242" s="123" t="s">
         <v>19</v>
       </c>
-      <c r="E242" s="50"/>
-      <c r="F242" s="49" t="s">
+      <c r="E242" s="124"/>
+      <c r="F242" s="123" t="s">
         <v>20</v>
       </c>
-      <c r="G242" s="51"/>
-      <c r="H242" s="50"/>
-      <c r="I242" s="49" t="s">
+      <c r="G242" s="125"/>
+      <c r="H242" s="124"/>
+      <c r="I242" s="123" t="s">
         <v>9</v>
       </c>
-      <c r="J242" s="51"/>
-      <c r="K242" s="52"/>
+      <c r="J242" s="125"/>
+      <c r="K242" s="126"/>
     </row>
     <row r="243" spans="1:11" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="11">
         <v>2</v>
       </c>
-      <c r="B243" s="46" t="s">
-        <v>119</v>
-      </c>
-      <c r="C243" s="53"/>
-      <c r="D243" s="46" t="s">
-        <v>121</v>
-      </c>
-      <c r="E243" s="53"/>
-      <c r="F243" s="46" t="s">
+      <c r="B243" s="47" t="s">
+        <v>116</v>
+      </c>
+      <c r="C243" s="49"/>
+      <c r="D243" s="47" t="s">
+        <v>117</v>
+      </c>
+      <c r="E243" s="49"/>
+      <c r="F243" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="G243" s="47"/>
-      <c r="H243" s="53"/>
-      <c r="I243" s="46" t="s">
+      <c r="G243" s="48"/>
+      <c r="H243" s="49"/>
+      <c r="I243" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="J243" s="47"/>
-      <c r="K243" s="48"/>
+      <c r="J243" s="48"/>
+      <c r="K243" s="50"/>
     </row>
     <row r="244" spans="1:11" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A244" s="18">
         <v>3</v>
       </c>
-      <c r="B244" s="40" t="s">
+      <c r="B244" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="C244" s="81"/>
+      <c r="D244" s="121" t="s">
         <v>98</v>
       </c>
-      <c r="C244" s="41"/>
-      <c r="D244" s="42" t="s">
-        <v>99</v>
-      </c>
-      <c r="E244" s="43"/>
-      <c r="F244" s="40" t="s">
+      <c r="E244" s="122"/>
+      <c r="F244" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="G244" s="44"/>
-      <c r="H244" s="41"/>
-      <c r="I244" s="40" t="s">
+      <c r="G244" s="37"/>
+      <c r="H244" s="81"/>
+      <c r="I244" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="J244" s="44"/>
-      <c r="K244" s="45"/>
+      <c r="J244" s="37"/>
+      <c r="K244" s="38"/>
     </row>
     <row r="245" spans="1:11" ht="31.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A245" s="18">
         <v>4</v>
       </c>
-      <c r="B245" s="34" t="s">
-        <v>134</v>
-      </c>
-      <c r="C245" s="35"/>
-      <c r="D245" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="E245" s="37"/>
-      <c r="F245" s="34" t="s">
+      <c r="B245" s="117" t="s">
+        <v>130</v>
+      </c>
+      <c r="C245" s="118"/>
+      <c r="D245" s="119" t="s">
+        <v>131</v>
+      </c>
+      <c r="E245" s="120"/>
+      <c r="F245" s="117" t="s">
         <v>20</v>
       </c>
-      <c r="G245" s="38"/>
-      <c r="H245" s="35"/>
-      <c r="I245" s="34" t="s">
+      <c r="G245" s="97"/>
+      <c r="H245" s="118"/>
+      <c r="I245" s="117" t="s">
         <v>9</v>
       </c>
-      <c r="J245" s="38"/>
-      <c r="K245" s="39"/>
+      <c r="J245" s="97"/>
+      <c r="K245" s="98"/>
     </row>
     <row r="246" spans="1:11" ht="31.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A246" s="18">
         <v>5</v>
       </c>
-      <c r="B246" s="34" t="s">
-        <v>136</v>
-      </c>
-      <c r="C246" s="35"/>
-      <c r="D246" s="36" t="s">
-        <v>139</v>
-      </c>
-      <c r="E246" s="37"/>
-      <c r="F246" s="34" t="s">
+      <c r="B246" s="117" t="s">
+        <v>132</v>
+      </c>
+      <c r="C246" s="118"/>
+      <c r="D246" s="119" t="s">
+        <v>135</v>
+      </c>
+      <c r="E246" s="120"/>
+      <c r="F246" s="117" t="s">
         <v>20</v>
       </c>
-      <c r="G246" s="38"/>
-      <c r="H246" s="35"/>
-      <c r="I246" s="34" t="s">
+      <c r="G246" s="97"/>
+      <c r="H246" s="118"/>
+      <c r="I246" s="117" t="s">
         <v>9</v>
       </c>
-      <c r="J246" s="38"/>
-      <c r="K246" s="39"/>
+      <c r="J246" s="97"/>
+      <c r="K246" s="98"/>
     </row>
     <row r="247" spans="1:11" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A247" s="18">
         <v>6</v>
       </c>
-      <c r="B247" s="34" t="s">
-        <v>138</v>
-      </c>
-      <c r="C247" s="35"/>
-      <c r="D247" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="E247" s="37"/>
-      <c r="F247" s="34" t="s">
+      <c r="B247" s="117" t="s">
+        <v>134</v>
+      </c>
+      <c r="C247" s="118"/>
+      <c r="D247" s="119" t="s">
+        <v>133</v>
+      </c>
+      <c r="E247" s="120"/>
+      <c r="F247" s="117" t="s">
         <v>20</v>
       </c>
-      <c r="G247" s="38"/>
-      <c r="H247" s="35"/>
-      <c r="I247" s="34" t="s">
+      <c r="G247" s="97"/>
+      <c r="H247" s="118"/>
+      <c r="I247" s="117" t="s">
         <v>9</v>
       </c>
-      <c r="J247" s="38"/>
-      <c r="K247" s="39"/>
+      <c r="J247" s="97"/>
+      <c r="K247" s="98"/>
     </row>
     <row r="248" spans="1:11" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A248" s="18">
         <v>7</v>
       </c>
-      <c r="B248" s="34" t="s">
-        <v>144</v>
-      </c>
-      <c r="C248" s="35"/>
-      <c r="D248" s="36" t="s">
-        <v>145</v>
-      </c>
-      <c r="E248" s="37"/>
-      <c r="F248" s="34" t="s">
+      <c r="B248" s="117" t="s">
+        <v>140</v>
+      </c>
+      <c r="C248" s="118"/>
+      <c r="D248" s="119" t="s">
+        <v>141</v>
+      </c>
+      <c r="E248" s="120"/>
+      <c r="F248" s="117" t="s">
         <v>20</v>
       </c>
-      <c r="G248" s="38"/>
-      <c r="H248" s="35"/>
-      <c r="I248" s="34" t="s">
+      <c r="G248" s="97"/>
+      <c r="H248" s="118"/>
+      <c r="I248" s="117" t="s">
         <v>9</v>
       </c>
-      <c r="J248" s="38"/>
-      <c r="K248" s="39"/>
+      <c r="J248" s="97"/>
+      <c r="K248" s="98"/>
     </row>
     <row r="249" spans="1:11" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A249" s="18">
         <v>8</v>
       </c>
-      <c r="B249" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="C249" s="35"/>
-      <c r="D249" s="36" t="s">
-        <v>147</v>
-      </c>
-      <c r="E249" s="37"/>
-      <c r="F249" s="34" t="s">
+      <c r="B249" s="117" t="s">
+        <v>142</v>
+      </c>
+      <c r="C249" s="118"/>
+      <c r="D249" s="119" t="s">
+        <v>143</v>
+      </c>
+      <c r="E249" s="120"/>
+      <c r="F249" s="117" t="s">
         <v>20</v>
       </c>
-      <c r="G249" s="38"/>
-      <c r="H249" s="35"/>
-      <c r="I249" s="34" t="s">
+      <c r="G249" s="97"/>
+      <c r="H249" s="118"/>
+      <c r="I249" s="117" t="s">
         <v>9</v>
       </c>
-      <c r="J249" s="38"/>
-      <c r="K249" s="39"/>
+      <c r="J249" s="97"/>
+      <c r="K249" s="98"/>
     </row>
     <row r="250" spans="1:11" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A250" s="18">
         <v>9</v>
       </c>
-      <c r="B250" s="34" t="s">
-        <v>148</v>
-      </c>
-      <c r="C250" s="35"/>
-      <c r="D250" s="36" t="s">
-        <v>149</v>
-      </c>
-      <c r="E250" s="37"/>
-      <c r="F250" s="34" t="s">
+      <c r="B250" s="117" t="s">
+        <v>144</v>
+      </c>
+      <c r="C250" s="118"/>
+      <c r="D250" s="119" t="s">
+        <v>145</v>
+      </c>
+      <c r="E250" s="120"/>
+      <c r="F250" s="117" t="s">
         <v>20</v>
       </c>
-      <c r="G250" s="38"/>
-      <c r="H250" s="35"/>
-      <c r="I250" s="34" t="s">
+      <c r="G250" s="97"/>
+      <c r="H250" s="118"/>
+      <c r="I250" s="117" t="s">
         <v>9</v>
       </c>
-      <c r="J250" s="38"/>
-      <c r="K250" s="39"/>
+      <c r="J250" s="97"/>
+      <c r="K250" s="98"/>
     </row>
     <row r="251" spans="1:11" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A251" s="18">
         <v>10</v>
       </c>
-      <c r="B251" s="34" t="s">
-        <v>150</v>
-      </c>
-      <c r="C251" s="35"/>
-      <c r="D251" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="E251" s="37"/>
-      <c r="F251" s="34" t="s">
+      <c r="B251" s="117" t="s">
+        <v>146</v>
+      </c>
+      <c r="C251" s="118"/>
+      <c r="D251" s="119" t="s">
+        <v>147</v>
+      </c>
+      <c r="E251" s="120"/>
+      <c r="F251" s="117" t="s">
         <v>20</v>
       </c>
-      <c r="G251" s="38"/>
-      <c r="H251" s="35"/>
-      <c r="I251" s="34" t="s">
+      <c r="G251" s="97"/>
+      <c r="H251" s="118"/>
+      <c r="I251" s="117" t="s">
         <v>9</v>
       </c>
-      <c r="J251" s="38"/>
-      <c r="K251" s="39"/>
+      <c r="J251" s="97"/>
+      <c r="K251" s="98"/>
     </row>
     <row r="252" spans="1:11" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A252" s="18">
         <v>11</v>
       </c>
-      <c r="B252" s="34" t="s">
-        <v>152</v>
-      </c>
-      <c r="C252" s="35"/>
-      <c r="D252" s="36" t="s">
-        <v>153</v>
-      </c>
-      <c r="E252" s="37"/>
-      <c r="F252" s="34" t="s">
+      <c r="B252" s="117" t="s">
+        <v>148</v>
+      </c>
+      <c r="C252" s="118"/>
+      <c r="D252" s="119" t="s">
+        <v>149</v>
+      </c>
+      <c r="E252" s="120"/>
+      <c r="F252" s="117" t="s">
         <v>20</v>
       </c>
-      <c r="G252" s="38"/>
-      <c r="H252" s="35"/>
-      <c r="I252" s="34" t="s">
+      <c r="G252" s="97"/>
+      <c r="H252" s="118"/>
+      <c r="I252" s="117" t="s">
         <v>9</v>
       </c>
-      <c r="J252" s="38"/>
-      <c r="K252" s="39"/>
+      <c r="J252" s="97"/>
+      <c r="K252" s="98"/>
     </row>
     <row r="253" spans="1:11" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A253" s="18">
         <v>12</v>
       </c>
-      <c r="B253" s="34" t="s">
-        <v>154</v>
-      </c>
-      <c r="C253" s="35"/>
-      <c r="D253" s="36" t="s">
-        <v>155</v>
-      </c>
-      <c r="E253" s="37"/>
-      <c r="F253" s="34" t="s">
+      <c r="B253" s="117" t="s">
+        <v>150</v>
+      </c>
+      <c r="C253" s="118"/>
+      <c r="D253" s="119" t="s">
+        <v>151</v>
+      </c>
+      <c r="E253" s="120"/>
+      <c r="F253" s="117" t="s">
         <v>20</v>
       </c>
-      <c r="G253" s="38"/>
-      <c r="H253" s="35"/>
-      <c r="I253" s="34" t="s">
+      <c r="G253" s="97"/>
+      <c r="H253" s="118"/>
+      <c r="I253" s="117" t="s">
         <v>9</v>
       </c>
-      <c r="J253" s="38"/>
-      <c r="K253" s="39"/>
+      <c r="J253" s="97"/>
+      <c r="K253" s="98"/>
     </row>
     <row r="254" spans="1:11" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A254" s="18">
         <v>13</v>
       </c>
-      <c r="B254" s="34" t="s">
-        <v>154</v>
-      </c>
-      <c r="C254" s="35"/>
-      <c r="D254" s="36" t="s">
-        <v>155</v>
-      </c>
-      <c r="E254" s="37"/>
-      <c r="F254" s="34" t="s">
+      <c r="B254" s="117" t="s">
+        <v>150</v>
+      </c>
+      <c r="C254" s="118"/>
+      <c r="D254" s="119" t="s">
+        <v>151</v>
+      </c>
+      <c r="E254" s="120"/>
+      <c r="F254" s="117" t="s">
         <v>20</v>
       </c>
-      <c r="G254" s="38"/>
-      <c r="H254" s="35"/>
-      <c r="I254" s="34" t="s">
+      <c r="G254" s="97"/>
+      <c r="H254" s="118"/>
+      <c r="I254" s="117" t="s">
         <v>9</v>
       </c>
-      <c r="J254" s="38"/>
-      <c r="K254" s="39"/>
+      <c r="J254" s="97"/>
+      <c r="K254" s="98"/>
     </row>
     <row r="255" spans="1:11" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A255" s="18">
         <v>14</v>
       </c>
-      <c r="B255" s="34" t="s">
-        <v>156</v>
-      </c>
-      <c r="C255" s="35"/>
-      <c r="D255" s="36" t="s">
-        <v>157</v>
-      </c>
-      <c r="E255" s="37"/>
-      <c r="F255" s="34" t="s">
+      <c r="B255" s="117" t="s">
+        <v>152</v>
+      </c>
+      <c r="C255" s="118"/>
+      <c r="D255" s="119" t="s">
+        <v>153</v>
+      </c>
+      <c r="E255" s="120"/>
+      <c r="F255" s="117" t="s">
         <v>20</v>
       </c>
-      <c r="G255" s="38"/>
-      <c r="H255" s="35"/>
-      <c r="I255" s="34" t="s">
+      <c r="G255" s="97"/>
+      <c r="H255" s="118"/>
+      <c r="I255" s="117" t="s">
         <v>9</v>
       </c>
-      <c r="J255" s="38"/>
-      <c r="K255" s="39"/>
+      <c r="J255" s="97"/>
+      <c r="K255" s="98"/>
     </row>
     <row r="256" spans="1:11" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A256" s="18">
         <v>15</v>
       </c>
-      <c r="B256" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="C256" s="35"/>
-      <c r="D256" s="36" t="s">
-        <v>159</v>
-      </c>
-      <c r="E256" s="37"/>
-      <c r="F256" s="34" t="s">
+      <c r="B256" s="117" t="s">
+        <v>154</v>
+      </c>
+      <c r="C256" s="118"/>
+      <c r="D256" s="119" t="s">
+        <v>155</v>
+      </c>
+      <c r="E256" s="120"/>
+      <c r="F256" s="117" t="s">
         <v>20</v>
       </c>
-      <c r="G256" s="38"/>
-      <c r="H256" s="35"/>
-      <c r="I256" s="34" t="s">
+      <c r="G256" s="97"/>
+      <c r="H256" s="118"/>
+      <c r="I256" s="117" t="s">
         <v>9</v>
       </c>
-      <c r="J256" s="38"/>
-      <c r="K256" s="39"/>
+      <c r="J256" s="97"/>
+      <c r="K256" s="98"/>
     </row>
   </sheetData>
-  <mergeCells count="508">
-    <mergeCell ref="I195:K195"/>
-    <mergeCell ref="B193:C193"/>
-    <mergeCell ref="D193:E193"/>
-    <mergeCell ref="F193:H193"/>
-    <mergeCell ref="I193:K193"/>
-    <mergeCell ref="B194:C194"/>
-    <mergeCell ref="D194:E194"/>
-    <mergeCell ref="F194:H194"/>
-    <mergeCell ref="I194:K194"/>
-    <mergeCell ref="A191:A192"/>
-    <mergeCell ref="B191:C192"/>
-    <mergeCell ref="D191:E192"/>
-    <mergeCell ref="F191:H192"/>
-    <mergeCell ref="I191:K192"/>
-    <mergeCell ref="B184:D184"/>
-    <mergeCell ref="G186:K186"/>
-    <mergeCell ref="B185:D185"/>
-    <mergeCell ref="G185:K185"/>
-    <mergeCell ref="B186:D186"/>
-    <mergeCell ref="A181:B181"/>
-    <mergeCell ref="D181:E181"/>
-    <mergeCell ref="F181:G181"/>
-    <mergeCell ref="H181:I181"/>
-    <mergeCell ref="J181:K181"/>
-    <mergeCell ref="B183:D183"/>
-    <mergeCell ref="G183:K183"/>
-    <mergeCell ref="A177:B177"/>
-    <mergeCell ref="D177:E177"/>
-    <mergeCell ref="F177:G177"/>
-    <mergeCell ref="H177:I177"/>
-    <mergeCell ref="J177:K177"/>
-    <mergeCell ref="A179:B179"/>
-    <mergeCell ref="B172:C172"/>
-    <mergeCell ref="D172:E172"/>
-    <mergeCell ref="F172:H172"/>
-    <mergeCell ref="I172:K172"/>
-    <mergeCell ref="A175:K175"/>
-    <mergeCell ref="A176:B176"/>
-    <mergeCell ref="D176:E176"/>
-    <mergeCell ref="F176:K176"/>
-    <mergeCell ref="B170:C170"/>
-    <mergeCell ref="D170:E170"/>
-    <mergeCell ref="F170:H170"/>
-    <mergeCell ref="I170:K170"/>
-    <mergeCell ref="B171:C171"/>
-    <mergeCell ref="D171:E171"/>
-    <mergeCell ref="F171:H171"/>
-    <mergeCell ref="I171:K171"/>
-    <mergeCell ref="B168:C168"/>
-    <mergeCell ref="D168:E168"/>
-    <mergeCell ref="F168:H168"/>
-    <mergeCell ref="I168:K168"/>
-    <mergeCell ref="B169:C169"/>
-    <mergeCell ref="D169:E169"/>
-    <mergeCell ref="F169:H169"/>
-    <mergeCell ref="I169:K169"/>
-    <mergeCell ref="B161:D161"/>
-    <mergeCell ref="A166:A167"/>
-    <mergeCell ref="B166:C167"/>
-    <mergeCell ref="D166:E167"/>
-    <mergeCell ref="F166:H167"/>
-    <mergeCell ref="I166:K167"/>
-    <mergeCell ref="B158:D158"/>
-    <mergeCell ref="G158:K158"/>
-    <mergeCell ref="B159:D159"/>
-    <mergeCell ref="G159:K159"/>
-    <mergeCell ref="B160:D160"/>
-    <mergeCell ref="G160:K160"/>
-    <mergeCell ref="A154:B154"/>
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="D156:E156"/>
-    <mergeCell ref="F156:G156"/>
-    <mergeCell ref="H156:I156"/>
-    <mergeCell ref="J156:K156"/>
-    <mergeCell ref="A150:K150"/>
-    <mergeCell ref="A151:B151"/>
-    <mergeCell ref="D151:E151"/>
-    <mergeCell ref="F151:K151"/>
-    <mergeCell ref="A152:B152"/>
-    <mergeCell ref="D152:E152"/>
-    <mergeCell ref="F152:G152"/>
-    <mergeCell ref="H152:I152"/>
-    <mergeCell ref="J152:K152"/>
-    <mergeCell ref="B147:C147"/>
-    <mergeCell ref="D147:E147"/>
-    <mergeCell ref="F147:H147"/>
-    <mergeCell ref="I147:K147"/>
-    <mergeCell ref="B145:C145"/>
-    <mergeCell ref="D145:E145"/>
-    <mergeCell ref="F145:H145"/>
-    <mergeCell ref="I145:K145"/>
-    <mergeCell ref="B146:C146"/>
-    <mergeCell ref="D146:E146"/>
-    <mergeCell ref="F146:H146"/>
-    <mergeCell ref="I146:K146"/>
-    <mergeCell ref="B143:C143"/>
-    <mergeCell ref="D143:E143"/>
-    <mergeCell ref="F143:H143"/>
-    <mergeCell ref="I143:K143"/>
-    <mergeCell ref="B144:C144"/>
-    <mergeCell ref="D144:E144"/>
-    <mergeCell ref="F144:H144"/>
-    <mergeCell ref="I144:K144"/>
-    <mergeCell ref="B136:D136"/>
-    <mergeCell ref="A141:A142"/>
-    <mergeCell ref="B141:C142"/>
-    <mergeCell ref="D141:E142"/>
-    <mergeCell ref="F141:H142"/>
-    <mergeCell ref="I141:K142"/>
-    <mergeCell ref="B133:D133"/>
-    <mergeCell ref="G133:K133"/>
-    <mergeCell ref="B134:D134"/>
-    <mergeCell ref="G134:K134"/>
-    <mergeCell ref="B135:D135"/>
-    <mergeCell ref="G135:K135"/>
-    <mergeCell ref="A129:B129"/>
-    <mergeCell ref="A131:B131"/>
-    <mergeCell ref="D131:E131"/>
-    <mergeCell ref="F131:G131"/>
-    <mergeCell ref="H131:I131"/>
-    <mergeCell ref="J131:K131"/>
-    <mergeCell ref="A125:K125"/>
-    <mergeCell ref="A126:B126"/>
-    <mergeCell ref="D126:E126"/>
-    <mergeCell ref="F126:K126"/>
-    <mergeCell ref="A127:B127"/>
-    <mergeCell ref="D127:E127"/>
-    <mergeCell ref="F127:G127"/>
-    <mergeCell ref="H127:I127"/>
-    <mergeCell ref="J127:K127"/>
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="F122:H122"/>
-    <mergeCell ref="I122:K122"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="D119:E119"/>
-    <mergeCell ref="F119:H119"/>
-    <mergeCell ref="I119:K119"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="D120:E120"/>
-    <mergeCell ref="F120:H120"/>
-    <mergeCell ref="I120:K120"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="D117:E117"/>
-    <mergeCell ref="F117:H117"/>
-    <mergeCell ref="I117:K117"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="D118:E118"/>
-    <mergeCell ref="F118:H118"/>
-    <mergeCell ref="I118:K118"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="D121:E121"/>
-    <mergeCell ref="F121:H121"/>
-    <mergeCell ref="I121:K121"/>
-    <mergeCell ref="A115:A116"/>
-    <mergeCell ref="B115:C116"/>
-    <mergeCell ref="D115:E116"/>
-    <mergeCell ref="F115:H116"/>
-    <mergeCell ref="I115:K116"/>
-    <mergeCell ref="B108:D108"/>
-    <mergeCell ref="G110:K110"/>
-    <mergeCell ref="B109:D109"/>
-    <mergeCell ref="G108:K108"/>
-    <mergeCell ref="B110:D110"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="D105:E105"/>
-    <mergeCell ref="F105:G105"/>
-    <mergeCell ref="H105:I105"/>
-    <mergeCell ref="J105:K105"/>
-    <mergeCell ref="B107:D107"/>
-    <mergeCell ref="G107:K107"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="F101:G101"/>
-    <mergeCell ref="H101:I101"/>
-    <mergeCell ref="J101:K101"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="F95:H95"/>
-    <mergeCell ref="I95:K95"/>
-    <mergeCell ref="A99:K99"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="F100:K100"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="F94:H94"/>
-    <mergeCell ref="I94:K94"/>
+  <mergeCells count="510">
+    <mergeCell ref="B256:C256"/>
+    <mergeCell ref="D256:E256"/>
+    <mergeCell ref="F256:H256"/>
+    <mergeCell ref="I256:K256"/>
+    <mergeCell ref="G161:K161"/>
+    <mergeCell ref="B162:D162"/>
+    <mergeCell ref="B253:C253"/>
+    <mergeCell ref="D253:E253"/>
+    <mergeCell ref="F253:H253"/>
+    <mergeCell ref="I253:K253"/>
+    <mergeCell ref="B254:C254"/>
+    <mergeCell ref="D254:E254"/>
+    <mergeCell ref="F254:H254"/>
+    <mergeCell ref="I254:K254"/>
+    <mergeCell ref="B255:C255"/>
+    <mergeCell ref="D255:E255"/>
+    <mergeCell ref="F255:H255"/>
+    <mergeCell ref="I255:K255"/>
+    <mergeCell ref="B248:C248"/>
+    <mergeCell ref="D248:E248"/>
+    <mergeCell ref="F248:H248"/>
+    <mergeCell ref="I248:K248"/>
+    <mergeCell ref="B251:C251"/>
+    <mergeCell ref="D251:E251"/>
+    <mergeCell ref="F251:H251"/>
+    <mergeCell ref="I251:K251"/>
+    <mergeCell ref="B252:C252"/>
+    <mergeCell ref="D252:E252"/>
+    <mergeCell ref="F252:H252"/>
+    <mergeCell ref="I252:K252"/>
+    <mergeCell ref="F242:H242"/>
+    <mergeCell ref="I242:K242"/>
+    <mergeCell ref="B243:C243"/>
+    <mergeCell ref="D243:E243"/>
+    <mergeCell ref="F243:H243"/>
+    <mergeCell ref="I243:K243"/>
+    <mergeCell ref="D246:E246"/>
+    <mergeCell ref="D247:E247"/>
+    <mergeCell ref="B246:C246"/>
+    <mergeCell ref="B247:C247"/>
+    <mergeCell ref="I246:K246"/>
+    <mergeCell ref="I247:K247"/>
+    <mergeCell ref="F246:H246"/>
+    <mergeCell ref="F247:H247"/>
+    <mergeCell ref="A223:K223"/>
+    <mergeCell ref="F224:K224"/>
+    <mergeCell ref="A225:B225"/>
+    <mergeCell ref="D225:E225"/>
+    <mergeCell ref="F225:G225"/>
+    <mergeCell ref="H225:I225"/>
+    <mergeCell ref="J225:K225"/>
+    <mergeCell ref="A227:B227"/>
+    <mergeCell ref="A229:B229"/>
+    <mergeCell ref="D229:E229"/>
+    <mergeCell ref="F229:G229"/>
+    <mergeCell ref="H229:I229"/>
+    <mergeCell ref="J229:K229"/>
+    <mergeCell ref="B235:D235"/>
+    <mergeCell ref="G235:K235"/>
+    <mergeCell ref="F241:H241"/>
+    <mergeCell ref="I241:K241"/>
+    <mergeCell ref="B249:C249"/>
+    <mergeCell ref="D249:E249"/>
+    <mergeCell ref="F249:H249"/>
+    <mergeCell ref="I249:K249"/>
+    <mergeCell ref="B250:C250"/>
+    <mergeCell ref="D250:E250"/>
+    <mergeCell ref="F250:H250"/>
+    <mergeCell ref="I250:K250"/>
+    <mergeCell ref="B244:C244"/>
+    <mergeCell ref="D244:E244"/>
+    <mergeCell ref="F244:H244"/>
+    <mergeCell ref="I244:K244"/>
+    <mergeCell ref="B245:C245"/>
+    <mergeCell ref="D245:E245"/>
+    <mergeCell ref="F245:H245"/>
+    <mergeCell ref="I245:K245"/>
+    <mergeCell ref="G236:K236"/>
+    <mergeCell ref="G237:K237"/>
+    <mergeCell ref="B242:C242"/>
+    <mergeCell ref="D242:E242"/>
+    <mergeCell ref="B232:D232"/>
+    <mergeCell ref="G232:K232"/>
+    <mergeCell ref="B233:D233"/>
+    <mergeCell ref="G233:K233"/>
+    <mergeCell ref="B234:D234"/>
+    <mergeCell ref="G234:K234"/>
+    <mergeCell ref="B231:D231"/>
+    <mergeCell ref="G231:K231"/>
+    <mergeCell ref="A224:B224"/>
+    <mergeCell ref="D224:E224"/>
+    <mergeCell ref="B220:C220"/>
+    <mergeCell ref="D220:E220"/>
+    <mergeCell ref="F220:H220"/>
+    <mergeCell ref="I220:K220"/>
+    <mergeCell ref="B218:C218"/>
+    <mergeCell ref="D218:E218"/>
+    <mergeCell ref="F218:H218"/>
+    <mergeCell ref="I218:K218"/>
+    <mergeCell ref="G184:K184"/>
+    <mergeCell ref="B214:C215"/>
+    <mergeCell ref="D214:E215"/>
+    <mergeCell ref="F214:H215"/>
+    <mergeCell ref="I214:K215"/>
+    <mergeCell ref="B207:D207"/>
+    <mergeCell ref="G207:K207"/>
+    <mergeCell ref="B208:D208"/>
+    <mergeCell ref="G208:K208"/>
+    <mergeCell ref="B209:D209"/>
+    <mergeCell ref="G209:K209"/>
+    <mergeCell ref="B210:D210"/>
+    <mergeCell ref="B187:D187"/>
+    <mergeCell ref="B195:C195"/>
+    <mergeCell ref="D195:E195"/>
+    <mergeCell ref="F195:H195"/>
+    <mergeCell ref="B219:C219"/>
+    <mergeCell ref="D219:E219"/>
+    <mergeCell ref="F219:H219"/>
+    <mergeCell ref="I219:K219"/>
+    <mergeCell ref="A200:B200"/>
+    <mergeCell ref="D200:E200"/>
+    <mergeCell ref="F200:G200"/>
+    <mergeCell ref="H200:I200"/>
+    <mergeCell ref="J200:K200"/>
+    <mergeCell ref="A202:B202"/>
+    <mergeCell ref="A204:B204"/>
+    <mergeCell ref="D204:E204"/>
+    <mergeCell ref="F204:G204"/>
+    <mergeCell ref="H204:I204"/>
+    <mergeCell ref="J204:K204"/>
+    <mergeCell ref="B216:C216"/>
+    <mergeCell ref="D216:E216"/>
+    <mergeCell ref="F216:H216"/>
+    <mergeCell ref="I216:K216"/>
+    <mergeCell ref="B217:C217"/>
+    <mergeCell ref="D217:E217"/>
+    <mergeCell ref="F217:H217"/>
+    <mergeCell ref="I217:K217"/>
+    <mergeCell ref="A214:A215"/>
+    <mergeCell ref="B206:D206"/>
+    <mergeCell ref="G206:K206"/>
+    <mergeCell ref="A199:B199"/>
+    <mergeCell ref="D199:E199"/>
+    <mergeCell ref="A198:K198"/>
+    <mergeCell ref="F199:K199"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:K27"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="F17:H18"/>
+    <mergeCell ref="I17:K18"/>
+    <mergeCell ref="A16:K16"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A26:K26"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="A14:K14"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:C18"/>
+    <mergeCell ref="D17:E18"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:C43"/>
+    <mergeCell ref="D42:E43"/>
+    <mergeCell ref="F42:H43"/>
+    <mergeCell ref="I42:K43"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="G34:K34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="G35:K35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="G36:K36"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:H46"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="I44:K44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="I45:K45"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="G37:K37"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="A49:K49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:K50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:C66"/>
+    <mergeCell ref="D65:E66"/>
+    <mergeCell ref="F65:H66"/>
+    <mergeCell ref="I65:K66"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="G57:K57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="G58:K58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="G59:K59"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="F67:H67"/>
+    <mergeCell ref="I67:K67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="F68:H68"/>
+    <mergeCell ref="I68:K68"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="G60:K60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="G81:K81"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="J75:K75"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="F69:H69"/>
+    <mergeCell ref="I69:K69"/>
+    <mergeCell ref="A73:K73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="F74:K74"/>
+    <mergeCell ref="D89:E90"/>
+    <mergeCell ref="F89:H90"/>
+    <mergeCell ref="I89:K90"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="G82:K82"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="G83:K83"/>
+    <mergeCell ref="B84:D84"/>
+    <mergeCell ref="G84:K84"/>
     <mergeCell ref="B93:C93"/>
     <mergeCell ref="D93:E93"/>
     <mergeCell ref="F93:H93"/>
@@ -6670,301 +6896,196 @@
     <mergeCell ref="B81:D81"/>
     <mergeCell ref="A89:A90"/>
     <mergeCell ref="B89:C90"/>
-    <mergeCell ref="D89:E90"/>
-    <mergeCell ref="F89:H90"/>
-    <mergeCell ref="I89:K90"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="G82:K82"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="G83:K83"/>
-    <mergeCell ref="B84:D84"/>
-    <mergeCell ref="G84:K84"/>
-    <mergeCell ref="G81:K81"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="F75:G75"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="J75:K75"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="F69:H69"/>
-    <mergeCell ref="I69:K69"/>
-    <mergeCell ref="A73:K73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="F74:K74"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="F67:H67"/>
-    <mergeCell ref="I67:K67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="F68:H68"/>
-    <mergeCell ref="I68:K68"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="G60:K60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:C66"/>
-    <mergeCell ref="D65:E66"/>
-    <mergeCell ref="F65:H66"/>
-    <mergeCell ref="I65:K66"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="G57:K57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="G58:K58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="G59:K59"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="A49:K49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:K50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F46:H46"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:H44"/>
-    <mergeCell ref="I44:K44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="I45:K45"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="G37:K37"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:C43"/>
-    <mergeCell ref="D42:E43"/>
-    <mergeCell ref="F42:H43"/>
-    <mergeCell ref="I42:K43"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="G34:K34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="G35:K35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="G36:K36"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A26:K26"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="A14:K14"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:C18"/>
-    <mergeCell ref="D17:E18"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="F17:H18"/>
-    <mergeCell ref="I17:K18"/>
-    <mergeCell ref="A16:K16"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="A214:A215"/>
-    <mergeCell ref="B206:D206"/>
-    <mergeCell ref="G206:K206"/>
-    <mergeCell ref="A199:B199"/>
-    <mergeCell ref="D199:E199"/>
-    <mergeCell ref="A198:K198"/>
-    <mergeCell ref="F199:K199"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:K27"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="F95:H95"/>
+    <mergeCell ref="I95:K95"/>
+    <mergeCell ref="A99:K99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="F100:K100"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="F94:H94"/>
+    <mergeCell ref="I94:K94"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="F105:G105"/>
+    <mergeCell ref="H105:I105"/>
+    <mergeCell ref="J105:K105"/>
+    <mergeCell ref="B107:D107"/>
+    <mergeCell ref="G107:K107"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="F101:G101"/>
+    <mergeCell ref="H101:I101"/>
+    <mergeCell ref="J101:K101"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="B115:C116"/>
+    <mergeCell ref="D115:E116"/>
+    <mergeCell ref="F115:H116"/>
+    <mergeCell ref="I115:K116"/>
+    <mergeCell ref="B108:D108"/>
+    <mergeCell ref="G110:K110"/>
+    <mergeCell ref="B109:D109"/>
+    <mergeCell ref="G108:K108"/>
+    <mergeCell ref="B110:D110"/>
     <mergeCell ref="G109:K109"/>
-    <mergeCell ref="B219:C219"/>
-    <mergeCell ref="D219:E219"/>
-    <mergeCell ref="F219:H219"/>
-    <mergeCell ref="I219:K219"/>
-    <mergeCell ref="A200:B200"/>
-    <mergeCell ref="D200:E200"/>
-    <mergeCell ref="F200:G200"/>
-    <mergeCell ref="H200:I200"/>
-    <mergeCell ref="J200:K200"/>
-    <mergeCell ref="A202:B202"/>
-    <mergeCell ref="A204:B204"/>
-    <mergeCell ref="D204:E204"/>
-    <mergeCell ref="F204:G204"/>
-    <mergeCell ref="H204:I204"/>
-    <mergeCell ref="J204:K204"/>
-    <mergeCell ref="B216:C216"/>
-    <mergeCell ref="D216:E216"/>
-    <mergeCell ref="F216:H216"/>
-    <mergeCell ref="I216:K216"/>
-    <mergeCell ref="B217:C217"/>
-    <mergeCell ref="D217:E217"/>
-    <mergeCell ref="F217:H217"/>
-    <mergeCell ref="I217:K217"/>
-    <mergeCell ref="B220:C220"/>
-    <mergeCell ref="D220:E220"/>
-    <mergeCell ref="F220:H220"/>
-    <mergeCell ref="I220:K220"/>
-    <mergeCell ref="B218:C218"/>
-    <mergeCell ref="D218:E218"/>
-    <mergeCell ref="F218:H218"/>
-    <mergeCell ref="I218:K218"/>
-    <mergeCell ref="G184:K184"/>
-    <mergeCell ref="B214:C215"/>
-    <mergeCell ref="D214:E215"/>
-    <mergeCell ref="F214:H215"/>
-    <mergeCell ref="I214:K215"/>
-    <mergeCell ref="B207:D207"/>
-    <mergeCell ref="G207:K207"/>
-    <mergeCell ref="B208:D208"/>
-    <mergeCell ref="G208:K208"/>
-    <mergeCell ref="B209:D209"/>
-    <mergeCell ref="G209:K209"/>
-    <mergeCell ref="B210:D210"/>
-    <mergeCell ref="B187:D187"/>
-    <mergeCell ref="B195:C195"/>
-    <mergeCell ref="D195:E195"/>
-    <mergeCell ref="F195:H195"/>
-    <mergeCell ref="B232:D232"/>
-    <mergeCell ref="G232:K232"/>
-    <mergeCell ref="B233:D233"/>
-    <mergeCell ref="G233:K233"/>
-    <mergeCell ref="B234:D234"/>
-    <mergeCell ref="G234:K234"/>
-    <mergeCell ref="B231:D231"/>
-    <mergeCell ref="G231:K231"/>
-    <mergeCell ref="A224:B224"/>
-    <mergeCell ref="D224:E224"/>
-    <mergeCell ref="B235:D235"/>
-    <mergeCell ref="G235:K235"/>
-    <mergeCell ref="F241:H241"/>
-    <mergeCell ref="I241:K241"/>
-    <mergeCell ref="B249:C249"/>
-    <mergeCell ref="D249:E249"/>
-    <mergeCell ref="F249:H249"/>
-    <mergeCell ref="I249:K249"/>
-    <mergeCell ref="B250:C250"/>
-    <mergeCell ref="D250:E250"/>
-    <mergeCell ref="F250:H250"/>
-    <mergeCell ref="I250:K250"/>
-    <mergeCell ref="A223:K223"/>
-    <mergeCell ref="F224:K224"/>
-    <mergeCell ref="A225:B225"/>
-    <mergeCell ref="D225:E225"/>
-    <mergeCell ref="F225:G225"/>
-    <mergeCell ref="H225:I225"/>
-    <mergeCell ref="J225:K225"/>
-    <mergeCell ref="A227:B227"/>
-    <mergeCell ref="A229:B229"/>
-    <mergeCell ref="D229:E229"/>
-    <mergeCell ref="F229:G229"/>
-    <mergeCell ref="H229:I229"/>
-    <mergeCell ref="J229:K229"/>
-    <mergeCell ref="B244:C244"/>
-    <mergeCell ref="D244:E244"/>
-    <mergeCell ref="F244:H244"/>
-    <mergeCell ref="I244:K244"/>
-    <mergeCell ref="B245:C245"/>
-    <mergeCell ref="D245:E245"/>
-    <mergeCell ref="F245:H245"/>
-    <mergeCell ref="I245:K245"/>
-    <mergeCell ref="G236:K236"/>
-    <mergeCell ref="G237:K237"/>
-    <mergeCell ref="B242:C242"/>
-    <mergeCell ref="D242:E242"/>
-    <mergeCell ref="F242:H242"/>
-    <mergeCell ref="I242:K242"/>
-    <mergeCell ref="B243:C243"/>
-    <mergeCell ref="D243:E243"/>
-    <mergeCell ref="F243:H243"/>
-    <mergeCell ref="I243:K243"/>
-    <mergeCell ref="D246:E246"/>
-    <mergeCell ref="D247:E247"/>
-    <mergeCell ref="B246:C246"/>
-    <mergeCell ref="B247:C247"/>
-    <mergeCell ref="I246:K246"/>
-    <mergeCell ref="I247:K247"/>
-    <mergeCell ref="F246:H246"/>
-    <mergeCell ref="F247:H247"/>
-    <mergeCell ref="B248:C248"/>
-    <mergeCell ref="D248:E248"/>
-    <mergeCell ref="F248:H248"/>
-    <mergeCell ref="I248:K248"/>
-    <mergeCell ref="B251:C251"/>
-    <mergeCell ref="D251:E251"/>
-    <mergeCell ref="F251:H251"/>
-    <mergeCell ref="I251:K251"/>
-    <mergeCell ref="B252:C252"/>
-    <mergeCell ref="D252:E252"/>
-    <mergeCell ref="F252:H252"/>
-    <mergeCell ref="I252:K252"/>
-    <mergeCell ref="B253:C253"/>
-    <mergeCell ref="D253:E253"/>
-    <mergeCell ref="F253:H253"/>
-    <mergeCell ref="I253:K253"/>
-    <mergeCell ref="B254:C254"/>
-    <mergeCell ref="D254:E254"/>
-    <mergeCell ref="F254:H254"/>
-    <mergeCell ref="I254:K254"/>
-    <mergeCell ref="B255:C255"/>
-    <mergeCell ref="D255:E255"/>
-    <mergeCell ref="F255:H255"/>
-    <mergeCell ref="I255:K255"/>
-    <mergeCell ref="B256:C256"/>
-    <mergeCell ref="D256:E256"/>
-    <mergeCell ref="F256:H256"/>
-    <mergeCell ref="I256:K256"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="D117:E117"/>
+    <mergeCell ref="F117:H117"/>
+    <mergeCell ref="I117:K117"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="D118:E118"/>
+    <mergeCell ref="F118:H118"/>
+    <mergeCell ref="I118:K118"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="D121:E121"/>
+    <mergeCell ref="F121:H121"/>
+    <mergeCell ref="I121:K121"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="F122:H122"/>
+    <mergeCell ref="I122:K122"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="D119:E119"/>
+    <mergeCell ref="F119:H119"/>
+    <mergeCell ref="I119:K119"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="D120:E120"/>
+    <mergeCell ref="F120:H120"/>
+    <mergeCell ref="I120:K120"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="D131:E131"/>
+    <mergeCell ref="F131:G131"/>
+    <mergeCell ref="H131:I131"/>
+    <mergeCell ref="J131:K131"/>
+    <mergeCell ref="A125:K125"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="D126:E126"/>
+    <mergeCell ref="F126:K126"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="D127:E127"/>
+    <mergeCell ref="F127:G127"/>
+    <mergeCell ref="H127:I127"/>
+    <mergeCell ref="J127:K127"/>
+    <mergeCell ref="A141:A142"/>
+    <mergeCell ref="B141:C142"/>
+    <mergeCell ref="D141:E142"/>
+    <mergeCell ref="F141:H142"/>
+    <mergeCell ref="I141:K142"/>
+    <mergeCell ref="B133:D133"/>
+    <mergeCell ref="G133:K133"/>
+    <mergeCell ref="B134:D134"/>
+    <mergeCell ref="G134:K134"/>
+    <mergeCell ref="B135:D135"/>
+    <mergeCell ref="G135:K135"/>
+    <mergeCell ref="B143:C143"/>
+    <mergeCell ref="D143:E143"/>
+    <mergeCell ref="F143:H143"/>
+    <mergeCell ref="I143:K143"/>
+    <mergeCell ref="B144:C144"/>
+    <mergeCell ref="D144:E144"/>
+    <mergeCell ref="F144:H144"/>
+    <mergeCell ref="I144:K144"/>
+    <mergeCell ref="B136:D136"/>
+    <mergeCell ref="B147:C147"/>
+    <mergeCell ref="D147:E147"/>
+    <mergeCell ref="F147:H147"/>
+    <mergeCell ref="I147:K147"/>
+    <mergeCell ref="B145:C145"/>
+    <mergeCell ref="D145:E145"/>
+    <mergeCell ref="F145:H145"/>
+    <mergeCell ref="I145:K145"/>
+    <mergeCell ref="B146:C146"/>
+    <mergeCell ref="D146:E146"/>
+    <mergeCell ref="F146:H146"/>
+    <mergeCell ref="I146:K146"/>
+    <mergeCell ref="A154:B154"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="F156:G156"/>
+    <mergeCell ref="H156:I156"/>
+    <mergeCell ref="J156:K156"/>
+    <mergeCell ref="A150:K150"/>
+    <mergeCell ref="A151:B151"/>
+    <mergeCell ref="D151:E151"/>
+    <mergeCell ref="F151:K151"/>
+    <mergeCell ref="A152:B152"/>
+    <mergeCell ref="D152:E152"/>
+    <mergeCell ref="F152:G152"/>
+    <mergeCell ref="H152:I152"/>
+    <mergeCell ref="J152:K152"/>
+    <mergeCell ref="A166:A167"/>
+    <mergeCell ref="B166:C167"/>
+    <mergeCell ref="D166:E167"/>
+    <mergeCell ref="F166:H167"/>
+    <mergeCell ref="I166:K167"/>
+    <mergeCell ref="B158:D158"/>
+    <mergeCell ref="G158:K158"/>
+    <mergeCell ref="B159:D159"/>
+    <mergeCell ref="G159:K159"/>
+    <mergeCell ref="B160:D160"/>
+    <mergeCell ref="G160:K160"/>
+    <mergeCell ref="B168:C168"/>
+    <mergeCell ref="D168:E168"/>
+    <mergeCell ref="F168:H168"/>
+    <mergeCell ref="I168:K168"/>
+    <mergeCell ref="B169:C169"/>
+    <mergeCell ref="D169:E169"/>
+    <mergeCell ref="F169:H169"/>
+    <mergeCell ref="I169:K169"/>
+    <mergeCell ref="B161:D161"/>
+    <mergeCell ref="B172:C172"/>
+    <mergeCell ref="D172:E172"/>
+    <mergeCell ref="F172:H172"/>
+    <mergeCell ref="I172:K172"/>
+    <mergeCell ref="A175:K175"/>
+    <mergeCell ref="A176:B176"/>
+    <mergeCell ref="D176:E176"/>
+    <mergeCell ref="F176:K176"/>
+    <mergeCell ref="B170:C170"/>
+    <mergeCell ref="D170:E170"/>
+    <mergeCell ref="F170:H170"/>
+    <mergeCell ref="I170:K170"/>
+    <mergeCell ref="B171:C171"/>
+    <mergeCell ref="D171:E171"/>
+    <mergeCell ref="F171:H171"/>
+    <mergeCell ref="I171:K171"/>
+    <mergeCell ref="A181:B181"/>
+    <mergeCell ref="D181:E181"/>
+    <mergeCell ref="F181:G181"/>
+    <mergeCell ref="H181:I181"/>
+    <mergeCell ref="J181:K181"/>
+    <mergeCell ref="B183:D183"/>
+    <mergeCell ref="G183:K183"/>
+    <mergeCell ref="A177:B177"/>
+    <mergeCell ref="D177:E177"/>
+    <mergeCell ref="F177:G177"/>
+    <mergeCell ref="H177:I177"/>
+    <mergeCell ref="J177:K177"/>
+    <mergeCell ref="A179:B179"/>
+    <mergeCell ref="A191:A192"/>
+    <mergeCell ref="B191:C192"/>
+    <mergeCell ref="D191:E192"/>
+    <mergeCell ref="F191:H192"/>
+    <mergeCell ref="I191:K192"/>
+    <mergeCell ref="B184:D184"/>
+    <mergeCell ref="G186:K186"/>
+    <mergeCell ref="B185:D185"/>
+    <mergeCell ref="G185:K185"/>
+    <mergeCell ref="B186:D186"/>
+    <mergeCell ref="I195:K195"/>
+    <mergeCell ref="B193:C193"/>
+    <mergeCell ref="D193:E193"/>
+    <mergeCell ref="F193:H193"/>
+    <mergeCell ref="I193:K193"/>
+    <mergeCell ref="B194:C194"/>
+    <mergeCell ref="D194:E194"/>
+    <mergeCell ref="F194:H194"/>
+    <mergeCell ref="I194:K194"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/Software Testing/Practicals/Practical 3/Practical 3.xlsx
+++ b/Software Testing/Practicals/Practical 3/Practical 3.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20380"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_3rdYrNotes\IT-3rd-year-notes\Software Testing\Practicals\Practical 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DACCA75-2707-4A91-901A-592775501DD5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="168">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -519,12 +520,21 @@
   </si>
   <si>
     <t>Test the  Register Functionality in Discord website.</t>
+  </si>
+  <si>
+    <t>Test Case 7</t>
+  </si>
+  <si>
+    <t>Test the video call Functionality in Discord website.</t>
+  </si>
+  <si>
+    <t>DISC_07</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mmmm\ d\,\ yyyy"/>
   </numFmts>
@@ -1477,6 +1487,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1602,13 +1618,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1626,126 +1639,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="53" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1766,14 +1659,131 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="53" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2056,11 +2066,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="N91" sqref="N1:N1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A170" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A248" sqref="A248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2069,65 +2079,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="91"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="103"/>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="96"/>
+      <c r="B2" s="108"/>
       <c r="C2" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="95" t="s">
+      <c r="D2" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="96"/>
-      <c r="F2" s="97" t="s">
+      <c r="E2" s="108"/>
+      <c r="F2" s="109" t="s">
         <v>164</v>
       </c>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="98"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="109"/>
+      <c r="J2" s="109"/>
+      <c r="K2" s="110"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="95" t="s">
+      <c r="A3" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="96"/>
+      <c r="B3" s="108"/>
       <c r="C3" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="95" t="s">
+      <c r="D3" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="96"/>
-      <c r="F3" s="97" t="s">
+      <c r="E3" s="108"/>
+      <c r="F3" s="109" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="98"/>
-      <c r="H3" s="99" t="s">
+      <c r="G3" s="110"/>
+      <c r="H3" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="96"/>
-      <c r="J3" s="100" t="s">
+      <c r="I3" s="108"/>
+      <c r="J3" s="112" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="101"/>
+      <c r="K3" s="113"/>
     </row>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
@@ -2143,10 +2153,10 @@
       <c r="K4" s="4"/>
     </row>
     <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="111" t="s">
+      <c r="A5" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="112"/>
+      <c r="B5" s="124"/>
       <c r="C5" s="26" t="s">
         <v>60</v>
       </c>
@@ -2173,29 +2183,29 @@
       <c r="K6" s="4"/>
     </row>
     <row r="7" spans="1:11" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="63"/>
+      <c r="B7" s="65"/>
       <c r="C7" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="62" t="s">
+      <c r="D7" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="63"/>
-      <c r="F7" s="64">
+      <c r="E7" s="65"/>
+      <c r="F7" s="66">
         <v>44500</v>
       </c>
-      <c r="G7" s="65"/>
-      <c r="H7" s="62" t="s">
+      <c r="G7" s="67"/>
+      <c r="H7" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="63"/>
-      <c r="J7" s="66" t="s">
+      <c r="I7" s="65"/>
+      <c r="J7" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="67"/>
+      <c r="K7" s="69"/>
     </row>
     <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7"/>
@@ -2214,64 +2224,64 @@
       <c r="A9" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="105" t="s">
+      <c r="B9" s="117" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="106"/>
-      <c r="D9" s="107"/>
+      <c r="C9" s="118"/>
+      <c r="D9" s="119"/>
       <c r="E9" s="9"/>
       <c r="F9" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="108" t="s">
+      <c r="G9" s="120" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="109"/>
-      <c r="I9" s="109"/>
-      <c r="J9" s="109"/>
-      <c r="K9" s="110"/>
+      <c r="H9" s="121"/>
+      <c r="I9" s="121"/>
+      <c r="J9" s="121"/>
+      <c r="K9" s="122"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="11">
         <v>1</v>
       </c>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="48"/>
-      <c r="D10" s="50"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="52"/>
       <c r="E10" s="3"/>
       <c r="F10" s="11">
         <v>1</v>
       </c>
-      <c r="G10" s="47" t="s">
+      <c r="G10" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="52"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="11">
         <v>2</v>
       </c>
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="48"/>
-      <c r="D11" s="50"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="52"/>
       <c r="E11" s="3"/>
       <c r="F11" s="11">
         <v>2</v>
       </c>
-      <c r="G11" s="47" t="s">
+      <c r="G11" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="52"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
@@ -2281,13 +2291,13 @@
       <c r="F12" s="11">
         <v>3</v>
       </c>
-      <c r="G12" s="47" t="s">
+      <c r="G12" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="52"/>
     </row>
     <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
@@ -2298,26 +2308,26 @@
       <c r="F13" s="18">
         <v>4</v>
       </c>
-      <c r="G13" s="36" t="s">
+      <c r="G13" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="38"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="40"/>
     </row>
     <row r="14" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="92"/>
-      <c r="B14" s="93"/>
-      <c r="C14" s="93"/>
-      <c r="D14" s="93"/>
-      <c r="E14" s="93"/>
-      <c r="F14" s="93"/>
-      <c r="G14" s="93"/>
-      <c r="H14" s="93"/>
-      <c r="I14" s="93"/>
-      <c r="J14" s="93"/>
-      <c r="K14" s="94"/>
+      <c r="A14" s="104"/>
+      <c r="B14" s="105"/>
+      <c r="C14" s="105"/>
+      <c r="D14" s="105"/>
+      <c r="E14" s="105"/>
+      <c r="F14" s="105"/>
+      <c r="G14" s="105"/>
+      <c r="H14" s="105"/>
+      <c r="I14" s="105"/>
+      <c r="J14" s="105"/>
+      <c r="K14" s="106"/>
     </row>
     <row r="15" spans="1:11" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="23" t="s">
@@ -2337,230 +2347,230 @@
       <c r="K15" s="4"/>
     </row>
     <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="102"/>
-      <c r="B16" s="103"/>
-      <c r="C16" s="103"/>
-      <c r="D16" s="103"/>
-      <c r="E16" s="103"/>
-      <c r="F16" s="103"/>
-      <c r="G16" s="103"/>
-      <c r="H16" s="103"/>
-      <c r="I16" s="103"/>
-      <c r="J16" s="103"/>
-      <c r="K16" s="104"/>
+      <c r="A16" s="114"/>
+      <c r="B16" s="115"/>
+      <c r="C16" s="115"/>
+      <c r="D16" s="115"/>
+      <c r="E16" s="115"/>
+      <c r="F16" s="115"/>
+      <c r="G16" s="115"/>
+      <c r="H16" s="115"/>
+      <c r="I16" s="115"/>
+      <c r="J16" s="115"/>
+      <c r="K16" s="116"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="51" t="s">
+      <c r="A17" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="53" t="s">
+      <c r="B17" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="54"/>
-      <c r="D17" s="56" t="s">
+      <c r="C17" s="56"/>
+      <c r="D17" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="57"/>
-      <c r="F17" s="53" t="s">
+      <c r="E17" s="59"/>
+      <c r="F17" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="54"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="53" t="s">
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="J17" s="54"/>
-      <c r="K17" s="60"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="62"/>
     </row>
     <row r="18" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="52"/>
-      <c r="B18" s="55"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="61"/>
+      <c r="A18" s="54"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="61"/>
+      <c r="K18" s="63"/>
     </row>
     <row r="19" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="17">
         <v>1</v>
       </c>
-      <c r="B19" s="39" t="s">
+      <c r="B19" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="40"/>
-      <c r="D19" s="39" t="s">
+      <c r="C19" s="42"/>
+      <c r="D19" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="39"/>
-      <c r="F19" s="41" t="s">
+      <c r="E19" s="41"/>
+      <c r="F19" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="G19" s="42"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="41" t="s">
+      <c r="G19" s="44"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="J19" s="42"/>
-      <c r="K19" s="44"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="46"/>
     </row>
     <row r="20" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11">
         <v>2</v>
       </c>
-      <c r="B20" s="45" t="s">
+      <c r="B20" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="46"/>
-      <c r="D20" s="45" t="s">
+      <c r="C20" s="48"/>
+      <c r="D20" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="45"/>
-      <c r="F20" s="47" t="s">
+      <c r="E20" s="47"/>
+      <c r="F20" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="G20" s="48"/>
-      <c r="H20" s="49"/>
-      <c r="I20" s="47" t="s">
+      <c r="G20" s="50"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="J20" s="48"/>
-      <c r="K20" s="50"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="52"/>
     </row>
     <row r="21" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="18">
         <v>3</v>
       </c>
-      <c r="B21" s="79" t="s">
+      <c r="B21" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="80"/>
-      <c r="D21" s="79" t="s">
+      <c r="C21" s="97"/>
+      <c r="D21" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="E21" s="79"/>
-      <c r="F21" s="36" t="s">
+      <c r="E21" s="96"/>
+      <c r="F21" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="G21" s="37"/>
-      <c r="H21" s="81"/>
-      <c r="I21" s="36" t="s">
+      <c r="G21" s="39"/>
+      <c r="H21" s="100"/>
+      <c r="I21" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="J21" s="37"/>
-      <c r="K21" s="38"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="40"/>
     </row>
     <row r="22" spans="1:11" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="18">
         <v>4</v>
       </c>
-      <c r="B22" s="79" t="s">
+      <c r="B22" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="80"/>
-      <c r="D22" s="79" t="s">
+      <c r="C22" s="97"/>
+      <c r="D22" s="96" t="s">
         <v>160</v>
       </c>
-      <c r="E22" s="79"/>
-      <c r="F22" s="36" t="s">
+      <c r="E22" s="96"/>
+      <c r="F22" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="G22" s="37"/>
-      <c r="H22" s="81"/>
-      <c r="I22" s="36" t="s">
+      <c r="G22" s="39"/>
+      <c r="H22" s="100"/>
+      <c r="I22" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="J22" s="37"/>
-      <c r="K22" s="38"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="40"/>
     </row>
     <row r="23" spans="1:11" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="18">
         <v>5</v>
       </c>
-      <c r="B23" s="79" t="s">
+      <c r="B23" s="96" t="s">
         <v>159</v>
       </c>
-      <c r="C23" s="80"/>
-      <c r="D23" s="79" t="s">
+      <c r="C23" s="97"/>
+      <c r="D23" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="79"/>
-      <c r="F23" s="36" t="s">
+      <c r="E23" s="96"/>
+      <c r="F23" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="G23" s="37"/>
-      <c r="H23" s="81"/>
-      <c r="I23" s="36" t="s">
+      <c r="G23" s="39"/>
+      <c r="H23" s="100"/>
+      <c r="I23" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="J23" s="37"/>
-      <c r="K23" s="38"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="40"/>
     </row>
     <row r="25" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="82" t="s">
+      <c r="A26" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="83"/>
-      <c r="C26" s="83"/>
-      <c r="D26" s="83"/>
-      <c r="E26" s="83"/>
-      <c r="F26" s="83"/>
-      <c r="G26" s="83"/>
-      <c r="H26" s="83"/>
-      <c r="I26" s="83"/>
-      <c r="J26" s="83"/>
-      <c r="K26" s="84"/>
+      <c r="B26" s="84"/>
+      <c r="C26" s="84"/>
+      <c r="D26" s="84"/>
+      <c r="E26" s="84"/>
+      <c r="F26" s="84"/>
+      <c r="G26" s="84"/>
+      <c r="H26" s="84"/>
+      <c r="I26" s="84"/>
+      <c r="J26" s="84"/>
+      <c r="K26" s="85"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="85" t="s">
+      <c r="A27" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="86"/>
+      <c r="B27" s="87"/>
       <c r="C27" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="D27" s="87" t="s">
+      <c r="D27" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="E27" s="86"/>
-      <c r="F27" s="42" t="s">
+      <c r="E27" s="87"/>
+      <c r="F27" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="G27" s="42"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="44"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="44"/>
+      <c r="K27" s="46"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="73" t="s">
+      <c r="A28" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="B28" s="71"/>
+      <c r="B28" s="73"/>
       <c r="C28" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D28" s="70" t="s">
+      <c r="D28" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="E28" s="71"/>
-      <c r="F28" s="48" t="s">
+      <c r="E28" s="73"/>
+      <c r="F28" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="G28" s="49"/>
-      <c r="H28" s="74" t="s">
+      <c r="G28" s="51"/>
+      <c r="H28" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="I28" s="71"/>
-      <c r="J28" s="75" t="s">
+      <c r="I28" s="73"/>
+      <c r="J28" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="K28" s="76"/>
+      <c r="K28" s="78"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
@@ -2576,10 +2586,10 @@
       <c r="K29" s="4"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="77" t="s">
+      <c r="A30" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="78"/>
+      <c r="B30" s="80"/>
       <c r="C30" s="5" t="s">
         <v>60</v>
       </c>
@@ -2606,29 +2616,29 @@
       <c r="K31" s="4"/>
     </row>
     <row r="32" spans="1:11" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="62" t="s">
+      <c r="A32" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="63"/>
+      <c r="B32" s="65"/>
       <c r="C32" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="D32" s="62" t="s">
+      <c r="D32" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="E32" s="63"/>
-      <c r="F32" s="64">
+      <c r="E32" s="65"/>
+      <c r="F32" s="66">
         <v>44500</v>
       </c>
-      <c r="G32" s="65"/>
-      <c r="H32" s="62" t="s">
+      <c r="G32" s="67"/>
+      <c r="H32" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="I32" s="63"/>
-      <c r="J32" s="66" t="s">
+      <c r="I32" s="65"/>
+      <c r="J32" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="K32" s="67"/>
+      <c r="K32" s="69"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="7"/>
@@ -2647,83 +2657,83 @@
       <c r="A34" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="68" t="s">
+      <c r="B34" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="69"/>
-      <c r="D34" s="69"/>
+      <c r="C34" s="71"/>
+      <c r="D34" s="71"/>
       <c r="E34" s="9"/>
       <c r="F34" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G34" s="70" t="s">
+      <c r="G34" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="H34" s="71"/>
-      <c r="I34" s="71"/>
-      <c r="J34" s="71"/>
-      <c r="K34" s="72"/>
+      <c r="H34" s="73"/>
+      <c r="I34" s="73"/>
+      <c r="J34" s="73"/>
+      <c r="K34" s="74"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="11">
         <v>1</v>
       </c>
-      <c r="B35" s="47" t="s">
+      <c r="B35" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="C35" s="48"/>
-      <c r="D35" s="49"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="51"/>
       <c r="E35" s="3"/>
       <c r="F35" s="12">
         <v>1</v>
       </c>
-      <c r="G35" s="47" t="s">
+      <c r="G35" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="H35" s="48"/>
-      <c r="I35" s="48"/>
-      <c r="J35" s="48"/>
-      <c r="K35" s="50"/>
+      <c r="H35" s="50"/>
+      <c r="I35" s="50"/>
+      <c r="J35" s="50"/>
+      <c r="K35" s="52"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="11">
         <v>2</v>
       </c>
-      <c r="B36" s="47" t="s">
+      <c r="B36" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="C36" s="48"/>
-      <c r="D36" s="49"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="51"/>
       <c r="E36" s="3"/>
       <c r="F36" s="12">
         <v>2</v>
       </c>
-      <c r="G36" s="47" t="s">
+      <c r="G36" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="H36" s="48"/>
-      <c r="I36" s="48"/>
-      <c r="J36" s="48"/>
-      <c r="K36" s="50"/>
+      <c r="H36" s="50"/>
+      <c r="I36" s="50"/>
+      <c r="J36" s="50"/>
+      <c r="K36" s="52"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="11">
         <v>3</v>
       </c>
-      <c r="B37" s="47" t="s">
+      <c r="B37" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="C37" s="48"/>
-      <c r="D37" s="49"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="51"/>
       <c r="E37" s="3"/>
       <c r="F37" s="12">
         <v>3</v>
       </c>
-      <c r="G37" s="47"/>
-      <c r="H37" s="48"/>
-      <c r="I37" s="48"/>
-      <c r="J37" s="48"/>
-      <c r="K37" s="50"/>
+      <c r="G37" s="49"/>
+      <c r="H37" s="50"/>
+      <c r="I37" s="50"/>
+      <c r="J37" s="50"/>
+      <c r="K37" s="52"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
@@ -2782,171 +2792,171 @@
       <c r="K41" s="16"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" s="51" t="s">
+      <c r="A42" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="B42" s="53" t="s">
+      <c r="B42" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="C42" s="54"/>
-      <c r="D42" s="56" t="s">
+      <c r="C42" s="56"/>
+      <c r="D42" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="E42" s="57"/>
-      <c r="F42" s="53" t="s">
+      <c r="E42" s="59"/>
+      <c r="F42" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="G42" s="54"/>
-      <c r="H42" s="54"/>
-      <c r="I42" s="53" t="s">
+      <c r="G42" s="56"/>
+      <c r="H42" s="56"/>
+      <c r="I42" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="J42" s="54"/>
-      <c r="K42" s="60"/>
+      <c r="J42" s="56"/>
+      <c r="K42" s="62"/>
     </row>
     <row r="43" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="52"/>
-      <c r="B43" s="55"/>
-      <c r="C43" s="55"/>
-      <c r="D43" s="58"/>
-      <c r="E43" s="58"/>
-      <c r="F43" s="59"/>
-      <c r="G43" s="59"/>
-      <c r="H43" s="59"/>
-      <c r="I43" s="59"/>
-      <c r="J43" s="59"/>
-      <c r="K43" s="61"/>
+      <c r="A43" s="54"/>
+      <c r="B43" s="57"/>
+      <c r="C43" s="57"/>
+      <c r="D43" s="60"/>
+      <c r="E43" s="60"/>
+      <c r="F43" s="61"/>
+      <c r="G43" s="61"/>
+      <c r="H43" s="61"/>
+      <c r="I43" s="61"/>
+      <c r="J43" s="61"/>
+      <c r="K43" s="63"/>
     </row>
     <row r="44" spans="1:11" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="17">
         <v>1</v>
       </c>
-      <c r="B44" s="39" t="s">
+      <c r="B44" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="C44" s="40"/>
-      <c r="D44" s="39" t="s">
+      <c r="C44" s="42"/>
+      <c r="D44" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="E44" s="39"/>
-      <c r="F44" s="41" t="s">
+      <c r="E44" s="41"/>
+      <c r="F44" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="G44" s="42"/>
-      <c r="H44" s="43"/>
-      <c r="I44" s="41" t="s">
+      <c r="G44" s="44"/>
+      <c r="H44" s="45"/>
+      <c r="I44" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="J44" s="42"/>
-      <c r="K44" s="44"/>
+      <c r="J44" s="44"/>
+      <c r="K44" s="46"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="11">
         <v>2</v>
       </c>
-      <c r="B45" s="45" t="s">
+      <c r="B45" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="C45" s="46"/>
-      <c r="D45" s="45" t="s">
+      <c r="C45" s="48"/>
+      <c r="D45" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="E45" s="45"/>
-      <c r="F45" s="47" t="s">
+      <c r="E45" s="47"/>
+      <c r="F45" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="G45" s="48"/>
-      <c r="H45" s="49"/>
-      <c r="I45" s="47" t="s">
+      <c r="G45" s="50"/>
+      <c r="H45" s="51"/>
+      <c r="I45" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="J45" s="48"/>
-      <c r="K45" s="50"/>
+      <c r="J45" s="50"/>
+      <c r="K45" s="52"/>
     </row>
     <row r="46" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="18">
         <v>3</v>
       </c>
-      <c r="B46" s="79" t="s">
+      <c r="B46" s="96" t="s">
         <v>23</v>
       </c>
-      <c r="C46" s="80"/>
-      <c r="D46" s="79" t="s">
+      <c r="C46" s="97"/>
+      <c r="D46" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="E46" s="79"/>
-      <c r="F46" s="36" t="s">
+      <c r="E46" s="96"/>
+      <c r="F46" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="G46" s="37"/>
-      <c r="H46" s="81"/>
-      <c r="I46" s="36" t="s">
+      <c r="G46" s="39"/>
+      <c r="H46" s="100"/>
+      <c r="I46" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="J46" s="37"/>
-      <c r="K46" s="38"/>
+      <c r="J46" s="39"/>
+      <c r="K46" s="40"/>
     </row>
     <row r="48" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="49" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="82" t="s">
+      <c r="A49" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="B49" s="83"/>
-      <c r="C49" s="83"/>
-      <c r="D49" s="83"/>
-      <c r="E49" s="83"/>
-      <c r="F49" s="83"/>
-      <c r="G49" s="83"/>
-      <c r="H49" s="83"/>
-      <c r="I49" s="83"/>
-      <c r="J49" s="83"/>
-      <c r="K49" s="84"/>
+      <c r="B49" s="84"/>
+      <c r="C49" s="84"/>
+      <c r="D49" s="84"/>
+      <c r="E49" s="84"/>
+      <c r="F49" s="84"/>
+      <c r="G49" s="84"/>
+      <c r="H49" s="84"/>
+      <c r="I49" s="84"/>
+      <c r="J49" s="84"/>
+      <c r="K49" s="85"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50" s="85" t="s">
+      <c r="A50" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="B50" s="86"/>
+      <c r="B50" s="87"/>
       <c r="C50" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="D50" s="87" t="s">
+      <c r="D50" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="E50" s="86"/>
-      <c r="F50" s="42" t="s">
+      <c r="E50" s="87"/>
+      <c r="F50" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="G50" s="42"/>
-      <c r="H50" s="42"/>
-      <c r="I50" s="42"/>
-      <c r="J50" s="42"/>
-      <c r="K50" s="44"/>
+      <c r="G50" s="44"/>
+      <c r="H50" s="44"/>
+      <c r="I50" s="44"/>
+      <c r="J50" s="44"/>
+      <c r="K50" s="46"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A51" s="73" t="s">
+      <c r="A51" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="B51" s="71"/>
+      <c r="B51" s="73"/>
       <c r="C51" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D51" s="70" t="s">
+      <c r="D51" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="E51" s="71"/>
-      <c r="F51" s="48" t="s">
+      <c r="E51" s="73"/>
+      <c r="F51" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="G51" s="49"/>
-      <c r="H51" s="74" t="s">
+      <c r="G51" s="51"/>
+      <c r="H51" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="I51" s="71"/>
-      <c r="J51" s="75" t="s">
+      <c r="I51" s="73"/>
+      <c r="J51" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="K51" s="76"/>
+      <c r="K51" s="78"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="2"/>
@@ -2962,10 +2972,10 @@
       <c r="K52" s="4"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53" s="77" t="s">
+      <c r="A53" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="B53" s="78"/>
+      <c r="B53" s="80"/>
       <c r="C53" s="5" t="s">
         <v>60</v>
       </c>
@@ -2992,29 +3002,29 @@
       <c r="K54" s="4"/>
     </row>
     <row r="55" spans="1:11" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="62" t="s">
+      <c r="A55" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B55" s="63"/>
+      <c r="B55" s="65"/>
       <c r="C55" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="D55" s="62" t="s">
+      <c r="D55" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="E55" s="63"/>
-      <c r="F55" s="64">
+      <c r="E55" s="65"/>
+      <c r="F55" s="66">
         <v>44500</v>
       </c>
-      <c r="G55" s="65"/>
-      <c r="H55" s="62" t="s">
+      <c r="G55" s="67"/>
+      <c r="H55" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="I55" s="63"/>
-      <c r="J55" s="66" t="s">
+      <c r="I55" s="65"/>
+      <c r="J55" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="K55" s="67"/>
+      <c r="K55" s="69"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="7"/>
@@ -3033,95 +3043,95 @@
       <c r="A57" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B57" s="68" t="s">
+      <c r="B57" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="C57" s="69"/>
-      <c r="D57" s="69"/>
+      <c r="C57" s="71"/>
+      <c r="D57" s="71"/>
       <c r="E57" s="9"/>
       <c r="F57" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G57" s="70" t="s">
+      <c r="G57" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="H57" s="71"/>
-      <c r="I57" s="71"/>
-      <c r="J57" s="71"/>
-      <c r="K57" s="72"/>
+      <c r="H57" s="73"/>
+      <c r="I57" s="73"/>
+      <c r="J57" s="73"/>
+      <c r="K57" s="74"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="11">
         <v>1</v>
       </c>
-      <c r="B58" s="47" t="s">
+      <c r="B58" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="C58" s="48"/>
-      <c r="D58" s="49"/>
+      <c r="C58" s="50"/>
+      <c r="D58" s="51"/>
       <c r="E58" s="3"/>
       <c r="F58" s="12">
         <v>1</v>
       </c>
-      <c r="G58" s="47" t="s">
+      <c r="G58" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="H58" s="48"/>
-      <c r="I58" s="48"/>
-      <c r="J58" s="48"/>
-      <c r="K58" s="50"/>
+      <c r="H58" s="50"/>
+      <c r="I58" s="50"/>
+      <c r="J58" s="50"/>
+      <c r="K58" s="52"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="11">
         <v>2</v>
       </c>
-      <c r="B59" s="47" t="s">
+      <c r="B59" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="C59" s="48"/>
-      <c r="D59" s="49"/>
+      <c r="C59" s="50"/>
+      <c r="D59" s="51"/>
       <c r="E59" s="3"/>
       <c r="F59" s="12">
         <v>2</v>
       </c>
-      <c r="G59" s="47" t="s">
+      <c r="G59" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="H59" s="48"/>
-      <c r="I59" s="48"/>
-      <c r="J59" s="48"/>
-      <c r="K59" s="50"/>
+      <c r="H59" s="50"/>
+      <c r="I59" s="50"/>
+      <c r="J59" s="50"/>
+      <c r="K59" s="52"/>
     </row>
     <row r="60" spans="1:11" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="11">
         <v>3</v>
       </c>
-      <c r="B60" s="47" t="s">
+      <c r="B60" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="C60" s="48"/>
-      <c r="D60" s="49"/>
+      <c r="C60" s="50"/>
+      <c r="D60" s="51"/>
       <c r="E60" s="3"/>
       <c r="F60" s="12">
         <v>3</v>
       </c>
-      <c r="G60" s="47" t="s">
+      <c r="G60" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="H60" s="48"/>
-      <c r="I60" s="48"/>
-      <c r="J60" s="48"/>
-      <c r="K60" s="50"/>
+      <c r="H60" s="50"/>
+      <c r="I60" s="50"/>
+      <c r="J60" s="50"/>
+      <c r="K60" s="52"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="11">
         <v>4</v>
       </c>
-      <c r="B61" s="47" t="s">
+      <c r="B61" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="C61" s="48"/>
-      <c r="D61" s="49"/>
+      <c r="C61" s="50"/>
+      <c r="D61" s="51"/>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
@@ -3174,194 +3184,194 @@
       <c r="K64" s="16"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A65" s="51" t="s">
+      <c r="A65" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="B65" s="53" t="s">
+      <c r="B65" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="C65" s="54"/>
-      <c r="D65" s="56" t="s">
+      <c r="C65" s="56"/>
+      <c r="D65" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="E65" s="57"/>
-      <c r="F65" s="53" t="s">
+      <c r="E65" s="59"/>
+      <c r="F65" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="G65" s="54"/>
-      <c r="H65" s="54"/>
-      <c r="I65" s="53" t="s">
+      <c r="G65" s="56"/>
+      <c r="H65" s="56"/>
+      <c r="I65" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="J65" s="54"/>
-      <c r="K65" s="60"/>
+      <c r="J65" s="56"/>
+      <c r="K65" s="62"/>
     </row>
     <row r="66" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="52"/>
-      <c r="B66" s="55"/>
-      <c r="C66" s="55"/>
-      <c r="D66" s="58"/>
-      <c r="E66" s="58"/>
-      <c r="F66" s="59"/>
-      <c r="G66" s="59"/>
-      <c r="H66" s="59"/>
-      <c r="I66" s="59"/>
-      <c r="J66" s="59"/>
-      <c r="K66" s="61"/>
+      <c r="A66" s="54"/>
+      <c r="B66" s="57"/>
+      <c r="C66" s="57"/>
+      <c r="D66" s="60"/>
+      <c r="E66" s="60"/>
+      <c r="F66" s="61"/>
+      <c r="G66" s="61"/>
+      <c r="H66" s="61"/>
+      <c r="I66" s="61"/>
+      <c r="J66" s="61"/>
+      <c r="K66" s="63"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="17">
         <v>1</v>
       </c>
-      <c r="B67" s="39" t="s">
+      <c r="B67" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="C67" s="40"/>
-      <c r="D67" s="39" t="s">
+      <c r="C67" s="42"/>
+      <c r="D67" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="E67" s="39"/>
-      <c r="F67" s="41" t="s">
+      <c r="E67" s="41"/>
+      <c r="F67" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="G67" s="42"/>
-      <c r="H67" s="43"/>
-      <c r="I67" s="41" t="s">
+      <c r="G67" s="44"/>
+      <c r="H67" s="45"/>
+      <c r="I67" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="J67" s="42"/>
-      <c r="K67" s="44"/>
+      <c r="J67" s="44"/>
+      <c r="K67" s="46"/>
     </row>
     <row r="68" spans="1:11" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="11">
         <v>2</v>
       </c>
-      <c r="B68" s="45" t="s">
+      <c r="B68" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="C68" s="46"/>
-      <c r="D68" s="45" t="s">
+      <c r="C68" s="48"/>
+      <c r="D68" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="E68" s="45"/>
-      <c r="F68" s="47" t="s">
+      <c r="E68" s="47"/>
+      <c r="F68" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="G68" s="48"/>
-      <c r="H68" s="49"/>
-      <c r="I68" s="47" t="s">
+      <c r="G68" s="50"/>
+      <c r="H68" s="51"/>
+      <c r="I68" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="J68" s="48"/>
-      <c r="K68" s="50"/>
+      <c r="J68" s="50"/>
+      <c r="K68" s="52"/>
     </row>
     <row r="69" spans="1:11" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="18">
         <v>3</v>
       </c>
-      <c r="B69" s="79" t="s">
+      <c r="B69" s="96" t="s">
         <v>55</v>
       </c>
-      <c r="C69" s="80"/>
-      <c r="D69" s="79" t="s">
+      <c r="C69" s="97"/>
+      <c r="D69" s="96" t="s">
         <v>57</v>
       </c>
-      <c r="E69" s="79"/>
-      <c r="F69" s="36" t="s">
+      <c r="E69" s="96"/>
+      <c r="F69" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="G69" s="37"/>
-      <c r="H69" s="81"/>
-      <c r="I69" s="36" t="s">
+      <c r="G69" s="39"/>
+      <c r="H69" s="100"/>
+      <c r="I69" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="J69" s="37"/>
-      <c r="K69" s="38"/>
+      <c r="J69" s="39"/>
+      <c r="K69" s="40"/>
     </row>
     <row r="70" spans="1:11" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="18">
         <v>3</v>
       </c>
-      <c r="B70" s="79" t="s">
+      <c r="B70" s="96" t="s">
         <v>56</v>
       </c>
-      <c r="C70" s="80"/>
-      <c r="D70" s="79" t="s">
+      <c r="C70" s="97"/>
+      <c r="D70" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="E70" s="79"/>
-      <c r="F70" s="36" t="s">
+      <c r="E70" s="96"/>
+      <c r="F70" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="G70" s="37"/>
-      <c r="H70" s="81"/>
-      <c r="I70" s="36" t="s">
+      <c r="G70" s="39"/>
+      <c r="H70" s="100"/>
+      <c r="I70" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="J70" s="37"/>
-      <c r="K70" s="38"/>
+      <c r="J70" s="39"/>
+      <c r="K70" s="40"/>
     </row>
     <row r="72" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="73" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="82" t="s">
+      <c r="A73" s="83" t="s">
         <v>52</v>
       </c>
-      <c r="B73" s="83"/>
-      <c r="C73" s="83"/>
-      <c r="D73" s="83"/>
-      <c r="E73" s="83"/>
-      <c r="F73" s="83"/>
-      <c r="G73" s="83"/>
-      <c r="H73" s="83"/>
-      <c r="I73" s="83"/>
-      <c r="J73" s="83"/>
-      <c r="K73" s="84"/>
+      <c r="B73" s="84"/>
+      <c r="C73" s="84"/>
+      <c r="D73" s="84"/>
+      <c r="E73" s="84"/>
+      <c r="F73" s="84"/>
+      <c r="G73" s="84"/>
+      <c r="H73" s="84"/>
+      <c r="I73" s="84"/>
+      <c r="J73" s="84"/>
+      <c r="K73" s="85"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A74" s="85" t="s">
+      <c r="A74" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="B74" s="86"/>
+      <c r="B74" s="87"/>
       <c r="C74" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="D74" s="87" t="s">
+      <c r="D74" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="E74" s="86"/>
-      <c r="F74" s="42" t="s">
+      <c r="E74" s="87"/>
+      <c r="F74" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="G74" s="42"/>
-      <c r="H74" s="42"/>
-      <c r="I74" s="42"/>
-      <c r="J74" s="42"/>
-      <c r="K74" s="44"/>
+      <c r="G74" s="44"/>
+      <c r="H74" s="44"/>
+      <c r="I74" s="44"/>
+      <c r="J74" s="44"/>
+      <c r="K74" s="46"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A75" s="73" t="s">
+      <c r="A75" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="B75" s="71"/>
+      <c r="B75" s="73"/>
       <c r="C75" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D75" s="70" t="s">
+      <c r="D75" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="E75" s="71"/>
-      <c r="F75" s="48" t="s">
+      <c r="E75" s="73"/>
+      <c r="F75" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="G75" s="49"/>
-      <c r="H75" s="74" t="s">
+      <c r="G75" s="51"/>
+      <c r="H75" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="I75" s="71"/>
-      <c r="J75" s="75" t="s">
+      <c r="I75" s="73"/>
+      <c r="J75" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="K75" s="76"/>
+      <c r="K75" s="78"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="2"/>
@@ -3377,10 +3387,10 @@
       <c r="K76" s="4"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A77" s="77" t="s">
+      <c r="A77" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="B77" s="78"/>
+      <c r="B77" s="80"/>
       <c r="C77" s="5" t="s">
         <v>60</v>
       </c>
@@ -3407,29 +3417,29 @@
       <c r="K78" s="4"/>
     </row>
     <row r="79" spans="1:11" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="62" t="s">
+      <c r="A79" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B79" s="63"/>
+      <c r="B79" s="65"/>
       <c r="C79" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="D79" s="62" t="s">
+      <c r="D79" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="E79" s="63"/>
-      <c r="F79" s="64">
+      <c r="E79" s="65"/>
+      <c r="F79" s="66">
         <v>44500</v>
       </c>
-      <c r="G79" s="65"/>
-      <c r="H79" s="62" t="s">
+      <c r="G79" s="67"/>
+      <c r="H79" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="I79" s="63"/>
-      <c r="J79" s="66" t="s">
+      <c r="I79" s="65"/>
+      <c r="J79" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="K79" s="67"/>
+      <c r="K79" s="69"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="7"/>
@@ -3448,85 +3458,85 @@
       <c r="A81" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B81" s="68" t="s">
+      <c r="B81" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="C81" s="69"/>
-      <c r="D81" s="69"/>
+      <c r="C81" s="71"/>
+      <c r="D81" s="71"/>
       <c r="E81" s="9"/>
       <c r="F81" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G81" s="70" t="s">
+      <c r="G81" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="H81" s="71"/>
-      <c r="I81" s="71"/>
-      <c r="J81" s="71"/>
-      <c r="K81" s="72"/>
+      <c r="H81" s="73"/>
+      <c r="I81" s="73"/>
+      <c r="J81" s="73"/>
+      <c r="K81" s="74"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="11">
         <v>1</v>
       </c>
-      <c r="B82" s="47" t="s">
+      <c r="B82" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="C82" s="48"/>
-      <c r="D82" s="49"/>
+      <c r="C82" s="50"/>
+      <c r="D82" s="51"/>
       <c r="E82" s="3"/>
       <c r="F82" s="12">
         <v>1</v>
       </c>
-      <c r="G82" s="47" t="s">
+      <c r="G82" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="H82" s="48"/>
-      <c r="I82" s="48"/>
-      <c r="J82" s="48"/>
-      <c r="K82" s="50"/>
+      <c r="H82" s="50"/>
+      <c r="I82" s="50"/>
+      <c r="J82" s="50"/>
+      <c r="K82" s="52"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="11">
         <v>2</v>
       </c>
-      <c r="B83" s="47" t="s">
+      <c r="B83" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="C83" s="48"/>
-      <c r="D83" s="49"/>
+      <c r="C83" s="50"/>
+      <c r="D83" s="51"/>
       <c r="E83" s="3"/>
       <c r="F83" s="12">
         <v>2</v>
       </c>
-      <c r="G83" s="47" t="s">
+      <c r="G83" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="H83" s="48"/>
-      <c r="I83" s="48"/>
-      <c r="J83" s="48"/>
-      <c r="K83" s="50"/>
+      <c r="H83" s="50"/>
+      <c r="I83" s="50"/>
+      <c r="J83" s="50"/>
+      <c r="K83" s="52"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="11">
         <v>3</v>
       </c>
-      <c r="B84" s="47" t="s">
+      <c r="B84" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="C84" s="48"/>
-      <c r="D84" s="49"/>
+      <c r="C84" s="50"/>
+      <c r="D84" s="51"/>
       <c r="E84" s="3"/>
       <c r="F84" s="12">
         <v>3</v>
       </c>
-      <c r="G84" s="47" t="s">
+      <c r="G84" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="H84" s="48"/>
-      <c r="I84" s="48"/>
-      <c r="J84" s="48"/>
-      <c r="K84" s="50"/>
+      <c r="H84" s="50"/>
+      <c r="I84" s="50"/>
+      <c r="J84" s="50"/>
+      <c r="K84" s="52"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="3"/>
@@ -3585,217 +3595,217 @@
       <c r="K88" s="16"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A89" s="51" t="s">
+      <c r="A89" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="B89" s="53" t="s">
+      <c r="B89" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="C89" s="54"/>
-      <c r="D89" s="56" t="s">
+      <c r="C89" s="56"/>
+      <c r="D89" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="E89" s="57"/>
-      <c r="F89" s="53" t="s">
+      <c r="E89" s="59"/>
+      <c r="F89" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="G89" s="54"/>
-      <c r="H89" s="54"/>
-      <c r="I89" s="53" t="s">
+      <c r="G89" s="56"/>
+      <c r="H89" s="56"/>
+      <c r="I89" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="J89" s="54"/>
-      <c r="K89" s="60"/>
+      <c r="J89" s="56"/>
+      <c r="K89" s="62"/>
     </row>
     <row r="90" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="52"/>
-      <c r="B90" s="55"/>
-      <c r="C90" s="55"/>
-      <c r="D90" s="58"/>
-      <c r="E90" s="58"/>
-      <c r="F90" s="59"/>
-      <c r="G90" s="59"/>
-      <c r="H90" s="59"/>
-      <c r="I90" s="59"/>
-      <c r="J90" s="59"/>
-      <c r="K90" s="61"/>
+      <c r="A90" s="54"/>
+      <c r="B90" s="57"/>
+      <c r="C90" s="57"/>
+      <c r="D90" s="60"/>
+      <c r="E90" s="60"/>
+      <c r="F90" s="61"/>
+      <c r="G90" s="61"/>
+      <c r="H90" s="61"/>
+      <c r="I90" s="61"/>
+      <c r="J90" s="61"/>
+      <c r="K90" s="63"/>
     </row>
     <row r="91" spans="1:11" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="17">
         <v>1</v>
       </c>
-      <c r="B91" s="39" t="s">
+      <c r="B91" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="C91" s="40"/>
-      <c r="D91" s="39" t="s">
+      <c r="C91" s="42"/>
+      <c r="D91" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="E91" s="39"/>
-      <c r="F91" s="41" t="s">
+      <c r="E91" s="41"/>
+      <c r="F91" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="G91" s="42"/>
-      <c r="H91" s="43"/>
-      <c r="I91" s="41" t="s">
+      <c r="G91" s="44"/>
+      <c r="H91" s="45"/>
+      <c r="I91" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="J91" s="42"/>
-      <c r="K91" s="44"/>
+      <c r="J91" s="44"/>
+      <c r="K91" s="46"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="11">
         <v>2</v>
       </c>
-      <c r="B92" s="45" t="s">
+      <c r="B92" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="C92" s="46"/>
-      <c r="D92" s="45" t="s">
+      <c r="C92" s="48"/>
+      <c r="D92" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="E92" s="45"/>
-      <c r="F92" s="47" t="s">
+      <c r="E92" s="47"/>
+      <c r="F92" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="G92" s="48"/>
-      <c r="H92" s="49"/>
-      <c r="I92" s="47" t="s">
+      <c r="G92" s="50"/>
+      <c r="H92" s="51"/>
+      <c r="I92" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="J92" s="48"/>
-      <c r="K92" s="50"/>
+      <c r="J92" s="50"/>
+      <c r="K92" s="52"/>
     </row>
     <row r="93" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="18">
         <v>3</v>
       </c>
-      <c r="B93" s="79" t="s">
+      <c r="B93" s="96" t="s">
         <v>66</v>
       </c>
-      <c r="C93" s="80"/>
-      <c r="D93" s="79" t="s">
+      <c r="C93" s="97"/>
+      <c r="D93" s="96" t="s">
         <v>67</v>
       </c>
-      <c r="E93" s="79"/>
-      <c r="F93" s="36" t="s">
+      <c r="E93" s="96"/>
+      <c r="F93" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="G93" s="37"/>
-      <c r="H93" s="81"/>
-      <c r="I93" s="36" t="s">
+      <c r="G93" s="39"/>
+      <c r="H93" s="100"/>
+      <c r="I93" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="J93" s="37"/>
-      <c r="K93" s="38"/>
+      <c r="J93" s="39"/>
+      <c r="K93" s="40"/>
     </row>
     <row r="94" spans="1:11" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="18">
         <v>4</v>
       </c>
-      <c r="B94" s="79" t="s">
+      <c r="B94" s="96" t="s">
         <v>76</v>
       </c>
-      <c r="C94" s="80"/>
-      <c r="D94" s="79" t="s">
+      <c r="C94" s="97"/>
+      <c r="D94" s="96" t="s">
         <v>68</v>
       </c>
-      <c r="E94" s="79"/>
-      <c r="F94" s="36" t="s">
+      <c r="E94" s="96"/>
+      <c r="F94" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="G94" s="37"/>
-      <c r="H94" s="81"/>
-      <c r="I94" s="36" t="s">
+      <c r="G94" s="39"/>
+      <c r="H94" s="100"/>
+      <c r="I94" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="J94" s="37"/>
-      <c r="K94" s="38"/>
+      <c r="J94" s="39"/>
+      <c r="K94" s="40"/>
     </row>
     <row r="95" spans="1:11" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="18">
         <v>5</v>
       </c>
-      <c r="B95" s="79" t="s">
+      <c r="B95" s="96" t="s">
         <v>77</v>
       </c>
-      <c r="C95" s="80"/>
-      <c r="D95" s="79" t="s">
+      <c r="C95" s="97"/>
+      <c r="D95" s="96" t="s">
         <v>78</v>
       </c>
-      <c r="E95" s="79"/>
-      <c r="F95" s="36" t="s">
+      <c r="E95" s="96"/>
+      <c r="F95" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="G95" s="37"/>
-      <c r="H95" s="81"/>
-      <c r="I95" s="36" t="s">
+      <c r="G95" s="39"/>
+      <c r="H95" s="100"/>
+      <c r="I95" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="J95" s="37"/>
-      <c r="K95" s="38"/>
+      <c r="J95" s="39"/>
+      <c r="K95" s="40"/>
     </row>
     <row r="98" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="99" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="82" t="s">
+      <c r="A99" s="83" t="s">
         <v>80</v>
       </c>
-      <c r="B99" s="83"/>
-      <c r="C99" s="83"/>
-      <c r="D99" s="83"/>
-      <c r="E99" s="83"/>
-      <c r="F99" s="83"/>
-      <c r="G99" s="83"/>
-      <c r="H99" s="83"/>
-      <c r="I99" s="83"/>
-      <c r="J99" s="83"/>
-      <c r="K99" s="84"/>
+      <c r="B99" s="84"/>
+      <c r="C99" s="84"/>
+      <c r="D99" s="84"/>
+      <c r="E99" s="84"/>
+      <c r="F99" s="84"/>
+      <c r="G99" s="84"/>
+      <c r="H99" s="84"/>
+      <c r="I99" s="84"/>
+      <c r="J99" s="84"/>
+      <c r="K99" s="85"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A100" s="85" t="s">
+      <c r="A100" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="B100" s="86"/>
+      <c r="B100" s="87"/>
       <c r="C100" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="D100" s="87" t="s">
+      <c r="D100" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="E100" s="86"/>
-      <c r="F100" s="42" t="s">
+      <c r="E100" s="87"/>
+      <c r="F100" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="G100" s="42"/>
-      <c r="H100" s="42"/>
-      <c r="I100" s="42"/>
-      <c r="J100" s="42"/>
-      <c r="K100" s="44"/>
+      <c r="G100" s="44"/>
+      <c r="H100" s="44"/>
+      <c r="I100" s="44"/>
+      <c r="J100" s="44"/>
+      <c r="K100" s="46"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A101" s="73" t="s">
+      <c r="A101" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="B101" s="71"/>
+      <c r="B101" s="73"/>
       <c r="C101" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D101" s="70" t="s">
+      <c r="D101" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="E101" s="71"/>
-      <c r="F101" s="48" t="s">
+      <c r="E101" s="73"/>
+      <c r="F101" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="G101" s="49"/>
-      <c r="H101" s="74" t="s">
+      <c r="G101" s="51"/>
+      <c r="H101" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="I101" s="71"/>
-      <c r="J101" s="75" t="s">
+      <c r="I101" s="73"/>
+      <c r="J101" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="K101" s="76"/>
+      <c r="K101" s="78"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="2"/>
@@ -3811,10 +3821,10 @@
       <c r="K102" s="4"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A103" s="77" t="s">
+      <c r="A103" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="B103" s="78"/>
+      <c r="B103" s="80"/>
       <c r="C103" s="5" t="s">
         <v>60</v>
       </c>
@@ -3841,29 +3851,29 @@
       <c r="K104" s="4"/>
     </row>
     <row r="105" spans="1:11" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="62" t="s">
+      <c r="A105" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B105" s="63"/>
+      <c r="B105" s="65"/>
       <c r="C105" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="D105" s="62" t="s">
+      <c r="D105" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="E105" s="63"/>
-      <c r="F105" s="64">
+      <c r="E105" s="65"/>
+      <c r="F105" s="66">
         <v>44500</v>
       </c>
-      <c r="G105" s="65"/>
-      <c r="H105" s="62" t="s">
+      <c r="G105" s="67"/>
+      <c r="H105" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="I105" s="63"/>
-      <c r="J105" s="66" t="s">
+      <c r="I105" s="65"/>
+      <c r="J105" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="K105" s="67"/>
+      <c r="K105" s="69"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="7"/>
@@ -3882,85 +3892,85 @@
       <c r="A107" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B107" s="68" t="s">
+      <c r="B107" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="C107" s="69"/>
-      <c r="D107" s="69"/>
+      <c r="C107" s="71"/>
+      <c r="D107" s="71"/>
       <c r="E107" s="9"/>
       <c r="F107" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G107" s="70" t="s">
+      <c r="G107" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="H107" s="71"/>
-      <c r="I107" s="71"/>
-      <c r="J107" s="71"/>
-      <c r="K107" s="72"/>
+      <c r="H107" s="73"/>
+      <c r="I107" s="73"/>
+      <c r="J107" s="73"/>
+      <c r="K107" s="74"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="11">
         <v>1</v>
       </c>
-      <c r="B108" s="47" t="s">
+      <c r="B108" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="C108" s="48"/>
-      <c r="D108" s="49"/>
+      <c r="C108" s="50"/>
+      <c r="D108" s="51"/>
       <c r="E108" s="3"/>
       <c r="F108" s="12">
         <v>1</v>
       </c>
-      <c r="G108" s="47" t="s">
+      <c r="G108" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="H108" s="48"/>
-      <c r="I108" s="48"/>
-      <c r="J108" s="48"/>
-      <c r="K108" s="50"/>
+      <c r="H108" s="50"/>
+      <c r="I108" s="50"/>
+      <c r="J108" s="50"/>
+      <c r="K108" s="52"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="11">
         <v>2</v>
       </c>
-      <c r="B109" s="47" t="s">
+      <c r="B109" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="C109" s="48"/>
-      <c r="D109" s="49"/>
+      <c r="C109" s="50"/>
+      <c r="D109" s="51"/>
       <c r="E109" s="3"/>
       <c r="F109" s="12">
         <v>2</v>
       </c>
-      <c r="G109" s="47" t="s">
+      <c r="G109" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="H109" s="48"/>
-      <c r="I109" s="48"/>
-      <c r="J109" s="48"/>
-      <c r="K109" s="50"/>
+      <c r="H109" s="50"/>
+      <c r="I109" s="50"/>
+      <c r="J109" s="50"/>
+      <c r="K109" s="52"/>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="11">
         <v>3</v>
       </c>
-      <c r="B110" s="47" t="s">
+      <c r="B110" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="C110" s="48"/>
-      <c r="D110" s="49"/>
+      <c r="C110" s="50"/>
+      <c r="D110" s="51"/>
       <c r="E110" s="3"/>
       <c r="F110" s="12">
         <v>3</v>
       </c>
-      <c r="G110" s="47" t="s">
+      <c r="G110" s="49" t="s">
         <v>158</v>
       </c>
-      <c r="H110" s="48"/>
-      <c r="I110" s="48"/>
-      <c r="J110" s="48"/>
-      <c r="K110" s="50"/>
+      <c r="H110" s="50"/>
+      <c r="I110" s="50"/>
+      <c r="J110" s="50"/>
+      <c r="K110" s="52"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="3"/>
@@ -4019,240 +4029,240 @@
       <c r="K114" s="16"/>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A115" s="51" t="s">
+      <c r="A115" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="B115" s="53" t="s">
+      <c r="B115" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="C115" s="54"/>
-      <c r="D115" s="56" t="s">
+      <c r="C115" s="56"/>
+      <c r="D115" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="E115" s="57"/>
-      <c r="F115" s="53" t="s">
+      <c r="E115" s="59"/>
+      <c r="F115" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="G115" s="54"/>
-      <c r="H115" s="54"/>
-      <c r="I115" s="53" t="s">
+      <c r="G115" s="56"/>
+      <c r="H115" s="56"/>
+      <c r="I115" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="J115" s="54"/>
-      <c r="K115" s="60"/>
+      <c r="J115" s="56"/>
+      <c r="K115" s="62"/>
     </row>
     <row r="116" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="52"/>
-      <c r="B116" s="55"/>
-      <c r="C116" s="55"/>
-      <c r="D116" s="58"/>
-      <c r="E116" s="58"/>
-      <c r="F116" s="59"/>
-      <c r="G116" s="59"/>
-      <c r="H116" s="59"/>
-      <c r="I116" s="59"/>
-      <c r="J116" s="59"/>
-      <c r="K116" s="61"/>
+      <c r="A116" s="54"/>
+      <c r="B116" s="57"/>
+      <c r="C116" s="57"/>
+      <c r="D116" s="60"/>
+      <c r="E116" s="60"/>
+      <c r="F116" s="61"/>
+      <c r="G116" s="61"/>
+      <c r="H116" s="61"/>
+      <c r="I116" s="61"/>
+      <c r="J116" s="61"/>
+      <c r="K116" s="63"/>
     </row>
     <row r="117" spans="1:11" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="17">
         <v>1</v>
       </c>
-      <c r="B117" s="39" t="s">
+      <c r="B117" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="C117" s="40"/>
-      <c r="D117" s="39" t="s">
+      <c r="C117" s="42"/>
+      <c r="D117" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="E117" s="39"/>
-      <c r="F117" s="41" t="s">
+      <c r="E117" s="41"/>
+      <c r="F117" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="G117" s="42"/>
-      <c r="H117" s="43"/>
-      <c r="I117" s="41" t="s">
+      <c r="G117" s="44"/>
+      <c r="H117" s="45"/>
+      <c r="I117" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="J117" s="42"/>
-      <c r="K117" s="44"/>
+      <c r="J117" s="44"/>
+      <c r="K117" s="46"/>
     </row>
     <row r="118" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="11">
         <v>2</v>
       </c>
-      <c r="B118" s="45" t="s">
+      <c r="B118" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="C118" s="46"/>
-      <c r="D118" s="45" t="s">
+      <c r="C118" s="48"/>
+      <c r="D118" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="E118" s="45"/>
-      <c r="F118" s="47" t="s">
+      <c r="E118" s="47"/>
+      <c r="F118" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="G118" s="48"/>
-      <c r="H118" s="49"/>
-      <c r="I118" s="47" t="s">
+      <c r="G118" s="50"/>
+      <c r="H118" s="51"/>
+      <c r="I118" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="J118" s="48"/>
-      <c r="K118" s="50"/>
+      <c r="J118" s="50"/>
+      <c r="K118" s="52"/>
     </row>
     <row r="119" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="18">
         <v>3</v>
       </c>
-      <c r="B119" s="79" t="s">
+      <c r="B119" s="96" t="s">
         <v>83</v>
       </c>
-      <c r="C119" s="80"/>
-      <c r="D119" s="88" t="s">
+      <c r="C119" s="97"/>
+      <c r="D119" s="98" t="s">
         <v>84</v>
       </c>
-      <c r="E119" s="79"/>
-      <c r="F119" s="36" t="s">
+      <c r="E119" s="96"/>
+      <c r="F119" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="G119" s="37"/>
-      <c r="H119" s="81"/>
-      <c r="I119" s="36" t="s">
+      <c r="G119" s="39"/>
+      <c r="H119" s="100"/>
+      <c r="I119" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="J119" s="37"/>
-      <c r="K119" s="38"/>
+      <c r="J119" s="39"/>
+      <c r="K119" s="40"/>
     </row>
     <row r="120" spans="1:11" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="18">
         <v>4</v>
       </c>
-      <c r="B120" s="79" t="s">
+      <c r="B120" s="96" t="s">
         <v>85</v>
       </c>
-      <c r="C120" s="80"/>
-      <c r="D120" s="79" t="s">
+      <c r="C120" s="97"/>
+      <c r="D120" s="96" t="s">
         <v>86</v>
       </c>
-      <c r="E120" s="79"/>
-      <c r="F120" s="36" t="s">
+      <c r="E120" s="96"/>
+      <c r="F120" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="G120" s="37"/>
-      <c r="H120" s="81"/>
-      <c r="I120" s="36" t="s">
+      <c r="G120" s="39"/>
+      <c r="H120" s="100"/>
+      <c r="I120" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="J120" s="37"/>
-      <c r="K120" s="38"/>
+      <c r="J120" s="39"/>
+      <c r="K120" s="40"/>
     </row>
     <row r="121" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="18">
         <v>5</v>
       </c>
-      <c r="B121" s="79" t="s">
+      <c r="B121" s="96" t="s">
         <v>87</v>
       </c>
-      <c r="C121" s="80"/>
-      <c r="D121" s="79" t="s">
+      <c r="C121" s="97"/>
+      <c r="D121" s="96" t="s">
         <v>88</v>
       </c>
-      <c r="E121" s="79"/>
-      <c r="F121" s="36" t="s">
+      <c r="E121" s="96"/>
+      <c r="F121" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="G121" s="37"/>
-      <c r="H121" s="81"/>
-      <c r="I121" s="36" t="s">
+      <c r="G121" s="39"/>
+      <c r="H121" s="100"/>
+      <c r="I121" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="J121" s="37"/>
-      <c r="K121" s="38"/>
+      <c r="J121" s="39"/>
+      <c r="K121" s="40"/>
     </row>
     <row r="122" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="18">
         <v>6</v>
       </c>
-      <c r="B122" s="79" t="s">
+      <c r="B122" s="96" t="s">
         <v>89</v>
       </c>
-      <c r="C122" s="80"/>
-      <c r="D122" s="79" t="s">
+      <c r="C122" s="97"/>
+      <c r="D122" s="96" t="s">
         <v>90</v>
       </c>
-      <c r="E122" s="79"/>
-      <c r="F122" s="36" t="s">
+      <c r="E122" s="96"/>
+      <c r="F122" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="G122" s="37"/>
-      <c r="H122" s="81"/>
-      <c r="I122" s="36" t="s">
+      <c r="G122" s="39"/>
+      <c r="H122" s="100"/>
+      <c r="I122" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="J122" s="37"/>
-      <c r="K122" s="38"/>
+      <c r="J122" s="39"/>
+      <c r="K122" s="40"/>
     </row>
     <row r="124" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="125" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A125" s="82" t="s">
+      <c r="A125" s="83" t="s">
         <v>91</v>
       </c>
-      <c r="B125" s="83"/>
-      <c r="C125" s="83"/>
-      <c r="D125" s="83"/>
-      <c r="E125" s="83"/>
-      <c r="F125" s="83"/>
-      <c r="G125" s="83"/>
-      <c r="H125" s="83"/>
-      <c r="I125" s="83"/>
-      <c r="J125" s="83"/>
-      <c r="K125" s="84"/>
+      <c r="B125" s="84"/>
+      <c r="C125" s="84"/>
+      <c r="D125" s="84"/>
+      <c r="E125" s="84"/>
+      <c r="F125" s="84"/>
+      <c r="G125" s="84"/>
+      <c r="H125" s="84"/>
+      <c r="I125" s="84"/>
+      <c r="J125" s="84"/>
+      <c r="K125" s="85"/>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A126" s="85" t="s">
+      <c r="A126" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="B126" s="86"/>
+      <c r="B126" s="87"/>
       <c r="C126" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="D126" s="87" t="s">
+      <c r="D126" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="E126" s="86"/>
-      <c r="F126" s="42" t="s">
+      <c r="E126" s="87"/>
+      <c r="F126" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="G126" s="42"/>
-      <c r="H126" s="42"/>
-      <c r="I126" s="42"/>
-      <c r="J126" s="42"/>
-      <c r="K126" s="44"/>
+      <c r="G126" s="44"/>
+      <c r="H126" s="44"/>
+      <c r="I126" s="44"/>
+      <c r="J126" s="44"/>
+      <c r="K126" s="46"/>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A127" s="73" t="s">
+      <c r="A127" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="B127" s="71"/>
+      <c r="B127" s="73"/>
       <c r="C127" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D127" s="70" t="s">
+      <c r="D127" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="E127" s="71"/>
-      <c r="F127" s="48" t="s">
+      <c r="E127" s="73"/>
+      <c r="F127" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="G127" s="49"/>
-      <c r="H127" s="74" t="s">
+      <c r="G127" s="51"/>
+      <c r="H127" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="I127" s="71"/>
-      <c r="J127" s="75" t="s">
+      <c r="I127" s="73"/>
+      <c r="J127" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="K127" s="76"/>
+      <c r="K127" s="78"/>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="2"/>
@@ -4268,10 +4278,10 @@
       <c r="K128" s="4"/>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A129" s="77" t="s">
+      <c r="A129" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="B129" s="78"/>
+      <c r="B129" s="80"/>
       <c r="C129" s="5" t="s">
         <v>60</v>
       </c>
@@ -4298,29 +4308,29 @@
       <c r="K130" s="4"/>
     </row>
     <row r="131" spans="1:11" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A131" s="62" t="s">
+      <c r="A131" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B131" s="63"/>
+      <c r="B131" s="65"/>
       <c r="C131" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="D131" s="62" t="s">
+      <c r="D131" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="E131" s="63"/>
-      <c r="F131" s="64">
+      <c r="E131" s="65"/>
+      <c r="F131" s="66">
         <v>44500</v>
       </c>
-      <c r="G131" s="65"/>
-      <c r="H131" s="62" t="s">
+      <c r="G131" s="67"/>
+      <c r="H131" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="I131" s="63"/>
-      <c r="J131" s="66" t="s">
+      <c r="I131" s="65"/>
+      <c r="J131" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="K131" s="67"/>
+      <c r="K131" s="69"/>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="7"/>
@@ -4339,74 +4349,74 @@
       <c r="A133" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B133" s="68" t="s">
+      <c r="B133" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="C133" s="69"/>
-      <c r="D133" s="69"/>
+      <c r="C133" s="71"/>
+      <c r="D133" s="71"/>
       <c r="E133" s="9"/>
       <c r="F133" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G133" s="70" t="s">
+      <c r="G133" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="H133" s="71"/>
-      <c r="I133" s="71"/>
-      <c r="J133" s="71"/>
-      <c r="K133" s="72"/>
+      <c r="H133" s="73"/>
+      <c r="I133" s="73"/>
+      <c r="J133" s="73"/>
+      <c r="K133" s="74"/>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="11">
         <v>1</v>
       </c>
-      <c r="B134" s="47" t="s">
+      <c r="B134" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="C134" s="48"/>
-      <c r="D134" s="49"/>
+      <c r="C134" s="50"/>
+      <c r="D134" s="51"/>
       <c r="E134" s="3"/>
       <c r="F134" s="12">
         <v>1</v>
       </c>
-      <c r="G134" s="47" t="s">
+      <c r="G134" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="H134" s="48"/>
-      <c r="I134" s="48"/>
-      <c r="J134" s="48"/>
-      <c r="K134" s="50"/>
+      <c r="H134" s="50"/>
+      <c r="I134" s="50"/>
+      <c r="J134" s="50"/>
+      <c r="K134" s="52"/>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="11">
         <v>2</v>
       </c>
-      <c r="B135" s="47" t="s">
+      <c r="B135" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="C135" s="48"/>
-      <c r="D135" s="49"/>
+      <c r="C135" s="50"/>
+      <c r="D135" s="51"/>
       <c r="E135" s="3"/>
       <c r="F135" s="12">
         <v>2</v>
       </c>
-      <c r="G135" s="47" t="s">
+      <c r="G135" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="H135" s="48"/>
-      <c r="I135" s="48"/>
-      <c r="J135" s="48"/>
-      <c r="K135" s="50"/>
+      <c r="H135" s="50"/>
+      <c r="I135" s="50"/>
+      <c r="J135" s="50"/>
+      <c r="K135" s="52"/>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="11">
         <v>3</v>
       </c>
-      <c r="B136" s="47" t="s">
+      <c r="B136" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="C136" s="48"/>
-      <c r="D136" s="49"/>
+      <c r="C136" s="50"/>
+      <c r="D136" s="51"/>
       <c r="E136" s="3"/>
       <c r="F136" s="3"/>
       <c r="G136" s="3"/>
@@ -4472,217 +4482,217 @@
       <c r="K140" s="16"/>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A141" s="51" t="s">
+      <c r="A141" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="B141" s="53" t="s">
+      <c r="B141" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="C141" s="54"/>
-      <c r="D141" s="56" t="s">
+      <c r="C141" s="56"/>
+      <c r="D141" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="E141" s="57"/>
-      <c r="F141" s="53" t="s">
+      <c r="E141" s="59"/>
+      <c r="F141" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="G141" s="54"/>
-      <c r="H141" s="54"/>
-      <c r="I141" s="53" t="s">
+      <c r="G141" s="56"/>
+      <c r="H141" s="56"/>
+      <c r="I141" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="J141" s="54"/>
-      <c r="K141" s="60"/>
+      <c r="J141" s="56"/>
+      <c r="K141" s="62"/>
     </row>
     <row r="142" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A142" s="52"/>
-      <c r="B142" s="55"/>
-      <c r="C142" s="55"/>
-      <c r="D142" s="58"/>
-      <c r="E142" s="58"/>
-      <c r="F142" s="59"/>
-      <c r="G142" s="59"/>
-      <c r="H142" s="59"/>
-      <c r="I142" s="59"/>
-      <c r="J142" s="59"/>
-      <c r="K142" s="61"/>
+      <c r="A142" s="54"/>
+      <c r="B142" s="57"/>
+      <c r="C142" s="57"/>
+      <c r="D142" s="60"/>
+      <c r="E142" s="60"/>
+      <c r="F142" s="61"/>
+      <c r="G142" s="61"/>
+      <c r="H142" s="61"/>
+      <c r="I142" s="61"/>
+      <c r="J142" s="61"/>
+      <c r="K142" s="63"/>
     </row>
     <row r="143" spans="1:11" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="17">
         <v>1</v>
       </c>
-      <c r="B143" s="39" t="s">
+      <c r="B143" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="C143" s="40"/>
-      <c r="D143" s="39" t="s">
+      <c r="C143" s="42"/>
+      <c r="D143" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="E143" s="39"/>
-      <c r="F143" s="41" t="s">
+      <c r="E143" s="41"/>
+      <c r="F143" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="G143" s="42"/>
-      <c r="H143" s="43"/>
-      <c r="I143" s="41" t="s">
+      <c r="G143" s="44"/>
+      <c r="H143" s="45"/>
+      <c r="I143" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="J143" s="42"/>
-      <c r="K143" s="44"/>
+      <c r="J143" s="44"/>
+      <c r="K143" s="46"/>
     </row>
     <row r="144" spans="1:11" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="11">
         <v>2</v>
       </c>
-      <c r="B144" s="45" t="s">
+      <c r="B144" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="C144" s="46"/>
-      <c r="D144" s="45" t="s">
+      <c r="C144" s="48"/>
+      <c r="D144" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="E144" s="45"/>
-      <c r="F144" s="47" t="s">
+      <c r="E144" s="47"/>
+      <c r="F144" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="G144" s="48"/>
-      <c r="H144" s="49"/>
-      <c r="I144" s="47" t="s">
+      <c r="G144" s="50"/>
+      <c r="H144" s="51"/>
+      <c r="I144" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="J144" s="48"/>
-      <c r="K144" s="50"/>
+      <c r="J144" s="50"/>
+      <c r="K144" s="52"/>
     </row>
     <row r="145" spans="1:11" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A145" s="18">
         <v>3</v>
       </c>
-      <c r="B145" s="79" t="s">
+      <c r="B145" s="96" t="s">
         <v>97</v>
       </c>
-      <c r="C145" s="80"/>
-      <c r="D145" s="88" t="s">
+      <c r="C145" s="97"/>
+      <c r="D145" s="98" t="s">
         <v>98</v>
       </c>
-      <c r="E145" s="79"/>
-      <c r="F145" s="36" t="s">
+      <c r="E145" s="96"/>
+      <c r="F145" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="G145" s="37"/>
-      <c r="H145" s="81"/>
-      <c r="I145" s="36" t="s">
+      <c r="G145" s="39"/>
+      <c r="H145" s="100"/>
+      <c r="I145" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="J145" s="37"/>
-      <c r="K145" s="38"/>
+      <c r="J145" s="39"/>
+      <c r="K145" s="40"/>
     </row>
     <row r="146" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A146" s="18">
         <v>4</v>
       </c>
-      <c r="B146" s="79" t="s">
+      <c r="B146" s="96" t="s">
         <v>99</v>
       </c>
-      <c r="C146" s="80"/>
-      <c r="D146" s="79" t="s">
+      <c r="C146" s="97"/>
+      <c r="D146" s="96" t="s">
         <v>100</v>
       </c>
-      <c r="E146" s="79"/>
-      <c r="F146" s="36" t="s">
+      <c r="E146" s="96"/>
+      <c r="F146" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="G146" s="37"/>
-      <c r="H146" s="81"/>
-      <c r="I146" s="36" t="s">
+      <c r="G146" s="39"/>
+      <c r="H146" s="100"/>
+      <c r="I146" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="J146" s="37"/>
-      <c r="K146" s="38"/>
+      <c r="J146" s="39"/>
+      <c r="K146" s="40"/>
     </row>
     <row r="147" spans="1:11" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A147" s="18">
         <v>5</v>
       </c>
-      <c r="B147" s="79" t="s">
+      <c r="B147" s="96" t="s">
         <v>99</v>
       </c>
-      <c r="C147" s="80"/>
-      <c r="D147" s="79" t="s">
+      <c r="C147" s="97"/>
+      <c r="D147" s="96" t="s">
         <v>101</v>
       </c>
-      <c r="E147" s="79"/>
-      <c r="F147" s="36" t="s">
+      <c r="E147" s="96"/>
+      <c r="F147" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="G147" s="37"/>
-      <c r="H147" s="81"/>
-      <c r="I147" s="36" t="s">
+      <c r="G147" s="39"/>
+      <c r="H147" s="100"/>
+      <c r="I147" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="J147" s="37"/>
-      <c r="K147" s="38"/>
+      <c r="J147" s="39"/>
+      <c r="K147" s="40"/>
     </row>
     <row r="149" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="150" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A150" s="82" t="s">
-        <v>102</v>
-      </c>
-      <c r="B150" s="83"/>
-      <c r="C150" s="83"/>
-      <c r="D150" s="83"/>
-      <c r="E150" s="83"/>
-      <c r="F150" s="83"/>
-      <c r="G150" s="83"/>
-      <c r="H150" s="83"/>
-      <c r="I150" s="83"/>
-      <c r="J150" s="83"/>
-      <c r="K150" s="84"/>
+      <c r="A150" s="83" t="s">
+        <v>165</v>
+      </c>
+      <c r="B150" s="84"/>
+      <c r="C150" s="84"/>
+      <c r="D150" s="84"/>
+      <c r="E150" s="84"/>
+      <c r="F150" s="84"/>
+      <c r="G150" s="84"/>
+      <c r="H150" s="84"/>
+      <c r="I150" s="84"/>
+      <c r="J150" s="84"/>
+      <c r="K150" s="85"/>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A151" s="85" t="s">
+      <c r="A151" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="B151" s="86"/>
+      <c r="B151" s="87"/>
       <c r="C151" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="D151" s="87" t="s">
+        <v>167</v>
+      </c>
+      <c r="D151" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="E151" s="86"/>
-      <c r="F151" s="42" t="s">
-        <v>103</v>
-      </c>
-      <c r="G151" s="42"/>
-      <c r="H151" s="42"/>
-      <c r="I151" s="42"/>
-      <c r="J151" s="42"/>
-      <c r="K151" s="44"/>
+      <c r="E151" s="87"/>
+      <c r="F151" s="44" t="s">
+        <v>166</v>
+      </c>
+      <c r="G151" s="44"/>
+      <c r="H151" s="44"/>
+      <c r="I151" s="44"/>
+      <c r="J151" s="44"/>
+      <c r="K151" s="46"/>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A152" s="73" t="s">
+      <c r="A152" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="B152" s="71"/>
+      <c r="B152" s="73"/>
       <c r="C152" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D152" s="70" t="s">
+      <c r="D152" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="E152" s="71"/>
-      <c r="F152" s="48" t="s">
+      <c r="E152" s="73"/>
+      <c r="F152" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="G152" s="49"/>
-      <c r="H152" s="74" t="s">
+      <c r="G152" s="51"/>
+      <c r="H152" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="I152" s="71"/>
-      <c r="J152" s="75" t="s">
+      <c r="I152" s="73"/>
+      <c r="J152" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="K152" s="76"/>
+      <c r="K152" s="78"/>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="2"/>
@@ -4698,10 +4708,10 @@
       <c r="K153" s="4"/>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A154" s="77" t="s">
+      <c r="A154" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="B154" s="78"/>
+      <c r="B154" s="80"/>
       <c r="C154" s="5" t="s">
         <v>60</v>
       </c>
@@ -4728,29 +4738,29 @@
       <c r="K155" s="4"/>
     </row>
     <row r="156" spans="1:11" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A156" s="62" t="s">
+      <c r="A156" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B156" s="63"/>
+      <c r="B156" s="65"/>
       <c r="C156" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="D156" s="62" t="s">
+      <c r="D156" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="E156" s="63"/>
-      <c r="F156" s="64">
+      <c r="E156" s="65"/>
+      <c r="F156" s="66">
         <v>44500</v>
       </c>
-      <c r="G156" s="65"/>
-      <c r="H156" s="62" t="s">
+      <c r="G156" s="67"/>
+      <c r="H156" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="I156" s="63"/>
-      <c r="J156" s="66" t="s">
+      <c r="I156" s="65"/>
+      <c r="J156" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="K156" s="67"/>
+      <c r="K156" s="69"/>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="7"/>
@@ -4769,95 +4779,95 @@
       <c r="A158" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B158" s="68" t="s">
+      <c r="B158" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="C158" s="69"/>
-      <c r="D158" s="69"/>
+      <c r="C158" s="71"/>
+      <c r="D158" s="71"/>
       <c r="E158" s="9"/>
       <c r="F158" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G158" s="70" t="s">
+      <c r="G158" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="H158" s="71"/>
-      <c r="I158" s="71"/>
-      <c r="J158" s="71"/>
-      <c r="K158" s="72"/>
+      <c r="H158" s="73"/>
+      <c r="I158" s="73"/>
+      <c r="J158" s="73"/>
+      <c r="K158" s="74"/>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="11">
         <v>1</v>
       </c>
-      <c r="B159" s="47" t="s">
+      <c r="B159" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="C159" s="48"/>
-      <c r="D159" s="49"/>
+      <c r="C159" s="50"/>
+      <c r="D159" s="51"/>
       <c r="E159" s="3"/>
       <c r="F159" s="12">
         <v>1</v>
       </c>
-      <c r="G159" s="47" t="s">
+      <c r="G159" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="H159" s="48"/>
-      <c r="I159" s="48"/>
-      <c r="J159" s="48"/>
-      <c r="K159" s="50"/>
+      <c r="H159" s="50"/>
+      <c r="I159" s="50"/>
+      <c r="J159" s="50"/>
+      <c r="K159" s="52"/>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="11">
         <v>2</v>
       </c>
-      <c r="B160" s="47" t="s">
+      <c r="B160" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="C160" s="48"/>
-      <c r="D160" s="49"/>
+      <c r="C160" s="50"/>
+      <c r="D160" s="51"/>
       <c r="E160" s="3"/>
       <c r="F160" s="12">
         <v>2</v>
       </c>
-      <c r="G160" s="47" t="s">
+      <c r="G160" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="H160" s="48"/>
-      <c r="I160" s="48"/>
-      <c r="J160" s="48"/>
-      <c r="K160" s="50"/>
+      <c r="H160" s="50"/>
+      <c r="I160" s="50"/>
+      <c r="J160" s="50"/>
+      <c r="K160" s="52"/>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="11">
         <v>3</v>
       </c>
-      <c r="B161" s="47" t="s">
+      <c r="B161" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="C161" s="48"/>
-      <c r="D161" s="49"/>
+      <c r="C161" s="50"/>
+      <c r="D161" s="51"/>
       <c r="E161" s="3"/>
       <c r="F161" s="12">
         <v>3</v>
       </c>
-      <c r="G161" s="47" t="s">
+      <c r="G161" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="H161" s="48"/>
-      <c r="I161" s="48"/>
-      <c r="J161" s="48"/>
-      <c r="K161" s="50"/>
+      <c r="H161" s="50"/>
+      <c r="I161" s="50"/>
+      <c r="J161" s="50"/>
+      <c r="K161" s="52"/>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="11">
         <v>4</v>
       </c>
-      <c r="B162" s="47" t="s">
+      <c r="B162" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="C162" s="48"/>
-      <c r="D162" s="49"/>
+      <c r="C162" s="50"/>
+      <c r="D162" s="51"/>
       <c r="E162" s="3"/>
       <c r="F162" s="3"/>
       <c r="G162" s="3"/>
@@ -4910,207 +4920,207 @@
       <c r="K165" s="16"/>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A166" s="51" t="s">
+      <c r="A166" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="B166" s="53" t="s">
+      <c r="B166" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="C166" s="54"/>
-      <c r="D166" s="56" t="s">
+      <c r="C166" s="56"/>
+      <c r="D166" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="E166" s="57"/>
-      <c r="F166" s="53" t="s">
+      <c r="E166" s="59"/>
+      <c r="F166" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="G166" s="54"/>
-      <c r="H166" s="54"/>
-      <c r="I166" s="53" t="s">
+      <c r="G166" s="56"/>
+      <c r="H166" s="56"/>
+      <c r="I166" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="J166" s="54"/>
-      <c r="K166" s="60"/>
+      <c r="J166" s="56"/>
+      <c r="K166" s="62"/>
     </row>
     <row r="167" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A167" s="52"/>
-      <c r="B167" s="55"/>
-      <c r="C167" s="55"/>
-      <c r="D167" s="58"/>
-      <c r="E167" s="58"/>
-      <c r="F167" s="59"/>
-      <c r="G167" s="59"/>
-      <c r="H167" s="59"/>
-      <c r="I167" s="59"/>
-      <c r="J167" s="59"/>
-      <c r="K167" s="61"/>
+      <c r="A167" s="54"/>
+      <c r="B167" s="57"/>
+      <c r="C167" s="57"/>
+      <c r="D167" s="60"/>
+      <c r="E167" s="60"/>
+      <c r="F167" s="61"/>
+      <c r="G167" s="61"/>
+      <c r="H167" s="61"/>
+      <c r="I167" s="61"/>
+      <c r="J167" s="61"/>
+      <c r="K167" s="63"/>
     </row>
     <row r="168" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="17">
         <v>1</v>
       </c>
-      <c r="B168" s="39" t="s">
+      <c r="B168" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="C168" s="40"/>
-      <c r="D168" s="39" t="s">
+      <c r="C168" s="42"/>
+      <c r="D168" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="E168" s="39"/>
-      <c r="F168" s="41" t="s">
+      <c r="E168" s="41"/>
+      <c r="F168" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="G168" s="42"/>
-      <c r="H168" s="43"/>
-      <c r="I168" s="41" t="s">
+      <c r="G168" s="44"/>
+      <c r="H168" s="45"/>
+      <c r="I168" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="J168" s="42"/>
-      <c r="K168" s="44"/>
+      <c r="J168" s="44"/>
+      <c r="K168" s="46"/>
     </row>
     <row r="169" spans="1:11" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="11">
         <v>2</v>
       </c>
-      <c r="B169" s="45" t="s">
+      <c r="B169" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="C169" s="46"/>
-      <c r="D169" s="45" t="s">
+      <c r="C169" s="48"/>
+      <c r="D169" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="E169" s="45"/>
-      <c r="F169" s="47" t="s">
+      <c r="E169" s="47"/>
+      <c r="F169" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="G169" s="48"/>
-      <c r="H169" s="49"/>
-      <c r="I169" s="47" t="s">
+      <c r="G169" s="50"/>
+      <c r="H169" s="51"/>
+      <c r="I169" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="J169" s="48"/>
-      <c r="K169" s="50"/>
+      <c r="J169" s="50"/>
+      <c r="K169" s="52"/>
     </row>
     <row r="170" spans="1:11" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="127">
+      <c r="A170" s="36">
         <v>3</v>
       </c>
-      <c r="B170" s="128" t="s">
+      <c r="B170" s="89" t="s">
         <v>161</v>
       </c>
-      <c r="C170" s="129"/>
-      <c r="D170" s="130" t="s">
+      <c r="C170" s="90"/>
+      <c r="D170" s="91" t="s">
         <v>162</v>
       </c>
-      <c r="E170" s="128"/>
-      <c r="F170" s="131" t="s">
+      <c r="E170" s="89"/>
+      <c r="F170" s="92" t="s">
         <v>20</v>
       </c>
-      <c r="G170" s="132"/>
-      <c r="H170" s="133"/>
-      <c r="I170" s="131" t="s">
+      <c r="G170" s="93"/>
+      <c r="H170" s="94"/>
+      <c r="I170" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="J170" s="132"/>
-      <c r="K170" s="134"/>
+      <c r="J170" s="93"/>
+      <c r="K170" s="95"/>
     </row>
     <row r="171" spans="1:11" ht="45.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A171" s="137">
+      <c r="A171" s="37">
         <v>4</v>
       </c>
-      <c r="B171" s="79" t="s">
+      <c r="B171" s="96" t="s">
         <v>163</v>
       </c>
-      <c r="C171" s="80"/>
-      <c r="D171" s="88" t="s">
+      <c r="C171" s="97"/>
+      <c r="D171" s="98" t="s">
         <v>110</v>
       </c>
-      <c r="E171" s="79"/>
-      <c r="F171" s="79" t="s">
+      <c r="E171" s="96"/>
+      <c r="F171" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="G171" s="79"/>
-      <c r="H171" s="36"/>
-      <c r="I171" s="79" t="s">
+      <c r="G171" s="96"/>
+      <c r="H171" s="38"/>
+      <c r="I171" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="J171" s="79"/>
-      <c r="K171" s="138"/>
+      <c r="J171" s="96"/>
+      <c r="K171" s="99"/>
     </row>
     <row r="172" spans="1:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="35"/>
-      <c r="B172" s="135"/>
-      <c r="C172" s="136"/>
-      <c r="D172" s="135"/>
-      <c r="E172" s="135"/>
-      <c r="F172" s="135"/>
-      <c r="G172" s="135"/>
-      <c r="H172" s="135"/>
-      <c r="I172" s="135"/>
-      <c r="J172" s="135"/>
-      <c r="K172" s="135"/>
+      <c r="B172" s="81"/>
+      <c r="C172" s="82"/>
+      <c r="D172" s="81"/>
+      <c r="E172" s="81"/>
+      <c r="F172" s="81"/>
+      <c r="G172" s="81"/>
+      <c r="H172" s="81"/>
+      <c r="I172" s="81"/>
+      <c r="J172" s="81"/>
+      <c r="K172" s="81"/>
     </row>
     <row r="174" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="175" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A175" s="82" t="s">
+      <c r="A175" s="83" t="s">
         <v>102</v>
       </c>
-      <c r="B175" s="83"/>
-      <c r="C175" s="83"/>
-      <c r="D175" s="83"/>
-      <c r="E175" s="83"/>
-      <c r="F175" s="83"/>
-      <c r="G175" s="83"/>
-      <c r="H175" s="83"/>
-      <c r="I175" s="83"/>
-      <c r="J175" s="83"/>
-      <c r="K175" s="84"/>
+      <c r="B175" s="84"/>
+      <c r="C175" s="84"/>
+      <c r="D175" s="84"/>
+      <c r="E175" s="84"/>
+      <c r="F175" s="84"/>
+      <c r="G175" s="84"/>
+      <c r="H175" s="84"/>
+      <c r="I175" s="84"/>
+      <c r="J175" s="84"/>
+      <c r="K175" s="85"/>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A176" s="85" t="s">
+      <c r="A176" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="B176" s="86"/>
+      <c r="B176" s="87"/>
       <c r="C176" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="D176" s="87" t="s">
+      <c r="D176" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="E176" s="86"/>
-      <c r="F176" s="42" t="s">
+      <c r="E176" s="87"/>
+      <c r="F176" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="G176" s="42"/>
-      <c r="H176" s="42"/>
-      <c r="I176" s="42"/>
-      <c r="J176" s="42"/>
-      <c r="K176" s="44"/>
+      <c r="G176" s="44"/>
+      <c r="H176" s="44"/>
+      <c r="I176" s="44"/>
+      <c r="J176" s="44"/>
+      <c r="K176" s="46"/>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A177" s="73" t="s">
+      <c r="A177" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="B177" s="71"/>
+      <c r="B177" s="73"/>
       <c r="C177" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D177" s="70" t="s">
+      <c r="D177" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="E177" s="71"/>
-      <c r="F177" s="48" t="s">
+      <c r="E177" s="73"/>
+      <c r="F177" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="G177" s="49"/>
-      <c r="H177" s="74" t="s">
+      <c r="G177" s="51"/>
+      <c r="H177" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="I177" s="71"/>
-      <c r="J177" s="75" t="s">
+      <c r="I177" s="73"/>
+      <c r="J177" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="K177" s="76"/>
+      <c r="K177" s="78"/>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="2"/>
@@ -5126,10 +5136,10 @@
       <c r="K178" s="4"/>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A179" s="77" t="s">
+      <c r="A179" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="B179" s="78"/>
+      <c r="B179" s="80"/>
       <c r="C179" s="5" t="s">
         <v>60</v>
       </c>
@@ -5156,29 +5166,29 @@
       <c r="K180" s="4"/>
     </row>
     <row r="181" spans="1:11" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A181" s="62" t="s">
+      <c r="A181" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B181" s="63"/>
+      <c r="B181" s="65"/>
       <c r="C181" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="D181" s="62" t="s">
+      <c r="D181" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="E181" s="63"/>
-      <c r="F181" s="64">
+      <c r="E181" s="65"/>
+      <c r="F181" s="66">
         <v>44500</v>
       </c>
-      <c r="G181" s="65"/>
-      <c r="H181" s="62" t="s">
+      <c r="G181" s="67"/>
+      <c r="H181" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="I181" s="63"/>
-      <c r="J181" s="66" t="s">
+      <c r="I181" s="65"/>
+      <c r="J181" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="K181" s="67"/>
+      <c r="K181" s="69"/>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="7"/>
@@ -5197,95 +5207,95 @@
       <c r="A183" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B183" s="68" t="s">
+      <c r="B183" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="C183" s="69"/>
-      <c r="D183" s="69"/>
+      <c r="C183" s="71"/>
+      <c r="D183" s="71"/>
       <c r="E183" s="9"/>
       <c r="F183" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G183" s="70" t="s">
+      <c r="G183" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="H183" s="71"/>
-      <c r="I183" s="71"/>
-      <c r="J183" s="71"/>
-      <c r="K183" s="72"/>
+      <c r="H183" s="73"/>
+      <c r="I183" s="73"/>
+      <c r="J183" s="73"/>
+      <c r="K183" s="74"/>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="11">
         <v>1</v>
       </c>
-      <c r="B184" s="47" t="s">
+      <c r="B184" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="C184" s="48"/>
-      <c r="D184" s="49"/>
+      <c r="C184" s="50"/>
+      <c r="D184" s="51"/>
       <c r="E184" s="3"/>
       <c r="F184" s="12">
         <v>1</v>
       </c>
-      <c r="G184" s="47" t="s">
+      <c r="G184" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="H184" s="48"/>
-      <c r="I184" s="48"/>
-      <c r="J184" s="48"/>
-      <c r="K184" s="50"/>
+      <c r="H184" s="50"/>
+      <c r="I184" s="50"/>
+      <c r="J184" s="50"/>
+      <c r="K184" s="52"/>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="11">
         <v>2</v>
       </c>
-      <c r="B185" s="47" t="s">
+      <c r="B185" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="C185" s="48"/>
-      <c r="D185" s="49"/>
+      <c r="C185" s="50"/>
+      <c r="D185" s="51"/>
       <c r="E185" s="3"/>
       <c r="F185" s="12">
         <v>2</v>
       </c>
-      <c r="G185" s="47" t="s">
+      <c r="G185" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="H185" s="48"/>
-      <c r="I185" s="48"/>
-      <c r="J185" s="48"/>
-      <c r="K185" s="50"/>
+      <c r="H185" s="50"/>
+      <c r="I185" s="50"/>
+      <c r="J185" s="50"/>
+      <c r="K185" s="52"/>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="11">
         <v>3</v>
       </c>
-      <c r="B186" s="47" t="s">
+      <c r="B186" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="C186" s="48"/>
-      <c r="D186" s="49"/>
+      <c r="C186" s="50"/>
+      <c r="D186" s="51"/>
       <c r="E186" s="3"/>
       <c r="F186" s="12">
         <v>3</v>
       </c>
-      <c r="G186" s="47" t="s">
+      <c r="G186" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="H186" s="48"/>
-      <c r="I186" s="48"/>
-      <c r="J186" s="48"/>
-      <c r="K186" s="50"/>
+      <c r="H186" s="50"/>
+      <c r="I186" s="50"/>
+      <c r="J186" s="50"/>
+      <c r="K186" s="52"/>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="11">
         <v>4</v>
       </c>
-      <c r="B187" s="47" t="s">
+      <c r="B187" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="C187" s="48"/>
-      <c r="D187" s="49"/>
+      <c r="C187" s="50"/>
+      <c r="D187" s="51"/>
       <c r="E187" s="3"/>
       <c r="F187" s="3"/>
       <c r="G187" s="3"/>
@@ -5338,172 +5348,172 @@
       <c r="K190" s="16"/>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A191" s="51" t="s">
+      <c r="A191" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="B191" s="53" t="s">
+      <c r="B191" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="C191" s="54"/>
-      <c r="D191" s="56" t="s">
+      <c r="C191" s="56"/>
+      <c r="D191" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="E191" s="57"/>
-      <c r="F191" s="53" t="s">
+      <c r="E191" s="59"/>
+      <c r="F191" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="G191" s="54"/>
-      <c r="H191" s="54"/>
-      <c r="I191" s="53" t="s">
+      <c r="G191" s="56"/>
+      <c r="H191" s="56"/>
+      <c r="I191" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="J191" s="54"/>
-      <c r="K191" s="60"/>
+      <c r="J191" s="56"/>
+      <c r="K191" s="62"/>
     </row>
     <row r="192" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A192" s="52"/>
-      <c r="B192" s="55"/>
-      <c r="C192" s="55"/>
-      <c r="D192" s="58"/>
-      <c r="E192" s="58"/>
-      <c r="F192" s="59"/>
-      <c r="G192" s="59"/>
-      <c r="H192" s="59"/>
-      <c r="I192" s="59"/>
-      <c r="J192" s="59"/>
-      <c r="K192" s="61"/>
+      <c r="A192" s="54"/>
+      <c r="B192" s="57"/>
+      <c r="C192" s="57"/>
+      <c r="D192" s="60"/>
+      <c r="E192" s="60"/>
+      <c r="F192" s="61"/>
+      <c r="G192" s="61"/>
+      <c r="H192" s="61"/>
+      <c r="I192" s="61"/>
+      <c r="J192" s="61"/>
+      <c r="K192" s="63"/>
     </row>
     <row r="193" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="17">
         <v>1</v>
       </c>
-      <c r="B193" s="39" t="s">
+      <c r="B193" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="C193" s="40"/>
-      <c r="D193" s="39" t="s">
+      <c r="C193" s="42"/>
+      <c r="D193" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="E193" s="39"/>
-      <c r="F193" s="41" t="s">
+      <c r="E193" s="41"/>
+      <c r="F193" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="G193" s="42"/>
-      <c r="H193" s="43"/>
-      <c r="I193" s="41" t="s">
+      <c r="G193" s="44"/>
+      <c r="H193" s="45"/>
+      <c r="I193" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="J193" s="42"/>
-      <c r="K193" s="44"/>
+      <c r="J193" s="44"/>
+      <c r="K193" s="46"/>
     </row>
     <row r="194" spans="1:11" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="11">
         <v>2</v>
       </c>
-      <c r="B194" s="45" t="s">
+      <c r="B194" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="C194" s="46"/>
-      <c r="D194" s="45" t="s">
+      <c r="C194" s="48"/>
+      <c r="D194" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="E194" s="45"/>
-      <c r="F194" s="47" t="s">
+      <c r="E194" s="47"/>
+      <c r="F194" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="G194" s="48"/>
-      <c r="H194" s="49"/>
-      <c r="I194" s="47" t="s">
+      <c r="G194" s="50"/>
+      <c r="H194" s="51"/>
+      <c r="I194" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="J194" s="48"/>
-      <c r="K194" s="50"/>
+      <c r="J194" s="50"/>
+      <c r="K194" s="52"/>
     </row>
     <row r="195" spans="1:11" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A195" s="18">
         <v>3</v>
       </c>
-      <c r="B195" s="79" t="s">
+      <c r="B195" s="96" t="s">
         <v>109</v>
       </c>
-      <c r="C195" s="80"/>
-      <c r="D195" s="88" t="s">
+      <c r="C195" s="97"/>
+      <c r="D195" s="98" t="s">
         <v>110</v>
       </c>
-      <c r="E195" s="79"/>
-      <c r="F195" s="36" t="s">
+      <c r="E195" s="96"/>
+      <c r="F195" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="G195" s="37"/>
-      <c r="H195" s="81"/>
-      <c r="I195" s="36" t="s">
+      <c r="G195" s="39"/>
+      <c r="H195" s="100"/>
+      <c r="I195" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="J195" s="37"/>
-      <c r="K195" s="38"/>
+      <c r="J195" s="39"/>
+      <c r="K195" s="40"/>
     </row>
     <row r="196" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="197" spans="1:11" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="198" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A198" s="82" t="s">
+      <c r="A198" s="83" t="s">
         <v>111</v>
       </c>
-      <c r="B198" s="83"/>
-      <c r="C198" s="83"/>
-      <c r="D198" s="83"/>
-      <c r="E198" s="83"/>
-      <c r="F198" s="83"/>
-      <c r="G198" s="83"/>
-      <c r="H198" s="83"/>
-      <c r="I198" s="83"/>
-      <c r="J198" s="83"/>
-      <c r="K198" s="84"/>
+      <c r="B198" s="84"/>
+      <c r="C198" s="84"/>
+      <c r="D198" s="84"/>
+      <c r="E198" s="84"/>
+      <c r="F198" s="84"/>
+      <c r="G198" s="84"/>
+      <c r="H198" s="84"/>
+      <c r="I198" s="84"/>
+      <c r="J198" s="84"/>
+      <c r="K198" s="85"/>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A199" s="85" t="s">
+      <c r="A199" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="B199" s="86"/>
+      <c r="B199" s="87"/>
       <c r="C199" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="D199" s="87" t="s">
+      <c r="D199" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="E199" s="86"/>
-      <c r="F199" s="42" t="s">
+      <c r="E199" s="87"/>
+      <c r="F199" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="G199" s="42"/>
-      <c r="H199" s="42"/>
-      <c r="I199" s="42"/>
-      <c r="J199" s="42"/>
-      <c r="K199" s="44"/>
+      <c r="G199" s="44"/>
+      <c r="H199" s="44"/>
+      <c r="I199" s="44"/>
+      <c r="J199" s="44"/>
+      <c r="K199" s="46"/>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A200" s="73" t="s">
+      <c r="A200" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="B200" s="71"/>
+      <c r="B200" s="73"/>
       <c r="C200" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D200" s="70" t="s">
+      <c r="D200" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="E200" s="71"/>
-      <c r="F200" s="48" t="s">
+      <c r="E200" s="73"/>
+      <c r="F200" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="G200" s="49"/>
-      <c r="H200" s="74" t="s">
+      <c r="G200" s="51"/>
+      <c r="H200" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="I200" s="71"/>
-      <c r="J200" s="75" t="s">
+      <c r="I200" s="73"/>
+      <c r="J200" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="K200" s="76"/>
+      <c r="K200" s="78"/>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="2"/>
@@ -5519,10 +5529,10 @@
       <c r="K201" s="4"/>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A202" s="77" t="s">
+      <c r="A202" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="B202" s="78"/>
+      <c r="B202" s="80"/>
       <c r="C202" s="5" t="s">
         <v>60</v>
       </c>
@@ -5549,29 +5559,29 @@
       <c r="K203" s="4"/>
     </row>
     <row r="204" spans="1:11" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A204" s="62" t="s">
+      <c r="A204" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B204" s="63"/>
+      <c r="B204" s="65"/>
       <c r="C204" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="D204" s="62" t="s">
+      <c r="D204" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="E204" s="63"/>
-      <c r="F204" s="64">
+      <c r="E204" s="65"/>
+      <c r="F204" s="66">
         <v>44500</v>
       </c>
-      <c r="G204" s="65"/>
-      <c r="H204" s="62" t="s">
+      <c r="G204" s="67"/>
+      <c r="H204" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="I204" s="63"/>
-      <c r="J204" s="66" t="s">
+      <c r="I204" s="65"/>
+      <c r="J204" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="K204" s="67"/>
+      <c r="K204" s="69"/>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="7"/>
@@ -5590,95 +5600,95 @@
       <c r="A206" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B206" s="68" t="s">
+      <c r="B206" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="C206" s="69"/>
-      <c r="D206" s="69"/>
+      <c r="C206" s="71"/>
+      <c r="D206" s="71"/>
       <c r="E206" s="9"/>
       <c r="F206" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G206" s="70" t="s">
+      <c r="G206" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="H206" s="71"/>
-      <c r="I206" s="71"/>
-      <c r="J206" s="71"/>
-      <c r="K206" s="72"/>
+      <c r="H206" s="73"/>
+      <c r="I206" s="73"/>
+      <c r="J206" s="73"/>
+      <c r="K206" s="74"/>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="11">
         <v>1</v>
       </c>
-      <c r="B207" s="47" t="s">
+      <c r="B207" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="C207" s="48"/>
-      <c r="D207" s="49"/>
+      <c r="C207" s="50"/>
+      <c r="D207" s="51"/>
       <c r="E207" s="3"/>
       <c r="F207" s="12">
         <v>1</v>
       </c>
-      <c r="G207" s="47" t="s">
+      <c r="G207" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="H207" s="48"/>
-      <c r="I207" s="48"/>
-      <c r="J207" s="48"/>
-      <c r="K207" s="50"/>
+      <c r="H207" s="50"/>
+      <c r="I207" s="50"/>
+      <c r="J207" s="50"/>
+      <c r="K207" s="52"/>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="11">
         <v>2</v>
       </c>
-      <c r="B208" s="47" t="s">
+      <c r="B208" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="C208" s="48"/>
-      <c r="D208" s="49"/>
+      <c r="C208" s="50"/>
+      <c r="D208" s="51"/>
       <c r="E208" s="3"/>
       <c r="F208" s="12">
         <v>2</v>
       </c>
-      <c r="G208" s="47" t="s">
+      <c r="G208" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="H208" s="48"/>
-      <c r="I208" s="48"/>
-      <c r="J208" s="48"/>
-      <c r="K208" s="50"/>
+      <c r="H208" s="50"/>
+      <c r="I208" s="50"/>
+      <c r="J208" s="50"/>
+      <c r="K208" s="52"/>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="11">
         <v>3</v>
       </c>
-      <c r="B209" s="47" t="s">
+      <c r="B209" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="C209" s="48"/>
-      <c r="D209" s="49"/>
+      <c r="C209" s="50"/>
+      <c r="D209" s="51"/>
       <c r="E209" s="3"/>
       <c r="F209" s="12">
         <v>3</v>
       </c>
-      <c r="G209" s="47" t="s">
+      <c r="G209" s="49" t="s">
         <v>121</v>
       </c>
-      <c r="H209" s="48"/>
-      <c r="I209" s="48"/>
-      <c r="J209" s="48"/>
-      <c r="K209" s="50"/>
+      <c r="H209" s="50"/>
+      <c r="I209" s="50"/>
+      <c r="J209" s="50"/>
+      <c r="K209" s="52"/>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="11">
         <v>4</v>
       </c>
-      <c r="B210" s="47" t="s">
+      <c r="B210" s="49" t="s">
         <v>115</v>
       </c>
-      <c r="C210" s="48"/>
-      <c r="D210" s="49"/>
+      <c r="C210" s="50"/>
+      <c r="D210" s="51"/>
       <c r="E210" s="3"/>
       <c r="F210" s="3"/>
       <c r="G210" s="3"/>
@@ -5731,217 +5741,217 @@
       <c r="K213" s="16"/>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A214" s="51" t="s">
+      <c r="A214" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="B214" s="53" t="s">
+      <c r="B214" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="C214" s="54"/>
-      <c r="D214" s="56" t="s">
+      <c r="C214" s="56"/>
+      <c r="D214" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="E214" s="57"/>
-      <c r="F214" s="53" t="s">
+      <c r="E214" s="59"/>
+      <c r="F214" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="G214" s="54"/>
-      <c r="H214" s="54"/>
-      <c r="I214" s="53" t="s">
+      <c r="G214" s="56"/>
+      <c r="H214" s="56"/>
+      <c r="I214" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="J214" s="54"/>
-      <c r="K214" s="60"/>
+      <c r="J214" s="56"/>
+      <c r="K214" s="62"/>
     </row>
     <row r="215" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A215" s="52"/>
-      <c r="B215" s="55"/>
-      <c r="C215" s="55"/>
-      <c r="D215" s="58"/>
-      <c r="E215" s="58"/>
-      <c r="F215" s="59"/>
-      <c r="G215" s="59"/>
-      <c r="H215" s="59"/>
-      <c r="I215" s="59"/>
-      <c r="J215" s="59"/>
-      <c r="K215" s="61"/>
+      <c r="A215" s="54"/>
+      <c r="B215" s="57"/>
+      <c r="C215" s="57"/>
+      <c r="D215" s="60"/>
+      <c r="E215" s="60"/>
+      <c r="F215" s="61"/>
+      <c r="G215" s="61"/>
+      <c r="H215" s="61"/>
+      <c r="I215" s="61"/>
+      <c r="J215" s="61"/>
+      <c r="K215" s="63"/>
     </row>
     <row r="216" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="17">
         <v>1</v>
       </c>
-      <c r="B216" s="39" t="s">
+      <c r="B216" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="C216" s="40"/>
-      <c r="D216" s="39" t="s">
+      <c r="C216" s="42"/>
+      <c r="D216" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="E216" s="39"/>
-      <c r="F216" s="41" t="s">
+      <c r="E216" s="41"/>
+      <c r="F216" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="G216" s="42"/>
-      <c r="H216" s="43"/>
-      <c r="I216" s="41" t="s">
+      <c r="G216" s="44"/>
+      <c r="H216" s="45"/>
+      <c r="I216" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="J216" s="42"/>
-      <c r="K216" s="44"/>
+      <c r="J216" s="44"/>
+      <c r="K216" s="46"/>
     </row>
     <row r="217" spans="1:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="11">
         <v>2</v>
       </c>
-      <c r="B217" s="45" t="s">
+      <c r="B217" s="47" t="s">
         <v>116</v>
       </c>
-      <c r="C217" s="46"/>
-      <c r="D217" s="45" t="s">
+      <c r="C217" s="48"/>
+      <c r="D217" s="47" t="s">
         <v>117</v>
       </c>
-      <c r="E217" s="45"/>
-      <c r="F217" s="47" t="s">
+      <c r="E217" s="47"/>
+      <c r="F217" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="G217" s="48"/>
-      <c r="H217" s="49"/>
-      <c r="I217" s="47" t="s">
+      <c r="G217" s="50"/>
+      <c r="H217" s="51"/>
+      <c r="I217" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="J217" s="48"/>
-      <c r="K217" s="50"/>
+      <c r="J217" s="50"/>
+      <c r="K217" s="52"/>
     </row>
     <row r="218" spans="1:11" ht="31.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A218" s="18">
         <v>3</v>
       </c>
-      <c r="B218" s="79" t="s">
+      <c r="B218" s="96" t="s">
         <v>118</v>
       </c>
-      <c r="C218" s="80"/>
-      <c r="D218" s="88" t="s">
+      <c r="C218" s="97"/>
+      <c r="D218" s="98" t="s">
         <v>119</v>
       </c>
-      <c r="E218" s="79"/>
-      <c r="F218" s="36" t="s">
+      <c r="E218" s="96"/>
+      <c r="F218" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="G218" s="37"/>
-      <c r="H218" s="81"/>
-      <c r="I218" s="36" t="s">
+      <c r="G218" s="39"/>
+      <c r="H218" s="100"/>
+      <c r="I218" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="J218" s="37"/>
-      <c r="K218" s="38"/>
+      <c r="J218" s="39"/>
+      <c r="K218" s="40"/>
     </row>
     <row r="219" spans="1:11" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A219" s="18">
         <v>4</v>
       </c>
-      <c r="B219" s="79" t="s">
+      <c r="B219" s="96" t="s">
         <v>120</v>
       </c>
-      <c r="C219" s="80"/>
-      <c r="D219" s="88" t="s">
+      <c r="C219" s="97"/>
+      <c r="D219" s="98" t="s">
         <v>122</v>
       </c>
-      <c r="E219" s="79"/>
-      <c r="F219" s="36" t="s">
+      <c r="E219" s="96"/>
+      <c r="F219" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="G219" s="37"/>
-      <c r="H219" s="81"/>
-      <c r="I219" s="36" t="s">
+      <c r="G219" s="39"/>
+      <c r="H219" s="100"/>
+      <c r="I219" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="J219" s="37"/>
-      <c r="K219" s="38"/>
+      <c r="J219" s="39"/>
+      <c r="K219" s="40"/>
     </row>
     <row r="220" spans="1:11" ht="31.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A220" s="18">
         <v>3</v>
       </c>
-      <c r="B220" s="79" t="s">
+      <c r="B220" s="96" t="s">
         <v>123</v>
       </c>
-      <c r="C220" s="80"/>
-      <c r="D220" s="88" t="s">
+      <c r="C220" s="97"/>
+      <c r="D220" s="98" t="s">
         <v>124</v>
       </c>
-      <c r="E220" s="79"/>
-      <c r="F220" s="36" t="s">
+      <c r="E220" s="96"/>
+      <c r="F220" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="G220" s="37"/>
-      <c r="H220" s="81"/>
-      <c r="I220" s="36" t="s">
+      <c r="G220" s="39"/>
+      <c r="H220" s="100"/>
+      <c r="I220" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="J220" s="37"/>
-      <c r="K220" s="38"/>
+      <c r="J220" s="39"/>
+      <c r="K220" s="40"/>
     </row>
     <row r="222" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="223" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A223" s="82" t="s">
+      <c r="A223" s="83" t="s">
         <v>125</v>
       </c>
-      <c r="B223" s="83"/>
-      <c r="C223" s="83"/>
-      <c r="D223" s="83"/>
-      <c r="E223" s="83"/>
-      <c r="F223" s="83"/>
-      <c r="G223" s="83"/>
-      <c r="H223" s="83"/>
-      <c r="I223" s="83"/>
-      <c r="J223" s="83"/>
-      <c r="K223" s="84"/>
+      <c r="B223" s="84"/>
+      <c r="C223" s="84"/>
+      <c r="D223" s="84"/>
+      <c r="E223" s="84"/>
+      <c r="F223" s="84"/>
+      <c r="G223" s="84"/>
+      <c r="H223" s="84"/>
+      <c r="I223" s="84"/>
+      <c r="J223" s="84"/>
+      <c r="K223" s="85"/>
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A224" s="85" t="s">
+      <c r="A224" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="B224" s="86"/>
+      <c r="B224" s="87"/>
       <c r="C224" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="D224" s="87" t="s">
+      <c r="D224" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="E224" s="86"/>
-      <c r="F224" s="42" t="s">
+      <c r="E224" s="87"/>
+      <c r="F224" s="44" t="s">
         <v>127</v>
       </c>
-      <c r="G224" s="42"/>
-      <c r="H224" s="42"/>
-      <c r="I224" s="42"/>
-      <c r="J224" s="42"/>
-      <c r="K224" s="44"/>
+      <c r="G224" s="44"/>
+      <c r="H224" s="44"/>
+      <c r="I224" s="44"/>
+      <c r="J224" s="44"/>
+      <c r="K224" s="46"/>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A225" s="73" t="s">
+      <c r="A225" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="B225" s="71"/>
+      <c r="B225" s="73"/>
       <c r="C225" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D225" s="70" t="s">
+      <c r="D225" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="E225" s="71"/>
-      <c r="F225" s="48" t="s">
+      <c r="E225" s="73"/>
+      <c r="F225" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="G225" s="49"/>
-      <c r="H225" s="74" t="s">
+      <c r="G225" s="51"/>
+      <c r="H225" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="I225" s="71"/>
-      <c r="J225" s="75" t="s">
+      <c r="I225" s="73"/>
+      <c r="J225" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="K225" s="76"/>
+      <c r="K225" s="78"/>
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="2"/>
@@ -5957,10 +5967,10 @@
       <c r="K226" s="4"/>
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A227" s="77" t="s">
+      <c r="A227" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="B227" s="78"/>
+      <c r="B227" s="80"/>
       <c r="C227" s="5" t="s">
         <v>60</v>
       </c>
@@ -5987,29 +5997,29 @@
       <c r="K228" s="4"/>
     </row>
     <row r="229" spans="1:11" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A229" s="62" t="s">
+      <c r="A229" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B229" s="63"/>
+      <c r="B229" s="65"/>
       <c r="C229" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="D229" s="62" t="s">
+      <c r="D229" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="E229" s="63"/>
-      <c r="F229" s="64">
+      <c r="E229" s="65"/>
+      <c r="F229" s="66">
         <v>44500</v>
       </c>
-      <c r="G229" s="65"/>
-      <c r="H229" s="62" t="s">
+      <c r="G229" s="67"/>
+      <c r="H229" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="I229" s="63"/>
-      <c r="J229" s="66" t="s">
+      <c r="I229" s="65"/>
+      <c r="J229" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="K229" s="67"/>
+      <c r="K229" s="69"/>
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="7"/>
@@ -6028,106 +6038,106 @@
       <c r="A231" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B231" s="68" t="s">
+      <c r="B231" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="C231" s="69"/>
-      <c r="D231" s="69"/>
+      <c r="C231" s="71"/>
+      <c r="D231" s="71"/>
       <c r="E231" s="9"/>
       <c r="F231" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G231" s="70" t="s">
+      <c r="G231" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="H231" s="71"/>
-      <c r="I231" s="71"/>
-      <c r="J231" s="71"/>
-      <c r="K231" s="72"/>
+      <c r="H231" s="73"/>
+      <c r="I231" s="73"/>
+      <c r="J231" s="73"/>
+      <c r="K231" s="74"/>
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="11">
         <v>1</v>
       </c>
-      <c r="B232" s="47" t="s">
+      <c r="B232" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="C232" s="48"/>
-      <c r="D232" s="49"/>
+      <c r="C232" s="50"/>
+      <c r="D232" s="51"/>
       <c r="E232" s="3"/>
       <c r="F232" s="12">
         <v>1</v>
       </c>
-      <c r="G232" s="47" t="s">
+      <c r="G232" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="H232" s="48"/>
-      <c r="I232" s="48"/>
-      <c r="J232" s="48"/>
-      <c r="K232" s="50"/>
+      <c r="H232" s="50"/>
+      <c r="I232" s="50"/>
+      <c r="J232" s="50"/>
+      <c r="K232" s="52"/>
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="11">
         <v>2</v>
       </c>
-      <c r="B233" s="47" t="s">
+      <c r="B233" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="C233" s="48"/>
-      <c r="D233" s="49"/>
+      <c r="C233" s="50"/>
+      <c r="D233" s="51"/>
       <c r="E233" s="3"/>
       <c r="F233" s="12">
         <v>2</v>
       </c>
-      <c r="G233" s="47" t="s">
+      <c r="G233" s="49" t="s">
         <v>156</v>
       </c>
-      <c r="H233" s="48"/>
-      <c r="I233" s="48"/>
-      <c r="J233" s="48"/>
-      <c r="K233" s="50"/>
+      <c r="H233" s="50"/>
+      <c r="I233" s="50"/>
+      <c r="J233" s="50"/>
+      <c r="K233" s="52"/>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="11">
         <v>3</v>
       </c>
-      <c r="B234" s="47" t="s">
+      <c r="B234" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="C234" s="48"/>
-      <c r="D234" s="49"/>
+      <c r="C234" s="50"/>
+      <c r="D234" s="51"/>
       <c r="E234" s="3"/>
       <c r="F234" s="12">
         <v>3</v>
       </c>
-      <c r="G234" s="47" t="s">
+      <c r="G234" s="49" t="s">
         <v>136</v>
       </c>
-      <c r="H234" s="48"/>
-      <c r="I234" s="48"/>
-      <c r="J234" s="48"/>
-      <c r="K234" s="50"/>
+      <c r="H234" s="50"/>
+      <c r="I234" s="50"/>
+      <c r="J234" s="50"/>
+      <c r="K234" s="52"/>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="11">
         <v>4</v>
       </c>
-      <c r="B235" s="47" t="s">
+      <c r="B235" s="49" t="s">
         <v>115</v>
       </c>
-      <c r="C235" s="48"/>
-      <c r="D235" s="49"/>
+      <c r="C235" s="50"/>
+      <c r="D235" s="51"/>
       <c r="E235" s="3"/>
       <c r="F235" s="12">
         <v>4</v>
       </c>
-      <c r="G235" s="47" t="s">
+      <c r="G235" s="49" t="s">
         <v>137</v>
       </c>
-      <c r="H235" s="48"/>
-      <c r="I235" s="48"/>
-      <c r="J235" s="48"/>
-      <c r="K235" s="50"/>
+      <c r="H235" s="50"/>
+      <c r="I235" s="50"/>
+      <c r="J235" s="50"/>
+      <c r="K235" s="52"/>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="2"/>
@@ -6138,13 +6148,13 @@
       <c r="F236" s="12">
         <v>5</v>
       </c>
-      <c r="G236" s="47" t="s">
+      <c r="G236" s="49" t="s">
         <v>138</v>
       </c>
-      <c r="H236" s="48"/>
-      <c r="I236" s="48"/>
-      <c r="J236" s="48"/>
-      <c r="K236" s="50"/>
+      <c r="H236" s="50"/>
+      <c r="I236" s="50"/>
+      <c r="J236" s="50"/>
+      <c r="K236" s="52"/>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="2"/>
@@ -6155,13 +6165,13 @@
       <c r="F237" s="12">
         <v>6</v>
       </c>
-      <c r="G237" s="47" t="s">
+      <c r="G237" s="49" t="s">
         <v>139</v>
       </c>
-      <c r="H237" s="48"/>
-      <c r="I237" s="48"/>
-      <c r="J237" s="48"/>
-      <c r="K237" s="50"/>
+      <c r="H237" s="50"/>
+      <c r="I237" s="50"/>
+      <c r="J237" s="50"/>
+      <c r="K237" s="52"/>
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="2"/>
@@ -6218,361 +6228,361 @@
         <v>16</v>
       </c>
       <c r="E241" s="33"/>
-      <c r="F241" s="113" t="s">
+      <c r="F241" s="125" t="s">
         <v>17</v>
       </c>
-      <c r="G241" s="114"/>
-      <c r="H241" s="115"/>
-      <c r="I241" s="113" t="s">
+      <c r="G241" s="126"/>
+      <c r="H241" s="127"/>
+      <c r="I241" s="125" t="s">
         <v>18</v>
       </c>
-      <c r="J241" s="114"/>
-      <c r="K241" s="116"/>
+      <c r="J241" s="126"/>
+      <c r="K241" s="128"/>
     </row>
     <row r="242" spans="1:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="17">
         <v>1</v>
       </c>
-      <c r="B242" s="123" t="s">
+      <c r="B242" s="135" t="s">
         <v>63</v>
       </c>
-      <c r="C242" s="124"/>
-      <c r="D242" s="123" t="s">
+      <c r="C242" s="136"/>
+      <c r="D242" s="135" t="s">
         <v>19</v>
       </c>
-      <c r="E242" s="124"/>
-      <c r="F242" s="123" t="s">
+      <c r="E242" s="136"/>
+      <c r="F242" s="135" t="s">
         <v>20</v>
       </c>
-      <c r="G242" s="125"/>
-      <c r="H242" s="124"/>
-      <c r="I242" s="123" t="s">
+      <c r="G242" s="137"/>
+      <c r="H242" s="136"/>
+      <c r="I242" s="135" t="s">
         <v>9</v>
       </c>
-      <c r="J242" s="125"/>
-      <c r="K242" s="126"/>
+      <c r="J242" s="137"/>
+      <c r="K242" s="138"/>
     </row>
     <row r="243" spans="1:11" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="11">
         <v>2</v>
       </c>
-      <c r="B243" s="47" t="s">
+      <c r="B243" s="49" t="s">
         <v>116</v>
       </c>
-      <c r="C243" s="49"/>
-      <c r="D243" s="47" t="s">
+      <c r="C243" s="51"/>
+      <c r="D243" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="E243" s="49"/>
-      <c r="F243" s="47" t="s">
+      <c r="E243" s="51"/>
+      <c r="F243" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="G243" s="48"/>
-      <c r="H243" s="49"/>
-      <c r="I243" s="47" t="s">
+      <c r="G243" s="50"/>
+      <c r="H243" s="51"/>
+      <c r="I243" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="J243" s="48"/>
-      <c r="K243" s="50"/>
+      <c r="J243" s="50"/>
+      <c r="K243" s="52"/>
     </row>
     <row r="244" spans="1:11" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A244" s="18">
         <v>3</v>
       </c>
-      <c r="B244" s="36" t="s">
+      <c r="B244" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="C244" s="81"/>
-      <c r="D244" s="121" t="s">
+      <c r="C244" s="100"/>
+      <c r="D244" s="133" t="s">
         <v>98</v>
       </c>
-      <c r="E244" s="122"/>
-      <c r="F244" s="36" t="s">
+      <c r="E244" s="134"/>
+      <c r="F244" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="G244" s="37"/>
-      <c r="H244" s="81"/>
-      <c r="I244" s="36" t="s">
+      <c r="G244" s="39"/>
+      <c r="H244" s="100"/>
+      <c r="I244" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="J244" s="37"/>
-      <c r="K244" s="38"/>
+      <c r="J244" s="39"/>
+      <c r="K244" s="40"/>
     </row>
     <row r="245" spans="1:11" ht="31.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A245" s="18">
         <v>4</v>
       </c>
-      <c r="B245" s="117" t="s">
+      <c r="B245" s="129" t="s">
         <v>130</v>
       </c>
-      <c r="C245" s="118"/>
-      <c r="D245" s="119" t="s">
+      <c r="C245" s="130"/>
+      <c r="D245" s="131" t="s">
         <v>131</v>
       </c>
-      <c r="E245" s="120"/>
-      <c r="F245" s="117" t="s">
+      <c r="E245" s="132"/>
+      <c r="F245" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="G245" s="97"/>
-      <c r="H245" s="118"/>
-      <c r="I245" s="117" t="s">
+      <c r="G245" s="109"/>
+      <c r="H245" s="130"/>
+      <c r="I245" s="129" t="s">
         <v>9</v>
       </c>
-      <c r="J245" s="97"/>
-      <c r="K245" s="98"/>
+      <c r="J245" s="109"/>
+      <c r="K245" s="110"/>
     </row>
     <row r="246" spans="1:11" ht="31.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A246" s="18">
         <v>5</v>
       </c>
-      <c r="B246" s="117" t="s">
+      <c r="B246" s="129" t="s">
         <v>132</v>
       </c>
-      <c r="C246" s="118"/>
-      <c r="D246" s="119" t="s">
+      <c r="C246" s="130"/>
+      <c r="D246" s="131" t="s">
         <v>135</v>
       </c>
-      <c r="E246" s="120"/>
-      <c r="F246" s="117" t="s">
+      <c r="E246" s="132"/>
+      <c r="F246" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="G246" s="97"/>
-      <c r="H246" s="118"/>
-      <c r="I246" s="117" t="s">
+      <c r="G246" s="109"/>
+      <c r="H246" s="130"/>
+      <c r="I246" s="129" t="s">
         <v>9</v>
       </c>
-      <c r="J246" s="97"/>
-      <c r="K246" s="98"/>
+      <c r="J246" s="109"/>
+      <c r="K246" s="110"/>
     </row>
     <row r="247" spans="1:11" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A247" s="18">
         <v>6</v>
       </c>
-      <c r="B247" s="117" t="s">
+      <c r="B247" s="129" t="s">
         <v>134</v>
       </c>
-      <c r="C247" s="118"/>
-      <c r="D247" s="119" t="s">
+      <c r="C247" s="130"/>
+      <c r="D247" s="131" t="s">
         <v>133</v>
       </c>
-      <c r="E247" s="120"/>
-      <c r="F247" s="117" t="s">
+      <c r="E247" s="132"/>
+      <c r="F247" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="G247" s="97"/>
-      <c r="H247" s="118"/>
-      <c r="I247" s="117" t="s">
+      <c r="G247" s="109"/>
+      <c r="H247" s="130"/>
+      <c r="I247" s="129" t="s">
         <v>9</v>
       </c>
-      <c r="J247" s="97"/>
-      <c r="K247" s="98"/>
+      <c r="J247" s="109"/>
+      <c r="K247" s="110"/>
     </row>
     <row r="248" spans="1:11" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A248" s="18">
         <v>7</v>
       </c>
-      <c r="B248" s="117" t="s">
+      <c r="B248" s="129" t="s">
         <v>140</v>
       </c>
-      <c r="C248" s="118"/>
-      <c r="D248" s="119" t="s">
+      <c r="C248" s="130"/>
+      <c r="D248" s="131" t="s">
         <v>141</v>
       </c>
-      <c r="E248" s="120"/>
-      <c r="F248" s="117" t="s">
+      <c r="E248" s="132"/>
+      <c r="F248" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="G248" s="97"/>
-      <c r="H248" s="118"/>
-      <c r="I248" s="117" t="s">
+      <c r="G248" s="109"/>
+      <c r="H248" s="130"/>
+      <c r="I248" s="129" t="s">
         <v>9</v>
       </c>
-      <c r="J248" s="97"/>
-      <c r="K248" s="98"/>
+      <c r="J248" s="109"/>
+      <c r="K248" s="110"/>
     </row>
     <row r="249" spans="1:11" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A249" s="18">
         <v>8</v>
       </c>
-      <c r="B249" s="117" t="s">
+      <c r="B249" s="129" t="s">
         <v>142</v>
       </c>
-      <c r="C249" s="118"/>
-      <c r="D249" s="119" t="s">
+      <c r="C249" s="130"/>
+      <c r="D249" s="131" t="s">
         <v>143</v>
       </c>
-      <c r="E249" s="120"/>
-      <c r="F249" s="117" t="s">
+      <c r="E249" s="132"/>
+      <c r="F249" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="G249" s="97"/>
-      <c r="H249" s="118"/>
-      <c r="I249" s="117" t="s">
+      <c r="G249" s="109"/>
+      <c r="H249" s="130"/>
+      <c r="I249" s="129" t="s">
         <v>9</v>
       </c>
-      <c r="J249" s="97"/>
-      <c r="K249" s="98"/>
+      <c r="J249" s="109"/>
+      <c r="K249" s="110"/>
     </row>
     <row r="250" spans="1:11" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A250" s="18">
         <v>9</v>
       </c>
-      <c r="B250" s="117" t="s">
+      <c r="B250" s="129" t="s">
         <v>144</v>
       </c>
-      <c r="C250" s="118"/>
-      <c r="D250" s="119" t="s">
+      <c r="C250" s="130"/>
+      <c r="D250" s="131" t="s">
         <v>145</v>
       </c>
-      <c r="E250" s="120"/>
-      <c r="F250" s="117" t="s">
+      <c r="E250" s="132"/>
+      <c r="F250" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="G250" s="97"/>
-      <c r="H250" s="118"/>
-      <c r="I250" s="117" t="s">
+      <c r="G250" s="109"/>
+      <c r="H250" s="130"/>
+      <c r="I250" s="129" t="s">
         <v>9</v>
       </c>
-      <c r="J250" s="97"/>
-      <c r="K250" s="98"/>
+      <c r="J250" s="109"/>
+      <c r="K250" s="110"/>
     </row>
     <row r="251" spans="1:11" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A251" s="18">
         <v>10</v>
       </c>
-      <c r="B251" s="117" t="s">
+      <c r="B251" s="129" t="s">
         <v>146</v>
       </c>
-      <c r="C251" s="118"/>
-      <c r="D251" s="119" t="s">
+      <c r="C251" s="130"/>
+      <c r="D251" s="131" t="s">
         <v>147</v>
       </c>
-      <c r="E251" s="120"/>
-      <c r="F251" s="117" t="s">
+      <c r="E251" s="132"/>
+      <c r="F251" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="G251" s="97"/>
-      <c r="H251" s="118"/>
-      <c r="I251" s="117" t="s">
+      <c r="G251" s="109"/>
+      <c r="H251" s="130"/>
+      <c r="I251" s="129" t="s">
         <v>9</v>
       </c>
-      <c r="J251" s="97"/>
-      <c r="K251" s="98"/>
+      <c r="J251" s="109"/>
+      <c r="K251" s="110"/>
     </row>
     <row r="252" spans="1:11" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A252" s="18">
         <v>11</v>
       </c>
-      <c r="B252" s="117" t="s">
+      <c r="B252" s="129" t="s">
         <v>148</v>
       </c>
-      <c r="C252" s="118"/>
-      <c r="D252" s="119" t="s">
+      <c r="C252" s="130"/>
+      <c r="D252" s="131" t="s">
         <v>149</v>
       </c>
-      <c r="E252" s="120"/>
-      <c r="F252" s="117" t="s">
+      <c r="E252" s="132"/>
+      <c r="F252" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="G252" s="97"/>
-      <c r="H252" s="118"/>
-      <c r="I252" s="117" t="s">
+      <c r="G252" s="109"/>
+      <c r="H252" s="130"/>
+      <c r="I252" s="129" t="s">
         <v>9</v>
       </c>
-      <c r="J252" s="97"/>
-      <c r="K252" s="98"/>
+      <c r="J252" s="109"/>
+      <c r="K252" s="110"/>
     </row>
     <row r="253" spans="1:11" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A253" s="18">
         <v>12</v>
       </c>
-      <c r="B253" s="117" t="s">
+      <c r="B253" s="129" t="s">
         <v>150</v>
       </c>
-      <c r="C253" s="118"/>
-      <c r="D253" s="119" t="s">
+      <c r="C253" s="130"/>
+      <c r="D253" s="131" t="s">
         <v>151</v>
       </c>
-      <c r="E253" s="120"/>
-      <c r="F253" s="117" t="s">
+      <c r="E253" s="132"/>
+      <c r="F253" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="G253" s="97"/>
-      <c r="H253" s="118"/>
-      <c r="I253" s="117" t="s">
+      <c r="G253" s="109"/>
+      <c r="H253" s="130"/>
+      <c r="I253" s="129" t="s">
         <v>9</v>
       </c>
-      <c r="J253" s="97"/>
-      <c r="K253" s="98"/>
+      <c r="J253" s="109"/>
+      <c r="K253" s="110"/>
     </row>
     <row r="254" spans="1:11" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A254" s="18">
         <v>13</v>
       </c>
-      <c r="B254" s="117" t="s">
+      <c r="B254" s="129" t="s">
         <v>150</v>
       </c>
-      <c r="C254" s="118"/>
-      <c r="D254" s="119" t="s">
+      <c r="C254" s="130"/>
+      <c r="D254" s="131" t="s">
         <v>151</v>
       </c>
-      <c r="E254" s="120"/>
-      <c r="F254" s="117" t="s">
+      <c r="E254" s="132"/>
+      <c r="F254" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="G254" s="97"/>
-      <c r="H254" s="118"/>
-      <c r="I254" s="117" t="s">
+      <c r="G254" s="109"/>
+      <c r="H254" s="130"/>
+      <c r="I254" s="129" t="s">
         <v>9</v>
       </c>
-      <c r="J254" s="97"/>
-      <c r="K254" s="98"/>
+      <c r="J254" s="109"/>
+      <c r="K254" s="110"/>
     </row>
     <row r="255" spans="1:11" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A255" s="18">
         <v>14</v>
       </c>
-      <c r="B255" s="117" t="s">
+      <c r="B255" s="129" t="s">
         <v>152</v>
       </c>
-      <c r="C255" s="118"/>
-      <c r="D255" s="119" t="s">
+      <c r="C255" s="130"/>
+      <c r="D255" s="131" t="s">
         <v>153</v>
       </c>
-      <c r="E255" s="120"/>
-      <c r="F255" s="117" t="s">
+      <c r="E255" s="132"/>
+      <c r="F255" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="G255" s="97"/>
-      <c r="H255" s="118"/>
-      <c r="I255" s="117" t="s">
+      <c r="G255" s="109"/>
+      <c r="H255" s="130"/>
+      <c r="I255" s="129" t="s">
         <v>9</v>
       </c>
-      <c r="J255" s="97"/>
-      <c r="K255" s="98"/>
+      <c r="J255" s="109"/>
+      <c r="K255" s="110"/>
     </row>
     <row r="256" spans="1:11" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A256" s="18">
         <v>15</v>
       </c>
-      <c r="B256" s="117" t="s">
+      <c r="B256" s="129" t="s">
         <v>154</v>
       </c>
-      <c r="C256" s="118"/>
-      <c r="D256" s="119" t="s">
+      <c r="C256" s="130"/>
+      <c r="D256" s="131" t="s">
         <v>155</v>
       </c>
-      <c r="E256" s="120"/>
-      <c r="F256" s="117" t="s">
+      <c r="E256" s="132"/>
+      <c r="F256" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="G256" s="97"/>
-      <c r="H256" s="118"/>
-      <c r="I256" s="117" t="s">
+      <c r="G256" s="109"/>
+      <c r="H256" s="130"/>
+      <c r="I256" s="129" t="s">
         <v>9</v>
       </c>
-      <c r="J256" s="97"/>
-      <c r="K256" s="98"/>
+      <c r="J256" s="109"/>
+      <c r="K256" s="110"/>
     </row>
   </sheetData>
   <mergeCells count="510">
@@ -6738,6 +6748,7 @@
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="F27:K27"/>
+    <mergeCell ref="F28:G28"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="F17:H18"/>
@@ -6773,7 +6784,6 @@
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F28:G28"/>
     <mergeCell ref="H28:I28"/>
     <mergeCell ref="J28:K28"/>
     <mergeCell ref="A42:A43"/>
